--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{332E158C-80CE-47A0-BD09-D976D0D87F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E09FA7-6FF3-4E58-A5D2-99A9E97A046C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>Golden -9.5</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
@@ -207,12 +204,15 @@
   </si>
   <si>
     <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>New Orleans -9.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1046,11 +1046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1298,16 +1298,16 @@
         <v>-9.5</v>
       </c>
       <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
         <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
       </c>
       <c r="E8">
         <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8">
         <v>101</v>
@@ -1330,16 +1330,16 @@
         <v>-5</v>
       </c>
       <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
         <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
       </c>
       <c r="E9">
         <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9">
         <v>115</v>
@@ -1362,16 +1362,16 @@
         <v>-2</v>
       </c>
       <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
       </c>
       <c r="E10">
         <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>113</v>
@@ -1392,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E09FA7-6FF3-4E58-A5D2-99A9E97A046C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3C60A3-1981-4FD1-9499-7D8DBE478F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +207,48 @@
   </si>
   <si>
     <t>New Orleans -9.5</t>
+  </si>
+  <si>
+    <t>Detroit +1</t>
+  </si>
+  <si>
+    <t>Orlando -2</t>
+  </si>
+  <si>
+    <t>Washington +5</t>
+  </si>
+  <si>
+    <t>Milwaukee +1</t>
+  </si>
+  <si>
+    <t>Toronto -1</t>
+  </si>
+  <si>
+    <t>Golden State +5</t>
+  </si>
+  <si>
+    <t>Sacramento +3</t>
+  </si>
+  <si>
+    <t>Portland  -6</t>
+  </si>
+  <si>
+    <t>Minnesota -5</t>
+  </si>
+  <si>
+    <t>Washington -2</t>
+  </si>
+  <si>
+    <t>Milwaukee -4</t>
+  </si>
+  <si>
+    <t>Toronto -5.5</t>
+  </si>
+  <si>
+    <t>Golden State -9.5</t>
+  </si>
+  <si>
+    <t>Sacramento -2</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1099,11 +1141,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -1131,11 +1173,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>-2</v>
-      </c>
-      <c r="B3">
-        <v>3.5</v>
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -1163,11 +1205,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>-2</v>
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -1195,11 +1237,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>-4</v>
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -1227,11 +1269,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>-1</v>
-      </c>
-      <c r="B6">
-        <v>-5.5</v>
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -1259,11 +1301,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>-5</v>
-      </c>
-      <c r="B7">
-        <v>2.5</v>
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
@@ -1291,11 +1333,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>-9.5</v>
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
@@ -1323,11 +1365,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>-6</v>
-      </c>
-      <c r="B9">
-        <v>-5</v>
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
@@ -1355,11 +1397,11 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-2</v>
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3C60A3-1981-4FD1-9499-7D8DBE478F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38C15BA-E537-44E9-A651-C7D68921FF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
     <sheet name="Archive" sheetId="2" r:id="rId2"/>
+    <sheet name="WL Record" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -77,9 +89,6 @@
     <t>Total Win/Loss</t>
   </si>
   <si>
-    <t>November 4th, 2021</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
@@ -131,51 +140,33 @@
     <t>Spread Prediction</t>
   </si>
   <si>
-    <t>Detroit +10</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
-    <t>Orlando +3.5</t>
-  </si>
-  <si>
     <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>Memphis +2</t>
-  </si>
-  <si>
     <t>Memphis Grizzlies</t>
   </si>
   <si>
     <t>Washington Wizards</t>
   </si>
   <si>
-    <t>New York +4</t>
-  </si>
-  <si>
     <t>New York Knicks</t>
   </si>
   <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
-    <t>Cleveland +5.5</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
-    <t>Minnesota +2.5</t>
-  </si>
-  <si>
     <t>Los Angeles Clippers</t>
   </si>
   <si>
@@ -188,27 +179,18 @@
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Portland -5</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Portland Trail Blazers</t>
   </si>
   <si>
-    <t>Charlotte +2</t>
-  </si>
-  <si>
     <t>Charlotte Hornets</t>
   </si>
   <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>New Orleans -9.5</t>
-  </si>
-  <si>
     <t>Detroit +1</t>
   </si>
   <si>
@@ -236,19 +218,52 @@
     <t>Minnesota -5</t>
   </si>
   <si>
-    <t>Washington -2</t>
-  </si>
-  <si>
-    <t>Milwaukee -4</t>
-  </si>
-  <si>
-    <t>Toronto -5.5</t>
-  </si>
-  <si>
-    <t>Golden State -9.5</t>
-  </si>
-  <si>
-    <t>Sacramento -2</t>
+    <t>Spread Win</t>
+  </si>
+  <si>
+    <t>Spread Loss</t>
+  </si>
+  <si>
+    <t>Over Win</t>
+  </si>
+  <si>
+    <t>Over Loss</t>
+  </si>
+  <si>
+    <t>NO PLAY</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Spread Win %</t>
+  </si>
+  <si>
+    <t>O/U %</t>
+  </si>
+  <si>
+    <t>Houston +10.5</t>
+  </si>
+  <si>
+    <t>Utah +3.5</t>
+  </si>
+  <si>
+    <t>Philadelphia -3.5</t>
+  </si>
+  <si>
+    <t>Boston +4.5</t>
+  </si>
+  <si>
+    <t>Atlanta +4.5</t>
+  </si>
+  <si>
+    <t>Portland -4.5</t>
   </si>
 </sst>
 </file>
@@ -391,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,8 +586,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -687,6 +714,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -732,8 +796,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1089,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1108,7 +1184,7 @@
     <col min="10" max="10" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -1140,292 +1216,229 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>-10.5</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I2">
-        <v>210.5</v>
-      </c>
-      <c r="J2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>-3.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
       <c r="E3">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H3">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I3">
         <v>213.5</v>
       </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>207</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>-3.5</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="G4">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H4">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I4">
-        <v>220.5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+      <c r="J4">
+        <v>215</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>-4.5</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G5">
+        <v>103</v>
+      </c>
+      <c r="H5">
+        <v>204</v>
+      </c>
+      <c r="I5">
+        <v>215.5</v>
+      </c>
+      <c r="J5">
+        <v>204</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>-4.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
         <v>110</v>
       </c>
-      <c r="H5">
-        <v>221</v>
-      </c>
-      <c r="I5">
-        <v>217</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6">
+        <v>219</v>
+      </c>
+      <c r="I6">
+        <v>224.5</v>
+      </c>
+      <c r="J6">
+        <v>219</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>-4.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G6">
-        <v>102</v>
-      </c>
-      <c r="H6">
-        <v>203</v>
-      </c>
-      <c r="I6">
-        <v>204.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
       <c r="G7">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H7">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="I7">
-        <v>216.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>219.5</v>
+      </c>
+      <c r="J7">
+        <v>224</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8">
-        <v>106</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8">
-        <v>101</v>
-      </c>
-      <c r="H8">
-        <v>207</v>
-      </c>
-      <c r="I8">
-        <v>214.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9">
-        <v>109</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9">
-        <v>115</v>
-      </c>
-      <c r="H9">
-        <v>224</v>
-      </c>
-      <c r="I9">
-        <v>234.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10">
-        <v>116</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>113</v>
-      </c>
-      <c r="H10">
-        <v>229</v>
-      </c>
-      <c r="I10">
-        <v>223</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1435,15 +1448,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -1503,283 +1517,1584 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6">
+        <v>104</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="6">
+        <v>107</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:F12" si="0">SUM(J2 - L2)</f>
+        <v>8</v>
+      </c>
+      <c r="G2" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="6">
+        <v>112</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="6">
+        <v>104</v>
+      </c>
+      <c r="M2" s="6">
+        <f t="shared" ref="M2:M12" si="1">SUM(J2+L2)</f>
+        <v>216</v>
+      </c>
+      <c r="N2" s="6">
+        <v>216.5</v>
+      </c>
+      <c r="O2" s="6">
+        <f t="shared" ref="O2:O12" si="2">SUM(C2+E2)</f>
+        <v>211</v>
+      </c>
+      <c r="P2" s="7" t="str">
+        <f t="shared" ref="P2:P12" si="3">IF(M2&lt;N2,"UNDER","OVER")</f>
+        <v>UNDER</v>
+      </c>
+      <c r="Q2" s="6" t="str">
+        <f t="shared" ref="Q2:Q12" si="4">IF(O2&lt;N2,"UNDER","OVER")</f>
+        <v>UNDER</v>
+      </c>
+      <c r="R2" s="9" t="str">
+        <f t="shared" ref="R2:R12" si="5">IF(P2=Q2,"WIN","LOSS")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6">
+        <v>98</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="6">
+        <v>111</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="6">
+        <v>112</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="6">
+        <v>112</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="N3" s="6">
+        <v>216</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="P3" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q3" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R3" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6">
+        <v>92</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="6">
+        <v>79</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>7</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="6">
+        <v>108</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="6">
+        <v>111</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="N4" s="6">
+        <v>213</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="P4" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q4" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R4" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="6">
+        <v>98</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E5" s="6">
+        <v>103</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-2.5</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="6">
+        <v>102</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="6">
+        <v>114</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="N5" s="6">
+        <v>215.5</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="P5" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q5" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R5" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6">
+        <v>109</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-3.5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="6">
+        <v>98</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="6">
+        <v>108</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="N6" s="6">
+        <v>212</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="P6" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q6" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R6" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6">
+        <v>108</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6">
+        <v>117</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-4.5</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="6">
+        <v>108</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="6">
+        <v>102</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="N7" s="6">
+        <v>222</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="P7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q7" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OVER</v>
+      </c>
+      <c r="R7" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="6">
+        <v>106</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="6">
+        <v>108</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>-27</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="6">
+        <v>90</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="6">
+        <v>117</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="N8" s="6">
+        <v>215</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="2"/>
+        <v>214</v>
+      </c>
+      <c r="P8" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q8" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R8" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6">
+        <v>126</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6">
+        <v>115</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="6">
+        <v>95</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="6">
+        <v>100</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="N9" s="6">
+        <v>212.5</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="P9" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q9" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>OVER</v>
+      </c>
+      <c r="R9" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="6">
+        <v>109</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="6">
+        <v>108</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="6">
+        <v>99</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="6">
+        <v>109</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="N10" s="6">
+        <v>217.5</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="P10" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q10" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R10" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6">
+        <v>92</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6">
+        <v>114</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-6</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="6">
+        <v>119</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="6">
+        <v>102</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="N11" s="6">
+        <v>226.5</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="P11" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q11" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R11" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>44503</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6">
+        <v>99</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="6">
+        <v>112</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-6</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="6">
+        <v>106</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="6">
+        <v>114</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="N12" s="6">
+        <v>219</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="2"/>
+        <v>211</v>
+      </c>
+      <c r="P12" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q12" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R12" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>44504</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
         <v>19</v>
       </c>
+      <c r="E13">
+        <v>98</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>-5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13">
+        <v>98</v>
+      </c>
+      <c r="M13">
+        <v>207</v>
+      </c>
+      <c r="N13">
+        <v>208</v>
+      </c>
+      <c r="O13">
+        <v>207</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>44504</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>98</v>
+      </c>
+      <c r="F14">
+        <v>-2</v>
+      </c>
+      <c r="G14">
+        <v>-6.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>104</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14">
+        <v>106</v>
+      </c>
+      <c r="M14">
+        <v>210</v>
+      </c>
+      <c r="N14">
+        <v>214.5</v>
+      </c>
+      <c r="O14">
+        <v>214</v>
+      </c>
+      <c r="P14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>44504</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>78</v>
+      </c>
+      <c r="F15">
+        <v>-9</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>103</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15">
+        <v>112</v>
+      </c>
+      <c r="M15">
+        <v>215</v>
+      </c>
+      <c r="N15">
+        <v>219.5</v>
+      </c>
+      <c r="O15">
+        <v>173</v>
+      </c>
+      <c r="P15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>44504</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>123</v>
+      </c>
+      <c r="F16">
+        <v>-7</v>
+      </c>
+      <c r="G16">
+        <v>-10.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16">
+        <v>108</v>
+      </c>
+      <c r="M16">
+        <v>209</v>
+      </c>
+      <c r="N16">
+        <v>218</v>
+      </c>
+      <c r="O16">
+        <v>234</v>
+      </c>
+      <c r="P16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>44504</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>104</v>
+      </c>
+      <c r="F17">
+        <v>-15</v>
+      </c>
+      <c r="G17">
+        <v>-10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>98</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17">
+        <v>113</v>
+      </c>
+      <c r="M17">
+        <v>211</v>
+      </c>
+      <c r="N17">
+        <v>214</v>
+      </c>
+      <c r="O17">
+        <v>211</v>
+      </c>
+      <c r="P17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>96</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" ref="F18:F26" si="6">SUM(J18 - L18)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="2">
+        <v>101</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="2">
+        <v>100</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" ref="M18:M26" si="7">SUM(J18+L18)</f>
+        <v>201</v>
+      </c>
+      <c r="N18" s="2">
+        <v>210.5</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" ref="O18:O26" si="8">SUM(C18+E18)</f>
+        <v>186</v>
+      </c>
+      <c r="P18" s="3" t="str">
+        <f t="shared" ref="P18:P26" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
+        <v>UNDER</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f t="shared" ref="Q18:Q26" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
+        <v>UNDER</v>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f t="shared" ref="R18:R26" si="11">IF(P18=Q18,"WIN","LOSS")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2">
+        <v>102</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="2">
+        <v>105</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="2">
+        <v>107</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="7"/>
+        <v>212</v>
+      </c>
+      <c r="N19" s="2">
+        <v>213.5</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="8"/>
+        <v>191</v>
+      </c>
+      <c r="P19" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2">
+        <v>87</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2">
+        <v>115</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-2</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="2">
+        <v>113</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="2">
+        <v>108</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="7"/>
+        <v>221</v>
+      </c>
+      <c r="N20" s="2">
+        <v>220.5</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="8"/>
+        <v>202</v>
+      </c>
+      <c r="P20" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2">
+        <v>113</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2">
+        <v>98</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-4</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="2">
+        <v>111</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="2">
+        <v>110</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="7"/>
+        <v>221</v>
+      </c>
+      <c r="N21" s="2">
+        <v>217</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="8"/>
+        <v>211</v>
+      </c>
+      <c r="P21" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R21" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2">
+        <v>102</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2">
+        <v>101</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-5.5</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="2">
+        <v>101</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="2">
+        <v>102</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="7"/>
+        <v>203</v>
+      </c>
+      <c r="N22" s="2">
+        <v>204.5</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="8"/>
+        <v>203</v>
+      </c>
+      <c r="P22" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R22" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2">
+        <v>104</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2">
+        <v>84</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="2">
+        <v>100</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="2">
+        <v>105</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="7"/>
+        <v>205</v>
+      </c>
+      <c r="N23" s="2">
+        <v>216.5</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="8"/>
+        <v>188</v>
+      </c>
+      <c r="P23" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R23" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2">
+        <v>85</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2">
+        <v>126</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-9.5</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="2">
+        <v>106</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="2">
+        <v>101</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="N24" s="2">
+        <v>214.5</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="8"/>
+        <v>211</v>
+      </c>
+      <c r="P24" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2">
+        <v>106</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2">
+        <v>110</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="2">
+        <v>109</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="2">
+        <v>115</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="7"/>
+        <v>224</v>
+      </c>
+      <c r="N25" s="2">
+        <v>234.5</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="8"/>
+        <v>216</v>
+      </c>
+      <c r="P25" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2">
+        <v>110</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2">
+        <v>140</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-2</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="2">
+        <v>116</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="2">
+        <v>113</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="7"/>
+        <v>229</v>
+      </c>
+      <c r="N26" s="2">
+        <v>223</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="P26" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="3" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f>COUNTIF(Archive!$H2:H111,"WIN")</f>
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
+        <v>14</v>
+      </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
+        <f>ROUND(SUM(A2/(A2+B2)),3)</f>
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>98</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>-5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2">
-        <v>109</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>98</v>
-      </c>
-      <c r="M2">
-        <v>207</v>
-      </c>
-      <c r="N2">
-        <v>208</v>
-      </c>
-      <c r="O2">
-        <v>207</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>98</v>
-      </c>
-      <c r="F3">
-        <v>-2</v>
-      </c>
-      <c r="G3">
-        <v>-6.5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3">
-        <v>104</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3">
-        <v>106</v>
-      </c>
-      <c r="M3">
-        <v>210</v>
-      </c>
-      <c r="N3">
-        <v>214.5</v>
-      </c>
-      <c r="O3">
-        <v>214</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>78</v>
-      </c>
-      <c r="F4">
-        <v>-9</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4">
-        <v>112</v>
-      </c>
-      <c r="M4">
-        <v>215</v>
-      </c>
-      <c r="N4">
-        <v>219.5</v>
-      </c>
-      <c r="O4">
-        <v>173</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>123</v>
-      </c>
-      <c r="F5">
-        <v>-7</v>
-      </c>
-      <c r="G5">
-        <v>-10.5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5">
-        <v>101</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5">
-        <v>108</v>
-      </c>
-      <c r="M5">
-        <v>209</v>
-      </c>
-      <c r="N5">
-        <v>218</v>
-      </c>
-      <c r="O5">
-        <v>234</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>104</v>
-      </c>
-      <c r="F6">
-        <v>-15</v>
-      </c>
-      <c r="G6">
-        <v>-10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6">
-        <v>113</v>
-      </c>
-      <c r="M6">
-        <v>211</v>
-      </c>
-      <c r="N6">
-        <v>214</v>
-      </c>
-      <c r="O6">
-        <v>211</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" t="s">
-        <v>21</v>
+        <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38C15BA-E537-44E9-A651-C7D68921FF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E53E8E-ACF9-451E-BF09-65F1C44F188C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3045,7 +3045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E53E8E-ACF9-451E-BF09-65F1C44F188C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88F464B-FAF8-4520-B60B-127894EC4B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -191,33 +191,6 @@
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>Detroit +1</t>
-  </si>
-  <si>
-    <t>Orlando -2</t>
-  </si>
-  <si>
-    <t>Washington +5</t>
-  </si>
-  <si>
-    <t>Milwaukee +1</t>
-  </si>
-  <si>
-    <t>Toronto -1</t>
-  </si>
-  <si>
-    <t>Golden State +5</t>
-  </si>
-  <si>
-    <t>Sacramento +3</t>
-  </si>
-  <si>
-    <t>Portland  -6</t>
-  </si>
-  <si>
-    <t>Minnesota -5</t>
-  </si>
-  <si>
     <t>Spread Win</t>
   </si>
   <si>
@@ -264,6 +237,24 @@
   </si>
   <si>
     <t>Portland -4.5</t>
+  </si>
+  <si>
+    <t>O/U</t>
+  </si>
+  <si>
+    <t>Denver -10.5</t>
+  </si>
+  <si>
+    <t>Miami -3.5</t>
+  </si>
+  <si>
+    <t>Chicago -3.5</t>
+  </si>
+  <si>
+    <t>Dallas -4.5</t>
+  </si>
+  <si>
+    <t>Phoenix -4.5</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1184,261 +1175,228 @@
     <col min="10" max="10" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2">
-        <v>-10.5</v>
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2">
+        <v>96</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2">
+        <v>219</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>103</v>
+      </c>
+      <c r="G3">
+        <v>207</v>
+      </c>
+      <c r="H3">
+        <v>213.5</v>
+      </c>
+      <c r="I3">
+        <v>207</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4">
+        <v>105</v>
+      </c>
+      <c r="G4">
+        <v>215</v>
+      </c>
+      <c r="H4">
+        <v>211</v>
+      </c>
+      <c r="I4">
+        <v>215</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <v>103</v>
+      </c>
+      <c r="G5">
+        <v>204</v>
+      </c>
+      <c r="H5">
+        <v>215.5</v>
+      </c>
+      <c r="I5">
+        <v>204</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>110</v>
+      </c>
+      <c r="G6">
+        <v>219</v>
+      </c>
+      <c r="H6">
+        <v>224.5</v>
+      </c>
+      <c r="I6">
+        <v>219</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="G2">
-        <v>96</v>
-      </c>
-      <c r="H2">
-        <v>200</v>
-      </c>
-      <c r="I2">
-        <v>219</v>
-      </c>
-      <c r="J2">
-        <v>200</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3">
-        <v>-3.5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3">
-        <v>103</v>
-      </c>
-      <c r="H3">
-        <v>207</v>
-      </c>
-      <c r="I3">
-        <v>213.5</v>
-      </c>
-      <c r="J3">
-        <v>207</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4">
-        <v>-3.5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>110</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4">
-        <v>105</v>
-      </c>
-      <c r="H4">
-        <v>215</v>
-      </c>
-      <c r="I4">
-        <v>211</v>
-      </c>
-      <c r="J4">
-        <v>215</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7">
+        <v>115</v>
+      </c>
+      <c r="G7">
+        <v>224</v>
+      </c>
+      <c r="H7">
+        <v>219.5</v>
+      </c>
+      <c r="I7">
+        <v>224</v>
+      </c>
+      <c r="J7" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>-4.5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>101</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5">
-        <v>103</v>
-      </c>
-      <c r="H5">
-        <v>204</v>
-      </c>
-      <c r="I5">
-        <v>215.5</v>
-      </c>
-      <c r="J5">
-        <v>204</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>-4.5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>109</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
-        <v>110</v>
-      </c>
-      <c r="H6">
-        <v>219</v>
-      </c>
-      <c r="I6">
-        <v>224.5</v>
-      </c>
-      <c r="J6">
-        <v>219</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>-4.5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>109</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7">
-        <v>115</v>
-      </c>
-      <c r="H7">
-        <v>224</v>
-      </c>
-      <c r="I7">
-        <v>219.5</v>
-      </c>
-      <c r="J7">
-        <v>224</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1498,7 @@
         <v>5.5</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>49</v>
@@ -1602,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>40</v>
@@ -1707,7 +1665,7 @@
         <v>44503</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6">
         <v>98</v>
@@ -1729,7 +1687,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J5" s="6">
         <v>102</v>
@@ -1893,7 +1851,7 @@
         <v>44503</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6">
         <v>106</v>
@@ -1915,7 +1873,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J8" s="6">
         <v>90</v>
@@ -2017,7 +1975,7 @@
         <v>44503</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6">
         <v>109</v>
@@ -2039,7 +1997,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J10" s="6">
         <v>99</v>
@@ -3046,7 +3004,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3057,22 +3015,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88F464B-FAF8-4520-B60B-127894EC4B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D110B663-AA21-497A-A3A1-63936F295706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>Spread Prediction</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>Portland -4.5</t>
   </si>
   <si>
-    <t>O/U</t>
-  </si>
-  <si>
     <t>Denver -10.5</t>
   </si>
   <si>
@@ -255,6 +249,12 @@
   </si>
   <si>
     <t>Phoenix -4.5</t>
+  </si>
+  <si>
+    <t>My Bets</t>
+  </si>
+  <si>
+    <t>My O/U Bets</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -1204,15 +1204,15 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -1221,7 +1221,7 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>96</v>
@@ -1241,10 +1241,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -1285,7 +1285,7 @@
         <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>105</v>
@@ -1305,10 +1305,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -1317,7 +1317,7 @@
         <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>103</v>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1381,7 +1381,7 @@
         <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>115</v>
@@ -1479,13 +1479,13 @@
         <v>44503</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6">
         <v>104</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6">
         <v>107</v>
@@ -1498,16 +1498,16 @@
         <v>5.5</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="6">
         <v>112</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="6">
         <v>104</v>
@@ -1541,13 +1541,13 @@
         <v>44503</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6">
         <v>98</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6">
         <v>111</v>
@@ -1560,16 +1560,16 @@
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="6">
         <v>112</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="6">
         <v>112</v>
@@ -1609,7 +1609,7 @@
         <v>92</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6">
         <v>79</v>
@@ -1631,7 +1631,7 @@
         <v>108</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="6">
         <v>111</v>
@@ -1665,7 +1665,7 @@
         <v>44503</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6">
         <v>98</v>
@@ -1687,7 +1687,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" s="6">
         <v>102</v>
@@ -1727,13 +1727,13 @@
         <v>44503</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6">
         <v>109</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="6">
         <v>100</v>
@@ -1749,13 +1749,13 @@
         <v>27</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="6">
         <v>98</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="6">
         <v>108</v>
@@ -1795,7 +1795,7 @@
         <v>108</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="6">
         <v>117</v>
@@ -1817,7 +1817,7 @@
         <v>108</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="6">
         <v>102</v>
@@ -1851,13 +1851,13 @@
         <v>44503</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6">
         <v>106</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6">
         <v>108</v>
@@ -1873,13 +1873,13 @@
         <v>20</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="6">
         <v>90</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" s="6">
         <v>117</v>
@@ -1913,13 +1913,13 @@
         <v>44503</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6">
         <v>126</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6">
         <v>115</v>
@@ -1935,13 +1935,13 @@
         <v>27</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="6">
         <v>95</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="6">
         <v>100</v>
@@ -1975,13 +1975,13 @@
         <v>44503</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6">
         <v>109</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6">
         <v>108</v>
@@ -1997,13 +1997,13 @@
         <v>20</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="6">
         <v>99</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="6">
         <v>109</v>
@@ -2037,13 +2037,13 @@
         <v>44503</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6">
         <v>92</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6">
         <v>114</v>
@@ -2059,13 +2059,13 @@
         <v>27</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" s="6">
         <v>119</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" s="6">
         <v>102</v>
@@ -2099,13 +2099,13 @@
         <v>44503</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6">
         <v>99</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="6">
         <v>112</v>
@@ -2121,13 +2121,13 @@
         <v>20</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="6">
         <v>106</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L12" s="6">
         <v>114</v>
@@ -2441,7 +2441,7 @@
         <v>44505</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2">
         <v>96</v>
@@ -2463,7 +2463,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" s="2">
         <v>101</v>
@@ -2503,13 +2503,13 @@
         <v>44505</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2">
         <v>102</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2">
         <v>89</v>
@@ -2525,13 +2525,13 @@
         <v>27</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2">
         <v>105</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19" s="2">
         <v>107</v>
@@ -2565,13 +2565,13 @@
         <v>44505</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2">
         <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2">
         <v>115</v>
@@ -2587,13 +2587,13 @@
         <v>27</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" s="2">
         <v>113</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L20" s="2">
         <v>108</v>
@@ -2627,13 +2627,13 @@
         <v>44505</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2">
         <v>113</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2">
         <v>98</v>
@@ -2649,13 +2649,13 @@
         <v>20</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" s="2">
         <v>111</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L21" s="2">
         <v>110</v>
@@ -2689,13 +2689,13 @@
         <v>44505</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2">
         <v>102</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2">
         <v>101</v>
@@ -2711,13 +2711,13 @@
         <v>20</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22" s="2">
         <v>101</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L22" s="2">
         <v>102</v>
@@ -2751,13 +2751,13 @@
         <v>44505</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2">
         <v>104</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2">
         <v>84</v>
@@ -2773,13 +2773,13 @@
         <v>27</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J23" s="2">
         <v>100</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L23" s="2">
         <v>105</v>
@@ -2813,13 +2813,13 @@
         <v>44505</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2">
         <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2">
         <v>126</v>
@@ -2835,13 +2835,13 @@
         <v>27</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24" s="2">
         <v>106</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L24" s="2">
         <v>101</v>
@@ -2875,13 +2875,13 @@
         <v>44505</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2">
         <v>106</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2">
         <v>110</v>
@@ -2897,13 +2897,13 @@
         <v>27</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25" s="2">
         <v>109</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L25" s="2">
         <v>115</v>
@@ -2937,13 +2937,13 @@
         <v>44505</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2">
         <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2">
         <v>140</v>
@@ -2959,13 +2959,13 @@
         <v>27</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26" s="2">
         <v>116</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L26" s="2">
         <v>113</v>
@@ -3015,22 +3015,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D110B663-AA21-497A-A3A1-63936F295706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03206A11-8433-46EC-AA85-EF4CEE022525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -218,43 +218,37 @@
     <t>O/U %</t>
   </si>
   <si>
-    <t>Houston +10.5</t>
-  </si>
-  <si>
-    <t>Utah +3.5</t>
-  </si>
-  <si>
-    <t>Philadelphia -3.5</t>
-  </si>
-  <si>
-    <t>Boston +4.5</t>
-  </si>
-  <si>
-    <t>Atlanta +4.5</t>
-  </si>
-  <si>
-    <t>Portland -4.5</t>
-  </si>
-  <si>
-    <t>Denver -10.5</t>
-  </si>
-  <si>
-    <t>Miami -3.5</t>
-  </si>
-  <si>
-    <t>Chicago -3.5</t>
-  </si>
-  <si>
-    <t>Dallas -4.5</t>
-  </si>
-  <si>
-    <t>Phoenix -4.5</t>
-  </si>
-  <si>
     <t>My Bets</t>
   </si>
   <si>
     <t>My O/U Bets</t>
+  </si>
+  <si>
+    <t>Vegas Line(Home)</t>
+  </si>
+  <si>
+    <t>Toronto +4</t>
+  </si>
+  <si>
+    <t>Orlando +13</t>
+  </si>
+  <si>
+    <t>Washington +3</t>
+  </si>
+  <si>
+    <t>Oklahoma City +4</t>
+  </si>
+  <si>
+    <t>New York -7.5</t>
+  </si>
+  <si>
+    <t>Sacramento -1.5</t>
+  </si>
+  <si>
+    <t>Houston +10</t>
+  </si>
+  <si>
+    <t>Charlotte +5</t>
   </si>
 </sst>
 </file>
@@ -787,7 +781,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -801,6 +795,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1156,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1168,19 +1166,19 @@
     <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="19.26953125" customWidth="1"/>
     <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
     <col min="6" max="6" width="17.36328125" customWidth="1"/>
     <col min="7" max="7" width="16.26953125" customWidth="1"/>
-    <col min="8" max="9" width="15.36328125" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -1201,202 +1199,239 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H2">
-        <v>219</v>
-      </c>
-      <c r="I2">
-        <v>200</v>
-      </c>
-      <c r="J2" t="s">
+        <v>209.5</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-7.5</v>
+      </c>
+      <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>114</v>
+      </c>
+      <c r="G3">
+        <v>216</v>
+      </c>
+      <c r="H3">
+        <v>209.5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D3">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>103</v>
-      </c>
-      <c r="G3">
-        <v>207</v>
-      </c>
-      <c r="H3">
-        <v>213.5</v>
-      </c>
-      <c r="I3">
-        <v>207</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>105</v>
       </c>
       <c r="G4">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H4">
-        <v>211</v>
-      </c>
-      <c r="I4">
-        <v>215</v>
-      </c>
-      <c r="J4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-1.5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>117</v>
+      </c>
+      <c r="G5">
+        <v>226</v>
+      </c>
+      <c r="H5">
+        <v>223</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>107</v>
+      </c>
+      <c r="G6">
+        <v>214</v>
+      </c>
+      <c r="H6">
+        <v>221.5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>102</v>
+      </c>
+      <c r="G7">
+        <v>205</v>
+      </c>
+      <c r="H7">
+        <v>211.5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5">
-        <v>103</v>
-      </c>
-      <c r="G5">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8">
+        <v>102</v>
+      </c>
+      <c r="G8">
         <v>204</v>
       </c>
-      <c r="H5">
-        <v>215.5</v>
-      </c>
-      <c r="I5">
-        <v>204</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="H8">
+        <v>220</v>
+      </c>
+      <c r="I8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-5</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6">
-        <v>110</v>
-      </c>
-      <c r="G6">
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
         <v>219</v>
       </c>
-      <c r="H6">
-        <v>224.5</v>
-      </c>
-      <c r="I6">
-        <v>219</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H9">
+        <v>222.5</v>
+      </c>
+      <c r="I9" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7">
-        <v>109</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7">
-        <v>115</v>
-      </c>
-      <c r="G7">
-        <v>224</v>
-      </c>
-      <c r="H7">
-        <v>219.5</v>
-      </c>
-      <c r="I7">
-        <v>224</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1406,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A27" sqref="A27:R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2453,7 +2488,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ref="F18:F26" si="6">SUM(J18 - L18)</f>
+        <f t="shared" ref="F18:F32" si="6">SUM(J18 - L18)</f>
         <v>1</v>
       </c>
       <c r="G18" s="2">
@@ -2475,26 +2510,26 @@
         <v>100</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" ref="M18:M26" si="7">SUM(J18+L18)</f>
+        <f t="shared" ref="M18:M32" si="7">SUM(J18+L18)</f>
         <v>201</v>
       </c>
       <c r="N18" s="2">
         <v>210.5</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" ref="O18:O26" si="8">SUM(C18+E18)</f>
+        <f t="shared" ref="O18:O32" si="8">SUM(C18+E18)</f>
         <v>186</v>
       </c>
       <c r="P18" s="3" t="str">
-        <f t="shared" ref="P18:P26" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="P18:P32" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="Q18" s="2" t="str">
-        <f t="shared" ref="Q18:Q26" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="Q18:Q32" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f t="shared" ref="R18:R26" si="11">IF(P18=Q18,"WIN","LOSS")</f>
+        <f t="shared" ref="R18:R32" si="11">IF(P18=Q18,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -2992,6 +3027,378 @@
       <c r="R26" s="2" t="str">
         <f t="shared" si="11"/>
         <v>WIN</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>44506</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="12">
+        <v>94</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="12">
+        <v>95</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="G27" s="12">
+        <v>-10.5</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="12">
+        <v>104</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="12">
+        <v>96</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="N27" s="12">
+        <v>219</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="8"/>
+        <v>189</v>
+      </c>
+      <c r="P27" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q27" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R27" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>44506</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="12">
+        <v>115</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="12">
+        <v>118</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="12">
+        <v>-3.5</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="12">
+        <v>104</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="12">
+        <v>103</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="N28" s="12">
+        <v>213.5</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="8"/>
+        <v>233</v>
+      </c>
+      <c r="P28" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q28" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R28" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>44506</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="12">
+        <v>114</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="12">
+        <v>105</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G29" s="12">
+        <v>-3.5</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="12">
+        <v>110</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="12">
+        <v>105</v>
+      </c>
+      <c r="M29" s="12">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+      <c r="N29" s="12">
+        <v>211</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="8"/>
+        <v>219</v>
+      </c>
+      <c r="P29" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q29" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R29" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>44506</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="12">
+        <v>104</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="12">
+        <v>107</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="G30" s="12">
+        <v>-4.5</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="12">
+        <v>101</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="12">
+        <v>103</v>
+      </c>
+      <c r="M30" s="12">
+        <f t="shared" si="7"/>
+        <v>204</v>
+      </c>
+      <c r="N30" s="12">
+        <v>215.5</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="8"/>
+        <v>211</v>
+      </c>
+      <c r="P30" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q30" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R30" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>44506</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="12">
+        <v>117</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="12">
+        <v>121</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="G31" s="12">
+        <v>-4.5</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="12">
+        <v>109</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="12">
+        <v>110</v>
+      </c>
+      <c r="M31" s="12">
+        <f t="shared" si="7"/>
+        <v>219</v>
+      </c>
+      <c r="N31" s="12">
+        <v>224.5</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="8"/>
+        <v>238</v>
+      </c>
+      <c r="P31" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q31" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R31" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>44506</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="12">
+        <v>90</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="12">
+        <v>105</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="G32" s="12">
+        <v>-4.5</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="12">
+        <v>109</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="12">
+        <v>115</v>
+      </c>
+      <c r="M32" s="12">
+        <f t="shared" si="7"/>
+        <v>224</v>
+      </c>
+      <c r="N32" s="12">
+        <v>219.5</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="8"/>
+        <v>195</v>
+      </c>
+      <c r="P32" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q32" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
       </c>
     </row>
   </sheetData>
@@ -3003,7 +3410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -3036,7 +3443,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H111,"WIN")</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
@@ -3044,15 +3451,15 @@
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.39100000000000001</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03206A11-8433-46EC-AA85-EF4CEE022525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A08654-28A9-4244-8538-DCB8E42ACFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -227,28 +227,28 @@
     <t>Vegas Line(Home)</t>
   </si>
   <si>
-    <t>Toronto +4</t>
-  </si>
-  <si>
-    <t>Orlando +13</t>
-  </si>
-  <si>
-    <t>Washington +3</t>
-  </si>
-  <si>
-    <t>Oklahoma City +4</t>
-  </si>
-  <si>
-    <t>New York -7.5</t>
-  </si>
-  <si>
-    <t>Sacramento -1.5</t>
-  </si>
-  <si>
-    <t>Houston +10</t>
-  </si>
-  <si>
-    <t>Charlotte +5</t>
+    <t>New York +4.5</t>
+  </si>
+  <si>
+    <t>New Orleans +9</t>
+  </si>
+  <si>
+    <t>Atlanta +3.5</t>
+  </si>
+  <si>
+    <t>Charlotte +2.5</t>
+  </si>
+  <si>
+    <t>Chicago -2</t>
+  </si>
+  <si>
+    <t>Memphis -2</t>
+  </si>
+  <si>
+    <t>Miami -2</t>
+  </si>
+  <si>
+    <t>Sacramento +2.5</t>
   </si>
 </sst>
 </file>
@@ -1156,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1204,144 +1204,144 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>4</v>
+        <v>-4.5</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G2">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="H2">
-        <v>209.5</v>
+        <v>210.5</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-7.5</v>
+        <v>-2</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G3">
+        <v>208</v>
+      </c>
+      <c r="H3">
         <v>216</v>
       </c>
-      <c r="H3">
-        <v>209.5</v>
-      </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>13</v>
+        <v>-6</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G4">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H4">
-        <v>212</v>
+        <v>218.5</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-1.5</v>
+        <v>-9</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F5">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G5">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="H5">
-        <v>223</v>
+        <v>210.5</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F6">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G6">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="H6">
-        <v>221.5</v>
+        <v>205</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -1349,28 +1349,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>4</v>
+        <v>-3.5</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F7">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G7">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H7">
-        <v>211.5</v>
+        <v>221.5</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -1378,60 +1378,60 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F8">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G8">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="H8">
-        <v>220</v>
+        <v>222.5</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>-5</v>
+        <v>-2.5</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
       </c>
       <c r="D9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G9">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="H9">
-        <v>222.5</v>
+        <v>224.5</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1441,16 +1441,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:R32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -2488,7 +2488,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ref="F18:F32" si="6">SUM(J18 - L18)</f>
+        <f t="shared" ref="F18:F40" si="6">SUM(J18 - L18)</f>
         <v>1</v>
       </c>
       <c r="G18" s="2">
@@ -2510,26 +2510,26 @@
         <v>100</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" ref="M18:M32" si="7">SUM(J18+L18)</f>
+        <f t="shared" ref="M18:M40" si="7">SUM(J18+L18)</f>
         <v>201</v>
       </c>
       <c r="N18" s="2">
         <v>210.5</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" ref="O18:O32" si="8">SUM(C18+E18)</f>
+        <f t="shared" ref="O18:O40" si="8">SUM(C18+E18)</f>
         <v>186</v>
       </c>
       <c r="P18" s="3" t="str">
-        <f t="shared" ref="P18:P32" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="P18:P40" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="Q18" s="2" t="str">
-        <f t="shared" ref="Q18:Q32" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="Q18:Q40" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f t="shared" ref="R18:R32" si="11">IF(P18=Q18,"WIN","LOSS")</f>
+        <f t="shared" ref="R18:R40" si="11">IF(P18=Q18,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -3397,6 +3397,502 @@
         <v>UNDER</v>
       </c>
       <c r="R32" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="11">
+        <v>44507</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="12">
+        <v>116</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="12">
+        <v>103</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="G33" s="12">
+        <v>4</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="12">
+        <v>99</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="12">
+        <v>103</v>
+      </c>
+      <c r="M33" s="12">
+        <f t="shared" si="7"/>
+        <v>202</v>
+      </c>
+      <c r="N33" s="12">
+        <v>209.5</v>
+      </c>
+      <c r="O33" s="12">
+        <f t="shared" si="8"/>
+        <v>219</v>
+      </c>
+      <c r="P33" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q33" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R33" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" s="11">
+        <v>44507</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="12">
+        <v>126</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="12">
+        <v>109</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="6"/>
+        <v>-12</v>
+      </c>
+      <c r="G34" s="12">
+        <v>-7.5</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="12">
+        <v>102</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="12">
+        <v>114</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+      <c r="N34" s="12">
+        <v>209.5</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" si="8"/>
+        <v>235</v>
+      </c>
+      <c r="P34" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q34" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R34" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" s="11">
+        <v>44507</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="12">
+        <v>100</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="12">
+        <v>107</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="12">
+        <v>13</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="12">
+        <v>107</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="12">
+        <v>105</v>
+      </c>
+      <c r="M35" s="12">
+        <f t="shared" si="7"/>
+        <v>212</v>
+      </c>
+      <c r="N35" s="12">
+        <v>212</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" si="8"/>
+        <v>207</v>
+      </c>
+      <c r="P35" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q35" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R35" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="11">
+        <v>44507</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="12">
+        <v>94</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="12">
+        <v>91</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="6"/>
+        <v>-8</v>
+      </c>
+      <c r="G36" s="12">
+        <v>-1.5</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="12">
+        <v>109</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" s="12">
+        <v>117</v>
+      </c>
+      <c r="M36" s="12">
+        <f t="shared" si="7"/>
+        <v>226</v>
+      </c>
+      <c r="N36" s="12">
+        <v>223</v>
+      </c>
+      <c r="O36" s="12">
+        <f t="shared" si="8"/>
+        <v>185</v>
+      </c>
+      <c r="P36" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q36" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R36" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>44507</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="12">
+        <v>94</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="12">
+        <v>101</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
+        <v>3</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="12">
+        <v>107</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="12">
+        <v>107</v>
+      </c>
+      <c r="M37" s="12">
+        <f t="shared" si="7"/>
+        <v>214</v>
+      </c>
+      <c r="N37" s="12">
+        <v>221.5</v>
+      </c>
+      <c r="O37" s="12">
+        <f t="shared" si="8"/>
+        <v>195</v>
+      </c>
+      <c r="P37" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q37" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R37" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
+        <v>44507</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="12">
+        <v>94</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="12">
+        <v>99</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="12">
+        <v>4</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="12">
+        <v>103</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="12">
+        <v>102</v>
+      </c>
+      <c r="M38" s="12">
+        <f t="shared" si="7"/>
+        <v>205</v>
+      </c>
+      <c r="N38" s="12">
+        <v>211.5</v>
+      </c>
+      <c r="O38" s="12">
+        <f t="shared" si="8"/>
+        <v>193</v>
+      </c>
+      <c r="P38" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q38" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R38" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="11">
+        <v>44507</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="12">
+        <v>107</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="12">
+        <v>120</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
+        <v>13</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="12">
+        <v>102</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="12">
+        <v>102</v>
+      </c>
+      <c r="M39" s="12">
+        <f t="shared" si="7"/>
+        <v>204</v>
+      </c>
+      <c r="N39" s="12">
+        <v>220</v>
+      </c>
+      <c r="O39" s="12">
+        <f t="shared" si="8"/>
+        <v>227</v>
+      </c>
+      <c r="P39" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q39" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R39" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
+        <v>44507</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="12">
+        <v>106</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="12">
+        <v>120</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G40" s="12">
+        <v>-5</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="12">
+        <v>119</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="12">
+        <v>100</v>
+      </c>
+      <c r="M40" s="12">
+        <f t="shared" si="7"/>
+        <v>219</v>
+      </c>
+      <c r="N40" s="12">
+        <v>222.5</v>
+      </c>
+      <c r="O40" s="12">
+        <f t="shared" si="8"/>
+        <v>226</v>
+      </c>
+      <c r="P40" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q40" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R40" s="14" t="str">
         <f t="shared" si="11"/>
         <v>LOSS</v>
       </c>
@@ -3410,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3443,23 +3939,23 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H111,"WIN")</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.51700000000000002</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A08654-28A9-4244-8538-DCB8E42ACFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55AE199-6564-45E1-94CE-E5472C263F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -227,28 +227,13 @@
     <t>Vegas Line(Home)</t>
   </si>
   <si>
-    <t>New York +4.5</t>
-  </si>
-  <si>
-    <t>New Orleans +9</t>
-  </si>
-  <si>
-    <t>Atlanta +3.5</t>
-  </si>
-  <si>
-    <t>Charlotte +2.5</t>
-  </si>
-  <si>
-    <t>Chicago -2</t>
-  </si>
-  <si>
-    <t>Memphis -2</t>
-  </si>
-  <si>
-    <t>Miami -2</t>
-  </si>
-  <si>
-    <t>Sacramento +2.5</t>
+    <t>Phildaelphia +6.5</t>
+  </si>
+  <si>
+    <t>Atlanta +8</t>
+  </si>
+  <si>
+    <t>Portland +3</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1204,234 +1189,89 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-4.5</v>
+        <v>6.5</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H2">
-        <v>210.5</v>
+        <v>220.5</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G3">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H3">
-        <v>216</v>
+        <v>221.5</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F4">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G4">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H4">
-        <v>218.5</v>
+        <v>220</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>-9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5">
-        <v>104</v>
-      </c>
-      <c r="G5">
-        <v>210</v>
-      </c>
-      <c r="H5">
-        <v>210.5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6">
-        <v>95</v>
-      </c>
-      <c r="G6">
-        <v>199</v>
-      </c>
-      <c r="H6">
-        <v>205</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>-3.5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>111</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7">
-        <v>104</v>
-      </c>
-      <c r="G7">
-        <v>215</v>
-      </c>
-      <c r="H7">
-        <v>221.5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>110</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>114</v>
-      </c>
-      <c r="G8">
-        <v>224</v>
-      </c>
-      <c r="H8">
-        <v>222.5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>-2.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9">
-        <v>118</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <v>110</v>
-      </c>
-      <c r="G9">
-        <v>228</v>
-      </c>
-      <c r="H9">
-        <v>224.5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1441,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2488,7 +2328,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ref="F18:F40" si="6">SUM(J18 - L18)</f>
+        <f t="shared" ref="F18:F48" si="6">SUM(J18 - L18)</f>
         <v>1</v>
       </c>
       <c r="G18" s="2">
@@ -2510,26 +2350,26 @@
         <v>100</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" ref="M18:M40" si="7">SUM(J18+L18)</f>
+        <f t="shared" ref="M18:M48" si="7">SUM(J18+L18)</f>
         <v>201</v>
       </c>
       <c r="N18" s="2">
         <v>210.5</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" ref="O18:O40" si="8">SUM(C18+E18)</f>
+        <f t="shared" ref="O18:O48" si="8">SUM(C18+E18)</f>
         <v>186</v>
       </c>
       <c r="P18" s="3" t="str">
-        <f t="shared" ref="P18:P40" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="P18:P48" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="Q18" s="2" t="str">
-        <f t="shared" ref="Q18:Q40" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="Q18:Q48" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f t="shared" ref="R18:R40" si="11">IF(P18=Q18,"WIN","LOSS")</f>
+        <f t="shared" ref="R18:R48" si="11">IF(P18=Q18,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -3895,6 +3735,502 @@
       <c r="R40" s="14" t="str">
         <f t="shared" si="11"/>
         <v>LOSS</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
+        <v>44508</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="12">
+        <v>103</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="12">
+        <v>96</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="G41" s="12">
+        <v>-4.5</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="12">
+        <v>113</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="12">
+        <v>114</v>
+      </c>
+      <c r="M41" s="12">
+        <f t="shared" si="7"/>
+        <v>227</v>
+      </c>
+      <c r="N41" s="12">
+        <v>210.5</v>
+      </c>
+      <c r="O41" s="12">
+        <f t="shared" si="8"/>
+        <v>199</v>
+      </c>
+      <c r="P41" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q41" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R41" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
+        <v>44508</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="12">
+        <v>95</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="12">
+        <v>118</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="G42" s="12">
+        <v>-2</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="12">
+        <v>101</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" s="12">
+        <v>107</v>
+      </c>
+      <c r="M42" s="12">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="N42" s="12">
+        <v>216</v>
+      </c>
+      <c r="O42" s="12">
+        <f t="shared" si="8"/>
+        <v>213</v>
+      </c>
+      <c r="P42" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q42" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R42" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>44508</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="12">
+        <v>118</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="12">
+        <v>125</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="6"/>
+        <v>-15</v>
+      </c>
+      <c r="G43" s="12">
+        <v>-6</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="12">
+        <v>99</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="12">
+        <v>114</v>
+      </c>
+      <c r="M43" s="12">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="N43" s="12">
+        <v>218.5</v>
+      </c>
+      <c r="O43" s="12">
+        <f t="shared" si="8"/>
+        <v>243</v>
+      </c>
+      <c r="P43" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q43" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R43" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
+        <v>44508</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="12">
+        <v>92</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="12">
+        <v>108</v>
+      </c>
+      <c r="F44" s="12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G44" s="12">
+        <v>-9</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="12">
+        <v>106</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="12">
+        <v>104</v>
+      </c>
+      <c r="M44" s="12">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="N44" s="12">
+        <v>210.5</v>
+      </c>
+      <c r="O44" s="12">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="P44" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q44" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R44" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45" s="11">
+        <v>44508</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="12">
+        <v>96</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="12">
+        <v>113</v>
+      </c>
+      <c r="F45" s="12">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="G45" s="12">
+        <v>2</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="12">
+        <v>104</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" s="12">
+        <v>95</v>
+      </c>
+      <c r="M45" s="12">
+        <f t="shared" si="7"/>
+        <v>199</v>
+      </c>
+      <c r="N45" s="12">
+        <v>205</v>
+      </c>
+      <c r="O45" s="12">
+        <f t="shared" si="8"/>
+        <v>209</v>
+      </c>
+      <c r="P45" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q45" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R45" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" s="11">
+        <v>44508</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="12">
+        <v>113</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="12">
+        <v>127</v>
+      </c>
+      <c r="F46" s="12">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="G46" s="12">
+        <v>-3.5</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="12">
+        <v>111</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46" s="12">
+        <v>104</v>
+      </c>
+      <c r="M46" s="12">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+      <c r="N46" s="12">
+        <v>221.5</v>
+      </c>
+      <c r="O46" s="12">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="P46" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q46" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R46" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>44508</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="12">
+        <v>109</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="12">
+        <v>104</v>
+      </c>
+      <c r="F47" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="G47" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="12">
+        <v>110</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L47" s="12">
+        <v>114</v>
+      </c>
+      <c r="M47" s="12">
+        <f t="shared" si="7"/>
+        <v>224</v>
+      </c>
+      <c r="N47" s="12">
+        <v>222.5</v>
+      </c>
+      <c r="O47" s="12">
+        <f t="shared" si="8"/>
+        <v>213</v>
+      </c>
+      <c r="P47" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q47" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R47" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" s="11">
+        <v>44508</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="12">
+        <v>123</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="12">
+        <v>126</v>
+      </c>
+      <c r="F48" s="12">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="G48" s="12">
+        <v>-2.5</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48" s="12">
+        <v>118</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" s="12">
+        <v>110</v>
+      </c>
+      <c r="M48" s="12">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+      <c r="N48" s="12">
+        <v>224.5</v>
+      </c>
+      <c r="O48" s="12">
+        <f t="shared" si="8"/>
+        <v>249</v>
+      </c>
+      <c r="P48" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q48" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R48" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
       </c>
     </row>
   </sheetData>
@@ -3907,7 +4243,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3939,23 +4275,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H111,"WIN")</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.48599999999999999</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <f>ROUND(SUM(D2/(D2+E2)),3)</f>
+        <v>0.53200000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55AE199-6564-45E1-94CE-E5472C263F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC55CD37-ADF5-4A42-B0A8-F2FE808856D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -227,13 +227,43 @@
     <t>Vegas Line(Home)</t>
   </si>
   <si>
-    <t>Phildaelphia +6.5</t>
-  </si>
-  <si>
-    <t>Atlanta +8</t>
-  </si>
-  <si>
-    <t>Portland +3</t>
+    <t>Cleveland +3</t>
+  </si>
+  <si>
+    <t>Orlando +9</t>
+  </si>
+  <si>
+    <t>Boston - 2</t>
+  </si>
+  <si>
+    <t>Houston -3.5</t>
+  </si>
+  <si>
+    <t>New York -3</t>
+  </si>
+  <si>
+    <t>Chicago -3</t>
+  </si>
+  <si>
+    <t>Charlotte +4.5</t>
+  </si>
+  <si>
+    <t>New Orleans -4.5</t>
+  </si>
+  <si>
+    <t>Sacramento - Pick</t>
+  </si>
+  <si>
+    <t>Indiana - 3</t>
+  </si>
+  <si>
+    <t>Portland +6</t>
+  </si>
+  <si>
+    <t>Minnesota +7</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers +4.5</t>
   </si>
 </sst>
 </file>
@@ -1139,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1189,28 +1219,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H2">
-        <v>220.5</v>
+        <v>211.5</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -1218,59 +1248,349 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G3">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="H3">
-        <v>221.5</v>
+        <v>209.5</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>105</v>
+      </c>
+      <c r="G4">
+        <v>207</v>
+      </c>
+      <c r="H4">
+        <v>209.5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-3.5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>106</v>
+      </c>
+      <c r="G5">
+        <v>201</v>
+      </c>
+      <c r="H5">
+        <v>210.5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>114</v>
+      </c>
+      <c r="G6">
+        <v>220</v>
+      </c>
+      <c r="H6">
+        <v>215.5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-3.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7">
+        <v>107</v>
+      </c>
+      <c r="G7">
+        <v>207</v>
+      </c>
+      <c r="H7">
+        <v>213</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-4.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>115</v>
+      </c>
+      <c r="G8">
+        <v>232</v>
+      </c>
+      <c r="H8">
+        <v>228.5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-4.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>108</v>
+      </c>
+      <c r="G9">
+        <v>205</v>
+      </c>
+      <c r="H9">
+        <v>211</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>104</v>
+      </c>
+      <c r="G10">
+        <v>213</v>
+      </c>
+      <c r="H10">
+        <v>220</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11">
+        <v>96</v>
+      </c>
+      <c r="G11">
+        <v>203</v>
+      </c>
+      <c r="H11">
+        <v>213</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>-6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="D4">
-        <v>109</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4">
-        <v>102</v>
-      </c>
-      <c r="G4">
-        <v>211</v>
-      </c>
-      <c r="H4">
-        <v>220</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="D12">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>111</v>
+      </c>
+      <c r="G12">
+        <v>221</v>
+      </c>
+      <c r="H12">
+        <v>220.5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>-7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13">
+        <v>106</v>
+      </c>
+      <c r="G13">
+        <v>207</v>
+      </c>
+      <c r="H13">
+        <v>222.5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4.5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>110</v>
+      </c>
+      <c r="G14">
+        <v>214</v>
+      </c>
+      <c r="H14">
+        <v>214.5</v>
+      </c>
+      <c r="I14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1281,16 +1601,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.1796875" customWidth="1"/>
     <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -2328,7 +2649,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ref="F18:F48" si="6">SUM(J18 - L18)</f>
+        <f t="shared" ref="F18:F51" si="6">SUM(J18 - L18)</f>
         <v>1</v>
       </c>
       <c r="G18" s="2">
@@ -2350,26 +2671,26 @@
         <v>100</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" ref="M18:M48" si="7">SUM(J18+L18)</f>
+        <f t="shared" ref="M18:M51" si="7">SUM(J18+L18)</f>
         <v>201</v>
       </c>
       <c r="N18" s="2">
         <v>210.5</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" ref="O18:O48" si="8">SUM(C18+E18)</f>
+        <f t="shared" ref="O18:O51" si="8">SUM(C18+E18)</f>
         <v>186</v>
       </c>
       <c r="P18" s="3" t="str">
-        <f t="shared" ref="P18:P48" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="P18:P51" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="Q18" s="2" t="str">
-        <f t="shared" ref="Q18:Q48" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="Q18:Q51" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f t="shared" ref="R18:R48" si="11">IF(P18=Q18,"WIN","LOSS")</f>
+        <f t="shared" ref="R18:R51" si="11">IF(P18=Q18,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -4231,6 +4552,192 @@
       <c r="R48" s="14" t="str">
         <f t="shared" si="11"/>
         <v>WIN</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2">
+        <v>118</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2">
+        <v>109</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="G49" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" s="2">
+        <v>105</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="2">
+        <v>112</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="7"/>
+        <v>217</v>
+      </c>
+      <c r="N49" s="2">
+        <v>220.5</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="8"/>
+        <v>227</v>
+      </c>
+      <c r="P49" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q49" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="2">
+        <v>98</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="2">
+        <v>110</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G50" s="2">
+        <v>-8</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="2">
+        <v>112</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="2">
+        <v>110</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="7"/>
+        <v>222</v>
+      </c>
+      <c r="N50" s="2">
+        <v>221.5</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="8"/>
+        <v>208</v>
+      </c>
+      <c r="P50" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q50" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="2">
+        <v>109</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="2">
+        <v>117</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="G51" s="2">
+        <v>-3</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="2">
+        <v>109</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L51" s="2">
+        <v>102</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="7"/>
+        <v>211</v>
+      </c>
+      <c r="N51" s="2">
+        <v>220</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="8"/>
+        <v>226</v>
+      </c>
+      <c r="P51" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q51" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
       </c>
     </row>
   </sheetData>
@@ -4242,7 +4749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4279,11 +4786,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.46700000000000003</v>
+        <v>0.438</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
@@ -4291,11 +4798,11 @@
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.53200000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC55CD37-ADF5-4A42-B0A8-F2FE808856D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A21DFCF-57C0-49BC-8A38-1884B623D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -227,43 +227,16 @@
     <t>Vegas Line(Home)</t>
   </si>
   <si>
-    <t>Cleveland +3</t>
-  </si>
-  <si>
-    <t>Orlando +9</t>
-  </si>
-  <si>
-    <t>Boston - 2</t>
-  </si>
-  <si>
-    <t>Houston -3.5</t>
-  </si>
-  <si>
-    <t>New York -3</t>
-  </si>
-  <si>
-    <t>Chicago -3</t>
-  </si>
-  <si>
-    <t>Charlotte +4.5</t>
-  </si>
-  <si>
-    <t>New Orleans -4.5</t>
-  </si>
-  <si>
-    <t>Sacramento - Pick</t>
-  </si>
-  <si>
-    <t>Indiana - 3</t>
-  </si>
-  <si>
-    <t>Portland +6</t>
-  </si>
-  <si>
-    <t>Minnesota +7</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers +4.5</t>
+    <t>PUSH</t>
+  </si>
+  <si>
+    <t>Philadelphia -3</t>
+  </si>
+  <si>
+    <t>Indiana +9.5</t>
+  </si>
+  <si>
+    <t>Miami +4</t>
   </si>
 </sst>
 </file>
@@ -1169,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1219,57 +1192,57 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H2">
-        <v>211.5</v>
+        <v>210</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>9</v>
+        <v>-9.5</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G3">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="H3">
-        <v>209.5</v>
+        <v>216</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -1277,320 +1250,30 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F4">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G4">
         <v>207</v>
       </c>
       <c r="H4">
-        <v>209.5</v>
+        <v>211.5</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>-3.5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>95</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>106</v>
-      </c>
-      <c r="G5">
-        <v>201</v>
-      </c>
-      <c r="H5">
-        <v>210.5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>-3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6">
-        <v>114</v>
-      </c>
-      <c r="G6">
-        <v>220</v>
-      </c>
-      <c r="H6">
-        <v>215.5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>-3.5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7">
-        <v>107</v>
-      </c>
-      <c r="G7">
-        <v>207</v>
-      </c>
-      <c r="H7">
-        <v>213</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>-4.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8">
-        <v>117</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8">
-        <v>115</v>
-      </c>
-      <c r="G8">
-        <v>232</v>
-      </c>
-      <c r="H8">
-        <v>228.5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>-4.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9">
-        <v>108</v>
-      </c>
-      <c r="G9">
-        <v>205</v>
-      </c>
-      <c r="H9">
-        <v>211</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>109</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10">
-        <v>104</v>
-      </c>
-      <c r="G10">
-        <v>213</v>
-      </c>
-      <c r="H10">
-        <v>220</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11">
-        <v>107</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11">
-        <v>96</v>
-      </c>
-      <c r="G11">
-        <v>203</v>
-      </c>
-      <c r="H11">
-        <v>213</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>-6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12">
-        <v>110</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12">
-        <v>111</v>
-      </c>
-      <c r="G12">
-        <v>221</v>
-      </c>
-      <c r="H12">
-        <v>220.5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>-7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13">
-        <v>106</v>
-      </c>
-      <c r="G13">
-        <v>207</v>
-      </c>
-      <c r="H13">
-        <v>222.5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>4.5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14">
-        <v>110</v>
-      </c>
-      <c r="G14">
-        <v>214</v>
-      </c>
-      <c r="H14">
-        <v>214.5</v>
-      </c>
-      <c r="I14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1601,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2649,7 +2332,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ref="F18:F51" si="6">SUM(J18 - L18)</f>
+        <f t="shared" ref="F18:F64" si="6">SUM(J18 - L18)</f>
         <v>1</v>
       </c>
       <c r="G18" s="2">
@@ -2671,26 +2354,26 @@
         <v>100</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" ref="M18:M51" si="7">SUM(J18+L18)</f>
+        <f t="shared" ref="M18:M64" si="7">SUM(J18+L18)</f>
         <v>201</v>
       </c>
       <c r="N18" s="2">
         <v>210.5</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" ref="O18:O51" si="8">SUM(C18+E18)</f>
+        <f t="shared" ref="O18:O64" si="8">SUM(C18+E18)</f>
         <v>186</v>
       </c>
       <c r="P18" s="3" t="str">
-        <f t="shared" ref="P18:P51" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="P18:P64" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="Q18" s="2" t="str">
-        <f t="shared" ref="Q18:Q51" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="Q18:Q64" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f t="shared" ref="R18:R51" si="11">IF(P18=Q18,"WIN","LOSS")</f>
+        <f t="shared" ref="R18:R64" si="11">IF(P18=Q18,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -4736,6 +4419,812 @@
         <v>OVER</v>
       </c>
       <c r="R51" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="12">
+        <v>97</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="12">
+        <v>94</v>
+      </c>
+      <c r="F52" s="12">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="G52" s="12">
+        <v>3</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52" s="12">
+        <v>102</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L52" s="12">
+        <v>107</v>
+      </c>
+      <c r="M52" s="12">
+        <f t="shared" si="7"/>
+        <v>209</v>
+      </c>
+      <c r="N52" s="12">
+        <v>211.5</v>
+      </c>
+      <c r="O52" s="12">
+        <f t="shared" si="8"/>
+        <v>191</v>
+      </c>
+      <c r="P52" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q52" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R52" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="12">
+        <v>123</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="12">
+        <v>90</v>
+      </c>
+      <c r="F53" s="12">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="G53" s="12">
+        <v>9</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="12">
+        <v>101</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="12">
+        <v>104</v>
+      </c>
+      <c r="M53" s="12">
+        <f t="shared" si="7"/>
+        <v>205</v>
+      </c>
+      <c r="N53" s="12">
+        <v>209.5</v>
+      </c>
+      <c r="O53" s="12">
+        <f t="shared" si="8"/>
+        <v>213</v>
+      </c>
+      <c r="P53" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q53" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R53" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="12">
+        <v>88</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="12">
+        <v>104</v>
+      </c>
+      <c r="F54" s="12">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="G54" s="12">
+        <v>-2</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="12">
+        <v>102</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="12">
+        <v>105</v>
+      </c>
+      <c r="M54" s="12">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="N54" s="12">
+        <v>209.5</v>
+      </c>
+      <c r="O54" s="12">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="P54" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q54" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R54" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A55" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="12">
+        <v>112</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="12">
+        <v>104</v>
+      </c>
+      <c r="F55" s="12">
+        <f t="shared" si="6"/>
+        <v>-11</v>
+      </c>
+      <c r="G55" s="12">
+        <v>-3.5</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="12">
+        <v>95</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="12">
+        <v>106</v>
+      </c>
+      <c r="M55" s="12">
+        <f t="shared" si="7"/>
+        <v>201</v>
+      </c>
+      <c r="N55" s="12">
+        <v>210.5</v>
+      </c>
+      <c r="O55" s="12">
+        <f t="shared" si="8"/>
+        <v>216</v>
+      </c>
+      <c r="P55" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q55" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R55" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="12">
+        <v>112</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="12">
+        <v>100</v>
+      </c>
+      <c r="F56" s="12">
+        <f t="shared" si="6"/>
+        <v>-8</v>
+      </c>
+      <c r="G56" s="12">
+        <v>-3</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="12">
+        <v>106</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L56" s="12">
+        <v>114</v>
+      </c>
+      <c r="M56" s="12">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+      <c r="N56" s="12">
+        <v>215.5</v>
+      </c>
+      <c r="O56" s="12">
+        <f t="shared" si="8"/>
+        <v>212</v>
+      </c>
+      <c r="P56" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q56" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R56" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A57" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="12">
+        <v>107</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="12">
+        <v>117</v>
+      </c>
+      <c r="F57" s="12">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="G57" s="12">
+        <v>-3.5</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" s="12">
+        <v>100</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L57" s="12">
+        <v>107</v>
+      </c>
+      <c r="M57" s="12">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="N57" s="12">
+        <v>213</v>
+      </c>
+      <c r="O57" s="12">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+      <c r="P57" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q57" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R57" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A58" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="12">
+        <v>118</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="12">
+        <v>108</v>
+      </c>
+      <c r="F58" s="12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G58" s="12">
+        <v>-4.5</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" s="12">
+        <v>117</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L58" s="12">
+        <v>115</v>
+      </c>
+      <c r="M58" s="12">
+        <f t="shared" si="7"/>
+        <v>232</v>
+      </c>
+      <c r="N58" s="12">
+        <v>228.5</v>
+      </c>
+      <c r="O58" s="12">
+        <f t="shared" si="8"/>
+        <v>226</v>
+      </c>
+      <c r="P58" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q58" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R58" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="12">
+        <v>108</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="12">
+        <v>100</v>
+      </c>
+      <c r="F59" s="12">
+        <f t="shared" si="6"/>
+        <v>-11</v>
+      </c>
+      <c r="G59" s="12">
+        <v>-4.5</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59" s="12">
+        <v>97</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L59" s="12">
+        <v>108</v>
+      </c>
+      <c r="M59" s="12">
+        <f t="shared" si="7"/>
+        <v>205</v>
+      </c>
+      <c r="N59" s="12">
+        <v>211</v>
+      </c>
+      <c r="O59" s="12">
+        <f t="shared" si="8"/>
+        <v>208</v>
+      </c>
+      <c r="P59" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q59" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R59" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A60" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="12">
+        <v>117</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="12">
+        <v>136</v>
+      </c>
+      <c r="F60" s="12">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J60" s="12">
+        <v>109</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" s="12">
+        <v>104</v>
+      </c>
+      <c r="M60" s="12">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="N60" s="12">
+        <v>220</v>
+      </c>
+      <c r="O60" s="12">
+        <f t="shared" si="8"/>
+        <v>253</v>
+      </c>
+      <c r="P60" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q60" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R60" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A61" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="12">
+        <v>98</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="12">
+        <v>101</v>
+      </c>
+      <c r="F61" s="12">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G61" s="12">
+        <v>3</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" s="12">
+        <v>107</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L61" s="12">
+        <v>96</v>
+      </c>
+      <c r="M61" s="12">
+        <f t="shared" si="7"/>
+        <v>203</v>
+      </c>
+      <c r="N61" s="12">
+        <v>213</v>
+      </c>
+      <c r="O61" s="12">
+        <f t="shared" si="8"/>
+        <v>199</v>
+      </c>
+      <c r="P61" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q61" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R61" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A62" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="12">
+        <v>109</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="12">
+        <v>119</v>
+      </c>
+      <c r="F62" s="12">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="G62" s="12">
+        <v>-6</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="12">
+        <v>110</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="12">
+        <v>111</v>
+      </c>
+      <c r="M62" s="12">
+        <f t="shared" si="7"/>
+        <v>221</v>
+      </c>
+      <c r="N62" s="12">
+        <v>220.5</v>
+      </c>
+      <c r="O62" s="12">
+        <f t="shared" si="8"/>
+        <v>228</v>
+      </c>
+      <c r="P62" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q62" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R62" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A63" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="12">
+        <v>110</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="12">
+        <v>123</v>
+      </c>
+      <c r="F63" s="12">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="G63" s="12">
+        <v>-7</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J63" s="12">
+        <v>101</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L63" s="12">
+        <v>106</v>
+      </c>
+      <c r="M63" s="12">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="N63" s="12">
+        <v>222.5</v>
+      </c>
+      <c r="O63" s="12">
+        <f t="shared" si="8"/>
+        <v>233</v>
+      </c>
+      <c r="P63" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q63" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R63" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A64" s="11">
+        <v>44510</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="12">
+        <v>117</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="12">
+        <v>120</v>
+      </c>
+      <c r="F64" s="12">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="G64" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="12">
+        <v>104</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64" s="12">
+        <v>110</v>
+      </c>
+      <c r="M64" s="12">
+        <f t="shared" si="7"/>
+        <v>214</v>
+      </c>
+      <c r="N64" s="12">
+        <v>214.5</v>
+      </c>
+      <c r="O64" s="12">
+        <f t="shared" si="8"/>
+        <v>237</v>
+      </c>
+      <c r="P64" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q64" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R64" s="14" t="str">
         <f t="shared" si="11"/>
         <v>LOSS</v>
       </c>
@@ -4782,27 +5271,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H111,"WIN")</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.438</v>
+        <v>0.433</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.5</v>
+        <v>0.47599999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A21DFCF-57C0-49BC-8A38-1884B623D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B296DBDA-9AF0-4960-A31E-58353F51C850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -233,10 +233,10 @@
     <t>Philadelphia -3</t>
   </si>
   <si>
-    <t>Indiana +9.5</t>
-  </si>
-  <si>
-    <t>Miami +4</t>
+    <t>Utah -9.5</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers -4</t>
   </si>
 </sst>
 </file>
@@ -1144,14 +1144,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" customWidth="1"/>
     <col min="3" max="3" width="19.26953125" customWidth="1"/>
     <col min="4" max="4" width="16.08984375" customWidth="1"/>
     <col min="5" max="5" width="22.453125" customWidth="1"/>
@@ -1201,13 +1201,13 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G2">
         <v>213</v>
@@ -1259,22 +1259,22 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
       <c r="F4">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G4">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H4">
         <v>211.5</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5238,7 +5238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B296DBDA-9AF0-4960-A31E-58353F51C850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D442EE7-E238-40BF-BDD6-76FE3DE674C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1230,13 +1230,13 @@
         <v>47</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G3">
         <v>215</v>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D442EE7-E238-40BF-BDD6-76FE3DE674C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA770CC0-84C8-4EEC-92A2-16042465B579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -230,13 +230,37 @@
     <t>PUSH</t>
   </si>
   <si>
-    <t>Philadelphia -3</t>
-  </si>
-  <si>
-    <t>Utah -9.5</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers -4</t>
+    <t>Charlotte +1.5</t>
+  </si>
+  <si>
+    <t>Boston +2</t>
+  </si>
+  <si>
+    <t>Houston +6</t>
+  </si>
+  <si>
+    <t>San Antonio +2.5</t>
+  </si>
+  <si>
+    <t>Cleveland -5</t>
+  </si>
+  <si>
+    <t>Phoenix -1</t>
+  </si>
+  <si>
+    <t>Brooklyn -8.5</t>
+  </si>
+  <si>
+    <t>Sacramento -4.5</t>
+  </si>
+  <si>
+    <t>Denver -4</t>
+  </si>
+  <si>
+    <t>Golden State - 5.5</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers -2.5</t>
   </si>
 </sst>
 </file>
@@ -1142,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1192,28 +1216,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-3</v>
+        <v>1.5</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="H2">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -1221,28 +1245,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-9.5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G3">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H3">
-        <v>216</v>
+        <v>211.5</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -1250,31 +1274,263 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G4">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="H4">
-        <v>211.5</v>
+        <v>200.5</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>107</v>
+      </c>
+      <c r="G5">
+        <v>216</v>
+      </c>
+      <c r="H5">
+        <v>222.5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>109</v>
+      </c>
+      <c r="G6">
+        <v>223</v>
+      </c>
+      <c r="H6">
+        <v>222.5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>8.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>97</v>
+      </c>
+      <c r="G7">
+        <v>207</v>
+      </c>
+      <c r="H7">
+        <v>215</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>4.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>103</v>
+      </c>
+      <c r="G8">
+        <v>212</v>
+      </c>
+      <c r="H8">
+        <v>219</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>111</v>
+      </c>
+      <c r="G9">
+        <v>209</v>
+      </c>
+      <c r="H9">
+        <v>218</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10">
+        <v>109</v>
+      </c>
+      <c r="G10">
+        <v>208</v>
+      </c>
+      <c r="H10">
+        <v>214.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>-5.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>112</v>
+      </c>
+      <c r="G11">
+        <v>212</v>
+      </c>
+      <c r="H11">
+        <v>221.5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>-2.5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>112</v>
+      </c>
+      <c r="G12">
+        <v>213</v>
+      </c>
+      <c r="H12">
+        <v>222.5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1284,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:R64"/>
+      <selection activeCell="A65" sqref="A65:R67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2332,7 +2588,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ref="F18:F64" si="6">SUM(J18 - L18)</f>
+        <f t="shared" ref="F18:F67" si="6">SUM(J18 - L18)</f>
         <v>1</v>
       </c>
       <c r="G18" s="2">
@@ -2354,26 +2610,26 @@
         <v>100</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" ref="M18:M64" si="7">SUM(J18+L18)</f>
+        <f t="shared" ref="M18:M67" si="7">SUM(J18+L18)</f>
         <v>201</v>
       </c>
       <c r="N18" s="2">
         <v>210.5</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" ref="O18:O64" si="8">SUM(C18+E18)</f>
+        <f t="shared" ref="O18:O67" si="8">SUM(C18+E18)</f>
         <v>186</v>
       </c>
       <c r="P18" s="3" t="str">
-        <f t="shared" ref="P18:P64" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="P18:P67" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="Q18" s="2" t="str">
-        <f t="shared" ref="Q18:Q64" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="Q18:Q67" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f t="shared" ref="R18:R64" si="11">IF(P18=Q18,"WIN","LOSS")</f>
+        <f t="shared" ref="R18:R67" si="11">IF(P18=Q18,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -5227,6 +5483,192 @@
       <c r="R64" s="14" t="str">
         <f t="shared" si="11"/>
         <v>LOSS</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A65" s="11">
+        <v>44511</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="12">
+        <v>115</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="12">
+        <v>109</v>
+      </c>
+      <c r="F65" s="12">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="G65" s="12">
+        <v>-3</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J65" s="12">
+        <v>103</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="12">
+        <v>110</v>
+      </c>
+      <c r="M65" s="12">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="N65" s="12">
+        <v>210</v>
+      </c>
+      <c r="O65" s="12">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+      <c r="P65" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q65" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R65" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A66" s="11">
+        <v>44511</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="12">
+        <v>111</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="12">
+        <v>100</v>
+      </c>
+      <c r="F66" s="12">
+        <f t="shared" si="6"/>
+        <v>-13</v>
+      </c>
+      <c r="G66" s="12">
+        <v>-9.5</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J66" s="12">
+        <v>101</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="12">
+        <v>114</v>
+      </c>
+      <c r="M66" s="12">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+      <c r="N66" s="12">
+        <v>216</v>
+      </c>
+      <c r="O66" s="12">
+        <f t="shared" si="8"/>
+        <v>211</v>
+      </c>
+      <c r="P66" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q66" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R66" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A67" s="11">
+        <v>44511</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="12">
+        <v>109</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="12">
+        <v>112</v>
+      </c>
+      <c r="F67" s="12">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="G67" s="12">
+        <v>-4</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="12">
+        <v>103</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L67" s="12">
+        <v>110</v>
+      </c>
+      <c r="M67" s="12">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="N67" s="12">
+        <v>211.5</v>
+      </c>
+      <c r="O67" s="12">
+        <f t="shared" si="8"/>
+        <v>221</v>
+      </c>
+      <c r="P67" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q67" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R67" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
       </c>
     </row>
   </sheetData>
@@ -5275,15 +5717,15 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.433</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
@@ -5291,7 +5733,7 @@
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.47599999999999998</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA770CC0-84C8-4EEC-92A2-16042465B579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703AB202-F4CE-4A1F-8572-AFA7955CA1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -230,37 +230,25 @@
     <t>PUSH</t>
   </si>
   <si>
-    <t>Charlotte +1.5</t>
-  </si>
-  <si>
-    <t>Boston +2</t>
-  </si>
-  <si>
-    <t>Houston +6</t>
-  </si>
-  <si>
-    <t>San Antonio +2.5</t>
-  </si>
-  <si>
-    <t>Cleveland -5</t>
-  </si>
-  <si>
-    <t>Phoenix -1</t>
-  </si>
-  <si>
-    <t>Brooklyn -8.5</t>
-  </si>
-  <si>
-    <t>Sacramento -4.5</t>
-  </si>
-  <si>
-    <t>Denver -4</t>
-  </si>
-  <si>
-    <t>Golden State - 5.5</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers -2.5</t>
+    <t>Miami +7</t>
+  </si>
+  <si>
+    <t>Philadelphia +3.5</t>
+  </si>
+  <si>
+    <t>New Orleans +4</t>
+  </si>
+  <si>
+    <t>Washington -4.5</t>
+  </si>
+  <si>
+    <t>Toronto -9.5</t>
+  </si>
+  <si>
+    <t>Cleveland +2.5</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers -7</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1216,86 +1204,86 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1.5</v>
+        <v>-7</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G2">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="H2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>-3.5</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G3">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H3">
-        <v>211.5</v>
+        <v>214</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G4">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="H4">
-        <v>200.5</v>
+        <v>218</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
@@ -1303,233 +1291,117 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G5">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H5">
-        <v>222.5</v>
+        <v>203.5</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1</v>
+        <v>-9.5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F6">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G6">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="H6">
-        <v>222.5</v>
+        <v>201.5</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G7">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H7">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>4.5</v>
+        <v>-7</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D8">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8">
         <v>109</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>103</v>
-      </c>
       <c r="G8">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H8">
-        <v>219</v>
+        <v>220.5</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9">
-        <v>98</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9">
-        <v>111</v>
-      </c>
-      <c r="G9">
-        <v>209</v>
-      </c>
-      <c r="H9">
-        <v>218</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>-4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>99</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10">
-        <v>109</v>
-      </c>
-      <c r="G10">
-        <v>208</v>
-      </c>
-      <c r="H10">
-        <v>214.5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>-5.5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11">
-        <v>112</v>
-      </c>
-      <c r="G11">
-        <v>212</v>
-      </c>
-      <c r="H11">
-        <v>221.5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>-2.5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12">
-        <v>101</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12">
-        <v>112</v>
-      </c>
-      <c r="G12">
-        <v>213</v>
-      </c>
-      <c r="H12">
-        <v>222.5</v>
-      </c>
-      <c r="I12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1540,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:R67"/>
+      <selection activeCell="A68" sqref="A68:R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2588,7 +2460,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ref="F18:F67" si="6">SUM(J18 - L18)</f>
+        <f t="shared" ref="F18:F78" si="6">SUM(J18 - L18)</f>
         <v>1</v>
       </c>
       <c r="G18" s="2">
@@ -2610,26 +2482,26 @@
         <v>100</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" ref="M18:M67" si="7">SUM(J18+L18)</f>
+        <f t="shared" ref="M18:M78" si="7">SUM(J18+L18)</f>
         <v>201</v>
       </c>
       <c r="N18" s="2">
         <v>210.5</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" ref="O18:O67" si="8">SUM(C18+E18)</f>
+        <f t="shared" ref="O18:O78" si="8">SUM(C18+E18)</f>
         <v>186</v>
       </c>
       <c r="P18" s="3" t="str">
-        <f t="shared" ref="P18:P67" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="P18:P78" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="Q18" s="2" t="str">
-        <f t="shared" ref="Q18:Q67" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="Q18:Q78" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f t="shared" ref="R18:R67" si="11">IF(P18=Q18,"WIN","LOSS")</f>
+        <f t="shared" ref="R18:R78" si="11">IF(P18=Q18,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -5667,6 +5539,688 @@
         <v>OVER</v>
       </c>
       <c r="R67" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A68" s="11">
+        <v>44512</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="12">
+        <v>96</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="12">
+        <v>104</v>
+      </c>
+      <c r="F68" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="G68" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="12">
+        <v>113</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L68" s="12">
+        <v>117</v>
+      </c>
+      <c r="M68" s="12">
+        <f t="shared" si="7"/>
+        <v>230</v>
+      </c>
+      <c r="N68" s="12">
+        <v>224</v>
+      </c>
+      <c r="O68" s="12">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="P68" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q68" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R68" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A69" s="11">
+        <v>44512</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="12">
+        <v>113</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="12">
+        <v>122</v>
+      </c>
+      <c r="F69" s="12">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="G69" s="12">
+        <v>2</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" s="12">
+        <v>104</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" s="12">
+        <v>105</v>
+      </c>
+      <c r="M69" s="12">
+        <f t="shared" si="7"/>
+        <v>209</v>
+      </c>
+      <c r="N69" s="12">
+        <v>211.5</v>
+      </c>
+      <c r="O69" s="12">
+        <f t="shared" si="8"/>
+        <v>235</v>
+      </c>
+      <c r="P69" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q69" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R69" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A70" s="11">
+        <v>44512</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="12">
+        <v>78</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="12">
+        <v>98</v>
+      </c>
+      <c r="F70" s="12">
+        <f t="shared" si="6"/>
+        <v>-13</v>
+      </c>
+      <c r="G70" s="12">
+        <v>-5</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="12">
+        <v>94</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L70" s="12">
+        <v>107</v>
+      </c>
+      <c r="M70" s="12">
+        <f t="shared" si="7"/>
+        <v>201</v>
+      </c>
+      <c r="N70" s="12">
+        <v>200.5</v>
+      </c>
+      <c r="O70" s="12">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+      <c r="P70" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q70" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R70" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A71" s="11">
+        <v>44512</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="12">
+        <v>104</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="12">
+        <v>92</v>
+      </c>
+      <c r="F71" s="12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G71" s="12">
+        <v>6</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71" s="12">
+        <v>109</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71" s="12">
+        <v>107</v>
+      </c>
+      <c r="M71" s="12">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+      <c r="N71" s="12">
+        <v>222.5</v>
+      </c>
+      <c r="O71" s="12">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="P71" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q71" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R71" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A72" s="11">
+        <v>44512</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="12">
+        <v>119</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="12">
+        <v>94</v>
+      </c>
+      <c r="F72" s="12">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G72" s="12">
+        <v>1</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="12">
+        <v>114</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" s="12">
+        <v>109</v>
+      </c>
+      <c r="M72" s="12">
+        <f t="shared" si="7"/>
+        <v>223</v>
+      </c>
+      <c r="N72" s="12">
+        <v>222.5</v>
+      </c>
+      <c r="O72" s="12">
+        <f t="shared" si="8"/>
+        <v>213</v>
+      </c>
+      <c r="P72" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q72" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R72" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A73" s="11">
+        <v>44512</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="12">
+        <v>120</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="12">
+        <v>112</v>
+      </c>
+      <c r="F73" s="12">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="G73" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" s="12">
+        <v>110</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L73" s="12">
+        <v>97</v>
+      </c>
+      <c r="M73" s="12">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="N73" s="12">
+        <v>215</v>
+      </c>
+      <c r="O73" s="12">
+        <f t="shared" si="8"/>
+        <v>232</v>
+      </c>
+      <c r="P73" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q73" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R73" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A74" s="11">
+        <v>44512</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="12">
+        <v>103</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="12">
+        <v>105</v>
+      </c>
+      <c r="F74" s="12">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="G74" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J74" s="12">
+        <v>109</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="12">
+        <v>103</v>
+      </c>
+      <c r="M74" s="12">
+        <f t="shared" si="7"/>
+        <v>212</v>
+      </c>
+      <c r="N74" s="12">
+        <v>219</v>
+      </c>
+      <c r="O74" s="12">
+        <f t="shared" si="8"/>
+        <v>208</v>
+      </c>
+      <c r="P74" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q74" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R74" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A75" s="11">
+        <v>44512</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="12">
+        <v>123</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="12">
+        <v>109</v>
+      </c>
+      <c r="F75" s="12">
+        <f t="shared" si="6"/>
+        <v>-13</v>
+      </c>
+      <c r="G75" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J75" s="12">
+        <v>98</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L75" s="12">
+        <v>111</v>
+      </c>
+      <c r="M75" s="12">
+        <f t="shared" si="7"/>
+        <v>209</v>
+      </c>
+      <c r="N75" s="12">
+        <v>218</v>
+      </c>
+      <c r="O75" s="12">
+        <f t="shared" si="8"/>
+        <v>232</v>
+      </c>
+      <c r="P75" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q75" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R75" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A76" s="11">
+        <v>44512</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="12">
+        <v>96</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="12">
+        <v>105</v>
+      </c>
+      <c r="F76" s="12">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="G76" s="12">
+        <v>-4</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="12">
+        <v>99</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L76" s="12">
+        <v>109</v>
+      </c>
+      <c r="M76" s="12">
+        <f t="shared" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="N76" s="12">
+        <v>214.5</v>
+      </c>
+      <c r="O76" s="12">
+        <f t="shared" si="8"/>
+        <v>201</v>
+      </c>
+      <c r="P76" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q76" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R76" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A77" s="11">
+        <v>44512</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="12">
+        <v>93</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="12">
+        <v>119</v>
+      </c>
+      <c r="F77" s="12">
+        <f t="shared" si="6"/>
+        <v>-12</v>
+      </c>
+      <c r="G77" s="12">
+        <v>-5.5</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J77" s="12">
+        <v>100</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L77" s="12">
+        <v>112</v>
+      </c>
+      <c r="M77" s="12">
+        <f t="shared" si="7"/>
+        <v>212</v>
+      </c>
+      <c r="N77" s="12">
+        <v>221.5</v>
+      </c>
+      <c r="O77" s="12">
+        <f t="shared" si="8"/>
+        <v>212</v>
+      </c>
+      <c r="P77" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q77" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R77" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A78" s="11">
+        <v>44512</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="12">
+        <v>107</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="12">
+        <v>83</v>
+      </c>
+      <c r="F78" s="12">
+        <f t="shared" si="6"/>
+        <v>-11</v>
+      </c>
+      <c r="G78" s="12">
+        <v>-2.5</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J78" s="12">
+        <v>101</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L78" s="12">
+        <v>112</v>
+      </c>
+      <c r="M78" s="12">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="N78" s="12">
+        <v>222.5</v>
+      </c>
+      <c r="O78" s="12">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="P78" s="13" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q78" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R78" s="14" t="str">
         <f t="shared" si="11"/>
         <v>WIN</v>
       </c>
@@ -5713,27 +6267,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H111,"WIN")</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.41299999999999998</v>
+        <v>0.432</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.5</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703AB202-F4CE-4A1F-8572-AFA7955CA1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735BDC1B-1023-4C5B-8174-ACF2EAB33F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -230,25 +230,25 @@
     <t>PUSH</t>
   </si>
   <si>
-    <t>Miami +7</t>
-  </si>
-  <si>
-    <t>Philadelphia +3.5</t>
-  </si>
-  <si>
-    <t>New Orleans +4</t>
-  </si>
-  <si>
-    <t>Washington -4.5</t>
-  </si>
-  <si>
-    <t>Toronto -9.5</t>
-  </si>
-  <si>
-    <t>Cleveland +2.5</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers -7</t>
+    <t>San Antonio +2.5</t>
+  </si>
+  <si>
+    <t>Milwaukee +1.5</t>
+  </si>
+  <si>
+    <t>Golden State -5</t>
+  </si>
+  <si>
+    <t>Houston +8.5</t>
+  </si>
+  <si>
+    <t>Oklahoma City +9</t>
+  </si>
+  <si>
+    <t>Portland +6.5</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers -4</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1204,28 +1204,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-7</v>
+        <v>-2.5</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G2">
         <v>213</v>
       </c>
       <c r="H2">
-        <v>214</v>
+        <v>219.5</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -1233,115 +1233,115 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-3.5</v>
+        <v>-1.5</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D3">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
         <v>109</v>
       </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3">
-        <v>110</v>
-      </c>
       <c r="G3">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H3">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G4">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H4">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G5">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H5">
-        <v>203.5</v>
+        <v>221</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-9.5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G6">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H6">
-        <v>201.5</v>
+        <v>214.5</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -1349,45 +1349,45 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2.5</v>
+        <v>-6.5</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <v>104</v>
       </c>
       <c r="G7">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H7">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -1396,10 +1396,10 @@
         <v>109</v>
       </c>
       <c r="G8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H8">
-        <v>220.5</v>
+        <v>218</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -1412,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:R78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2460,7 +2460,7 @@
         <v>90</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ref="F18:F78" si="6">SUM(J18 - L18)</f>
+        <f t="shared" ref="F18:F81" si="6">SUM(J18 - L18)</f>
         <v>1</v>
       </c>
       <c r="G18" s="2">
@@ -2482,26 +2482,26 @@
         <v>100</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" ref="M18:M78" si="7">SUM(J18+L18)</f>
+        <f t="shared" ref="M18:M81" si="7">SUM(J18+L18)</f>
         <v>201</v>
       </c>
       <c r="N18" s="2">
         <v>210.5</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" ref="O18:O78" si="8">SUM(C18+E18)</f>
+        <f t="shared" ref="O18:O81" si="8">SUM(C18+E18)</f>
         <v>186</v>
       </c>
       <c r="P18" s="3" t="str">
-        <f t="shared" ref="P18:P78" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="P18:P81" si="9">IF(M18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="Q18" s="2" t="str">
-        <f t="shared" ref="Q18:Q78" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
+        <f t="shared" ref="Q18:Q81" si="10">IF(O18&lt;N18,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f t="shared" ref="R18:R78" si="11">IF(P18=Q18,"WIN","LOSS")</f>
+        <f t="shared" ref="R18:R81" si="11">IF(P18=Q18,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -6223,6 +6223,440 @@
       <c r="R78" s="14" t="str">
         <f t="shared" si="11"/>
         <v>WIN</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="2">
+        <v>111</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="2">
+        <v>105</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="G79" s="2">
+        <v>-7</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="2">
+        <v>104</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="2">
+        <v>109</v>
+      </c>
+      <c r="M79" s="2">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="N79" s="2">
+        <v>214</v>
+      </c>
+      <c r="O79" s="2">
+        <f t="shared" si="8"/>
+        <v>216</v>
+      </c>
+      <c r="P79" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q79" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R79" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="2">
+        <v>113</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" s="2">
+        <v>118</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="2">
+        <v>109</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L80" s="2">
+        <v>110</v>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" si="7"/>
+        <v>219</v>
+      </c>
+      <c r="N80" s="2">
+        <v>214</v>
+      </c>
+      <c r="O80" s="2">
+        <f t="shared" si="8"/>
+        <v>231</v>
+      </c>
+      <c r="P80" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q80" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>OVER</v>
+      </c>
+      <c r="R80" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="2">
+        <v>101</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="2">
+        <v>112</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G81" s="2">
+        <v>4</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J81" s="2">
+        <v>111</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L81" s="2">
+        <v>108</v>
+      </c>
+      <c r="M81" s="2">
+        <f t="shared" si="7"/>
+        <v>219</v>
+      </c>
+      <c r="N81" s="2">
+        <v>218</v>
+      </c>
+      <c r="O81" s="2">
+        <f t="shared" si="8"/>
+        <v>213</v>
+      </c>
+      <c r="P81" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q81" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R81" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="2">
+        <v>104</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="2">
+        <v>92</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" ref="F82:F85" si="12">SUM(J82 - L82)</f>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J82" s="2">
+        <v>107</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L82" s="2">
+        <v>97</v>
+      </c>
+      <c r="M82" s="2">
+        <f t="shared" ref="M82:M85" si="13">SUM(J82+L82)</f>
+        <v>204</v>
+      </c>
+      <c r="N82" s="2">
+        <v>203.5</v>
+      </c>
+      <c r="O82" s="2">
+        <f t="shared" ref="O82:O85" si="14">SUM(C82+E82)</f>
+        <v>196</v>
+      </c>
+      <c r="P82" s="3" t="str">
+        <f t="shared" ref="P82:P85" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
+        <v>OVER</v>
+      </c>
+      <c r="Q82" s="2" t="str">
+        <f t="shared" ref="Q82:Q85" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
+        <v>UNDER</v>
+      </c>
+      <c r="R82" s="2" t="str">
+        <f t="shared" ref="R82:R85" si="17">IF(P82=Q82,"WIN","LOSS")</f>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="2">
+        <v>127</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="2">
+        <v>121</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="12"/>
+        <v>-14</v>
+      </c>
+      <c r="G83" s="2">
+        <v>-9.5</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="2">
+        <v>92</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L83" s="2">
+        <v>106</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" si="13"/>
+        <v>198</v>
+      </c>
+      <c r="N83" s="2">
+        <v>201.5</v>
+      </c>
+      <c r="O83" s="2">
+        <f t="shared" si="14"/>
+        <v>248</v>
+      </c>
+      <c r="P83" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q83" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R83" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="2">
+        <v>89</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" s="2">
+        <v>91</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="12"/>
+        <v>-4</v>
+      </c>
+      <c r="G84" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84" s="2">
+        <v>100</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L84" s="2">
+        <v>104</v>
+      </c>
+      <c r="M84" s="2">
+        <f t="shared" si="13"/>
+        <v>204</v>
+      </c>
+      <c r="N84" s="2">
+        <v>202</v>
+      </c>
+      <c r="O84" s="2">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+      <c r="P84" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q84" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R84" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="2">
+        <v>102</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="2">
+        <v>129</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="12"/>
+        <v>-12</v>
+      </c>
+      <c r="G85" s="2">
+        <v>-7</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J85" s="2">
+        <v>97</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L85" s="2">
+        <v>109</v>
+      </c>
+      <c r="M85" s="2">
+        <f t="shared" si="13"/>
+        <v>206</v>
+      </c>
+      <c r="N85" s="2">
+        <v>220.5</v>
+      </c>
+      <c r="O85" s="2">
+        <f t="shared" si="14"/>
+        <v>231</v>
+      </c>
+      <c r="P85" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q85" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R85" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
       </c>
     </row>
   </sheetData>
@@ -6267,27 +6701,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H111,"WIN")</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.432</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.49399999999999999</v>
+        <v>0.46400000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735BDC1B-1023-4C5B-8174-ACF2EAB33F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6941EFD-22EF-41D1-BF52-F3FCDF8417EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -230,25 +230,46 @@
     <t>PUSH</t>
   </si>
   <si>
-    <t>San Antonio +2.5</t>
-  </si>
-  <si>
-    <t>Milwaukee +1.5</t>
-  </si>
-  <si>
-    <t>Golden State -5</t>
-  </si>
-  <si>
-    <t>Houston +8.5</t>
-  </si>
-  <si>
-    <t>Oklahoma City +9</t>
-  </si>
-  <si>
-    <t>Portland +6.5</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers -4</t>
+    <t>Washington -4.5</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Cleveland +3</t>
+  </si>
+  <si>
+    <t>Sacramento +9</t>
+  </si>
+  <si>
+    <t>Orlando +10.5</t>
+  </si>
+  <si>
+    <t>Indiana +3.5</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>Denver +3.5</t>
+  </si>
+  <si>
+    <t>Houston +11</t>
+  </si>
+  <si>
+    <t>Phoenix -3.5</t>
+  </si>
+  <si>
+    <t>Miami -10</t>
+  </si>
+  <si>
+    <t>Portland -1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles +1 </t>
   </si>
 </sst>
 </file>
@@ -1154,26 +1175,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" customWidth="1"/>
+    <col min="2" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" customWidth="1"/>
+    <col min="11" max="11" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -1181,228 +1203,416 @@
         <v>61</v>
       </c>
       <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-2.5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>103</v>
+      </c>
+      <c r="H2">
+        <v>201</v>
+      </c>
+      <c r="I2">
+        <v>199.5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4.5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>101</v>
+      </c>
+      <c r="H3">
+        <v>211</v>
+      </c>
+      <c r="I3">
+        <v>214.5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>-4.5</v>
+      </c>
+      <c r="B4" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2">
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>114</v>
+      </c>
+      <c r="H4">
+        <v>210</v>
+      </c>
+      <c r="I4">
+        <v>207.5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-10.5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>112</v>
+      </c>
+      <c r="H5">
+        <v>214</v>
+      </c>
+      <c r="I5">
+        <v>214.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-3.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>111</v>
+      </c>
+      <c r="H6">
+        <v>220</v>
+      </c>
+      <c r="I6">
+        <v>213</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-4.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>203</v>
+      </c>
+      <c r="I7">
+        <v>209.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
         <v>106</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>108</v>
+      </c>
+      <c r="H8">
+        <v>214</v>
+      </c>
+      <c r="I8">
+        <v>219</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>101</v>
+      </c>
+      <c r="H9">
+        <v>212</v>
+      </c>
+      <c r="I9">
+        <v>222.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>98</v>
+      </c>
+      <c r="H10">
+        <v>206</v>
+      </c>
+      <c r="I10">
+        <v>209</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>-1.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>111</v>
+      </c>
+      <c r="H11">
+        <v>218</v>
+      </c>
+      <c r="I11">
+        <v>212</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="F2">
+      <c r="G12">
         <v>107</v>
       </c>
-      <c r="G2">
+      <c r="H12">
         <v>213</v>
       </c>
-      <c r="H2">
-        <v>219.5</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I12">
+        <v>216.5</v>
+      </c>
+      <c r="J12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>-1.5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>111</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>109</v>
-      </c>
-      <c r="G3">
-        <v>220</v>
-      </c>
-      <c r="H3">
-        <v>221</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4">
-        <v>117</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4">
-        <v>105</v>
-      </c>
-      <c r="G4">
-        <v>222</v>
-      </c>
-      <c r="H4">
-        <v>227</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>8.5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>110</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>102</v>
-      </c>
-      <c r="G5">
-        <v>212</v>
-      </c>
-      <c r="H5">
-        <v>221</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6">
-        <v>105</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>98</v>
-      </c>
-      <c r="G6">
-        <v>203</v>
-      </c>
-      <c r="H6">
-        <v>214.5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>-6.5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7">
-        <v>104</v>
-      </c>
-      <c r="G7">
-        <v>206</v>
-      </c>
-      <c r="H7">
-        <v>208</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>-4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="K12" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8">
-        <v>109</v>
-      </c>
-      <c r="G8">
-        <v>210</v>
-      </c>
-      <c r="H8">
-        <v>218</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1412,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6428,7 +6638,7 @@
         <v>92</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" ref="F82:F85" si="12">SUM(J82 - L82)</f>
+        <f t="shared" ref="F82:F92" si="12">SUM(J82 - L82)</f>
         <v>10</v>
       </c>
       <c r="G82" s="2">
@@ -6450,26 +6660,26 @@
         <v>97</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" ref="M82:M85" si="13">SUM(J82+L82)</f>
+        <f t="shared" ref="M82:M92" si="13">SUM(J82+L82)</f>
         <v>204</v>
       </c>
       <c r="N82" s="2">
         <v>203.5</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" ref="O82:O85" si="14">SUM(C82+E82)</f>
+        <f t="shared" ref="O82:O92" si="14">SUM(C82+E82)</f>
         <v>196</v>
       </c>
       <c r="P82" s="3" t="str">
-        <f t="shared" ref="P82:P85" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="P82:P92" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
         <v>OVER</v>
       </c>
       <c r="Q82" s="2" t="str">
-        <f t="shared" ref="Q82:Q85" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="Q82:Q92" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R82" s="2" t="str">
-        <f t="shared" ref="R82:R85" si="17">IF(P82=Q82,"WIN","LOSS")</f>
+        <f t="shared" ref="R82:R92" si="17">IF(P82=Q82,"WIN","LOSS")</f>
         <v>LOSS</v>
       </c>
     </row>
@@ -6657,6 +6867,440 @@
       <c r="R85" s="2" t="str">
         <f t="shared" si="17"/>
         <v>LOSS</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" s="2">
+        <v>106</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="2">
+        <v>114</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="G86" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J86" s="2">
+        <v>106</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L86" s="2">
+        <v>107</v>
+      </c>
+      <c r="M86" s="2">
+        <f t="shared" si="13"/>
+        <v>213</v>
+      </c>
+      <c r="N86" s="2">
+        <v>219.5</v>
+      </c>
+      <c r="O86" s="2">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="P86" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q86" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R86" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="2">
+        <v>100</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="2">
+        <v>120</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G87" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" s="2">
+        <v>111</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L87" s="2">
+        <v>109</v>
+      </c>
+      <c r="M87" s="2">
+        <f t="shared" si="13"/>
+        <v>220</v>
+      </c>
+      <c r="N87" s="2">
+        <v>221</v>
+      </c>
+      <c r="O87" s="2">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="P87" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q87" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R87" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="2">
+        <v>102</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88" s="2">
+        <v>106</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="G88" s="2">
+        <v>5</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J88" s="2">
+        <v>117</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L88" s="2">
+        <v>105</v>
+      </c>
+      <c r="M88" s="2">
+        <f t="shared" si="13"/>
+        <v>222</v>
+      </c>
+      <c r="N88" s="2">
+        <v>227</v>
+      </c>
+      <c r="O88" s="2">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+      <c r="P88" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q88" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R88" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="2">
+        <v>115</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="2">
+        <v>89</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="G89" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J89" s="2">
+        <v>110</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="2">
+        <v>102</v>
+      </c>
+      <c r="M89" s="2">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="N89" s="2">
+        <v>221</v>
+      </c>
+      <c r="O89" s="2">
+        <f t="shared" si="14"/>
+        <v>204</v>
+      </c>
+      <c r="P89" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q89" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R89" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="2">
+        <v>120</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="2">
+        <v>96</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="G90" s="2">
+        <v>9</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="2">
+        <v>105</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L90" s="2">
+        <v>98</v>
+      </c>
+      <c r="M90" s="2">
+        <f t="shared" si="13"/>
+        <v>203</v>
+      </c>
+      <c r="N90" s="2">
+        <v>214.5</v>
+      </c>
+      <c r="O90" s="2">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="P90" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q90" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R90" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="2">
+        <v>95</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E91" s="2">
+        <v>124</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="G91" s="2">
+        <v>-6.5</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J91" s="2">
+        <v>102</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L91" s="2">
+        <v>104</v>
+      </c>
+      <c r="M91" s="2">
+        <f t="shared" si="13"/>
+        <v>206</v>
+      </c>
+      <c r="N91" s="2">
+        <v>208</v>
+      </c>
+      <c r="O91" s="2">
+        <f t="shared" si="14"/>
+        <v>219</v>
+      </c>
+      <c r="P91" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q91" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R91" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="2">
+        <v>100</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="2">
+        <v>90</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="12"/>
+        <v>-8</v>
+      </c>
+      <c r="G92" s="2">
+        <v>-4</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J92" s="2">
+        <v>101</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L92" s="2">
+        <v>109</v>
+      </c>
+      <c r="M92" s="2">
+        <f t="shared" si="13"/>
+        <v>210</v>
+      </c>
+      <c r="N92" s="2">
+        <v>218</v>
+      </c>
+      <c r="O92" s="2">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+      <c r="P92" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q92" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R92" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>WIN</v>
       </c>
     </row>
   </sheetData>
@@ -6705,23 +7349,23 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.45700000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46400000000000002</v>
+        <v>0.47299999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6941EFD-22EF-41D1-BF52-F3FCDF8417EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB0041F-8AB7-46AC-A2E7-89EF6DAE38FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -230,22 +230,7 @@
     <t>PUSH</t>
   </si>
   <si>
-    <t>Washington -4.5</t>
-  </si>
-  <si>
     <t>Confidence</t>
-  </si>
-  <si>
-    <t>Cleveland +3</t>
-  </si>
-  <si>
-    <t>Sacramento +9</t>
-  </si>
-  <si>
-    <t>Orlando +10.5</t>
-  </si>
-  <si>
-    <t>Indiana +3.5</t>
   </si>
   <si>
     <t>LOW</t>
@@ -254,22 +239,13 @@
     <t>HIGH</t>
   </si>
   <si>
-    <t>Denver +3.5</t>
+    <t>Golden State +3</t>
   </si>
   <si>
-    <t>Houston +11</t>
+    <t>Philadelphia +10</t>
   </si>
   <si>
-    <t>Phoenix -3.5</t>
-  </si>
-  <si>
-    <t>Miami -10</t>
-  </si>
-  <si>
-    <t>Portland -1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Angeles +1 </t>
+    <t>Totals Confidence</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1203,7 +1179,7 @@
         <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -1227,392 +1203,112 @@
         <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="I2">
-        <v>199.5</v>
+        <v>222</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>4.5</v>
+        <v>-10</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H3">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="I3">
-        <v>214.5</v>
+        <v>216</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-4.5</v>
+        <v>-7.5</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G4">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H4">
         <v>210</v>
       </c>
       <c r="I4">
-        <v>207.5</v>
+        <v>220</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>-10.5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5">
-        <v>102</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>112</v>
-      </c>
-      <c r="H5">
-        <v>214</v>
-      </c>
-      <c r="I5">
-        <v>214.5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>-3.5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6">
-        <v>109</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6">
-        <v>111</v>
-      </c>
-      <c r="H6">
-        <v>220</v>
-      </c>
-      <c r="I6">
-        <v>213</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>-4.5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7">
-        <v>103</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>203</v>
-      </c>
-      <c r="I7">
-        <v>209.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>-11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>106</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8">
-        <v>108</v>
-      </c>
-      <c r="H8">
-        <v>214</v>
-      </c>
-      <c r="I8">
-        <v>219</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>3.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>111</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9">
-        <v>101</v>
-      </c>
-      <c r="H9">
-        <v>212</v>
-      </c>
-      <c r="I9">
-        <v>222.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>108</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>98</v>
-      </c>
-      <c r="H10">
-        <v>206</v>
-      </c>
-      <c r="I10">
-        <v>209</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>-1.5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11">
-        <v>107</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11">
-        <v>111</v>
-      </c>
-      <c r="H11">
-        <v>218</v>
-      </c>
-      <c r="I11">
-        <v>212</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12">
-        <v>106</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12">
-        <v>107</v>
-      </c>
-      <c r="H12">
-        <v>213</v>
-      </c>
-      <c r="I12">
-        <v>216.5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1622,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R92"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6638,7 +6334,7 @@
         <v>92</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" ref="F82:F92" si="12">SUM(J82 - L82)</f>
+        <f t="shared" ref="F82:F103" si="12">SUM(J82 - L82)</f>
         <v>10</v>
       </c>
       <c r="G82" s="2">
@@ -6660,26 +6356,26 @@
         <v>97</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" ref="M82:M92" si="13">SUM(J82+L82)</f>
+        <f t="shared" ref="M82:M103" si="13">SUM(J82+L82)</f>
         <v>204</v>
       </c>
       <c r="N82" s="2">
         <v>203.5</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" ref="O82:O92" si="14">SUM(C82+E82)</f>
+        <f t="shared" ref="O82:O103" si="14">SUM(C82+E82)</f>
         <v>196</v>
       </c>
       <c r="P82" s="3" t="str">
-        <f t="shared" ref="P82:P92" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="P82:P103" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
         <v>OVER</v>
       </c>
       <c r="Q82" s="2" t="str">
-        <f t="shared" ref="Q82:Q92" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="Q82:Q103" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R82" s="2" t="str">
-        <f t="shared" ref="R82:R92" si="17">IF(P82=Q82,"WIN","LOSS")</f>
+        <f t="shared" ref="R82:R103" si="17">IF(P82=Q82,"WIN","LOSS")</f>
         <v>LOSS</v>
       </c>
     </row>
@@ -7301,6 +6997,688 @@
       <c r="R92" s="2" t="str">
         <f t="shared" si="17"/>
         <v>WIN</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="2">
+        <v>98</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="2">
+        <v>92</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="12"/>
+        <v>-5</v>
+      </c>
+      <c r="G93" s="2">
+        <v>3</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J93" s="2">
+        <v>98</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L93" s="2">
+        <v>103</v>
+      </c>
+      <c r="M93" s="2">
+        <f t="shared" si="13"/>
+        <v>201</v>
+      </c>
+      <c r="N93" s="2">
+        <v>199.5</v>
+      </c>
+      <c r="O93" s="2">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+      <c r="P93" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q93" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R93" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="2">
+        <v>129</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="2">
+        <v>107</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="G94" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J94" s="2">
+        <v>110</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="2">
+        <v>101</v>
+      </c>
+      <c r="M94" s="2">
+        <f t="shared" si="13"/>
+        <v>211</v>
+      </c>
+      <c r="N94" s="2">
+        <v>214.5</v>
+      </c>
+      <c r="O94" s="2">
+        <f t="shared" si="14"/>
+        <v>236</v>
+      </c>
+      <c r="P94" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q94" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R94" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="2">
+        <v>100</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="2">
+        <v>105</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="12"/>
+        <v>-18</v>
+      </c>
+      <c r="G95" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J95" s="2">
+        <v>96</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L95" s="2">
+        <v>114</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="13"/>
+        <v>210</v>
+      </c>
+      <c r="N95" s="2">
+        <v>207.5</v>
+      </c>
+      <c r="O95" s="2">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+      <c r="P95" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q95" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R95" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="2">
+        <v>111</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="2">
+        <v>129</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="12"/>
+        <v>-10</v>
+      </c>
+      <c r="G96" s="2">
+        <v>-10.5</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J96" s="2">
+        <v>102</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" s="2">
+        <v>112</v>
+      </c>
+      <c r="M96" s="2">
+        <f t="shared" si="13"/>
+        <v>214</v>
+      </c>
+      <c r="N96" s="2">
+        <v>214.5</v>
+      </c>
+      <c r="O96" s="2">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="P96" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q96" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R96" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="2">
+        <v>84</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="2">
+        <v>92</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="G97" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J97" s="2">
+        <v>109</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L97" s="2">
+        <v>111</v>
+      </c>
+      <c r="M97" s="2">
+        <f t="shared" si="13"/>
+        <v>220</v>
+      </c>
+      <c r="N97" s="2">
+        <v>213</v>
+      </c>
+      <c r="O97" s="2">
+        <f t="shared" si="14"/>
+        <v>176</v>
+      </c>
+      <c r="P97" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q97" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R97" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="2">
+        <v>101</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E98" s="2">
+        <v>111</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="G98" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J98" s="2">
+        <v>103</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L98" s="2">
+        <v>100</v>
+      </c>
+      <c r="M98" s="2">
+        <f t="shared" si="13"/>
+        <v>203</v>
+      </c>
+      <c r="N98" s="2">
+        <v>209.5</v>
+      </c>
+      <c r="O98" s="2">
+        <f t="shared" si="14"/>
+        <v>212</v>
+      </c>
+      <c r="P98" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q98" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R98" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="2">
+        <v>102</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="2">
+        <v>136</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="G99" s="2">
+        <v>-11</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" s="2">
+        <v>106</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L99" s="2">
+        <v>108</v>
+      </c>
+      <c r="M99" s="2">
+        <f t="shared" si="13"/>
+        <v>214</v>
+      </c>
+      <c r="N99" s="2">
+        <v>219</v>
+      </c>
+      <c r="O99" s="2">
+        <f t="shared" si="14"/>
+        <v>238</v>
+      </c>
+      <c r="P99" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q99" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R99" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="2">
+        <v>99</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="2">
+        <v>96</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J100" s="2">
+        <v>111</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L100" s="2">
+        <v>101</v>
+      </c>
+      <c r="M100" s="2">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="N100" s="2">
+        <v>222.5</v>
+      </c>
+      <c r="O100" s="2">
+        <f t="shared" si="14"/>
+        <v>195</v>
+      </c>
+      <c r="P100" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q100" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R100" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="2">
+        <v>103</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="2">
+        <v>90</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2">
+        <v>9</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" s="2">
+        <v>108</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L101" s="2">
+        <v>98</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" si="13"/>
+        <v>206</v>
+      </c>
+      <c r="N101" s="2">
+        <v>209</v>
+      </c>
+      <c r="O101" s="2">
+        <f t="shared" si="14"/>
+        <v>193</v>
+      </c>
+      <c r="P101" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q101" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R101" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="2">
+        <v>113</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" s="2">
+        <v>118</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="12"/>
+        <v>-4</v>
+      </c>
+      <c r="G102" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J102" s="2">
+        <v>107</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L102" s="2">
+        <v>111</v>
+      </c>
+      <c r="M102" s="2">
+        <f t="shared" si="13"/>
+        <v>218</v>
+      </c>
+      <c r="N102" s="2">
+        <v>212</v>
+      </c>
+      <c r="O102" s="2">
+        <f t="shared" si="14"/>
+        <v>231</v>
+      </c>
+      <c r="P102" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q102" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R102" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" s="2">
+        <v>121</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" s="2">
+        <v>103</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="G103" s="2">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J103" s="2">
+        <v>106</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L103" s="2">
+        <v>107</v>
+      </c>
+      <c r="M103" s="2">
+        <f t="shared" si="13"/>
+        <v>213</v>
+      </c>
+      <c r="N103" s="2">
+        <v>216.5</v>
+      </c>
+      <c r="O103" s="2">
+        <f t="shared" si="14"/>
+        <v>224</v>
+      </c>
+      <c r="P103" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q103" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R103" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>LOSS</v>
       </c>
     </row>
   </sheetData>
@@ -7345,27 +7723,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H111,"WIN")</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.42</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.47299999999999998</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB0041F-8AB7-46AC-A2E7-89EF6DAE38FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E53BB-C93D-4B26-9E13-6251657A3492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -194,12 +194,6 @@
     <t>Spread Loss</t>
   </si>
   <si>
-    <t>Over Win</t>
-  </si>
-  <si>
-    <t>Over Loss</t>
-  </si>
-  <si>
     <t>NO PLAY</t>
   </si>
   <si>
@@ -239,13 +233,82 @@
     <t>HIGH</t>
   </si>
   <si>
-    <t>Golden State +3</t>
-  </si>
-  <si>
-    <t>Philadelphia +10</t>
-  </si>
-  <si>
     <t>Totals Confidence</t>
+  </si>
+  <si>
+    <t>Washington +1</t>
+  </si>
+  <si>
+    <t>Indiana -1</t>
+  </si>
+  <si>
+    <t>Boston +4.5</t>
+  </si>
+  <si>
+    <t>Cleveland +9.5</t>
+  </si>
+  <si>
+    <t>Chicago +1.5</t>
+  </si>
+  <si>
+    <t>Miami -8</t>
+  </si>
+  <si>
+    <t>New York -12</t>
+  </si>
+  <si>
+    <t>Phoenix -8.5</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers +9</t>
+  </si>
+  <si>
+    <t>Sacramento +4</t>
+  </si>
+  <si>
+    <t>Houston +2</t>
+  </si>
+  <si>
+    <t>Spread HIGH Win</t>
+  </si>
+  <si>
+    <t>Spread HIGH Loss</t>
+  </si>
+  <si>
+    <t>Spread High Win %</t>
+  </si>
+  <si>
+    <t>Total HIGH Win</t>
+  </si>
+  <si>
+    <t>Totals Win</t>
+  </si>
+  <si>
+    <t>Totals Loss</t>
+  </si>
+  <si>
+    <t>Totals HIGH Loss</t>
+  </si>
+  <si>
+    <t>HIGH %</t>
+  </si>
+  <si>
+    <t>Spread LOW Win</t>
+  </si>
+  <si>
+    <t>Spread LOW Loss</t>
+  </si>
+  <si>
+    <t>Spread LOW Win %</t>
+  </si>
+  <si>
+    <t>Total LOW Win</t>
+  </si>
+  <si>
+    <t>Totals LOW Loss</t>
+  </si>
+  <si>
+    <t>LOW %</t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,13 +1236,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -1200,115 +1263,395 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2">
         <v>109</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2">
-        <v>102</v>
-      </c>
       <c r="H2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-10</v>
+        <v>6.5</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="I3">
-        <v>216</v>
+        <v>205.5</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-7.5</v>
+        <v>-4.5</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I4">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-9.5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>106</v>
+      </c>
+      <c r="H5">
+        <v>204</v>
+      </c>
+      <c r="I5">
+        <v>206</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>116</v>
+      </c>
+      <c r="H6">
+        <v>213</v>
+      </c>
+      <c r="I6">
+        <v>213</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>108</v>
+      </c>
+      <c r="H7">
+        <v>216</v>
+      </c>
+      <c r="I7">
+        <v>221.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>112</v>
+      </c>
+      <c r="H8">
+        <v>212</v>
+      </c>
+      <c r="I8">
+        <v>208.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>106</v>
+      </c>
+      <c r="H9">
+        <v>216</v>
+      </c>
+      <c r="I9">
+        <v>227</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-2.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>102</v>
+      </c>
+      <c r="H10">
+        <v>203</v>
+      </c>
+      <c r="I10">
+        <v>213.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>-8.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>113</v>
+      </c>
+      <c r="H11">
+        <v>209</v>
+      </c>
+      <c r="I11">
+        <v>212.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>-1.5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>107</v>
+      </c>
+      <c r="H12">
+        <v>214</v>
+      </c>
+      <c r="I12">
+        <v>219.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1318,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView topLeftCell="C94" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1411,7 +1754,7 @@
         <v>5.5</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>48</v>
@@ -1473,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>39</v>
@@ -1578,7 +1921,7 @@
         <v>44503</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6">
         <v>98</v>
@@ -1600,7 +1943,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J5" s="6">
         <v>102</v>
@@ -1764,7 +2107,7 @@
         <v>44503</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="6">
         <v>106</v>
@@ -1786,7 +2129,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J8" s="6">
         <v>90</v>
@@ -1888,7 +2231,7 @@
         <v>44503</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="6">
         <v>109</v>
@@ -1910,7 +2253,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J10" s="6">
         <v>99</v>
@@ -2918,7 +3261,7 @@
         <v>94</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="12">
         <v>95</v>
@@ -2940,7 +3283,7 @@
         <v>104</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L27" s="12">
         <v>96</v>
@@ -3042,7 +3385,7 @@
         <v>114</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E29" s="12">
         <v>105</v>
@@ -3064,7 +3407,7 @@
         <v>110</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L29" s="12">
         <v>105</v>
@@ -3104,7 +3447,7 @@
         <v>104</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="12">
         <v>107</v>
@@ -3126,7 +3469,7 @@
         <v>101</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L30" s="12">
         <v>103</v>
@@ -3848,7 +4191,7 @@
         <v>95</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E42" s="12">
         <v>118</v>
@@ -3870,7 +4213,7 @@
         <v>101</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L42" s="12">
         <v>107</v>
@@ -3972,7 +4315,7 @@
         <v>92</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E44" s="12">
         <v>108</v>
@@ -3994,7 +4337,7 @@
         <v>106</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L44" s="12">
         <v>104</v>
@@ -4034,7 +4377,7 @@
         <v>96</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E45" s="12">
         <v>113</v>
@@ -4056,7 +4399,7 @@
         <v>104</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L45" s="12">
         <v>95</v>
@@ -4772,13 +5115,13 @@
         <v>44510</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" s="12">
         <v>107</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E57" s="12">
         <v>117</v>
@@ -4794,13 +5137,13 @@
         <v>20</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J57" s="12">
         <v>100</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L57" s="12">
         <v>107</v>
@@ -5026,7 +5369,7 @@
         <v>98</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E61" s="12">
         <v>101</v>
@@ -5039,7 +5382,7 @@
         <v>3</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>47</v>
@@ -5048,7 +5391,7 @@
         <v>107</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L61" s="12">
         <v>96</v>
@@ -5888,7 +6231,7 @@
         <v>44512</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C75" s="12">
         <v>123</v>
@@ -5910,7 +6253,7 @@
         <v>27</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J75" s="12">
         <v>98</v>
@@ -5956,7 +6299,7 @@
         <v>96</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E76" s="12">
         <v>105</v>
@@ -5978,7 +6321,7 @@
         <v>99</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L76" s="12">
         <v>109</v>
@@ -6012,7 +6355,7 @@
         <v>44512</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C77" s="12">
         <v>93</v>
@@ -6034,7 +6377,7 @@
         <v>20</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J77" s="12">
         <v>100</v>
@@ -6334,7 +6677,7 @@
         <v>92</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" ref="F82:F103" si="12">SUM(J82 - L82)</f>
+        <f t="shared" ref="F82:F106" si="12">SUM(J82 - L82)</f>
         <v>10</v>
       </c>
       <c r="G82" s="2">
@@ -6356,22 +6699,22 @@
         <v>97</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" ref="M82:M103" si="13">SUM(J82+L82)</f>
+        <f t="shared" ref="M82:M106" si="13">SUM(J82+L82)</f>
         <v>204</v>
       </c>
       <c r="N82" s="2">
         <v>203.5</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" ref="O82:O103" si="14">SUM(C82+E82)</f>
+        <f t="shared" ref="O82:O106" si="14">SUM(C82+E82)</f>
         <v>196</v>
       </c>
       <c r="P82" s="3" t="str">
-        <f t="shared" ref="P82:P103" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="P82:P106" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
         <v>OVER</v>
       </c>
       <c r="Q82" s="2" t="str">
-        <f t="shared" ref="Q82:Q103" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="Q82:Q106" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R82" s="2" t="str">
@@ -6886,7 +7229,7 @@
         <v>95</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E91" s="2">
         <v>124</v>
@@ -6908,7 +7251,7 @@
         <v>102</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L91" s="2">
         <v>104</v>
@@ -6942,7 +7285,7 @@
         <v>44514</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C92" s="2">
         <v>100</v>
@@ -6964,7 +7307,7 @@
         <v>27</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J92" s="2">
         <v>101</v>
@@ -7314,13 +7657,13 @@
         <v>44515</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C98" s="2">
         <v>101</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E98" s="2">
         <v>111</v>
@@ -7336,13 +7679,13 @@
         <v>27</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J98" s="2">
         <v>103</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L98" s="2">
         <v>100</v>
@@ -7624,7 +7967,7 @@
         <v>44515</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2">
         <v>121</v>
@@ -7646,7 +7989,7 @@
         <v>27</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J103" s="2">
         <v>106</v>
@@ -7679,6 +8022,189 @@
       <c r="R103" s="2" t="str">
         <f t="shared" si="17"/>
         <v>LOSS</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A104" s="11">
+        <v>44516</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" s="12">
+        <v>117</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" s="12">
+        <v>99</v>
+      </c>
+      <c r="F104" s="12">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="G104" s="12">
+        <v>-3</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J104" s="12">
+        <v>109</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L104" s="12">
+        <v>102</v>
+      </c>
+      <c r="M104" s="12">
+        <f t="shared" si="13"/>
+        <v>211</v>
+      </c>
+      <c r="N104" s="12">
+        <v>222</v>
+      </c>
+      <c r="O104" s="12">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="P104" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q104" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A105" s="11">
+        <v>44516</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="12">
+        <v>85</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="12">
+        <v>120</v>
+      </c>
+      <c r="F105" s="12">
+        <f t="shared" si="12"/>
+        <v>-9</v>
+      </c>
+      <c r="G105" s="12">
+        <v>-10</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="12">
+        <v>106</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L105" s="12">
+        <v>115</v>
+      </c>
+      <c r="M105" s="12">
+        <f t="shared" si="13"/>
+        <v>221</v>
+      </c>
+      <c r="N105" s="12">
+        <v>216</v>
+      </c>
+      <c r="O105" s="12">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+      <c r="P105" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q105" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A106" s="11">
+        <v>44516</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="12">
+        <v>92</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106" s="12">
+        <v>106</v>
+      </c>
+      <c r="F106" s="12">
+        <f t="shared" si="12"/>
+        <v>-8</v>
+      </c>
+      <c r="G106" s="12">
+        <v>-7.5</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J106" s="12">
+        <v>101</v>
+      </c>
+      <c r="K106" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L106" s="12">
+        <v>109</v>
+      </c>
+      <c r="M106" s="12">
+        <f t="shared" si="13"/>
+        <v>210</v>
+      </c>
+      <c r="N106" s="12">
+        <v>220</v>
+      </c>
+      <c r="O106" s="12">
+        <f t="shared" si="14"/>
+        <v>198</v>
+      </c>
+      <c r="P106" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q106" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R106" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -7688,16 +8214,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="14.90625" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -7708,42 +8238,110 @@
         <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H111,"WIN")</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.41399999999999998</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45100000000000001</v>
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E53BB-C93D-4B26-9E13-6251657A3492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D5A772-7129-4397-BEB0-F2143B4452CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -236,39 +236,6 @@
     <t>Totals Confidence</t>
   </si>
   <si>
-    <t>Washington +1</t>
-  </si>
-  <si>
-    <t>Indiana -1</t>
-  </si>
-  <si>
-    <t>Boston +4.5</t>
-  </si>
-  <si>
-    <t>Cleveland +9.5</t>
-  </si>
-  <si>
-    <t>Chicago +1.5</t>
-  </si>
-  <si>
-    <t>Miami -8</t>
-  </si>
-  <si>
-    <t>New York -12</t>
-  </si>
-  <si>
-    <t>Phoenix -8.5</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers +9</t>
-  </si>
-  <si>
-    <t>Sacramento +4</t>
-  </si>
-  <si>
-    <t>Houston +2</t>
-  </si>
-  <si>
     <t>Spread HIGH Win</t>
   </si>
   <si>
@@ -309,6 +276,24 @@
   </si>
   <si>
     <t>LOW %</t>
+  </si>
+  <si>
+    <t>Golden State - 9.5</t>
+  </si>
+  <si>
+    <t>Miami -6.5</t>
+  </si>
+  <si>
+    <t>Utah -9.5</t>
+  </si>
+  <si>
+    <t>Los Angeles -PK</t>
+  </si>
+  <si>
+    <t>San Antonio +2</t>
+  </si>
+  <si>
+    <t>Philadelphia +7.5</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1271,31 +1256,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-1</v>
+        <v>9.5</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I2">
-        <v>220</v>
+        <v>208.5</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -1306,31 +1291,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>6.5</v>
+        <v>-6.5</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
         <v>107</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
       </c>
       <c r="H3">
         <v>207</v>
       </c>
       <c r="I3">
-        <v>205.5</v>
+        <v>206.5</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -1341,31 +1326,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E4">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I4">
-        <v>216</v>
+        <v>220.5</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -1376,66 +1361,66 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-9.5</v>
+        <v>-2</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G5">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H5">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I5">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-8</v>
+        <v>-7.5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="G6">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H6">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I6">
-        <v>213</v>
+        <v>209.5</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
@@ -1446,212 +1431,37 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-9</v>
+        <v>-9.5</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H7">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I7">
-        <v>221.5</v>
+        <v>215</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>-12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
         <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8">
-        <v>112</v>
-      </c>
-      <c r="H8">
-        <v>212</v>
-      </c>
-      <c r="I8">
-        <v>208.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>-2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>110</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9">
-        <v>106</v>
-      </c>
-      <c r="H9">
-        <v>216</v>
-      </c>
-      <c r="I9">
-        <v>227</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>-2.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>102</v>
-      </c>
-      <c r="H10">
-        <v>203</v>
-      </c>
-      <c r="I10">
-        <v>213.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>-8.5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11">
-        <v>113</v>
-      </c>
-      <c r="H11">
-        <v>209</v>
-      </c>
-      <c r="I11">
-        <v>212.5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>-1.5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12">
-        <v>107</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12">
-        <v>107</v>
-      </c>
-      <c r="H12">
-        <v>214</v>
-      </c>
-      <c r="I12">
-        <v>219.5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1661,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView topLeftCell="C94" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView topLeftCell="C100" workbookViewId="0">
+      <selection activeCell="R107" sqref="R107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6677,7 +6487,7 @@
         <v>92</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" ref="F82:F106" si="12">SUM(J82 - L82)</f>
+        <f t="shared" ref="F82:F117" si="12">SUM(J82 - L82)</f>
         <v>10</v>
       </c>
       <c r="G82" s="2">
@@ -6699,22 +6509,22 @@
         <v>97</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" ref="M82:M106" si="13">SUM(J82+L82)</f>
+        <f t="shared" ref="M82:M117" si="13">SUM(J82+L82)</f>
         <v>204</v>
       </c>
       <c r="N82" s="2">
         <v>203.5</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" ref="O82:O106" si="14">SUM(C82+E82)</f>
+        <f t="shared" ref="O82:O117" si="14">SUM(C82+E82)</f>
         <v>196</v>
       </c>
       <c r="P82" s="3" t="str">
-        <f t="shared" ref="P82:P106" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="P82:P117" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
         <v>OVER</v>
       </c>
       <c r="Q82" s="2" t="str">
-        <f t="shared" ref="Q82:Q106" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="Q82:Q117" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R82" s="2" t="str">
@@ -8205,6 +8015,688 @@
       </c>
       <c r="R106" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A107" s="11">
+        <v>44517</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="12">
+        <v>87</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E107" s="12">
+        <v>97</v>
+      </c>
+      <c r="F107" s="12">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="G107" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J107" s="12">
+        <v>108</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L107" s="12">
+        <v>109</v>
+      </c>
+      <c r="M107" s="12">
+        <f t="shared" si="13"/>
+        <v>217</v>
+      </c>
+      <c r="N107" s="12">
+        <v>220</v>
+      </c>
+      <c r="O107" s="12">
+        <f t="shared" si="14"/>
+        <v>184</v>
+      </c>
+      <c r="P107" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q107" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R107" s="14" t="str">
+        <f t="shared" ref="R107:R117" si="18">IF(P107=Q107,"WIN","LOSS")</f>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A108" s="11">
+        <v>44517</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="12">
+        <v>89</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="12">
+        <v>97</v>
+      </c>
+      <c r="F108" s="12">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="G108" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J108" s="12">
+        <v>107</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L108" s="12">
+        <v>100</v>
+      </c>
+      <c r="M108" s="12">
+        <f t="shared" si="13"/>
+        <v>207</v>
+      </c>
+      <c r="N108" s="12">
+        <v>205.5</v>
+      </c>
+      <c r="O108" s="12">
+        <f t="shared" si="14"/>
+        <v>186</v>
+      </c>
+      <c r="P108" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q108" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R108" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A109" s="11">
+        <v>44517</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" s="12">
+        <v>99</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="12">
+        <v>110</v>
+      </c>
+      <c r="F109" s="12">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="G109" s="12">
+        <v>-4.5</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J109" s="12">
+        <v>106</v>
+      </c>
+      <c r="K109" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L109" s="12">
+        <v>108</v>
+      </c>
+      <c r="M109" s="12">
+        <f t="shared" si="13"/>
+        <v>214</v>
+      </c>
+      <c r="N109" s="12">
+        <v>216</v>
+      </c>
+      <c r="O109" s="12">
+        <f t="shared" si="14"/>
+        <v>209</v>
+      </c>
+      <c r="P109" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q109" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R109" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A110" s="11">
+        <v>44517</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" s="12">
+        <v>99</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="12">
+        <v>109</v>
+      </c>
+      <c r="F110" s="12">
+        <f t="shared" si="12"/>
+        <v>-8</v>
+      </c>
+      <c r="G110" s="12">
+        <v>-9.5</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J110" s="12">
+        <v>98</v>
+      </c>
+      <c r="K110" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L110" s="12">
+        <v>106</v>
+      </c>
+      <c r="M110" s="12">
+        <f t="shared" si="13"/>
+        <v>204</v>
+      </c>
+      <c r="N110" s="12">
+        <v>206</v>
+      </c>
+      <c r="O110" s="12">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+      <c r="P110" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q110" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R110" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A111" s="11">
+        <v>44517</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="12">
+        <v>98</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="12">
+        <v>113</v>
+      </c>
+      <c r="F111" s="12">
+        <f t="shared" si="12"/>
+        <v>-19</v>
+      </c>
+      <c r="G111" s="12">
+        <v>-8</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J111" s="12">
+        <v>97</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L111" s="12">
+        <v>116</v>
+      </c>
+      <c r="M111" s="12">
+        <f t="shared" si="13"/>
+        <v>213</v>
+      </c>
+      <c r="N111" s="12">
+        <v>213</v>
+      </c>
+      <c r="O111" s="12">
+        <f t="shared" si="14"/>
+        <v>211</v>
+      </c>
+      <c r="P111" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q111" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R111" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A112" s="11">
+        <v>44517</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="12">
+        <v>102</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="12">
+        <v>109</v>
+      </c>
+      <c r="F112" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="12">
+        <v>-9</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J112" s="12">
+        <v>108</v>
+      </c>
+      <c r="K112" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L112" s="12">
+        <v>108</v>
+      </c>
+      <c r="M112" s="12">
+        <f t="shared" si="13"/>
+        <v>216</v>
+      </c>
+      <c r="N112" s="12">
+        <v>221.5</v>
+      </c>
+      <c r="O112" s="12">
+        <f t="shared" si="14"/>
+        <v>211</v>
+      </c>
+      <c r="P112" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q112" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R112" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A113" s="11">
+        <v>44517</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" s="12">
+        <v>104</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="12">
+        <v>98</v>
+      </c>
+      <c r="F113" s="12">
+        <f t="shared" si="12"/>
+        <v>-12</v>
+      </c>
+      <c r="G113" s="12">
+        <v>-12</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J113" s="12">
+        <v>100</v>
+      </c>
+      <c r="K113" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L113" s="12">
+        <v>112</v>
+      </c>
+      <c r="M113" s="12">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="N113" s="12">
+        <v>208.5</v>
+      </c>
+      <c r="O113" s="12">
+        <f t="shared" si="14"/>
+        <v>202</v>
+      </c>
+      <c r="P113" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q113" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R113" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A114" s="11">
+        <v>44517</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114" s="12">
+        <v>97</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" s="12">
+        <v>107</v>
+      </c>
+      <c r="F114" s="12">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="G114" s="12">
+        <v>-2</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J114" s="12">
+        <v>110</v>
+      </c>
+      <c r="K114" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L114" s="12">
+        <v>106</v>
+      </c>
+      <c r="M114" s="12">
+        <f t="shared" si="13"/>
+        <v>216</v>
+      </c>
+      <c r="N114" s="12">
+        <v>227</v>
+      </c>
+      <c r="O114" s="12">
+        <f t="shared" si="14"/>
+        <v>204</v>
+      </c>
+      <c r="P114" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q114" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R114" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A115" s="11">
+        <v>44517</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="12">
+        <v>89</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" s="12">
+        <v>101</v>
+      </c>
+      <c r="F115" s="12">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="G115" s="12">
+        <v>-2.5</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J115" s="12">
+        <v>101</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L115" s="12">
+        <v>102</v>
+      </c>
+      <c r="M115" s="12">
+        <f t="shared" si="13"/>
+        <v>203</v>
+      </c>
+      <c r="N115" s="12">
+        <v>213.5</v>
+      </c>
+      <c r="O115" s="12">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+      <c r="P115" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q115" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R115" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A116" s="11">
+        <v>44517</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="12">
+        <v>98</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="12">
+        <v>105</v>
+      </c>
+      <c r="F116" s="12">
+        <f t="shared" si="12"/>
+        <v>-17</v>
+      </c>
+      <c r="G116" s="12">
+        <v>-8.5</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J116" s="12">
+        <v>96</v>
+      </c>
+      <c r="K116" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L116" s="12">
+        <v>113</v>
+      </c>
+      <c r="M116" s="12">
+        <f t="shared" si="13"/>
+        <v>209</v>
+      </c>
+      <c r="N116" s="12">
+        <v>212.5</v>
+      </c>
+      <c r="O116" s="12">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
+      <c r="P116" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q116" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R116" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A117" s="11">
+        <v>44517</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" s="12">
+        <v>107</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E117" s="12">
+        <v>112</v>
+      </c>
+      <c r="F117" s="12">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="G117" s="12">
+        <v>-1.5</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J117" s="12">
+        <v>110</v>
+      </c>
+      <c r="K117" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L117" s="12">
+        <v>107</v>
+      </c>
+      <c r="M117" s="12">
+        <f t="shared" si="13"/>
+        <v>217</v>
+      </c>
+      <c r="N117" s="12">
+        <v>219.5</v>
+      </c>
+      <c r="O117" s="12">
+        <f t="shared" si="14"/>
+        <v>219</v>
+      </c>
+      <c r="P117" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q117" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R117" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
       </c>
     </row>
   </sheetData>
@@ -8216,8 +8708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8241,10 +8733,10 @@
         <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>58</v>
@@ -8253,58 +8745,58 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H111,"WIN")</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.42199999999999999</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45700000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -8312,36 +8804,36 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D5A772-7129-4397-BEB0-F2143B4452CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5EC392-E21A-4BF3-92A3-C9333F4F36C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -278,22 +278,31 @@
     <t>LOW %</t>
   </si>
   <si>
-    <t>Golden State - 9.5</t>
+    <t>Charlotte -2</t>
   </si>
   <si>
-    <t>Miami -6.5</t>
+    <t>Brooklyn -12.5</t>
   </si>
   <si>
-    <t>Utah -9.5</t>
+    <t>Sacramento -3.5</t>
   </si>
   <si>
-    <t>Los Angeles -PK</t>
+    <t>Golden State - 7</t>
   </si>
   <si>
-    <t>San Antonio +2</t>
+    <t>Los Angeles Lakers +2</t>
   </si>
   <si>
-    <t>Philadelphia +7.5</t>
+    <t>Oklahoma City +12.5</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers -3.5</t>
+  </si>
+  <si>
+    <t>Chicago +3</t>
+  </si>
+  <si>
+    <t>Phoenix - 8.5</t>
   </si>
 </sst>
 </file>
@@ -1199,16 +1208,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="3" width="20.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
     <col min="4" max="4" width="19.26953125" customWidth="1"/>
     <col min="5" max="5" width="16.08984375" customWidth="1"/>
     <col min="6" max="6" width="22.453125" customWidth="1"/>
@@ -1256,7 +1266,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>9.5</v>
+        <v>-2</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
@@ -1265,25 +1275,25 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I2">
-        <v>208.5</v>
+        <v>214.5</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>64</v>
@@ -1291,34 +1301,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-6.5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H3">
+        <v>205</v>
+      </c>
+      <c r="I3">
         <v>207</v>
       </c>
-      <c r="I3">
-        <v>206.5</v>
-      </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>64</v>
@@ -1326,66 +1336,66 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H4">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I4">
-        <v>220.5</v>
+        <v>214.5</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-2</v>
+        <v>-12.5</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G5">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H5">
         <v>209</v>
       </c>
       <c r="I5">
-        <v>219</v>
+        <v>214.5</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -1396,7 +1406,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-7.5</v>
+        <v>-12.5</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -1405,62 +1415,167 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H6">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I6">
-        <v>209.5</v>
+        <v>215</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-9.5</v>
+        <v>3.5</v>
       </c>
       <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <v>211</v>
+      </c>
+      <c r="I7">
+        <v>215.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>102</v>
+      </c>
+      <c r="H8">
+        <v>205</v>
+      </c>
+      <c r="I8">
+        <v>209.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-8.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>113</v>
+      </c>
+      <c r="H9">
+        <v>212</v>
+      </c>
+      <c r="I9">
+        <v>211.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-3.5</v>
+      </c>
+      <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E7">
-        <v>101</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>114</v>
-      </c>
-      <c r="H7">
-        <v>215</v>
-      </c>
-      <c r="I7">
-        <v>215</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="E10">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>115</v>
+      </c>
+      <c r="H10">
+        <v>222</v>
+      </c>
+      <c r="I10">
+        <v>221</v>
+      </c>
+      <c r="J10" t="s">
         <v>31</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1471,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
-    <sheetView topLeftCell="C100" workbookViewId="0">
-      <selection activeCell="R107" sqref="R107"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="P118" sqref="P118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6487,7 +6602,7 @@
         <v>92</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" ref="F82:F117" si="12">SUM(J82 - L82)</f>
+        <f t="shared" ref="F82:F123" si="12">SUM(J82 - L82)</f>
         <v>10</v>
       </c>
       <c r="G82" s="2">
@@ -6509,22 +6624,22 @@
         <v>97</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" ref="M82:M117" si="13">SUM(J82+L82)</f>
+        <f t="shared" ref="M82:M123" si="13">SUM(J82+L82)</f>
         <v>204</v>
       </c>
       <c r="N82" s="2">
         <v>203.5</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" ref="O82:O117" si="14">SUM(C82+E82)</f>
+        <f t="shared" ref="O82:O123" si="14">SUM(C82+E82)</f>
         <v>196</v>
       </c>
       <c r="P82" s="3" t="str">
-        <f t="shared" ref="P82:P117" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="P82:P123" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
         <v>OVER</v>
       </c>
       <c r="Q82" s="2" t="str">
-        <f t="shared" ref="Q82:Q117" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="Q82:Q123" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R82" s="2" t="str">
@@ -8075,7 +8190,7 @@
         <v>UNDER</v>
       </c>
       <c r="R107" s="14" t="str">
-        <f t="shared" ref="R107:R117" si="18">IF(P107=Q107,"WIN","LOSS")</f>
+        <f t="shared" ref="R107:R123" si="18">IF(P107=Q107,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -8695,6 +8810,378 @@
         <v>UNDER</v>
       </c>
       <c r="R117" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A118" s="11">
+        <v>44518</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C118" s="12">
+        <v>104</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E118" s="12">
+        <v>89</v>
+      </c>
+      <c r="F118" s="12">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="G118" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J118" s="12">
+        <v>110</v>
+      </c>
+      <c r="K118" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L118" s="12">
+        <v>96</v>
+      </c>
+      <c r="M118" s="12">
+        <f t="shared" si="13"/>
+        <v>206</v>
+      </c>
+      <c r="N118" s="12">
+        <v>208.5</v>
+      </c>
+      <c r="O118" s="12">
+        <f t="shared" si="14"/>
+        <v>193</v>
+      </c>
+      <c r="P118" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q118" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R118" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A119" s="11">
+        <v>44518</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C119" s="12">
+        <v>97</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="12">
+        <v>112</v>
+      </c>
+      <c r="F119" s="12">
+        <f t="shared" si="12"/>
+        <v>-7</v>
+      </c>
+      <c r="G119" s="12">
+        <v>-6.5</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J119" s="12">
+        <v>100</v>
+      </c>
+      <c r="K119" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L119" s="12">
+        <v>107</v>
+      </c>
+      <c r="M119" s="12">
+        <f t="shared" si="13"/>
+        <v>207</v>
+      </c>
+      <c r="N119" s="12">
+        <v>206.5</v>
+      </c>
+      <c r="O119" s="12">
+        <f t="shared" si="14"/>
+        <v>209</v>
+      </c>
+      <c r="P119" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q119" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R119" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A120" s="11">
+        <v>44518</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" s="12">
+        <v>108</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="12">
+        <v>120</v>
+      </c>
+      <c r="F120" s="12">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="G120" s="12">
+        <v>0</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J120" s="12">
+        <v>112</v>
+      </c>
+      <c r="K120" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L120" s="12">
+        <v>103</v>
+      </c>
+      <c r="M120" s="12">
+        <f t="shared" si="13"/>
+        <v>215</v>
+      </c>
+      <c r="N120" s="12">
+        <v>220.5</v>
+      </c>
+      <c r="O120" s="12">
+        <f t="shared" si="14"/>
+        <v>228</v>
+      </c>
+      <c r="P120" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q120" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R120" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A121" s="11">
+        <v>44518</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="12">
+        <v>90</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E121" s="12">
+        <v>115</v>
+      </c>
+      <c r="F121" s="12">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G121" s="12">
+        <v>-2</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J121" s="12">
+        <v>105</v>
+      </c>
+      <c r="K121" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L121" s="12">
+        <v>104</v>
+      </c>
+      <c r="M121" s="12">
+        <f t="shared" si="13"/>
+        <v>209</v>
+      </c>
+      <c r="N121" s="12">
+        <v>219</v>
+      </c>
+      <c r="O121" s="12">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+      <c r="P121" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q121" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R121" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A122" s="11">
+        <v>44518</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="12">
+        <v>103</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E122" s="12">
+        <v>89</v>
+      </c>
+      <c r="F122" s="12">
+        <f t="shared" si="12"/>
+        <v>-6</v>
+      </c>
+      <c r="G122" s="12">
+        <v>-7.5</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" s="12">
+        <v>103</v>
+      </c>
+      <c r="K122" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L122" s="12">
+        <v>109</v>
+      </c>
+      <c r="M122" s="12">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="N122" s="12">
+        <v>209.5</v>
+      </c>
+      <c r="O122" s="12">
+        <f t="shared" si="14"/>
+        <v>192</v>
+      </c>
+      <c r="P122" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q122" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R122" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A123" s="11">
+        <v>44518</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" s="12">
+        <v>103</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="12">
+        <v>119</v>
+      </c>
+      <c r="F123" s="12">
+        <f t="shared" si="12"/>
+        <v>-13</v>
+      </c>
+      <c r="G123" s="12">
+        <v>-9.5</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J123" s="12">
+        <v>101</v>
+      </c>
+      <c r="K123" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L123" s="12">
+        <v>114</v>
+      </c>
+      <c r="M123" s="12">
+        <f t="shared" si="13"/>
+        <v>215</v>
+      </c>
+      <c r="N123" s="12">
+        <v>215</v>
+      </c>
+      <c r="O123" s="12">
+        <f t="shared" si="14"/>
+        <v>222</v>
+      </c>
+      <c r="P123" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q123" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R123" s="14" t="str">
         <f t="shared" si="18"/>
         <v>WIN</v>
       </c>
@@ -8708,8 +9195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8744,28 +9231,28 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>COUNTIF(Archive!$H2:H111,"WIN")</f>
-        <v>45</v>
+        <f>COUNTIF(Archive!$H2:H200,"WIN")</f>
+        <v>50</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(Archive!$H2:H111,"LOSS")</f>
-        <v>62</v>
+        <f>COUNTIF(Archive!$H2:H200,"LOSS")</f>
+        <v>69</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.42099999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(Archive!$R2:R111,"WIN")</f>
-        <v>50</v>
+        <f>COUNTIF(Archive!$R2:R200,"WIN")</f>
+        <v>59</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(Archive!$R2:R111,"LOSS")</f>
-        <v>60</v>
+        <f>COUNTIF(Archive!$R2:R200,"LOSS")</f>
+        <v>63</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45500000000000002</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -8790,16 +9277,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <f>ROUND(SUM(A5/(A5+B5)),3)</f>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>4</v>
+      </c>
+      <c r="F5">
+        <f>ROUND(SUM(D5/(D5+E5)),3)</f>
+        <v>0.69199999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -8824,16 +9319,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <f>ROUND(SUM(A8/(A8+B8)),3)</f>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <f>ROUND(SUM(D8/(D8+E8)),3)</f>
+        <v>0.38900000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5EC392-E21A-4BF3-92A3-C9333F4F36C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7006E02D-DBEC-4F1E-B61E-07FB0632208E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -281,9 +281,6 @@
     <t>Charlotte -2</t>
   </si>
   <si>
-    <t>Brooklyn -12.5</t>
-  </si>
-  <si>
     <t>Sacramento -3.5</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>Phoenix - 8.5</t>
+  </si>
+  <si>
+    <t>Orlando +10</t>
   </si>
 </sst>
 </file>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1304,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -1339,7 +1339,7 @@
         <v>-2</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-12.5</v>
+        <v>-10</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -1389,10 +1389,10 @@
         <v>34</v>
       </c>
       <c r="G5">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H5">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I5">
         <v>214.5</v>
@@ -1409,7 +1409,7 @@
         <v>-12.5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
@@ -1444,7 +1444,7 @@
         <v>3.5</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -1479,7 +1479,7 @@
         <v>-3</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -1514,7 +1514,7 @@
         <v>-8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
@@ -1549,7 +1549,7 @@
         <v>-3.5</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -9195,7 +9195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7006E02D-DBEC-4F1E-B61E-07FB0632208E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F4D41F-179E-4EDB-9BC8-B1DFD3BE2CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -284,9 +284,6 @@
     <t>Sacramento -3.5</t>
   </si>
   <si>
-    <t>Golden State - 7</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers +2</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>Orlando +10</t>
+  </si>
+  <si>
+    <t>Golden State - 2</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -1313,7 +1313,7 @@
         <v>46</v>
       </c>
       <c r="E3">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -1322,16 +1322,16 @@
         <v>91</v>
       </c>
       <c r="H3">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="I3">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1339,7 +1339,7 @@
         <v>-2</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -1374,7 +1374,7 @@
         <v>-10</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -1409,7 +1409,7 @@
         <v>-12.5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
@@ -1444,7 +1444,7 @@
         <v>3.5</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -1479,7 +1479,7 @@
         <v>-3</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -1514,7 +1514,7 @@
         <v>-8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F4D41F-179E-4EDB-9BC8-B1DFD3BE2CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0A4EB3-BE5E-4FEB-834F-93539CE3A539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -278,31 +278,31 @@
     <t>LOW %</t>
   </si>
   <si>
-    <t>Charlotte -2</t>
+    <t>Houston +11</t>
   </si>
   <si>
-    <t>Sacramento -3.5</t>
+    <t>Charlotte +6</t>
   </si>
   <si>
-    <t>Los Angeles Lakers +2</t>
+    <t>Oklahoma City +10.5</t>
   </si>
   <si>
-    <t>Oklahoma City +12.5</t>
+    <t>Philadelphia +6</t>
   </si>
   <si>
-    <t>Los Angeles Clippers -3.5</t>
+    <t>Indiana -7.5</t>
   </si>
   <si>
-    <t>Chicago +3</t>
+    <t>Miami -1.5</t>
   </si>
   <si>
-    <t>Phoenix - 8.5</t>
+    <t>Milwaukee -11.5</t>
   </si>
   <si>
-    <t>Orlando +10</t>
+    <t>Minnesota -1.5</t>
   </si>
   <si>
-    <t>Golden State - 2</t>
+    <t>Sacramento +7</t>
   </si>
 </sst>
 </file>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,34 +1266,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I2">
-        <v>214.5</v>
+        <v>211.5</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>64</v>
@@ -1301,115 +1301,115 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>-7.5</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G3">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="H3">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="I3">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-2</v>
+        <v>1.5</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H4">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I4">
-        <v>214.5</v>
+        <v>210</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>113</v>
+      </c>
+      <c r="H5">
+        <v>227</v>
+      </c>
+      <c r="I5">
+        <v>226</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5">
-        <v>96</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5">
-        <v>105</v>
-      </c>
-      <c r="H5">
-        <v>201</v>
-      </c>
-      <c r="I5">
-        <v>214.5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-12.5</v>
+        <v>-10.5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
@@ -1418,19 +1418,19 @@
         <v>32</v>
       </c>
       <c r="E6">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H6">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I6">
-        <v>215</v>
+        <v>205.5</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
@@ -1441,31 +1441,31 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>3.5</v>
+        <v>-11.5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="H7">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I7">
-        <v>215.5</v>
+        <v>212.5</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
@@ -1476,31 +1476,31 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G8">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H8">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="I8">
-        <v>209.5</v>
+        <v>219</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
@@ -1511,69 +1511,69 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>-8.5</v>
+        <v>-6</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H9">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="I9">
-        <v>211.5</v>
+        <v>217.5</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>-3.5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
       </c>
       <c r="G10">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H10">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I10">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
         <v>64</v>
@@ -1586,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R123"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="P118" sqref="P118"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6602,7 +6602,7 @@
         <v>92</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" ref="F82:F123" si="12">SUM(J82 - L82)</f>
+        <f t="shared" ref="F82:F132" si="12">SUM(J82 - L82)</f>
         <v>10</v>
       </c>
       <c r="G82" s="2">
@@ -6624,22 +6624,22 @@
         <v>97</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" ref="M82:M123" si="13">SUM(J82+L82)</f>
+        <f t="shared" ref="M82:M132" si="13">SUM(J82+L82)</f>
         <v>204</v>
       </c>
       <c r="N82" s="2">
         <v>203.5</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" ref="O82:O123" si="14">SUM(C82+E82)</f>
+        <f t="shared" ref="O82:O132" si="14">SUM(C82+E82)</f>
         <v>196</v>
       </c>
       <c r="P82" s="3" t="str">
-        <f t="shared" ref="P82:P123" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="P82:P132" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
         <v>OVER</v>
       </c>
       <c r="Q82" s="2" t="str">
-        <f t="shared" ref="Q82:Q123" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="Q82:Q132" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R82" s="2" t="str">
@@ -8190,7 +8190,7 @@
         <v>UNDER</v>
       </c>
       <c r="R107" s="14" t="str">
-        <f t="shared" ref="R107:R123" si="18">IF(P107=Q107,"WIN","LOSS")</f>
+        <f t="shared" ref="R107:R132" si="18">IF(P107=Q107,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -9184,6 +9184,564 @@
       <c r="R123" s="14" t="str">
         <f t="shared" si="18"/>
         <v>WIN</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A124" s="11">
+        <v>44519</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="12">
+        <v>118</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" s="12">
+        <v>121</v>
+      </c>
+      <c r="F124" s="12">
+        <f t="shared" si="12"/>
+        <v>-6</v>
+      </c>
+      <c r="G124" s="12">
+        <v>-2</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J124" s="12">
+        <v>106</v>
+      </c>
+      <c r="K124" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L124" s="12">
+        <v>112</v>
+      </c>
+      <c r="M124" s="12">
+        <f t="shared" si="13"/>
+        <v>218</v>
+      </c>
+      <c r="N124" s="12">
+        <v>214.5</v>
+      </c>
+      <c r="O124" s="12">
+        <f t="shared" si="14"/>
+        <v>239</v>
+      </c>
+      <c r="P124" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q124" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R124" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A125" s="11">
+        <v>44519</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C125" s="12">
+        <v>105</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="12">
+        <v>102</v>
+      </c>
+      <c r="F125" s="12">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="G125" s="12">
+        <v>2</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J125" s="12">
+        <v>100</v>
+      </c>
+      <c r="K125" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L125" s="12">
+        <v>91</v>
+      </c>
+      <c r="M125" s="12">
+        <f t="shared" si="13"/>
+        <v>191</v>
+      </c>
+      <c r="N125" s="12">
+        <v>200</v>
+      </c>
+      <c r="O125" s="12">
+        <f t="shared" si="14"/>
+        <v>207</v>
+      </c>
+      <c r="P125" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q125" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R125" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A126" s="11">
+        <v>44519</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="12">
+        <v>108</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="12">
+        <v>130</v>
+      </c>
+      <c r="F126" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="12">
+        <v>-2</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J126" s="12">
+        <v>104</v>
+      </c>
+      <c r="K126" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L126" s="12">
+        <v>104</v>
+      </c>
+      <c r="M126" s="12">
+        <f t="shared" si="13"/>
+        <v>208</v>
+      </c>
+      <c r="N126" s="12">
+        <v>214.5</v>
+      </c>
+      <c r="O126" s="12">
+        <f t="shared" si="14"/>
+        <v>238</v>
+      </c>
+      <c r="P126" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q126" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R126" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A127" s="11">
+        <v>44519</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="12">
+        <v>113</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="12">
+        <v>115</v>
+      </c>
+      <c r="F127" s="12">
+        <f t="shared" si="12"/>
+        <v>-9</v>
+      </c>
+      <c r="G127" s="12">
+        <v>-10</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J127" s="12">
+        <v>96</v>
+      </c>
+      <c r="K127" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L127" s="12">
+        <v>105</v>
+      </c>
+      <c r="M127" s="12">
+        <f t="shared" si="13"/>
+        <v>201</v>
+      </c>
+      <c r="N127" s="12">
+        <v>214.5</v>
+      </c>
+      <c r="O127" s="12">
+        <f t="shared" si="14"/>
+        <v>228</v>
+      </c>
+      <c r="P127" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q127" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R127" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A128" s="11">
+        <v>44519</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" s="12">
+        <v>89</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" s="12">
+        <v>96</v>
+      </c>
+      <c r="F128" s="12">
+        <f t="shared" si="12"/>
+        <v>-9</v>
+      </c>
+      <c r="G128" s="12">
+        <v>-12.5</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J128" s="12">
+        <v>99</v>
+      </c>
+      <c r="K128" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L128" s="12">
+        <v>108</v>
+      </c>
+      <c r="M128" s="12">
+        <f t="shared" si="13"/>
+        <v>207</v>
+      </c>
+      <c r="N128" s="12">
+        <v>215</v>
+      </c>
+      <c r="O128" s="12">
+        <f t="shared" si="14"/>
+        <v>185</v>
+      </c>
+      <c r="P128" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q128" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R128" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A129" s="11">
+        <v>44519</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" s="12">
+        <v>81</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129" s="12">
+        <v>94</v>
+      </c>
+      <c r="F129" s="12">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="G129" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J129" s="12">
+        <v>113</v>
+      </c>
+      <c r="K129" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L129" s="12">
+        <v>98</v>
+      </c>
+      <c r="M129" s="12">
+        <f t="shared" si="13"/>
+        <v>211</v>
+      </c>
+      <c r="N129" s="12">
+        <v>215.5</v>
+      </c>
+      <c r="O129" s="12">
+        <f t="shared" si="14"/>
+        <v>175</v>
+      </c>
+      <c r="P129" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q129" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R129" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A130" s="11">
+        <v>44519</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C130" s="12">
+        <v>114</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E130" s="12">
+        <v>108</v>
+      </c>
+      <c r="F130" s="12">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G130" s="12">
+        <v>-3</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J130" s="12">
+        <v>103</v>
+      </c>
+      <c r="K130" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L130" s="12">
+        <v>102</v>
+      </c>
+      <c r="M130" s="12">
+        <f t="shared" si="13"/>
+        <v>205</v>
+      </c>
+      <c r="N130" s="12">
+        <v>209.5</v>
+      </c>
+      <c r="O130" s="12">
+        <f t="shared" si="14"/>
+        <v>222</v>
+      </c>
+      <c r="P130" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q130" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R130" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A131" s="11">
+        <v>44519</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131" s="12">
+        <v>104</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="12">
+        <v>112</v>
+      </c>
+      <c r="F131" s="12">
+        <f t="shared" si="12"/>
+        <v>-14</v>
+      </c>
+      <c r="G131" s="12">
+        <v>-8.5</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J131" s="12">
+        <v>99</v>
+      </c>
+      <c r="K131" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L131" s="12">
+        <v>113</v>
+      </c>
+      <c r="M131" s="12">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="N131" s="12">
+        <v>211.5</v>
+      </c>
+      <c r="O131" s="12">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="P131" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q131" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R131" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A132" s="11">
+        <v>44519</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" s="12">
+        <v>108</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E132" s="12">
+        <v>89</v>
+      </c>
+      <c r="F132" s="12">
+        <f t="shared" si="12"/>
+        <v>-8</v>
+      </c>
+      <c r="G132" s="12">
+        <v>-3.5</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J132" s="12">
+        <v>107</v>
+      </c>
+      <c r="K132" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L132" s="12">
+        <v>115</v>
+      </c>
+      <c r="M132" s="12">
+        <f t="shared" si="13"/>
+        <v>222</v>
+      </c>
+      <c r="N132" s="12">
+        <v>221</v>
+      </c>
+      <c r="O132" s="12">
+        <f t="shared" si="14"/>
+        <v>197</v>
+      </c>
+      <c r="P132" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q132" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R132" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
       </c>
     </row>
   </sheetData>
@@ -9196,7 +9754,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9232,27 +9790,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H200,"WIN")</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H200,"LOSS")</f>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R200,"WIN")</f>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R200,"LOSS")</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.48399999999999999</v>
+        <v>0.48099999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -9277,24 +9835,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.46200000000000002</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.69199999999999995</v>
+        <v>0.58799999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -9319,24 +9877,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.38900000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.38900000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0A4EB3-BE5E-4FEB-834F-93539CE3A539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AF7ED3-9C7E-425E-B8C2-981E71A19287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -278,31 +278,19 @@
     <t>LOW %</t>
   </si>
   <si>
-    <t>Houston +11</t>
+    <t>Los Angeles Clippers -2.5</t>
   </si>
   <si>
-    <t>Charlotte +6</t>
+    <t>Los Angeles Lakers -7.5</t>
   </si>
   <si>
-    <t>Oklahoma City +10.5</t>
+    <t>Chicago -5</t>
   </si>
   <si>
-    <t>Philadelphia +6</t>
+    <t>Waiting Jokic Status</t>
   </si>
   <si>
-    <t>Indiana -7.5</t>
-  </si>
-  <si>
-    <t>Miami -1.5</t>
-  </si>
-  <si>
-    <t>Milwaukee -11.5</t>
-  </si>
-  <si>
-    <t>Minnesota -1.5</t>
-  </si>
-  <si>
-    <t>Sacramento +7</t>
+    <t>Golden State -9.5</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,69 +1254,69 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-11</v>
+        <v>-2.5</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>109</v>
       </c>
       <c r="H2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I2">
-        <v>211.5</v>
+        <v>213</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-7.5</v>
+        <v>7.5</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E3">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
         <v>101</v>
       </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3">
-        <v>113</v>
-      </c>
       <c r="H3">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I3">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>64</v>
@@ -1336,246 +1324,88 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1.5</v>
+        <v>-5</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G4">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H4">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="I4">
-        <v>210</v>
+        <v>209.5</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>-6</v>
-      </c>
       <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="H5">
-        <v>227</v>
-      </c>
-      <c r="I5">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-10.5</v>
+        <v>-9.5</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H6">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="I6">
-        <v>205.5</v>
+        <v>217</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>-11.5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <v>112</v>
-      </c>
-      <c r="H7">
-        <v>212</v>
-      </c>
-      <c r="I7">
-        <v>212.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>-1.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8">
-        <v>106</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8">
-        <v>110</v>
-      </c>
-      <c r="H8">
-        <v>216</v>
-      </c>
-      <c r="I8">
-        <v>219</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>-6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>110</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9">
-        <v>114</v>
-      </c>
-      <c r="H9">
-        <v>224</v>
-      </c>
-      <c r="I9">
-        <v>217.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>112</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>107</v>
-      </c>
-      <c r="H10">
-        <v>219</v>
-      </c>
-      <c r="I10">
-        <v>223</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1586,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R132"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView topLeftCell="C124" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6602,7 +6432,7 @@
         <v>92</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" ref="F82:F132" si="12">SUM(J82 - L82)</f>
+        <f t="shared" ref="F82:F141" si="12">SUM(J82 - L82)</f>
         <v>10</v>
       </c>
       <c r="G82" s="2">
@@ -6624,22 +6454,22 @@
         <v>97</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" ref="M82:M132" si="13">SUM(J82+L82)</f>
+        <f t="shared" ref="M82:M141" si="13">SUM(J82+L82)</f>
         <v>204</v>
       </c>
       <c r="N82" s="2">
         <v>203.5</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" ref="O82:O132" si="14">SUM(C82+E82)</f>
+        <f t="shared" ref="O82:O141" si="14">SUM(C82+E82)</f>
         <v>196</v>
       </c>
       <c r="P82" s="3" t="str">
-        <f t="shared" ref="P82:P132" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="P82:P141" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
         <v>OVER</v>
       </c>
       <c r="Q82" s="2" t="str">
-        <f t="shared" ref="Q82:Q132" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="Q82:Q141" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R82" s="2" t="str">
@@ -8190,7 +8020,7 @@
         <v>UNDER</v>
       </c>
       <c r="R107" s="14" t="str">
-        <f t="shared" ref="R107:R132" si="18">IF(P107=Q107,"WIN","LOSS")</f>
+        <f t="shared" ref="R107:R141" si="18">IF(P107=Q107,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -9740,6 +9570,564 @@
         <v>UNDER</v>
       </c>
       <c r="R132" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A133" s="11">
+        <v>44520</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" s="12">
+        <v>99</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133" s="12">
+        <v>106</v>
+      </c>
+      <c r="F133" s="12">
+        <f t="shared" si="12"/>
+        <v>-8</v>
+      </c>
+      <c r="G133" s="12">
+        <v>-11</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J133" s="12">
+        <v>101</v>
+      </c>
+      <c r="K133" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L133" s="12">
+        <v>109</v>
+      </c>
+      <c r="M133" s="12">
+        <f t="shared" si="13"/>
+        <v>210</v>
+      </c>
+      <c r="N133" s="12">
+        <v>211.5</v>
+      </c>
+      <c r="O133" s="12">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+      <c r="P133" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q133" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R133" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A134" s="11">
+        <v>44520</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" s="12">
+        <v>94</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E134" s="12">
+        <v>111</v>
+      </c>
+      <c r="F134" s="12">
+        <f t="shared" si="12"/>
+        <v>-12</v>
+      </c>
+      <c r="G134" s="12">
+        <v>-7.5</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J134" s="12">
+        <v>101</v>
+      </c>
+      <c r="K134" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L134" s="12">
+        <v>113</v>
+      </c>
+      <c r="M134" s="12">
+        <f t="shared" si="13"/>
+        <v>214</v>
+      </c>
+      <c r="N134" s="12">
+        <v>214</v>
+      </c>
+      <c r="O134" s="12">
+        <f t="shared" si="14"/>
+        <v>205</v>
+      </c>
+      <c r="P134" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q134" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R134" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A135" s="11">
+        <v>44520</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" s="12">
+        <v>100</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135" s="12">
+        <v>103</v>
+      </c>
+      <c r="F135" s="12">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="G135" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J135" s="12">
+        <v>105</v>
+      </c>
+      <c r="K135" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L135" s="12">
+        <v>102</v>
+      </c>
+      <c r="M135" s="12">
+        <f t="shared" si="13"/>
+        <v>207</v>
+      </c>
+      <c r="N135" s="12">
+        <v>210</v>
+      </c>
+      <c r="O135" s="12">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
+      <c r="P135" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q135" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R135" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A136" s="11">
+        <v>44520</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C136" s="12">
+        <v>105</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="12">
+        <v>115</v>
+      </c>
+      <c r="F136" s="12">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G136" s="12">
+        <v>-6</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J136" s="12">
+        <v>114</v>
+      </c>
+      <c r="K136" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L136" s="12">
+        <v>113</v>
+      </c>
+      <c r="M136" s="12">
+        <f t="shared" si="13"/>
+        <v>227</v>
+      </c>
+      <c r="N136" s="12">
+        <v>226</v>
+      </c>
+      <c r="O136" s="12">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="P136" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q136" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R136" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A137" s="11">
+        <v>44520</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" s="12">
+        <v>105</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="12">
+        <v>111</v>
+      </c>
+      <c r="F137" s="12">
+        <f t="shared" si="12"/>
+        <v>-9</v>
+      </c>
+      <c r="G137" s="12">
+        <v>-10.5</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J137" s="12">
+        <v>95</v>
+      </c>
+      <c r="K137" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L137" s="12">
+        <v>104</v>
+      </c>
+      <c r="M137" s="12">
+        <f t="shared" si="13"/>
+        <v>199</v>
+      </c>
+      <c r="N137" s="12">
+        <v>205.5</v>
+      </c>
+      <c r="O137" s="12">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="P137" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q137" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R137" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A138" s="11">
+        <v>44520</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" s="12">
+        <v>108</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="12">
+        <v>117</v>
+      </c>
+      <c r="F138" s="12">
+        <f t="shared" si="12"/>
+        <v>-12</v>
+      </c>
+      <c r="G138" s="12">
+        <v>-11.5</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J138" s="12">
+        <v>100</v>
+      </c>
+      <c r="K138" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L138" s="12">
+        <v>112</v>
+      </c>
+      <c r="M138" s="12">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="N138" s="12">
+        <v>212.5</v>
+      </c>
+      <c r="O138" s="12">
+        <f t="shared" si="14"/>
+        <v>225</v>
+      </c>
+      <c r="P138" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q138" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R138" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A139" s="11">
+        <v>44520</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139" s="12">
+        <v>95</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" s="12">
+        <v>138</v>
+      </c>
+      <c r="F139" s="12">
+        <f t="shared" si="12"/>
+        <v>-4</v>
+      </c>
+      <c r="G139" s="12">
+        <v>-1.5</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J139" s="12">
+        <v>106</v>
+      </c>
+      <c r="K139" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L139" s="12">
+        <v>110</v>
+      </c>
+      <c r="M139" s="12">
+        <f t="shared" si="13"/>
+        <v>216</v>
+      </c>
+      <c r="N139" s="12">
+        <v>219</v>
+      </c>
+      <c r="O139" s="12">
+        <f t="shared" si="14"/>
+        <v>233</v>
+      </c>
+      <c r="P139" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q139" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R139" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A140" s="11">
+        <v>44520</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="12">
+        <v>111</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140" s="12">
+        <v>118</v>
+      </c>
+      <c r="F140" s="12">
+        <f t="shared" si="12"/>
+        <v>-4</v>
+      </c>
+      <c r="G140" s="12">
+        <v>-6</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" s="12">
+        <v>110</v>
+      </c>
+      <c r="K140" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L140" s="12">
+        <v>114</v>
+      </c>
+      <c r="M140" s="12">
+        <f t="shared" si="13"/>
+        <v>224</v>
+      </c>
+      <c r="N140" s="12">
+        <v>217.5</v>
+      </c>
+      <c r="O140" s="12">
+        <f t="shared" si="14"/>
+        <v>229</v>
+      </c>
+      <c r="P140" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q140" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R140" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A141" s="11">
+        <v>44520</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" s="12">
+        <v>123</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E141" s="12">
+        <v>105</v>
+      </c>
+      <c r="F141" s="12">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="G141" s="12">
+        <v>7</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J141" s="12">
+        <v>112</v>
+      </c>
+      <c r="K141" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L141" s="12">
+        <v>107</v>
+      </c>
+      <c r="M141" s="12">
+        <f t="shared" si="13"/>
+        <v>219</v>
+      </c>
+      <c r="N141" s="12">
+        <v>223</v>
+      </c>
+      <c r="O141" s="12">
+        <f t="shared" si="14"/>
+        <v>228</v>
+      </c>
+      <c r="P141" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q141" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R141" s="14" t="str">
         <f t="shared" si="18"/>
         <v>LOSS</v>
       </c>
@@ -9790,27 +10178,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H200,"WIN")</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H200,"LOSS")</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.43</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R200,"WIN")</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R200,"LOSS")</f>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.48099999999999998</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -9835,24 +10223,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.44400000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.58799999999999997</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -9877,24 +10265,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.45500000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.45500000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AF7ED3-9C7E-425E-B8C2-981E71A19287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01F5055-BA06-4C64-A3F8-ED4CBE5B8281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -287,10 +287,10 @@
     <t>Chicago -5</t>
   </si>
   <si>
-    <t>Waiting Jokic Status</t>
+    <t>Golden State -9.5</t>
   </si>
   <si>
-    <t>Golden State -9.5</t>
+    <t>Denver +8</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1358,20 +1358,38 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-8</v>
+      </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
       </c>
+      <c r="E5">
+        <v>105</v>
+      </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
+      <c r="G5">
+        <v>109</v>
+      </c>
       <c r="H5">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="I5">
+        <v>209.5</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1379,7 +1397,7 @@
         <v>-9.5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01F5055-BA06-4C64-A3F8-ED4CBE5B8281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C52BFD-D2D8-47DB-9693-97993D5EAC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -278,19 +278,22 @@
     <t>LOW %</t>
   </si>
   <si>
-    <t>Los Angeles Clippers -2.5</t>
+    <t>Cleveland +6.5</t>
   </si>
   <si>
-    <t>Los Angeles Lakers -7.5</t>
+    <t>NO BET</t>
   </si>
   <si>
-    <t>Chicago -5</t>
+    <t>Chicago -3</t>
   </si>
   <si>
-    <t>Golden State -9.5</t>
+    <t>Minnesota -3.5</t>
   </si>
   <si>
-    <t>Denver +8</t>
+    <t>Utah -10</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1254,176 +1257,351 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-2.5</v>
+        <v>6.5</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>7.5</v>
+        <v>-4</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E3">
+        <v>106</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3">
         <v>109</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>101</v>
-      </c>
       <c r="H3">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I3">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-5</v>
+        <v>-11.5</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4">
+        <v>211</v>
+      </c>
+      <c r="I4">
         <v>213</v>
       </c>
-      <c r="I4">
-        <v>209.5</v>
-      </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-8</v>
+        <v>-11.5</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>107</v>
+      </c>
+      <c r="H5">
+        <v>205</v>
+      </c>
+      <c r="I5">
+        <v>214</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>109</v>
-      </c>
-      <c r="H5">
-        <v>214</v>
-      </c>
-      <c r="I5">
-        <v>209.5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-9.5</v>
+        <v>-3</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G6">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H6">
+        <v>212</v>
+      </c>
+      <c r="I6">
+        <v>212</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>112</v>
+      </c>
+      <c r="H7">
+        <v>212</v>
+      </c>
+      <c r="I7">
+        <v>216.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>210</v>
+      </c>
+      <c r="I8">
+        <v>212.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>5.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>103</v>
+      </c>
+      <c r="H9">
         <v>213</v>
       </c>
-      <c r="I6">
-        <v>217</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I9">
+        <v>221</v>
+      </c>
+      <c r="J9" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>120</v>
+      </c>
+      <c r="H10">
+        <v>223</v>
+      </c>
+      <c r="I10">
+        <v>221.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>-2.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>114</v>
+      </c>
+      <c r="H11">
+        <v>224</v>
+      </c>
+      <c r="I11">
+        <v>220</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1434,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView topLeftCell="C124" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6450,7 +6628,7 @@
         <v>92</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" ref="F82:F141" si="12">SUM(J82 - L82)</f>
+        <f t="shared" ref="F82:F145" si="12">SUM(J82 - L82)</f>
         <v>10</v>
       </c>
       <c r="G82" s="2">
@@ -6472,22 +6650,22 @@
         <v>97</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" ref="M82:M141" si="13">SUM(J82+L82)</f>
+        <f t="shared" ref="M82:M145" si="13">SUM(J82+L82)</f>
         <v>204</v>
       </c>
       <c r="N82" s="2">
         <v>203.5</v>
       </c>
       <c r="O82" s="2">
-        <f t="shared" ref="O82:O141" si="14">SUM(C82+E82)</f>
+        <f t="shared" ref="O82:O145" si="14">SUM(C82+E82)</f>
         <v>196</v>
       </c>
       <c r="P82" s="3" t="str">
-        <f t="shared" ref="P82:P141" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="P82:P145" si="15">IF(M82&lt;N82,"UNDER","OVER")</f>
         <v>OVER</v>
       </c>
       <c r="Q82" s="2" t="str">
-        <f t="shared" ref="Q82:Q141" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
+        <f t="shared" ref="Q82:Q145" si="16">IF(O82&lt;N82,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="R82" s="2" t="str">
@@ -8038,7 +8216,7 @@
         <v>UNDER</v>
       </c>
       <c r="R107" s="14" t="str">
-        <f t="shared" ref="R107:R141" si="18">IF(P107=Q107,"WIN","LOSS")</f>
+        <f t="shared" ref="R107:R146" si="18">IF(P107=Q107,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -10146,6 +10324,316 @@
         <v>OVER</v>
       </c>
       <c r="R141" s="14" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="2">
+        <v>91</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E142" s="2">
+        <v>97</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="12"/>
+        <v>-10</v>
+      </c>
+      <c r="G142" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J142" s="2">
+        <v>99</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L142" s="2">
+        <v>109</v>
+      </c>
+      <c r="M142" s="2">
+        <f t="shared" si="13"/>
+        <v>208</v>
+      </c>
+      <c r="N142" s="2">
+        <v>213</v>
+      </c>
+      <c r="O142" s="2">
+        <f t="shared" si="14"/>
+        <v>188</v>
+      </c>
+      <c r="P142" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q142" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>UNDER</v>
+      </c>
+      <c r="R142" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="2">
+        <v>121</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" s="2">
+        <v>116</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="G143" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J143" s="2">
+        <v>109</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L143" s="2">
+        <v>101</v>
+      </c>
+      <c r="M143" s="2">
+        <f t="shared" si="13"/>
+        <v>210</v>
+      </c>
+      <c r="N143" s="2">
+        <v>211</v>
+      </c>
+      <c r="O143" s="2">
+        <f t="shared" si="14"/>
+        <v>237</v>
+      </c>
+      <c r="P143" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>UNDER</v>
+      </c>
+      <c r="Q143" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R143" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>LOSS</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C144" s="2">
+        <v>103</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E144" s="2">
+        <v>109</v>
+      </c>
+      <c r="F144" s="2">
+        <f t="shared" si="12"/>
+        <v>-9</v>
+      </c>
+      <c r="G144" s="2">
+        <v>-5</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J144" s="2">
+        <v>102</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L144" s="2">
+        <v>111</v>
+      </c>
+      <c r="M144" s="2">
+        <f t="shared" si="13"/>
+        <v>213</v>
+      </c>
+      <c r="N144" s="2">
+        <v>209.5</v>
+      </c>
+      <c r="O144" s="2">
+        <f t="shared" si="14"/>
+        <v>212</v>
+      </c>
+      <c r="P144" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q144" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R144" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C145" s="2">
+        <v>97</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E145" s="2">
+        <v>126</v>
+      </c>
+      <c r="F145" s="2">
+        <f t="shared" si="12"/>
+        <v>-4</v>
+      </c>
+      <c r="G145" s="2">
+        <v>-8</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J145" s="2">
+        <v>105</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L145" s="2">
+        <v>109</v>
+      </c>
+      <c r="M145" s="2">
+        <f t="shared" si="13"/>
+        <v>214</v>
+      </c>
+      <c r="N145" s="2">
+        <v>209.5</v>
+      </c>
+      <c r="O145" s="2">
+        <f t="shared" si="14"/>
+        <v>223</v>
+      </c>
+      <c r="P145" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>OVER</v>
+      </c>
+      <c r="Q145" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OVER</v>
+      </c>
+      <c r="R145" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>WIN</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C146" s="2">
+        <v>104</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E146" s="2">
+        <v>119</v>
+      </c>
+      <c r="F146" s="2">
+        <f t="shared" ref="F146" si="19">SUM(J146 - L146)</f>
+        <v>-19</v>
+      </c>
+      <c r="G146" s="2">
+        <v>-9.5</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J146" s="2">
+        <v>97</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L146" s="2">
+        <v>116</v>
+      </c>
+      <c r="M146" s="2">
+        <f t="shared" ref="M146" si="20">SUM(J146+L146)</f>
+        <v>213</v>
+      </c>
+      <c r="N146" s="2">
+        <v>217</v>
+      </c>
+      <c r="O146" s="2">
+        <f t="shared" ref="O146" si="21">SUM(C146+E146)</f>
+        <v>223</v>
+      </c>
+      <c r="P146" s="3" t="str">
+        <f t="shared" ref="P146" si="22">IF(M146&lt;N146,"UNDER","OVER")</f>
+        <v>UNDER</v>
+      </c>
+      <c r="Q146" s="2" t="str">
+        <f t="shared" ref="Q146" si="23">IF(O146&lt;N146,"UNDER","OVER")</f>
+        <v>OVER</v>
+      </c>
+      <c r="R146" s="2" t="str">
         <f t="shared" si="18"/>
         <v>LOSS</v>
       </c>
@@ -10159,7 +10647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -10196,27 +10684,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H200,"WIN")</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H200,"LOSS")</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.43099999999999999</v>
+        <v>0.437</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R200,"WIN")</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R200,"LOSS")</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.47099999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -10241,24 +10729,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.45</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.57899999999999996</v>
+        <v>0.61899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -10283,24 +10771,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.44800000000000001</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.41399999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C52BFD-D2D8-47DB-9693-97993D5EAC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C839A050-F45A-418F-B35C-437E0F95F533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -293,7 +293,7 @@
     <t>Utah -10</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10647,7 +10647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C839A050-F45A-418F-B35C-437E0F95F533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5259835B-98B1-47D1-A19C-93D371E87ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -278,22 +278,19 @@
     <t>LOW %</t>
   </si>
   <si>
-    <t>Cleveland +6.5</t>
-  </si>
-  <si>
     <t>NO BET</t>
   </si>
   <si>
-    <t>Chicago -3</t>
+    <t>NOBET</t>
   </si>
   <si>
-    <t>Minnesota -3.5</t>
+    <t>Miami -10</t>
   </si>
   <si>
-    <t>Utah -10</t>
+    <t>Los Angeles Lakers +4.5</t>
   </si>
   <si>
-    <t>NONE</t>
+    <t>Waiting on Luka</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1257,352 +1254,142 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>98</v>
+      </c>
+      <c r="H2">
+        <v>208</v>
+      </c>
+      <c r="I2">
+        <v>208.5</v>
+      </c>
+      <c r="J2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2">
-        <v>101</v>
-      </c>
-      <c r="H2">
-        <v>205</v>
-      </c>
-      <c r="I2">
-        <v>209</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>109</v>
       </c>
       <c r="H3">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I3">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-11.5</v>
+        <v>-6</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I4">
-        <v>213</v>
+        <v>213.5</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-11.5</v>
+        <v>-5.5</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H5">
         <v>205</v>
       </c>
       <c r="I5">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>-3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6">
-        <v>102</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6">
-        <v>110</v>
-      </c>
-      <c r="H6">
-        <v>212</v>
-      </c>
-      <c r="I6">
-        <v>212</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>-12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <v>112</v>
-      </c>
-      <c r="H7">
-        <v>212</v>
-      </c>
-      <c r="I7">
-        <v>216.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8">
-        <v>110</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>210</v>
-      </c>
-      <c r="I8">
-        <v>212.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>5.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>110</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9">
-        <v>103</v>
-      </c>
-      <c r="H9">
-        <v>213</v>
-      </c>
-      <c r="I9">
-        <v>221</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>-10</v>
-      </c>
-      <c r="B10" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>103</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>120</v>
-      </c>
-      <c r="H10">
-        <v>223</v>
-      </c>
-      <c r="I10">
-        <v>221.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>-2.5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>110</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <v>114</v>
-      </c>
-      <c r="H11">
-        <v>224</v>
-      </c>
-      <c r="I11">
-        <v>220</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1612,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R146"/>
+  <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8216,7 +8003,7 @@
         <v>UNDER</v>
       </c>
       <c r="R107" s="14" t="str">
-        <f t="shared" ref="R107:R146" si="18">IF(P107=Q107,"WIN","LOSS")</f>
+        <f t="shared" ref="R107:R156" si="18">IF(P107=Q107,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -10593,7 +10380,7 @@
         <v>119</v>
       </c>
       <c r="F146" s="2">
-        <f t="shared" ref="F146" si="19">SUM(J146 - L146)</f>
+        <f t="shared" ref="F146:F156" si="19">SUM(J146 - L146)</f>
         <v>-19</v>
       </c>
       <c r="G146" s="2">
@@ -10615,27 +10402,587 @@
         <v>116</v>
       </c>
       <c r="M146" s="2">
-        <f t="shared" ref="M146" si="20">SUM(J146+L146)</f>
+        <f t="shared" ref="M146:M156" si="20">SUM(J146+L146)</f>
         <v>213</v>
       </c>
       <c r="N146" s="2">
         <v>217</v>
       </c>
       <c r="O146" s="2">
-        <f t="shared" ref="O146" si="21">SUM(C146+E146)</f>
+        <f t="shared" ref="O146:O156" si="21">SUM(C146+E146)</f>
         <v>223</v>
       </c>
       <c r="P146" s="3" t="str">
-        <f t="shared" ref="P146" si="22">IF(M146&lt;N146,"UNDER","OVER")</f>
+        <f t="shared" ref="P146:P156" si="22">IF(M146&lt;N146,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="Q146" s="2" t="str">
-        <f t="shared" ref="Q146" si="23">IF(O146&lt;N146,"UNDER","OVER")</f>
+        <f t="shared" ref="Q146:Q156" si="23">IF(O146&lt;N146,"UNDER","OVER")</f>
         <v>OVER</v>
       </c>
       <c r="R146" s="2" t="str">
         <f t="shared" si="18"/>
         <v>LOSS</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A147" s="4">
+        <v>44522</v>
+      </c>
+      <c r="B147" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147">
+        <v>117</v>
+      </c>
+      <c r="D147" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147">
+        <v>112</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147">
+        <v>6.5</v>
+      </c>
+      <c r="H147" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147" t="s">
+        <v>34</v>
+      </c>
+      <c r="J147">
+        <v>104</v>
+      </c>
+      <c r="K147" t="s">
+        <v>41</v>
+      </c>
+      <c r="L147">
+        <v>101</v>
+      </c>
+      <c r="M147">
+        <v>205</v>
+      </c>
+      <c r="N147">
+        <v>209</v>
+      </c>
+      <c r="O147">
+        <v>229</v>
+      </c>
+      <c r="P147" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>31</v>
+      </c>
+      <c r="R147" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A148" s="4">
+        <v>44522</v>
+      </c>
+      <c r="B148" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148">
+        <v>109</v>
+      </c>
+      <c r="D148" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148">
+        <v>103</v>
+      </c>
+      <c r="F148">
+        <v>-3</v>
+      </c>
+      <c r="G148">
+        <v>-4</v>
+      </c>
+      <c r="H148" t="s">
+        <v>81</v>
+      </c>
+      <c r="I148" t="s">
+        <v>49</v>
+      </c>
+      <c r="J148">
+        <v>106</v>
+      </c>
+      <c r="K148" t="s">
+        <v>38</v>
+      </c>
+      <c r="L148">
+        <v>109</v>
+      </c>
+      <c r="M148">
+        <v>215</v>
+      </c>
+      <c r="N148">
+        <v>216</v>
+      </c>
+      <c r="O148">
+        <v>212</v>
+      </c>
+      <c r="P148" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>82</v>
+      </c>
+      <c r="R148" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A149" s="4">
+        <v>44522</v>
+      </c>
+      <c r="B149" t="s">
+        <v>32</v>
+      </c>
+      <c r="C149">
+        <v>101</v>
+      </c>
+      <c r="D149" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149">
+        <v>113</v>
+      </c>
+      <c r="F149">
+        <v>-9</v>
+      </c>
+      <c r="G149">
+        <v>-11.5</v>
+      </c>
+      <c r="H149" t="s">
+        <v>81</v>
+      </c>
+      <c r="I149" t="s">
+        <v>32</v>
+      </c>
+      <c r="J149">
+        <v>101</v>
+      </c>
+      <c r="K149" t="s">
+        <v>24</v>
+      </c>
+      <c r="L149">
+        <v>110</v>
+      </c>
+      <c r="M149">
+        <v>211</v>
+      </c>
+      <c r="N149">
+        <v>213</v>
+      </c>
+      <c r="O149">
+        <v>214</v>
+      </c>
+      <c r="P149" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>82</v>
+      </c>
+      <c r="R149" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A150" s="4">
+        <v>44522</v>
+      </c>
+      <c r="B150" t="s">
+        <v>28</v>
+      </c>
+      <c r="C150">
+        <v>90</v>
+      </c>
+      <c r="D150" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150">
+        <v>108</v>
+      </c>
+      <c r="F150">
+        <v>-9</v>
+      </c>
+      <c r="G150">
+        <v>-11.5</v>
+      </c>
+      <c r="H150" t="s">
+        <v>81</v>
+      </c>
+      <c r="I150" t="s">
+        <v>28</v>
+      </c>
+      <c r="J150">
+        <v>98</v>
+      </c>
+      <c r="K150" t="s">
+        <v>25</v>
+      </c>
+      <c r="L150">
+        <v>107</v>
+      </c>
+      <c r="M150">
+        <v>205</v>
+      </c>
+      <c r="N150">
+        <v>214</v>
+      </c>
+      <c r="O150">
+        <v>198</v>
+      </c>
+      <c r="P150" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>22</v>
+      </c>
+      <c r="R150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A151" s="4">
+        <v>44522</v>
+      </c>
+      <c r="B151" t="s">
+        <v>47</v>
+      </c>
+      <c r="C151">
+        <v>109</v>
+      </c>
+      <c r="D151" t="s">
+        <v>54</v>
+      </c>
+      <c r="E151">
+        <v>77</v>
+      </c>
+      <c r="F151">
+        <v>-8</v>
+      </c>
+      <c r="G151">
+        <v>-3</v>
+      </c>
+      <c r="H151" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" t="s">
+        <v>47</v>
+      </c>
+      <c r="J151">
+        <v>102</v>
+      </c>
+      <c r="K151" t="s">
+        <v>54</v>
+      </c>
+      <c r="L151">
+        <v>110</v>
+      </c>
+      <c r="M151">
+        <v>212</v>
+      </c>
+      <c r="N151">
+        <v>212</v>
+      </c>
+      <c r="O151">
+        <v>186</v>
+      </c>
+      <c r="P151" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>82</v>
+      </c>
+      <c r="R151" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A152" s="4">
+        <v>44522</v>
+      </c>
+      <c r="B152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152">
+        <v>92</v>
+      </c>
+      <c r="D152" t="s">
+        <v>40</v>
+      </c>
+      <c r="E152">
+        <v>123</v>
+      </c>
+      <c r="F152">
+        <v>-12</v>
+      </c>
+      <c r="G152">
+        <v>-12</v>
+      </c>
+      <c r="H152" t="s">
+        <v>81</v>
+      </c>
+      <c r="I152" t="s">
+        <v>36</v>
+      </c>
+      <c r="J152">
+        <v>100</v>
+      </c>
+      <c r="K152" t="s">
+        <v>40</v>
+      </c>
+      <c r="L152">
+        <v>112</v>
+      </c>
+      <c r="M152">
+        <v>212</v>
+      </c>
+      <c r="N152">
+        <v>216.5</v>
+      </c>
+      <c r="O152">
+        <v>215</v>
+      </c>
+      <c r="P152" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>22</v>
+      </c>
+      <c r="R152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A153" s="4">
+        <v>44522</v>
+      </c>
+      <c r="B153" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153">
+        <v>110</v>
+      </c>
+      <c r="D153" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153">
+        <v>96</v>
+      </c>
+      <c r="F153">
+        <v>10</v>
+      </c>
+      <c r="G153">
+        <v>3.5</v>
+      </c>
+      <c r="H153" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153" t="s">
+        <v>44</v>
+      </c>
+      <c r="J153">
+        <v>110</v>
+      </c>
+      <c r="K153" t="s">
+        <v>45</v>
+      </c>
+      <c r="L153">
+        <v>100</v>
+      </c>
+      <c r="M153">
+        <v>210</v>
+      </c>
+      <c r="N153">
+        <v>212.5</v>
+      </c>
+      <c r="O153">
+        <v>206</v>
+      </c>
+      <c r="P153" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>82</v>
+      </c>
+      <c r="R153" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A154" s="4">
+        <v>44522</v>
+      </c>
+      <c r="B154" t="s">
+        <v>29</v>
+      </c>
+      <c r="C154">
+        <v>115</v>
+      </c>
+      <c r="D154" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154">
+        <v>111</v>
+      </c>
+      <c r="F154">
+        <v>7</v>
+      </c>
+      <c r="G154">
+        <v>5.5</v>
+      </c>
+      <c r="H154" t="s">
+        <v>81</v>
+      </c>
+      <c r="I154" t="s">
+        <v>29</v>
+      </c>
+      <c r="J154">
+        <v>110</v>
+      </c>
+      <c r="K154" t="s">
+        <v>35</v>
+      </c>
+      <c r="L154">
+        <v>103</v>
+      </c>
+      <c r="M154">
+        <v>213</v>
+      </c>
+      <c r="N154">
+        <v>221</v>
+      </c>
+      <c r="O154">
+        <v>226</v>
+      </c>
+      <c r="P154" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>31</v>
+      </c>
+      <c r="R154" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A155" s="4">
+        <v>44522</v>
+      </c>
+      <c r="B155" t="s">
+        <v>37</v>
+      </c>
+      <c r="C155">
+        <v>119</v>
+      </c>
+      <c r="D155" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155">
+        <v>118</v>
+      </c>
+      <c r="F155">
+        <v>-17</v>
+      </c>
+      <c r="G155">
+        <v>-10</v>
+      </c>
+      <c r="H155" t="s">
+        <v>27</v>
+      </c>
+      <c r="I155" t="s">
+        <v>37</v>
+      </c>
+      <c r="J155">
+        <v>103</v>
+      </c>
+      <c r="K155" t="s">
+        <v>23</v>
+      </c>
+      <c r="L155">
+        <v>120</v>
+      </c>
+      <c r="M155">
+        <v>223</v>
+      </c>
+      <c r="N155">
+        <v>221.5</v>
+      </c>
+      <c r="O155">
+        <v>237</v>
+      </c>
+      <c r="P155" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>82</v>
+      </c>
+      <c r="R155" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A156" s="4">
+        <v>44522</v>
+      </c>
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156">
+        <v>102</v>
+      </c>
+      <c r="D156" t="s">
+        <v>50</v>
+      </c>
+      <c r="E156">
+        <v>94</v>
+      </c>
+      <c r="F156">
+        <v>-4</v>
+      </c>
+      <c r="G156">
+        <v>-2.5</v>
+      </c>
+      <c r="H156" t="s">
+        <v>81</v>
+      </c>
+      <c r="I156" t="s">
+        <v>18</v>
+      </c>
+      <c r="J156">
+        <v>110</v>
+      </c>
+      <c r="K156" t="s">
+        <v>50</v>
+      </c>
+      <c r="L156">
+        <v>114</v>
+      </c>
+      <c r="M156">
+        <v>224</v>
+      </c>
+      <c r="N156">
+        <v>220</v>
+      </c>
+      <c r="O156">
+        <v>196</v>
+      </c>
+      <c r="P156" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>22</v>
+      </c>
+      <c r="R156" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -10684,27 +11031,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H200,"WIN")</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H200,"LOSS")</f>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R200,"WIN")</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R200,"LOSS")</f>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.47599999999999998</v>
+        <v>0.47299999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -10729,24 +11076,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.47799999999999998</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.61899999999999999</v>
+        <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -10771,24 +11118,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>17</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.45200000000000001</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.40600000000000003</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5259835B-98B1-47D1-A19C-93D371E87ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F120F4-1D08-49C3-8714-4816B8A6EA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>Los Angeles Lakers +4.5</t>
-  </si>
-  <si>
-    <t>Waiting on Luka</t>
   </si>
 </sst>
 </file>
@@ -1198,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1359,19 +1356,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-5.5</v>
+        <v>-3.5</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
       </c>
       <c r="E5">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1380,7 +1377,7 @@
         <v>108</v>
       </c>
       <c r="H5">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I5">
         <v>209</v>
@@ -1389,7 +1386,7 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -8003,7 +8000,7 @@
         <v>UNDER</v>
       </c>
       <c r="R107" s="14" t="str">
-        <f t="shared" ref="R107:R156" si="18">IF(P107=Q107,"WIN","LOSS")</f>
+        <f t="shared" ref="R107:R146" si="18">IF(P107=Q107,"WIN","LOSS")</f>
         <v>WIN</v>
       </c>
     </row>
@@ -10380,7 +10377,7 @@
         <v>119</v>
       </c>
       <c r="F146" s="2">
-        <f t="shared" ref="F146:F156" si="19">SUM(J146 - L146)</f>
+        <f t="shared" ref="F146" si="19">SUM(J146 - L146)</f>
         <v>-19</v>
       </c>
       <c r="G146" s="2">
@@ -10402,22 +10399,22 @@
         <v>116</v>
       </c>
       <c r="M146" s="2">
-        <f t="shared" ref="M146:M156" si="20">SUM(J146+L146)</f>
+        <f t="shared" ref="M146" si="20">SUM(J146+L146)</f>
         <v>213</v>
       </c>
       <c r="N146" s="2">
         <v>217</v>
       </c>
       <c r="O146" s="2">
-        <f t="shared" ref="O146:O156" si="21">SUM(C146+E146)</f>
+        <f t="shared" ref="O146" si="21">SUM(C146+E146)</f>
         <v>223</v>
       </c>
       <c r="P146" s="3" t="str">
-        <f t="shared" ref="P146:P156" si="22">IF(M146&lt;N146,"UNDER","OVER")</f>
+        <f t="shared" ref="P146" si="22">IF(M146&lt;N146,"UNDER","OVER")</f>
         <v>UNDER</v>
       </c>
       <c r="Q146" s="2" t="str">
-        <f t="shared" ref="Q146:Q156" si="23">IF(O146&lt;N146,"UNDER","OVER")</f>
+        <f t="shared" ref="Q146" si="23">IF(O146&lt;N146,"UNDER","OVER")</f>
         <v>OVER</v>
       </c>
       <c r="R146" s="2" t="str">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F120F4-1D08-49C3-8714-4816B8A6EA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF0BDAC-DF80-4159-BC92-456A8FF787C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -284,10 +284,22 @@
     <t>NOBET</t>
   </si>
   <si>
-    <t>Miami -10</t>
+    <t>NONE</t>
   </si>
   <si>
-    <t>Los Angeles Lakers +4.5</t>
+    <t>Los Angeles Lakers +5.5</t>
+  </si>
+  <si>
+    <t>Houston +10</t>
+  </si>
+  <si>
+    <t>Washington -4</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs +3.5</t>
+  </si>
+  <si>
+    <t>Golden State -10.5</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1251,142 +1263,457 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>208</v>
       </c>
       <c r="I2">
-        <v>208.5</v>
+        <v>210</v>
       </c>
       <c r="J2" t="s">
         <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-4.5</v>
+        <v>-5.5</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G3">
         <v>109</v>
       </c>
       <c r="H3">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I3">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E4">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
         <v>105</v>
       </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4">
-        <v>109</v>
-      </c>
       <c r="H4">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I4">
-        <v>213.5</v>
+        <v>219</v>
       </c>
       <c r="J4" t="s">
         <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-3.5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H5">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I5">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>207</v>
+      </c>
+      <c r="I6">
+        <v>217</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-3</v>
+      </c>
+      <c r="B7" t="s">
         <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>113</v>
+      </c>
+      <c r="H7">
+        <v>224</v>
+      </c>
+      <c r="I7">
+        <v>217.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>112</v>
+      </c>
+      <c r="H8">
+        <v>209</v>
+      </c>
+      <c r="I8">
+        <v>212.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>105</v>
+      </c>
+      <c r="H9">
+        <v>209</v>
+      </c>
+      <c r="I9">
+        <v>212.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>207</v>
+      </c>
+      <c r="I10">
+        <v>210.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>13.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>98</v>
+      </c>
+      <c r="H11">
+        <v>209</v>
+      </c>
+      <c r="I11">
+        <v>207.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3.5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>112</v>
+      </c>
+      <c r="H12">
+        <v>220</v>
+      </c>
+      <c r="I12">
+        <v>223.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>-10.5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>118</v>
+      </c>
+      <c r="H13">
+        <v>217</v>
+      </c>
+      <c r="I13">
+        <v>217</v>
+      </c>
+      <c r="J13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1.5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>113</v>
+      </c>
+      <c r="H14">
+        <v>225</v>
+      </c>
+      <c r="I14">
+        <v>225</v>
+      </c>
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1396,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R156"/>
+  <dimension ref="A1:R160"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView topLeftCell="C145" workbookViewId="0">
+      <selection activeCell="R161" sqref="R161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10982,6 +11309,230 @@
         <v>27</v>
       </c>
     </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A157" s="4">
+        <v>44523</v>
+      </c>
+      <c r="B157" t="s">
+        <v>26</v>
+      </c>
+      <c r="C157">
+        <v>100</v>
+      </c>
+      <c r="D157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157">
+        <v>92</v>
+      </c>
+      <c r="F157">
+        <v>12</v>
+      </c>
+      <c r="G157">
+        <v>10</v>
+      </c>
+      <c r="H157" t="s">
+        <v>27</v>
+      </c>
+      <c r="I157" t="s">
+        <v>26</v>
+      </c>
+      <c r="J157">
+        <v>110</v>
+      </c>
+      <c r="K157" t="s">
+        <v>19</v>
+      </c>
+      <c r="L157">
+        <v>98</v>
+      </c>
+      <c r="M157">
+        <v>208</v>
+      </c>
+      <c r="N157">
+        <v>208.5</v>
+      </c>
+      <c r="O157">
+        <v>192</v>
+      </c>
+      <c r="P157" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>22</v>
+      </c>
+      <c r="R157" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A158" s="4">
+        <v>44523</v>
+      </c>
+      <c r="B158" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158">
+        <v>100</v>
+      </c>
+      <c r="D158" t="s">
+        <v>39</v>
+      </c>
+      <c r="E158">
+        <v>106</v>
+      </c>
+      <c r="F158">
+        <v>-2</v>
+      </c>
+      <c r="G158">
+        <v>-4.5</v>
+      </c>
+      <c r="H158" t="s">
+        <v>27</v>
+      </c>
+      <c r="I158" t="s">
+        <v>33</v>
+      </c>
+      <c r="J158">
+        <v>107</v>
+      </c>
+      <c r="K158" t="s">
+        <v>39</v>
+      </c>
+      <c r="L158">
+        <v>109</v>
+      </c>
+      <c r="M158">
+        <v>216</v>
+      </c>
+      <c r="N158">
+        <v>213</v>
+      </c>
+      <c r="O158">
+        <v>206</v>
+      </c>
+      <c r="P158" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>22</v>
+      </c>
+      <c r="R158" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A159" s="4">
+        <v>44523</v>
+      </c>
+      <c r="B159" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159">
+        <v>100</v>
+      </c>
+      <c r="D159" t="s">
+        <v>48</v>
+      </c>
+      <c r="E159">
+        <v>119</v>
+      </c>
+      <c r="F159">
+        <v>-4</v>
+      </c>
+      <c r="G159">
+        <v>-6</v>
+      </c>
+      <c r="H159" t="s">
+        <v>81</v>
+      </c>
+      <c r="I159" t="s">
+        <v>55</v>
+      </c>
+      <c r="J159">
+        <v>105</v>
+      </c>
+      <c r="K159" t="s">
+        <v>48</v>
+      </c>
+      <c r="L159">
+        <v>109</v>
+      </c>
+      <c r="M159">
+        <v>214</v>
+      </c>
+      <c r="N159">
+        <v>213.5</v>
+      </c>
+      <c r="O159">
+        <v>219</v>
+      </c>
+      <c r="P159" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>31</v>
+      </c>
+      <c r="R159" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A160" s="4">
+        <v>44523</v>
+      </c>
+      <c r="B160" t="s">
+        <v>56</v>
+      </c>
+      <c r="C160">
+        <v>112</v>
+      </c>
+      <c r="D160" t="s">
+        <v>43</v>
+      </c>
+      <c r="E160">
+        <v>104</v>
+      </c>
+      <c r="F160">
+        <v>-9</v>
+      </c>
+      <c r="G160">
+        <v>-3.5</v>
+      </c>
+      <c r="H160" t="s">
+        <v>27</v>
+      </c>
+      <c r="I160" t="s">
+        <v>56</v>
+      </c>
+      <c r="J160">
+        <v>99</v>
+      </c>
+      <c r="K160" t="s">
+        <v>43</v>
+      </c>
+      <c r="L160">
+        <v>108</v>
+      </c>
+      <c r="M160">
+        <v>207</v>
+      </c>
+      <c r="N160">
+        <v>209</v>
+      </c>
+      <c r="O160">
+        <v>216</v>
+      </c>
+      <c r="P160" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>31</v>
+      </c>
+      <c r="R160" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10991,8 +11542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11032,11 +11583,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H200,"LOSS")</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.438</v>
+        <v>0.43</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R200,"WIN")</f>
@@ -11044,11 +11595,11 @@
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R200,"LOSS")</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.47299999999999998</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -11076,11 +11627,11 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.46200000000000002</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="D5">
         <v>14</v>
@@ -11118,21 +11669,21 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.46899999999999997</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D8">
         <v>14</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.4</v>
+        <v>0.38900000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF0BDAC-DF80-4159-BC92-456A8FF787C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE33B25-2E94-4A3E-AAF4-F7574B7C1AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>NONE</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers +5.5</t>
   </si>
   <si>
     <t>Houston +10</t>
@@ -1207,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1301,16 +1298,16 @@
         <v>-5.5</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -1319,16 +1316,16 @@
         <v>109</v>
       </c>
       <c r="H3">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I3">
-        <v>217</v>
+        <v>216.5</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1406,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
@@ -1546,7 +1543,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -1616,7 +1613,7 @@
         <v>3.5</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -1651,7 +1648,7 @@
         <v>-10.5</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -11542,7 +11539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE33B25-2E94-4A3E-AAF4-F7574B7C1AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D047957-D044-4877-B524-0A89D386488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -287,16 +287,28 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Houston +10</t>
+    <t>Los Angeles Clippers -13</t>
   </si>
   <si>
-    <t>Washington -4</t>
+    <t>Phoenix -3</t>
   </si>
   <si>
-    <t>San Antonio Spurs +3.5</t>
+    <t>Atlanta +3</t>
   </si>
   <si>
-    <t>Golden State -10.5</t>
+    <t>Oklahoma City +7.5</t>
+  </si>
+  <si>
+    <t>San Antonio +2.5</t>
+  </si>
+  <si>
+    <t>Utah - 12</t>
+  </si>
+  <si>
+    <t>Golden State -6.5</t>
+  </si>
+  <si>
+    <t>Sacramento +7.5</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1260,42 +1272,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>7.5</v>
+        <v>-13</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
@@ -1304,22 +1316,22 @@
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>109</v>
       </c>
       <c r="H3">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I3">
-        <v>216.5</v>
+        <v>222.5</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1330,31 +1342,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I4">
-        <v>219</v>
+        <v>216.5</v>
       </c>
       <c r="J4" t="s">
         <v>81</v>
@@ -1365,7 +1377,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
@@ -1374,92 +1386,92 @@
         <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E5">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I5">
-        <v>216</v>
+        <v>213.5</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>10</v>
+        <v>-3.5</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H6">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="I6">
-        <v>217</v>
+        <v>213.5</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
       </c>
       <c r="G7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H7">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I7">
-        <v>217.5</v>
+        <v>226</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -1470,136 +1482,136 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>-15</v>
+        <v>7.5</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H8">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I8">
-        <v>212.5</v>
+        <v>208.5</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I9">
-        <v>212.5</v>
+        <v>216</v>
       </c>
       <c r="J9" t="s">
         <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H10">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I10">
-        <v>210.5</v>
+        <v>213.5</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>13.5</v>
+        <v>-12</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>111</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
       <c r="G11">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H11">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="I11">
-        <v>207.5</v>
+        <v>216.5</v>
       </c>
       <c r="J11" t="s">
         <v>81</v>
@@ -1610,31 +1622,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>3.5</v>
+        <v>-6.5</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G12">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H12">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I12">
-        <v>223.5</v>
+        <v>225</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -1645,72 +1657,37 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>-10.5</v>
+        <v>-7.5</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E13">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G13">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H13">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I13">
-        <v>217</v>
+        <v>224.5</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>1.5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14">
-        <v>112</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>113</v>
-      </c>
-      <c r="H14">
-        <v>225</v>
-      </c>
-      <c r="I14">
-        <v>225</v>
-      </c>
-      <c r="J14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1720,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R160"/>
+  <dimension ref="A1:R173"/>
   <sheetViews>
-    <sheetView topLeftCell="C145" workbookViewId="0">
-      <selection activeCell="R161" sqref="R161"/>
+    <sheetView topLeftCell="C154" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11530,6 +11507,734 @@
         <v>53</v>
       </c>
     </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A161" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B161" t="s">
+        <v>29</v>
+      </c>
+      <c r="C161">
+        <v>120</v>
+      </c>
+      <c r="D161" t="s">
+        <v>41</v>
+      </c>
+      <c r="E161">
+        <v>115</v>
+      </c>
+      <c r="F161">
+        <v>8</v>
+      </c>
+      <c r="G161">
+        <v>7.5</v>
+      </c>
+      <c r="H161" t="s">
+        <v>81</v>
+      </c>
+      <c r="I161" t="s">
+        <v>29</v>
+      </c>
+      <c r="J161">
+        <v>108</v>
+      </c>
+      <c r="K161" t="s">
+        <v>41</v>
+      </c>
+      <c r="L161">
+        <v>100</v>
+      </c>
+      <c r="M161">
+        <v>208</v>
+      </c>
+      <c r="N161">
+        <v>210</v>
+      </c>
+      <c r="O161">
+        <v>235</v>
+      </c>
+      <c r="P161" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>31</v>
+      </c>
+      <c r="R161" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A162" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B162" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162">
+        <v>124</v>
+      </c>
+      <c r="D162" t="s">
+        <v>47</v>
+      </c>
+      <c r="E162">
+        <v>116</v>
+      </c>
+      <c r="F162">
+        <v>-7</v>
+      </c>
+      <c r="G162">
+        <v>-5.5</v>
+      </c>
+      <c r="H162" t="s">
+        <v>81</v>
+      </c>
+      <c r="I162" t="s">
+        <v>33</v>
+      </c>
+      <c r="J162">
+        <v>102</v>
+      </c>
+      <c r="K162" t="s">
+        <v>47</v>
+      </c>
+      <c r="L162">
+        <v>109</v>
+      </c>
+      <c r="M162">
+        <v>211</v>
+      </c>
+      <c r="N162">
+        <v>217</v>
+      </c>
+      <c r="O162">
+        <v>240</v>
+      </c>
+      <c r="P162" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>31</v>
+      </c>
+      <c r="R162" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A163" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B163" t="s">
+        <v>49</v>
+      </c>
+      <c r="C163">
+        <v>106</v>
+      </c>
+      <c r="D163" t="s">
+        <v>36</v>
+      </c>
+      <c r="E163">
+        <v>99</v>
+      </c>
+      <c r="F163">
+        <v>8</v>
+      </c>
+      <c r="G163">
+        <v>7</v>
+      </c>
+      <c r="H163" t="s">
+        <v>81</v>
+      </c>
+      <c r="I163" t="s">
+        <v>49</v>
+      </c>
+      <c r="J163">
+        <v>113</v>
+      </c>
+      <c r="K163" t="s">
+        <v>36</v>
+      </c>
+      <c r="L163">
+        <v>105</v>
+      </c>
+      <c r="M163">
+        <v>218</v>
+      </c>
+      <c r="N163">
+        <v>219</v>
+      </c>
+      <c r="O163">
+        <v>205</v>
+      </c>
+      <c r="P163" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>22</v>
+      </c>
+      <c r="R163" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A164" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B164" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164">
+        <v>123</v>
+      </c>
+      <c r="D164" t="s">
+        <v>25</v>
+      </c>
+      <c r="E164">
+        <v>104</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164" t="s">
+        <v>81</v>
+      </c>
+      <c r="I164" t="s">
+        <v>34</v>
+      </c>
+      <c r="J164">
+        <v>105</v>
+      </c>
+      <c r="K164" t="s">
+        <v>25</v>
+      </c>
+      <c r="L164">
+        <v>104</v>
+      </c>
+      <c r="M164">
+        <v>209</v>
+      </c>
+      <c r="N164">
+        <v>216</v>
+      </c>
+      <c r="O164">
+        <v>227</v>
+      </c>
+      <c r="P164" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>31</v>
+      </c>
+      <c r="R164" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A165" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B165" t="s">
+        <v>54</v>
+      </c>
+      <c r="C165">
+        <v>113</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165">
+        <v>118</v>
+      </c>
+      <c r="F165">
+        <v>7</v>
+      </c>
+      <c r="G165">
+        <v>10</v>
+      </c>
+      <c r="H165" t="s">
+        <v>20</v>
+      </c>
+      <c r="I165" t="s">
+        <v>54</v>
+      </c>
+      <c r="J165">
+        <v>107</v>
+      </c>
+      <c r="K165" t="s">
+        <v>28</v>
+      </c>
+      <c r="L165">
+        <v>100</v>
+      </c>
+      <c r="M165">
+        <v>207</v>
+      </c>
+      <c r="N165">
+        <v>217</v>
+      </c>
+      <c r="O165">
+        <v>231</v>
+      </c>
+      <c r="P165" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>31</v>
+      </c>
+      <c r="R165" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A166" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B166" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166">
+        <v>126</v>
+      </c>
+      <c r="D166" t="s">
+        <v>37</v>
+      </c>
+      <c r="E166">
+        <v>113</v>
+      </c>
+      <c r="F166">
+        <v>-2</v>
+      </c>
+      <c r="G166">
+        <v>-3</v>
+      </c>
+      <c r="H166" t="s">
+        <v>81</v>
+      </c>
+      <c r="I166" t="s">
+        <v>42</v>
+      </c>
+      <c r="J166">
+        <v>111</v>
+      </c>
+      <c r="K166" t="s">
+        <v>37</v>
+      </c>
+      <c r="L166">
+        <v>113</v>
+      </c>
+      <c r="M166">
+        <v>224</v>
+      </c>
+      <c r="N166">
+        <v>217.5</v>
+      </c>
+      <c r="O166">
+        <v>239</v>
+      </c>
+      <c r="P166" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>31</v>
+      </c>
+      <c r="R166" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A167" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167">
+        <v>93</v>
+      </c>
+      <c r="D167" t="s">
+        <v>40</v>
+      </c>
+      <c r="E167">
+        <v>114</v>
+      </c>
+      <c r="F167">
+        <v>-15</v>
+      </c>
+      <c r="G167">
+        <v>-15</v>
+      </c>
+      <c r="H167" t="s">
+        <v>81</v>
+      </c>
+      <c r="I167" t="s">
+        <v>19</v>
+      </c>
+      <c r="J167">
+        <v>97</v>
+      </c>
+      <c r="K167" t="s">
+        <v>40</v>
+      </c>
+      <c r="L167">
+        <v>112</v>
+      </c>
+      <c r="M167">
+        <v>209</v>
+      </c>
+      <c r="N167">
+        <v>212.5</v>
+      </c>
+      <c r="O167">
+        <v>207</v>
+      </c>
+      <c r="P167" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>22</v>
+      </c>
+      <c r="R167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A168" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B168" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168">
+        <v>101</v>
+      </c>
+      <c r="D168" t="s">
+        <v>44</v>
+      </c>
+      <c r="E168">
+        <v>113</v>
+      </c>
+      <c r="F168">
+        <v>-1</v>
+      </c>
+      <c r="G168">
+        <v>-1</v>
+      </c>
+      <c r="H168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I168" t="s">
+        <v>26</v>
+      </c>
+      <c r="J168">
+        <v>104</v>
+      </c>
+      <c r="K168" t="s">
+        <v>44</v>
+      </c>
+      <c r="L168">
+        <v>105</v>
+      </c>
+      <c r="M168">
+        <v>209</v>
+      </c>
+      <c r="N168">
+        <v>212.5</v>
+      </c>
+      <c r="O168">
+        <v>214</v>
+      </c>
+      <c r="P168" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>31</v>
+      </c>
+      <c r="R168" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A169" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B169" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169">
+        <v>102</v>
+      </c>
+      <c r="D169" t="s">
+        <v>45</v>
+      </c>
+      <c r="E169">
+        <v>127</v>
+      </c>
+      <c r="F169">
+        <v>7</v>
+      </c>
+      <c r="G169">
+        <v>4</v>
+      </c>
+      <c r="H169" t="s">
+        <v>27</v>
+      </c>
+      <c r="I169" t="s">
+        <v>38</v>
+      </c>
+      <c r="J169">
+        <v>107</v>
+      </c>
+      <c r="K169" t="s">
+        <v>45</v>
+      </c>
+      <c r="L169">
+        <v>100</v>
+      </c>
+      <c r="M169">
+        <v>207</v>
+      </c>
+      <c r="N169">
+        <v>210.5</v>
+      </c>
+      <c r="O169">
+        <v>229</v>
+      </c>
+      <c r="P169" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>31</v>
+      </c>
+      <c r="R169" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A170" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B170" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170">
+        <v>110</v>
+      </c>
+      <c r="D170" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170">
+        <v>104</v>
+      </c>
+      <c r="F170">
+        <v>13</v>
+      </c>
+      <c r="G170">
+        <v>13.5</v>
+      </c>
+      <c r="H170" t="s">
+        <v>81</v>
+      </c>
+      <c r="I170" t="s">
+        <v>23</v>
+      </c>
+      <c r="J170">
+        <v>111</v>
+      </c>
+      <c r="K170" t="s">
+        <v>32</v>
+      </c>
+      <c r="L170">
+        <v>98</v>
+      </c>
+      <c r="M170">
+        <v>209</v>
+      </c>
+      <c r="N170">
+        <v>207.5</v>
+      </c>
+      <c r="O170">
+        <v>214</v>
+      </c>
+      <c r="P170" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>31</v>
+      </c>
+      <c r="R170" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A171" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B171" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171">
+        <v>124</v>
+      </c>
+      <c r="D171" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171">
+        <v>106</v>
+      </c>
+      <c r="F171">
+        <v>-4</v>
+      </c>
+      <c r="G171">
+        <v>3.5</v>
+      </c>
+      <c r="H171" t="s">
+        <v>27</v>
+      </c>
+      <c r="I171" t="s">
+        <v>24</v>
+      </c>
+      <c r="J171">
+        <v>108</v>
+      </c>
+      <c r="K171" t="s">
+        <v>35</v>
+      </c>
+      <c r="L171">
+        <v>112</v>
+      </c>
+      <c r="M171">
+        <v>220</v>
+      </c>
+      <c r="N171">
+        <v>223.5</v>
+      </c>
+      <c r="O171">
+        <v>230</v>
+      </c>
+      <c r="P171" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>31</v>
+      </c>
+      <c r="R171" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A172" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172">
+        <v>96</v>
+      </c>
+      <c r="D172" t="s">
+        <v>46</v>
+      </c>
+      <c r="E172">
+        <v>116</v>
+      </c>
+      <c r="F172">
+        <v>-19</v>
+      </c>
+      <c r="G172">
+        <v>-10.5</v>
+      </c>
+      <c r="H172" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172" t="s">
+        <v>18</v>
+      </c>
+      <c r="J172">
+        <v>99</v>
+      </c>
+      <c r="K172" t="s">
+        <v>46</v>
+      </c>
+      <c r="L172">
+        <v>118</v>
+      </c>
+      <c r="M172">
+        <v>217</v>
+      </c>
+      <c r="N172">
+        <v>217</v>
+      </c>
+      <c r="O172">
+        <v>212</v>
+      </c>
+      <c r="P172" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>22</v>
+      </c>
+      <c r="R172" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A173" s="4">
+        <v>44524</v>
+      </c>
+      <c r="B173" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173">
+        <v>121</v>
+      </c>
+      <c r="D173" t="s">
+        <v>50</v>
+      </c>
+      <c r="E173">
+        <v>125</v>
+      </c>
+      <c r="F173">
+        <v>-1</v>
+      </c>
+      <c r="G173">
+        <v>1.5</v>
+      </c>
+      <c r="H173" t="s">
+        <v>81</v>
+      </c>
+      <c r="I173" t="s">
+        <v>48</v>
+      </c>
+      <c r="J173">
+        <v>112</v>
+      </c>
+      <c r="K173" t="s">
+        <v>50</v>
+      </c>
+      <c r="L173">
+        <v>113</v>
+      </c>
+      <c r="M173">
+        <v>225</v>
+      </c>
+      <c r="N173">
+        <v>225</v>
+      </c>
+      <c r="O173">
+        <v>246</v>
+      </c>
+      <c r="P173" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>31</v>
+      </c>
+      <c r="R173" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11540,7 +12245,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11576,27 +12281,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H200,"WIN")</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H200,"LOSS")</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.43</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R200,"WIN")</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R200,"LOSS")</f>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.47</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -11621,24 +12326,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.44400000000000001</v>
+        <v>0.433</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.60899999999999999</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -11663,24 +12368,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>18</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.45500000000000002</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.38900000000000001</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D047957-D044-4877-B524-0A89D386488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCFECA0-EF04-4254-8F3C-34DE3DCDCCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -287,28 +287,16 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Los Angeles Clippers -13</t>
+    <t>Chicago +1.5</t>
   </si>
   <si>
-    <t>Phoenix -3</t>
+    <t>Minnesota +7</t>
   </si>
   <si>
-    <t>Atlanta +3</t>
+    <t>Washington +7</t>
   </si>
   <si>
-    <t>Oklahoma City +7.5</t>
-  </si>
-  <si>
-    <t>San Antonio +2.5</t>
-  </si>
-  <si>
-    <t>Utah - 12</t>
-  </si>
-  <si>
-    <t>Golden State -6.5</t>
-  </si>
-  <si>
-    <t>Sacramento +7.5</t>
+    <t>Utah -12.5</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,42 +1260,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>110</v>
+      </c>
+      <c r="H2">
+        <v>218</v>
+      </c>
+      <c r="I2">
+        <v>215</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2">
-        <v>109</v>
-      </c>
-      <c r="H2">
-        <v>201</v>
-      </c>
-      <c r="I2">
-        <v>206</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-2.5</v>
+        <v>-7</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
@@ -1316,25 +1304,25 @@
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H3">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I3">
-        <v>222.5</v>
+        <v>215.5</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>65</v>
@@ -1342,77 +1330,77 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>-1.5</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H4">
         <v>215</v>
       </c>
       <c r="I4">
-        <v>216.5</v>
+        <v>224.5</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="E5">
-        <v>110</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
       <c r="G5">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H5">
         <v>210</v>
       </c>
       <c r="I5">
-        <v>213.5</v>
+        <v>211.5</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-3.5</v>
+        <v>-10</v>
       </c>
       <c r="B6" t="s">
         <v>81</v>
@@ -1421,22 +1409,22 @@
         <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I6">
-        <v>213.5</v>
+        <v>205.5</v>
       </c>
       <c r="J6" t="s">
         <v>81</v>
@@ -1447,34 +1435,34 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H7">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="I7">
-        <v>226</v>
+        <v>226.5</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
         <v>65</v>
@@ -1482,31 +1470,31 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7.5</v>
+        <v>-7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
       </c>
       <c r="E8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H8">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I8">
-        <v>208.5</v>
+        <v>211.5</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
@@ -1517,177 +1505,37 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2.5</v>
+        <v>-13</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H9">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I9">
-        <v>216</v>
+        <v>215.5</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>3.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
         <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>106</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10">
-        <v>102</v>
-      </c>
-      <c r="H10">
-        <v>208</v>
-      </c>
-      <c r="I10">
-        <v>213.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>-12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>98</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11">
-        <v>118</v>
-      </c>
-      <c r="H11">
-        <v>216</v>
-      </c>
-      <c r="I11">
-        <v>216.5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>-6.5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12">
-        <v>119</v>
-      </c>
-      <c r="H12">
-        <v>221</v>
-      </c>
-      <c r="I12">
-        <v>225</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>-7.5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <v>108</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13">
-        <v>112</v>
-      </c>
-      <c r="H13">
-        <v>220</v>
-      </c>
-      <c r="I13">
-        <v>224.5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1697,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R173"/>
+  <dimension ref="A1:R185"/>
   <sheetViews>
-    <sheetView topLeftCell="C154" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175:A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12235,6 +12083,678 @@
         <v>53</v>
       </c>
     </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A174" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B174" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174">
+        <v>96</v>
+      </c>
+      <c r="D174" t="s">
+        <v>43</v>
+      </c>
+      <c r="E174">
+        <v>107</v>
+      </c>
+      <c r="F174">
+        <v>-17</v>
+      </c>
+      <c r="G174">
+        <v>-13</v>
+      </c>
+      <c r="H174" t="s">
+        <v>27</v>
+      </c>
+      <c r="I174" t="s">
+        <v>19</v>
+      </c>
+      <c r="J174">
+        <v>92</v>
+      </c>
+      <c r="K174" t="s">
+        <v>43</v>
+      </c>
+      <c r="L174">
+        <v>109</v>
+      </c>
+      <c r="M174">
+        <v>201</v>
+      </c>
+      <c r="N174">
+        <v>206</v>
+      </c>
+      <c r="O174">
+        <v>203</v>
+      </c>
+      <c r="P174" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>22</v>
+      </c>
+      <c r="R174" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A175" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B175" t="s">
+        <v>44</v>
+      </c>
+      <c r="C175">
+        <v>115</v>
+      </c>
+      <c r="D175" t="s">
+        <v>49</v>
+      </c>
+      <c r="E175">
+        <v>133</v>
+      </c>
+      <c r="F175">
+        <v>-2</v>
+      </c>
+      <c r="G175">
+        <v>-2.5</v>
+      </c>
+      <c r="H175" t="s">
+        <v>81</v>
+      </c>
+      <c r="I175" t="s">
+        <v>44</v>
+      </c>
+      <c r="J175">
+        <v>107</v>
+      </c>
+      <c r="K175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L175">
+        <v>109</v>
+      </c>
+      <c r="M175">
+        <v>216</v>
+      </c>
+      <c r="N175">
+        <v>222.5</v>
+      </c>
+      <c r="O175">
+        <v>248</v>
+      </c>
+      <c r="P175" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>31</v>
+      </c>
+      <c r="R175" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A176" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B176" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176">
+        <v>118</v>
+      </c>
+      <c r="D176" t="s">
+        <v>39</v>
+      </c>
+      <c r="E176">
+        <v>97</v>
+      </c>
+      <c r="F176">
+        <v>7</v>
+      </c>
+      <c r="G176">
+        <v>3</v>
+      </c>
+      <c r="H176" t="s">
+        <v>20</v>
+      </c>
+      <c r="I176" t="s">
+        <v>29</v>
+      </c>
+      <c r="J176">
+        <v>111</v>
+      </c>
+      <c r="K176" t="s">
+        <v>39</v>
+      </c>
+      <c r="L176">
+        <v>104</v>
+      </c>
+      <c r="M176">
+        <v>215</v>
+      </c>
+      <c r="N176">
+        <v>216.5</v>
+      </c>
+      <c r="O176">
+        <v>215</v>
+      </c>
+      <c r="P176" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>22</v>
+      </c>
+      <c r="R176" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A177" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B177" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177">
+        <v>123</v>
+      </c>
+      <c r="D177" t="s">
+        <v>36</v>
+      </c>
+      <c r="E177">
+        <v>88</v>
+      </c>
+      <c r="F177">
+        <v>10</v>
+      </c>
+      <c r="G177">
+        <v>8.5</v>
+      </c>
+      <c r="H177" t="s">
+        <v>81</v>
+      </c>
+      <c r="I177" t="s">
+        <v>54</v>
+      </c>
+      <c r="J177">
+        <v>110</v>
+      </c>
+      <c r="K177" t="s">
+        <v>36</v>
+      </c>
+      <c r="L177">
+        <v>100</v>
+      </c>
+      <c r="M177">
+        <v>210</v>
+      </c>
+      <c r="N177">
+        <v>213.5</v>
+      </c>
+      <c r="O177">
+        <v>211</v>
+      </c>
+      <c r="P177" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>22</v>
+      </c>
+      <c r="R177" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A178" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B178" t="s">
+        <v>42</v>
+      </c>
+      <c r="C178">
+        <v>97</v>
+      </c>
+      <c r="D178" t="s">
+        <v>47</v>
+      </c>
+      <c r="E178">
+        <v>114</v>
+      </c>
+      <c r="F178">
+        <v>-5</v>
+      </c>
+      <c r="G178">
+        <v>-3.5</v>
+      </c>
+      <c r="H178" t="s">
+        <v>81</v>
+      </c>
+      <c r="I178" t="s">
+        <v>42</v>
+      </c>
+      <c r="J178">
+        <v>105</v>
+      </c>
+      <c r="K178" t="s">
+        <v>47</v>
+      </c>
+      <c r="L178">
+        <v>110</v>
+      </c>
+      <c r="M178">
+        <v>215</v>
+      </c>
+      <c r="N178">
+        <v>213.5</v>
+      </c>
+      <c r="O178">
+        <v>211</v>
+      </c>
+      <c r="P178" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>22</v>
+      </c>
+      <c r="R178" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A179" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179">
+        <v>132</v>
+      </c>
+      <c r="D179" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179">
+        <v>100</v>
+      </c>
+      <c r="F179">
+        <v>3</v>
+      </c>
+      <c r="G179">
+        <v>-1</v>
+      </c>
+      <c r="H179" t="s">
+        <v>20</v>
+      </c>
+      <c r="I179" t="s">
+        <v>24</v>
+      </c>
+      <c r="J179">
+        <v>117</v>
+      </c>
+      <c r="K179" t="s">
+        <v>37</v>
+      </c>
+      <c r="L179">
+        <v>114</v>
+      </c>
+      <c r="M179">
+        <v>231</v>
+      </c>
+      <c r="N179">
+        <v>226</v>
+      </c>
+      <c r="O179">
+        <v>232</v>
+      </c>
+      <c r="P179" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>31</v>
+      </c>
+      <c r="R179" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A180" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B180" t="s">
+        <v>38</v>
+      </c>
+      <c r="C180">
+        <v>101</v>
+      </c>
+      <c r="D180" t="s">
+        <v>32</v>
+      </c>
+      <c r="E180">
+        <v>99</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>7.5</v>
+      </c>
+      <c r="H180" t="s">
+        <v>20</v>
+      </c>
+      <c r="I180" t="s">
+        <v>38</v>
+      </c>
+      <c r="J180">
+        <v>102</v>
+      </c>
+      <c r="K180" t="s">
+        <v>32</v>
+      </c>
+      <c r="L180">
+        <v>99</v>
+      </c>
+      <c r="M180">
+        <v>201</v>
+      </c>
+      <c r="N180">
+        <v>208.5</v>
+      </c>
+      <c r="O180">
+        <v>200</v>
+      </c>
+      <c r="P180" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>22</v>
+      </c>
+      <c r="R180" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A181" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181">
+        <v>88</v>
+      </c>
+      <c r="D181" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181">
+        <v>96</v>
+      </c>
+      <c r="F181">
+        <v>-2</v>
+      </c>
+      <c r="G181">
+        <v>2.5</v>
+      </c>
+      <c r="H181" t="s">
+        <v>20</v>
+      </c>
+      <c r="I181" t="s">
+        <v>25</v>
+      </c>
+      <c r="J181">
+        <v>104</v>
+      </c>
+      <c r="K181" t="s">
+        <v>35</v>
+      </c>
+      <c r="L181">
+        <v>106</v>
+      </c>
+      <c r="M181">
+        <v>210</v>
+      </c>
+      <c r="N181">
+        <v>216</v>
+      </c>
+      <c r="O181">
+        <v>184</v>
+      </c>
+      <c r="P181" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>22</v>
+      </c>
+      <c r="R181" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A182" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C182">
+        <v>120</v>
+      </c>
+      <c r="D182" t="s">
+        <v>55</v>
+      </c>
+      <c r="E182">
+        <v>109</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
+      </c>
+      <c r="G182">
+        <v>3.5</v>
+      </c>
+      <c r="H182" t="s">
+        <v>81</v>
+      </c>
+      <c r="I182" t="s">
+        <v>40</v>
+      </c>
+      <c r="J182">
+        <v>106</v>
+      </c>
+      <c r="K182" t="s">
+        <v>55</v>
+      </c>
+      <c r="L182">
+        <v>102</v>
+      </c>
+      <c r="M182">
+        <v>208</v>
+      </c>
+      <c r="N182">
+        <v>213.5</v>
+      </c>
+      <c r="O182">
+        <v>229</v>
+      </c>
+      <c r="P182" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>31</v>
+      </c>
+      <c r="R182" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A183" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B183" t="s">
+        <v>45</v>
+      </c>
+      <c r="C183">
+        <v>98</v>
+      </c>
+      <c r="D183" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183">
+        <v>97</v>
+      </c>
+      <c r="F183">
+        <v>-20</v>
+      </c>
+      <c r="G183">
+        <v>-12</v>
+      </c>
+      <c r="H183" t="s">
+        <v>27</v>
+      </c>
+      <c r="I183" t="s">
+        <v>45</v>
+      </c>
+      <c r="J183">
+        <v>98</v>
+      </c>
+      <c r="K183" t="s">
+        <v>23</v>
+      </c>
+      <c r="L183">
+        <v>118</v>
+      </c>
+      <c r="M183">
+        <v>216</v>
+      </c>
+      <c r="N183">
+        <v>216.5</v>
+      </c>
+      <c r="O183">
+        <v>195</v>
+      </c>
+      <c r="P183" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>22</v>
+      </c>
+      <c r="R183" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A184" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B184" t="s">
+        <v>48</v>
+      </c>
+      <c r="C184">
+        <v>103</v>
+      </c>
+      <c r="D184" t="s">
+        <v>46</v>
+      </c>
+      <c r="E184">
+        <v>118</v>
+      </c>
+      <c r="F184">
+        <v>-17</v>
+      </c>
+      <c r="G184">
+        <v>-6.5</v>
+      </c>
+      <c r="H184" t="s">
+        <v>20</v>
+      </c>
+      <c r="I184" t="s">
+        <v>48</v>
+      </c>
+      <c r="J184">
+        <v>102</v>
+      </c>
+      <c r="K184" t="s">
+        <v>46</v>
+      </c>
+      <c r="L184">
+        <v>119</v>
+      </c>
+      <c r="M184">
+        <v>221</v>
+      </c>
+      <c r="N184">
+        <v>225</v>
+      </c>
+      <c r="O184">
+        <v>221</v>
+      </c>
+      <c r="P184" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>22</v>
+      </c>
+      <c r="R184" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A185" s="4">
+        <v>44526</v>
+      </c>
+      <c r="B185" t="s">
+        <v>50</v>
+      </c>
+      <c r="C185">
+        <v>141</v>
+      </c>
+      <c r="D185" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185">
+        <v>137</v>
+      </c>
+      <c r="F185">
+        <v>-4</v>
+      </c>
+      <c r="G185">
+        <v>-7.5</v>
+      </c>
+      <c r="H185" t="s">
+        <v>20</v>
+      </c>
+      <c r="I185" t="s">
+        <v>50</v>
+      </c>
+      <c r="J185">
+        <v>108</v>
+      </c>
+      <c r="K185" t="s">
+        <v>33</v>
+      </c>
+      <c r="L185">
+        <v>112</v>
+      </c>
+      <c r="M185">
+        <v>220</v>
+      </c>
+      <c r="N185">
+        <v>224.5</v>
+      </c>
+      <c r="O185">
+        <v>278</v>
+      </c>
+      <c r="P185" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>31</v>
+      </c>
+      <c r="R185" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12245,7 +12765,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12281,27 +12801,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H200,"WIN")</f>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H200,"LOSS")</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.43099999999999999</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R200,"WIN")</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R200,"LOSS")</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45900000000000002</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -12326,24 +12846,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.433</v>
+        <v>0.438</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.59299999999999997</v>
+        <v>0.60599999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -12368,24 +12888,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.47099999999999997</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.375</v>
+        <v>0.39500000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCFECA0-EF04-4254-8F3C-34DE3DCDCCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFEE324-4A47-4E6E-A39A-5728B3A526BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -287,16 +287,13 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Chicago +1.5</t>
+    <t>Golden State -7</t>
   </si>
   <si>
-    <t>Minnesota +7</t>
+    <t>Sacramento +1</t>
   </si>
   <si>
-    <t>Washington +7</t>
-  </si>
-  <si>
-    <t>Utah -12.5</t>
+    <t>Los Angeles Lakers -10.5</t>
   </si>
 </sst>
 </file>
@@ -439,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +832,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -847,6 +850,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1202,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1260,42 +1265,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H2">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I2">
         <v>215</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-7</v>
+        <v>2.5</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
@@ -1304,25 +1309,25 @@
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G3">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H3">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="I3">
-        <v>215.5</v>
+        <v>217.5</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>65</v>
@@ -1330,66 +1335,66 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I4">
-        <v>224.5</v>
+        <v>225.5</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>106</v>
       </c>
       <c r="H5">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I5">
-        <v>211.5</v>
+        <v>209.5</v>
       </c>
       <c r="J5" t="s">
         <v>81</v>
@@ -1400,142 +1405,37 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-10</v>
+        <v>-10.5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H6">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I6">
-        <v>205.5</v>
+        <v>216.5</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7">
-        <v>111</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>105</v>
-      </c>
-      <c r="H7">
-        <v>216</v>
-      </c>
-      <c r="I7">
-        <v>226.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>-7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <v>103</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <v>103</v>
-      </c>
-      <c r="H8">
-        <v>206</v>
-      </c>
-      <c r="I8">
-        <v>211.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>-13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9">
-        <v>97</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9">
-        <v>116</v>
-      </c>
-      <c r="H9">
-        <v>213</v>
-      </c>
-      <c r="I9">
-        <v>215.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1545,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R185"/>
+  <dimension ref="A1:R193"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175:A185"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12755,6 +12655,454 @@
         <v>27</v>
       </c>
     </row>
+    <row r="186" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C186" s="15">
+        <v>121</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186" s="15">
+        <v>120</v>
+      </c>
+      <c r="F186" s="15">
+        <v>-2</v>
+      </c>
+      <c r="G186" s="15">
+        <v>-7</v>
+      </c>
+      <c r="H186" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I186" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J186" s="15">
+        <v>108</v>
+      </c>
+      <c r="K186" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L186" s="15">
+        <v>110</v>
+      </c>
+      <c r="M186" s="15">
+        <v>218</v>
+      </c>
+      <c r="N186" s="15">
+        <v>215</v>
+      </c>
+      <c r="O186" s="15">
+        <v>241</v>
+      </c>
+      <c r="P186" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q186" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R186" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C187" s="15">
+        <v>99</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E187" s="15">
+        <v>90</v>
+      </c>
+      <c r="F187" s="15">
+        <v>-7</v>
+      </c>
+      <c r="G187" s="15">
+        <v>-7</v>
+      </c>
+      <c r="H187" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I187" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J187" s="15">
+        <v>107</v>
+      </c>
+      <c r="K187" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L187" s="15">
+        <v>114</v>
+      </c>
+      <c r="M187" s="15">
+        <v>221</v>
+      </c>
+      <c r="N187" s="15">
+        <v>215.5</v>
+      </c>
+      <c r="O187" s="15">
+        <v>189</v>
+      </c>
+      <c r="P187" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q187" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R187" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188" s="15">
+        <v>113</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E188" s="15">
+        <v>107</v>
+      </c>
+      <c r="F188" s="15">
+        <v>1</v>
+      </c>
+      <c r="G188" s="15">
+        <v>-1.5</v>
+      </c>
+      <c r="H188" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I188" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J188" s="15">
+        <v>108</v>
+      </c>
+      <c r="K188" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L188" s="15">
+        <v>107</v>
+      </c>
+      <c r="M188" s="15">
+        <v>215</v>
+      </c>
+      <c r="N188" s="15">
+        <v>224.5</v>
+      </c>
+      <c r="O188" s="15">
+        <v>220</v>
+      </c>
+      <c r="P188" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q188" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R188" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C189" s="15">
+        <v>107</v>
+      </c>
+      <c r="D189" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E189" s="15">
+        <v>104</v>
+      </c>
+      <c r="F189" s="15">
+        <v>-2</v>
+      </c>
+      <c r="G189" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="H189" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I189" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J189" s="15">
+        <v>104</v>
+      </c>
+      <c r="K189" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L189" s="15">
+        <v>106</v>
+      </c>
+      <c r="M189" s="15">
+        <v>210</v>
+      </c>
+      <c r="N189" s="15">
+        <v>211.5</v>
+      </c>
+      <c r="O189" s="15">
+        <v>211</v>
+      </c>
+      <c r="P189" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q189" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R189" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C190" s="15">
+        <v>92</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E190" s="15">
+        <v>105</v>
+      </c>
+      <c r="F190" s="15">
+        <v>-12</v>
+      </c>
+      <c r="G190" s="15">
+        <v>-10</v>
+      </c>
+      <c r="H190" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I190" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J190" s="15">
+        <v>97</v>
+      </c>
+      <c r="K190" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L190" s="15">
+        <v>109</v>
+      </c>
+      <c r="M190" s="15">
+        <v>206</v>
+      </c>
+      <c r="N190" s="15">
+        <v>205.5</v>
+      </c>
+      <c r="O190" s="15">
+        <v>197</v>
+      </c>
+      <c r="P190" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q190" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R190" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B191" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C191" s="15">
+        <v>143</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="15">
+        <v>146</v>
+      </c>
+      <c r="F191" s="15">
+        <v>6</v>
+      </c>
+      <c r="G191" s="15">
+        <v>5</v>
+      </c>
+      <c r="H191" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I191" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J191" s="15">
+        <v>111</v>
+      </c>
+      <c r="K191" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L191" s="15">
+        <v>105</v>
+      </c>
+      <c r="M191" s="15">
+        <v>216</v>
+      </c>
+      <c r="N191" s="15">
+        <v>226.5</v>
+      </c>
+      <c r="O191" s="15">
+        <v>289</v>
+      </c>
+      <c r="P191" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q191" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R191" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C192" s="15">
+        <v>120</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E192" s="15">
+        <v>114</v>
+      </c>
+      <c r="F192" s="15">
+        <v>0</v>
+      </c>
+      <c r="G192" s="15">
+        <v>-7</v>
+      </c>
+      <c r="H192" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I192" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J192" s="15">
+        <v>103</v>
+      </c>
+      <c r="K192" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L192" s="15">
+        <v>103</v>
+      </c>
+      <c r="M192" s="15">
+        <v>206</v>
+      </c>
+      <c r="N192" s="15">
+        <v>211.5</v>
+      </c>
+      <c r="O192" s="15">
+        <v>234</v>
+      </c>
+      <c r="P192" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q192" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R192" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C193" s="15">
+        <v>105</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193" s="15">
+        <v>127</v>
+      </c>
+      <c r="F193" s="15">
+        <v>-19</v>
+      </c>
+      <c r="G193" s="15">
+        <v>-13</v>
+      </c>
+      <c r="H193" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I193" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J193" s="15">
+        <v>97</v>
+      </c>
+      <c r="K193" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L193" s="15">
+        <v>116</v>
+      </c>
+      <c r="M193" s="15">
+        <v>213</v>
+      </c>
+      <c r="N193" s="15">
+        <v>215.5</v>
+      </c>
+      <c r="O193" s="15">
+        <v>232</v>
+      </c>
+      <c r="P193" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q193" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R193" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12765,7 +13113,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12801,27 +13149,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H200,"WIN")</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H200,"LOSS")</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.44700000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R200,"WIN")</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R200,"LOSS")</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.47</v>
+        <v>0.46800000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -12846,24 +13194,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>18</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.438</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.60599999999999998</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -12891,21 +13239,21 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.52500000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>26</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.39500000000000002</v>
+        <v>0.40899999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFEE324-4A47-4E6E-A39A-5728B3A526BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFA8963-CE71-49E2-8848-45650539D458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -284,16 +284,19 @@
     <t>NOBET</t>
   </si>
   <si>
-    <t>NONE</t>
+    <t>Denver +3</t>
   </si>
   <si>
-    <t>Golden State -7</t>
+    <t>Cleveland +6.5</t>
   </si>
   <si>
-    <t>Sacramento +1</t>
+    <t>San Antonio +3</t>
   </si>
   <si>
-    <t>Los Angeles Lakers -10.5</t>
+    <t>Utah -7.5</t>
+  </si>
+  <si>
+    <t>Los Angeles -7</t>
   </si>
 </sst>
 </file>
@@ -832,7 +835,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -852,6 +855,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1207,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1265,34 +1270,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>3</v>
+        <v>-13.5</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="I2">
-        <v>215</v>
+        <v>206.5</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>65</v>
@@ -1300,31 +1302,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2.5</v>
+        <v>-3</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H3">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="I3">
-        <v>217.5</v>
+        <v>206.5</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1335,106 +1337,237 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-1</v>
+        <v>-4.5</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G4">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H4">
         <v>221</v>
       </c>
       <c r="I4">
-        <v>225.5</v>
+        <v>223</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
       </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H5">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I5">
-        <v>209.5</v>
+        <v>217</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-10.5</v>
+        <v>-2.5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G6">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H6">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I6">
-        <v>216.5</v>
+        <v>218</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-6.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>104</v>
+      </c>
+      <c r="H7">
+        <v>207</v>
+      </c>
+      <c r="I7">
+        <v>210.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>106</v>
+      </c>
+      <c r="H8">
+        <v>209</v>
+      </c>
+      <c r="I8">
+        <v>215</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-7.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>118</v>
+      </c>
+      <c r="H9">
+        <v>224</v>
+      </c>
+      <c r="I9">
+        <v>223</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>110</v>
+      </c>
+      <c r="H10">
+        <v>205</v>
+      </c>
+      <c r="I10">
+        <v>211</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1445,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R193"/>
+  <dimension ref="A1:R198"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12655,452 +12788,732 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="16">
+    <row r="186" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="17">
         <v>44527</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C186" s="15">
+      <c r="C186" s="18">
         <v>121</v>
       </c>
-      <c r="D186" s="15" t="s">
+      <c r="D186" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E186" s="15">
+      <c r="E186" s="18">
         <v>120</v>
       </c>
-      <c r="F186" s="15">
+      <c r="F186" s="18">
         <v>-2</v>
       </c>
-      <c r="G186" s="15">
+      <c r="G186" s="18">
         <v>-7</v>
       </c>
-      <c r="H186" s="15" t="s">
+      <c r="H186" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I186" s="15" t="s">
+      <c r="I186" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J186" s="15">
+      <c r="J186" s="18">
         <v>108</v>
       </c>
-      <c r="K186" s="15" t="s">
+      <c r="K186" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L186" s="15">
+      <c r="L186" s="18">
         <v>110</v>
       </c>
-      <c r="M186" s="15">
+      <c r="M186" s="18">
         <v>218</v>
       </c>
-      <c r="N186" s="15">
+      <c r="N186" s="18">
         <v>215</v>
       </c>
-      <c r="O186" s="15">
+      <c r="O186" s="18">
         <v>241</v>
       </c>
-      <c r="P186" s="15" t="s">
+      <c r="P186" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q186" s="15" t="s">
+      <c r="Q186" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R186" s="15" t="s">
+      <c r="R186" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="16">
+    <row r="187" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="17">
         <v>44527</v>
       </c>
-      <c r="B187" s="15" t="s">
+      <c r="B187" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C187" s="15">
+      <c r="C187" s="18">
         <v>99</v>
       </c>
-      <c r="D187" s="15" t="s">
+      <c r="D187" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E187" s="15">
+      <c r="E187" s="18">
         <v>90</v>
       </c>
-      <c r="F187" s="15">
+      <c r="F187" s="18">
         <v>-7</v>
       </c>
-      <c r="G187" s="15">
+      <c r="G187" s="18">
         <v>-7</v>
       </c>
-      <c r="H187" s="15" t="s">
+      <c r="H187" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I187" s="15" t="s">
+      <c r="I187" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J187" s="15">
+      <c r="J187" s="18">
         <v>107</v>
       </c>
-      <c r="K187" s="15" t="s">
+      <c r="K187" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L187" s="15">
+      <c r="L187" s="18">
         <v>114</v>
       </c>
-      <c r="M187" s="15">
+      <c r="M187" s="18">
         <v>221</v>
       </c>
-      <c r="N187" s="15">
+      <c r="N187" s="18">
         <v>215.5</v>
       </c>
-      <c r="O187" s="15">
+      <c r="O187" s="18">
         <v>189</v>
       </c>
-      <c r="P187" s="15" t="s">
+      <c r="P187" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q187" s="15" t="s">
+      <c r="Q187" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R187" s="15" t="s">
+      <c r="R187" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="16">
+    <row r="188" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="17">
         <v>44527</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="B188" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C188" s="15">
+      <c r="C188" s="18">
         <v>113</v>
       </c>
-      <c r="D188" s="15" t="s">
+      <c r="D188" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E188" s="15">
+      <c r="E188" s="18">
         <v>107</v>
       </c>
-      <c r="F188" s="15">
+      <c r="F188" s="18">
         <v>1</v>
       </c>
-      <c r="G188" s="15">
+      <c r="G188" s="18">
         <v>-1.5</v>
       </c>
-      <c r="H188" s="15" t="s">
+      <c r="H188" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I188" s="15" t="s">
+      <c r="I188" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J188" s="15">
+      <c r="J188" s="18">
         <v>108</v>
       </c>
-      <c r="K188" s="15" t="s">
+      <c r="K188" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L188" s="15">
+      <c r="L188" s="18">
         <v>107</v>
       </c>
-      <c r="M188" s="15">
+      <c r="M188" s="18">
         <v>215</v>
       </c>
-      <c r="N188" s="15">
+      <c r="N188" s="18">
         <v>224.5</v>
       </c>
-      <c r="O188" s="15">
+      <c r="O188" s="18">
         <v>220</v>
       </c>
-      <c r="P188" s="15" t="s">
+      <c r="P188" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q188" s="15" t="s">
+      <c r="Q188" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R188" s="15" t="s">
+      <c r="R188" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="16">
+    <row r="189" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="17">
         <v>44527</v>
       </c>
-      <c r="B189" s="15" t="s">
+      <c r="B189" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C189" s="15">
+      <c r="C189" s="18">
         <v>107</v>
       </c>
-      <c r="D189" s="15" t="s">
+      <c r="D189" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E189" s="15">
+      <c r="E189" s="18">
         <v>104</v>
       </c>
-      <c r="F189" s="15">
+      <c r="F189" s="18">
         <v>-2</v>
       </c>
-      <c r="G189" s="15">
+      <c r="G189" s="18">
         <v>1.5</v>
       </c>
-      <c r="H189" s="15" t="s">
+      <c r="H189" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I189" s="15" t="s">
+      <c r="I189" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J189" s="15">
+      <c r="J189" s="18">
         <v>104</v>
       </c>
-      <c r="K189" s="15" t="s">
+      <c r="K189" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L189" s="15">
+      <c r="L189" s="18">
         <v>106</v>
       </c>
-      <c r="M189" s="15">
+      <c r="M189" s="18">
         <v>210</v>
       </c>
-      <c r="N189" s="15">
+      <c r="N189" s="18">
         <v>211.5</v>
       </c>
-      <c r="O189" s="15">
+      <c r="O189" s="18">
         <v>211</v>
       </c>
-      <c r="P189" s="15" t="s">
+      <c r="P189" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q189" s="15" t="s">
+      <c r="Q189" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R189" s="15" t="s">
+      <c r="R189" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="16">
+    <row r="190" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="17">
         <v>44527</v>
       </c>
-      <c r="B190" s="15" t="s">
+      <c r="B190" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C190" s="15">
+      <c r="C190" s="18">
         <v>92</v>
       </c>
-      <c r="D190" s="15" t="s">
+      <c r="D190" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E190" s="15">
+      <c r="E190" s="18">
         <v>105</v>
       </c>
-      <c r="F190" s="15">
+      <c r="F190" s="18">
         <v>-12</v>
       </c>
-      <c r="G190" s="15">
+      <c r="G190" s="18">
         <v>-10</v>
       </c>
-      <c r="H190" s="15" t="s">
+      <c r="H190" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I190" s="15" t="s">
+      <c r="I190" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J190" s="15">
+      <c r="J190" s="18">
         <v>97</v>
       </c>
-      <c r="K190" s="15" t="s">
+      <c r="K190" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L190" s="15">
+      <c r="L190" s="18">
         <v>109</v>
       </c>
-      <c r="M190" s="15">
+      <c r="M190" s="18">
         <v>206</v>
       </c>
-      <c r="N190" s="15">
+      <c r="N190" s="18">
         <v>205.5</v>
       </c>
-      <c r="O190" s="15">
+      <c r="O190" s="18">
         <v>197</v>
       </c>
-      <c r="P190" s="15" t="s">
+      <c r="P190" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="Q190" s="15" t="s">
+      <c r="Q190" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R190" s="15" t="s">
+      <c r="R190" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="16">
+    <row r="191" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="17">
         <v>44527</v>
       </c>
-      <c r="B191" s="15" t="s">
+      <c r="B191" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C191" s="15">
+      <c r="C191" s="18">
         <v>143</v>
       </c>
-      <c r="D191" s="15" t="s">
+      <c r="D191" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E191" s="15">
+      <c r="E191" s="18">
         <v>146</v>
       </c>
-      <c r="F191" s="15">
+      <c r="F191" s="18">
         <v>6</v>
       </c>
-      <c r="G191" s="15">
+      <c r="G191" s="18">
         <v>5</v>
       </c>
-      <c r="H191" s="15" t="s">
+      <c r="H191" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I191" s="15" t="s">
+      <c r="I191" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J191" s="15">
+      <c r="J191" s="18">
         <v>111</v>
       </c>
-      <c r="K191" s="15" t="s">
+      <c r="K191" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L191" s="15">
+      <c r="L191" s="18">
         <v>105</v>
       </c>
-      <c r="M191" s="15">
+      <c r="M191" s="18">
         <v>216</v>
       </c>
-      <c r="N191" s="15">
+      <c r="N191" s="18">
         <v>226.5</v>
       </c>
-      <c r="O191" s="15">
+      <c r="O191" s="18">
         <v>289</v>
       </c>
-      <c r="P191" s="15" t="s">
+      <c r="P191" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q191" s="15" t="s">
+      <c r="Q191" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R191" s="15" t="s">
+      <c r="R191" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="16">
+    <row r="192" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="17">
         <v>44527</v>
       </c>
-      <c r="B192" s="15" t="s">
+      <c r="B192" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C192" s="15">
+      <c r="C192" s="18">
         <v>120</v>
       </c>
-      <c r="D192" s="15" t="s">
+      <c r="D192" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E192" s="15">
+      <c r="E192" s="18">
         <v>114</v>
       </c>
-      <c r="F192" s="15">
+      <c r="F192" s="18">
         <v>0</v>
       </c>
-      <c r="G192" s="15">
+      <c r="G192" s="18">
         <v>-7</v>
       </c>
-      <c r="H192" s="15" t="s">
+      <c r="H192" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I192" s="15" t="s">
+      <c r="I192" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J192" s="15">
+      <c r="J192" s="18">
         <v>103</v>
       </c>
-      <c r="K192" s="15" t="s">
+      <c r="K192" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="L192" s="15">
+      <c r="L192" s="18">
         <v>103</v>
       </c>
-      <c r="M192" s="15">
+      <c r="M192" s="18">
         <v>206</v>
       </c>
-      <c r="N192" s="15">
+      <c r="N192" s="18">
         <v>211.5</v>
       </c>
-      <c r="O192" s="15">
+      <c r="O192" s="18">
         <v>234</v>
       </c>
-      <c r="P192" s="15" t="s">
+      <c r="P192" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q192" s="15" t="s">
+      <c r="Q192" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R192" s="15" t="s">
+      <c r="R192" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="16">
+    <row r="193" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="17">
         <v>44527</v>
       </c>
-      <c r="B193" s="15" t="s">
+      <c r="B193" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C193" s="15">
+      <c r="C193" s="18">
         <v>105</v>
       </c>
-      <c r="D193" s="15" t="s">
+      <c r="D193" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E193" s="15">
+      <c r="E193" s="18">
         <v>127</v>
       </c>
-      <c r="F193" s="15">
+      <c r="F193" s="18">
         <v>-19</v>
       </c>
-      <c r="G193" s="15">
+      <c r="G193" s="18">
         <v>-13</v>
       </c>
-      <c r="H193" s="15" t="s">
+      <c r="H193" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I193" s="15" t="s">
+      <c r="I193" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J193" s="15">
+      <c r="J193" s="18">
         <v>97</v>
       </c>
-      <c r="K193" s="15" t="s">
+      <c r="K193" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L193" s="15">
+      <c r="L193" s="18">
         <v>116</v>
       </c>
-      <c r="M193" s="15">
+      <c r="M193" s="18">
         <v>213</v>
       </c>
-      <c r="N193" s="15">
+      <c r="N193" s="18">
         <v>215.5</v>
       </c>
-      <c r="O193" s="15">
+      <c r="O193" s="18">
         <v>232</v>
       </c>
-      <c r="P193" s="15" t="s">
+      <c r="P193" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q193" s="15" t="s">
+      <c r="Q193" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R193" s="15" t="s">
+      <c r="R193" s="18" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C194" s="15">
+        <v>105</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E194" s="15">
+        <v>90</v>
+      </c>
+      <c r="F194" s="15">
+        <v>7</v>
+      </c>
+      <c r="G194" s="15">
+        <v>3</v>
+      </c>
+      <c r="H194" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I194" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J194" s="15">
+        <v>106</v>
+      </c>
+      <c r="K194" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L194" s="15">
+        <v>99</v>
+      </c>
+      <c r="M194" s="15">
+        <v>205</v>
+      </c>
+      <c r="N194" s="15">
+        <v>215</v>
+      </c>
+      <c r="O194" s="15">
+        <v>195</v>
+      </c>
+      <c r="P194" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q194" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R194" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C195" s="15">
+        <v>118</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E195" s="15">
+        <v>100</v>
+      </c>
+      <c r="F195" s="15">
+        <v>0</v>
+      </c>
+      <c r="G195" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="H195" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I195" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J195" s="15">
+        <v>106</v>
+      </c>
+      <c r="K195" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L195" s="15">
+        <v>106</v>
+      </c>
+      <c r="M195" s="15">
+        <v>212</v>
+      </c>
+      <c r="N195" s="15">
+        <v>217.5</v>
+      </c>
+      <c r="O195" s="15">
+        <v>218</v>
+      </c>
+      <c r="P195" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q195" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R195" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C196" s="15">
+        <v>101</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E196" s="15">
+        <v>128</v>
+      </c>
+      <c r="F196" s="15">
+        <v>11</v>
+      </c>
+      <c r="G196" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H196" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I196" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J196" s="15">
+        <v>116</v>
+      </c>
+      <c r="K196" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L196" s="15">
+        <v>105</v>
+      </c>
+      <c r="M196" s="15">
+        <v>221</v>
+      </c>
+      <c r="N196" s="15">
+        <v>225.5</v>
+      </c>
+      <c r="O196" s="15">
+        <v>229</v>
+      </c>
+      <c r="P196" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q196" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R196" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C197" s="15">
+        <v>109</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E197" s="15">
+        <v>97</v>
+      </c>
+      <c r="F197" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G197" s="15">
+        <v>-1.5</v>
+      </c>
+      <c r="H197" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I197" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J197" s="15">
+        <v>105</v>
+      </c>
+      <c r="K197" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L197" s="15">
+        <v>106</v>
+      </c>
+      <c r="M197" s="15">
+        <v>211</v>
+      </c>
+      <c r="N197" s="15">
+        <v>209.5</v>
+      </c>
+      <c r="O197" s="15">
+        <v>206</v>
+      </c>
+      <c r="P197" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q197" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R197" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="16">
+        <v>44527</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" s="15">
+        <v>106</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E198" s="15">
+        <v>110</v>
+      </c>
+      <c r="F198" s="15">
+        <v>-13</v>
+      </c>
+      <c r="G198" s="15">
+        <v>-10.5</v>
+      </c>
+      <c r="H198" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I198" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J198" s="15">
+        <v>98</v>
+      </c>
+      <c r="K198" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L198" s="15">
+        <v>111</v>
+      </c>
+      <c r="M198" s="15">
+        <v>209</v>
+      </c>
+      <c r="N198" s="15">
+        <v>216.5</v>
+      </c>
+      <c r="O198" s="15">
+        <v>216</v>
+      </c>
+      <c r="P198" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q198" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R198" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -13112,8 +13525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13149,27 +13562,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H200,"WIN")</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H200,"LOSS")</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.45500000000000002</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R200,"WIN")</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R200,"LOSS")</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46800000000000003</v>
+        <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -13197,21 +13610,21 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.48599999999999999</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.56799999999999995</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -13236,10 +13649,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8">
         <v>21</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
@@ -13249,11 +13662,11 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.40899999999999997</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFA8963-CE71-49E2-8848-45650539D458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295C3E27-AB74-4BAE-9AA8-900323CC2AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>Los Angeles -7</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,6 +1278,9 @@
       <c r="B2" t="s">
         <v>81</v>
       </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
@@ -1342,6 +1348,9 @@
       <c r="B4" t="s">
         <v>81</v>
       </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
       <c r="D4" t="s">
         <v>49</v>
       </c>
@@ -1374,6 +1383,9 @@
       <c r="B5" t="s">
         <v>81</v>
       </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
@@ -1405,6 +1417,9 @@
       </c>
       <c r="B6" t="s">
         <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
       </c>
       <c r="D6" t="s">
         <v>47</v>
@@ -13525,7 +13540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295C3E27-AB74-4BAE-9AA8-900323CC2AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2B0B9D-0D2F-40AA-8349-46F22C3E4122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -284,22 +284,16 @@
     <t>NOBET</t>
   </si>
   <si>
-    <t>Denver +3</t>
+    <t>NONE</t>
   </si>
   <si>
-    <t>Cleveland +6.5</t>
+    <t>Toronto -5.5</t>
   </si>
   <si>
-    <t>San Antonio +3</t>
+    <t>Golden State +2.5</t>
   </si>
   <si>
-    <t>Utah -7.5</t>
-  </si>
-  <si>
-    <t>Los Angeles -7</t>
-  </si>
-  <si>
-    <t>NONE</t>
+    <t>Sacramento +3.5</t>
   </si>
 </sst>
 </file>
@@ -838,7 +832,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -857,7 +851,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1215,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1273,316 +1266,176 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-13.5</v>
+        <v>-6.5</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I2">
-        <v>206.5</v>
+        <v>216</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-3</v>
+        <v>-5.5</v>
       </c>
       <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>115</v>
+      </c>
+      <c r="H3">
+        <v>218</v>
+      </c>
+      <c r="I3">
+        <v>219.5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3">
-        <v>88</v>
-      </c>
-      <c r="H3">
-        <v>186</v>
-      </c>
-      <c r="I3">
-        <v>206.5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-4.5</v>
+        <v>-2.5</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H4">
+        <v>214</v>
+      </c>
+      <c r="I4">
         <v>221</v>
-      </c>
-      <c r="I4">
-        <v>223</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-2</v>
+        <v>-9.5</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H5">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="I5">
-        <v>217</v>
+        <v>215.5</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-2.5</v>
+        <v>3.5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E6">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H6">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I6">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>-6.5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7">
-        <v>103</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7">
-        <v>104</v>
-      </c>
-      <c r="H7">
-        <v>207</v>
-      </c>
-      <c r="I7">
-        <v>210.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8">
-        <v>103</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8">
-        <v>106</v>
-      </c>
-      <c r="H8">
-        <v>209</v>
-      </c>
-      <c r="I8">
-        <v>215</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>-7.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9">
-        <v>106</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9">
-        <v>118</v>
-      </c>
-      <c r="H9">
-        <v>224</v>
-      </c>
-      <c r="I9">
-        <v>223</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>-7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10">
-        <v>95</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10">
-        <v>110</v>
-      </c>
-      <c r="H10">
-        <v>205</v>
-      </c>
-      <c r="I10">
-        <v>211</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1593,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R198"/>
+  <dimension ref="A1:R207"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:A198"/>
+    <sheetView topLeftCell="C190" workbookViewId="0">
+      <selection activeCell="R202" sqref="R202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12803,732 +12656,1236 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="17">
+    <row r="186" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="16">
         <v>44527</v>
       </c>
-      <c r="B186" s="18" t="s">
+      <c r="B186" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C186" s="18">
+      <c r="C186" s="17">
         <v>121</v>
       </c>
-      <c r="D186" s="18" t="s">
+      <c r="D186" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E186" s="18">
+      <c r="E186" s="17">
         <v>120</v>
       </c>
-      <c r="F186" s="18">
+      <c r="F186" s="17">
         <v>-2</v>
       </c>
-      <c r="G186" s="18">
+      <c r="G186" s="17">
         <v>-7</v>
       </c>
-      <c r="H186" s="18" t="s">
+      <c r="H186" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I186" s="18" t="s">
+      <c r="I186" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J186" s="18">
+      <c r="J186" s="17">
         <v>108</v>
       </c>
-      <c r="K186" s="18" t="s">
+      <c r="K186" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L186" s="18">
+      <c r="L186" s="17">
         <v>110</v>
       </c>
-      <c r="M186" s="18">
+      <c r="M186" s="17">
         <v>218</v>
       </c>
-      <c r="N186" s="18">
+      <c r="N186" s="17">
         <v>215</v>
       </c>
-      <c r="O186" s="18">
+      <c r="O186" s="17">
         <v>241</v>
       </c>
-      <c r="P186" s="18" t="s">
+      <c r="P186" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="Q186" s="18" t="s">
+      <c r="Q186" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="R186" s="18" t="s">
+      <c r="R186" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="17">
+    <row r="187" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="16">
         <v>44527</v>
       </c>
-      <c r="B187" s="18" t="s">
+      <c r="B187" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C187" s="18">
+      <c r="C187" s="17">
         <v>99</v>
       </c>
-      <c r="D187" s="18" t="s">
+      <c r="D187" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E187" s="18">
+      <c r="E187" s="17">
         <v>90</v>
       </c>
-      <c r="F187" s="18">
+      <c r="F187" s="17">
         <v>-7</v>
       </c>
-      <c r="G187" s="18">
+      <c r="G187" s="17">
         <v>-7</v>
       </c>
-      <c r="H187" s="18" t="s">
+      <c r="H187" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I187" s="18" t="s">
+      <c r="I187" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J187" s="18">
+      <c r="J187" s="17">
         <v>107</v>
       </c>
-      <c r="K187" s="18" t="s">
+      <c r="K187" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L187" s="18">
+      <c r="L187" s="17">
         <v>114</v>
       </c>
-      <c r="M187" s="18">
+      <c r="M187" s="17">
         <v>221</v>
       </c>
-      <c r="N187" s="18">
+      <c r="N187" s="17">
         <v>215.5</v>
       </c>
-      <c r="O187" s="18">
+      <c r="O187" s="17">
         <v>189</v>
       </c>
-      <c r="P187" s="18" t="s">
+      <c r="P187" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="Q187" s="18" t="s">
+      <c r="Q187" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R187" s="18" t="s">
+      <c r="R187" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="17">
+    <row r="188" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="16">
         <v>44527</v>
       </c>
-      <c r="B188" s="18" t="s">
+      <c r="B188" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C188" s="18">
+      <c r="C188" s="17">
         <v>113</v>
       </c>
-      <c r="D188" s="18" t="s">
+      <c r="D188" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E188" s="18">
+      <c r="E188" s="17">
         <v>107</v>
       </c>
-      <c r="F188" s="18">
+      <c r="F188" s="17">
         <v>1</v>
       </c>
-      <c r="G188" s="18">
+      <c r="G188" s="17">
         <v>-1.5</v>
       </c>
-      <c r="H188" s="18" t="s">
+      <c r="H188" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I188" s="18" t="s">
+      <c r="I188" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J188" s="18">
+      <c r="J188" s="17">
         <v>108</v>
       </c>
-      <c r="K188" s="18" t="s">
+      <c r="K188" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L188" s="18">
+      <c r="L188" s="17">
         <v>107</v>
       </c>
-      <c r="M188" s="18">
+      <c r="M188" s="17">
         <v>215</v>
       </c>
-      <c r="N188" s="18">
+      <c r="N188" s="17">
         <v>224.5</v>
       </c>
-      <c r="O188" s="18">
+      <c r="O188" s="17">
         <v>220</v>
       </c>
-      <c r="P188" s="18" t="s">
+      <c r="P188" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q188" s="18" t="s">
+      <c r="Q188" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R188" s="18" t="s">
+      <c r="R188" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="17">
+    <row r="189" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="16">
         <v>44527</v>
       </c>
-      <c r="B189" s="18" t="s">
+      <c r="B189" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C189" s="18">
+      <c r="C189" s="17">
         <v>107</v>
       </c>
-      <c r="D189" s="18" t="s">
+      <c r="D189" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E189" s="18">
+      <c r="E189" s="17">
         <v>104</v>
       </c>
-      <c r="F189" s="18">
+      <c r="F189" s="17">
         <v>-2</v>
       </c>
-      <c r="G189" s="18">
+      <c r="G189" s="17">
         <v>1.5</v>
       </c>
-      <c r="H189" s="18" t="s">
+      <c r="H189" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I189" s="18" t="s">
+      <c r="I189" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J189" s="18">
+      <c r="J189" s="17">
         <v>104</v>
       </c>
-      <c r="K189" s="18" t="s">
+      <c r="K189" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="L189" s="18">
+      <c r="L189" s="17">
         <v>106</v>
       </c>
-      <c r="M189" s="18">
+      <c r="M189" s="17">
         <v>210</v>
       </c>
-      <c r="N189" s="18">
+      <c r="N189" s="17">
         <v>211.5</v>
       </c>
-      <c r="O189" s="18">
+      <c r="O189" s="17">
         <v>211</v>
       </c>
-      <c r="P189" s="18" t="s">
+      <c r="P189" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q189" s="18" t="s">
+      <c r="Q189" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R189" s="18" t="s">
+      <c r="R189" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="17">
+    <row r="190" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="16">
         <v>44527</v>
       </c>
-      <c r="B190" s="18" t="s">
+      <c r="B190" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C190" s="18">
+      <c r="C190" s="17">
         <v>92</v>
       </c>
-      <c r="D190" s="18" t="s">
+      <c r="D190" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E190" s="18">
+      <c r="E190" s="17">
         <v>105</v>
       </c>
-      <c r="F190" s="18">
+      <c r="F190" s="17">
         <v>-12</v>
       </c>
-      <c r="G190" s="18">
+      <c r="G190" s="17">
         <v>-10</v>
       </c>
-      <c r="H190" s="18" t="s">
+      <c r="H190" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I190" s="18" t="s">
+      <c r="I190" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J190" s="18">
+      <c r="J190" s="17">
         <v>97</v>
       </c>
-      <c r="K190" s="18" t="s">
+      <c r="K190" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="L190" s="18">
+      <c r="L190" s="17">
         <v>109</v>
       </c>
-      <c r="M190" s="18">
+      <c r="M190" s="17">
         <v>206</v>
       </c>
-      <c r="N190" s="18">
+      <c r="N190" s="17">
         <v>205.5</v>
       </c>
-      <c r="O190" s="18">
+      <c r="O190" s="17">
         <v>197</v>
       </c>
-      <c r="P190" s="18" t="s">
+      <c r="P190" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="Q190" s="18" t="s">
+      <c r="Q190" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R190" s="18" t="s">
+      <c r="R190" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="17">
+    <row r="191" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="16">
         <v>44527</v>
       </c>
-      <c r="B191" s="18" t="s">
+      <c r="B191" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C191" s="18">
+      <c r="C191" s="17">
         <v>143</v>
       </c>
-      <c r="D191" s="18" t="s">
+      <c r="D191" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E191" s="18">
+      <c r="E191" s="17">
         <v>146</v>
       </c>
-      <c r="F191" s="18">
+      <c r="F191" s="17">
         <v>6</v>
       </c>
-      <c r="G191" s="18">
+      <c r="G191" s="17">
         <v>5</v>
       </c>
-      <c r="H191" s="18" t="s">
+      <c r="H191" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I191" s="18" t="s">
+      <c r="I191" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J191" s="18">
+      <c r="J191" s="17">
         <v>111</v>
       </c>
-      <c r="K191" s="18" t="s">
+      <c r="K191" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L191" s="18">
+      <c r="L191" s="17">
         <v>105</v>
       </c>
-      <c r="M191" s="18">
+      <c r="M191" s="17">
         <v>216</v>
       </c>
-      <c r="N191" s="18">
+      <c r="N191" s="17">
         <v>226.5</v>
       </c>
-      <c r="O191" s="18">
+      <c r="O191" s="17">
         <v>289</v>
       </c>
-      <c r="P191" s="18" t="s">
+      <c r="P191" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q191" s="18" t="s">
+      <c r="Q191" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="R191" s="18" t="s">
+      <c r="R191" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="17">
+    <row r="192" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="16">
         <v>44527</v>
       </c>
-      <c r="B192" s="18" t="s">
+      <c r="B192" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C192" s="18">
+      <c r="C192" s="17">
         <v>120</v>
       </c>
-      <c r="D192" s="18" t="s">
+      <c r="D192" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E192" s="18">
+      <c r="E192" s="17">
         <v>114</v>
       </c>
-      <c r="F192" s="18">
+      <c r="F192" s="17">
         <v>0</v>
       </c>
-      <c r="G192" s="18">
+      <c r="G192" s="17">
         <v>-7</v>
       </c>
-      <c r="H192" s="18" t="s">
+      <c r="H192" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I192" s="18" t="s">
+      <c r="I192" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J192" s="18">
+      <c r="J192" s="17">
         <v>103</v>
       </c>
-      <c r="K192" s="18" t="s">
+      <c r="K192" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="L192" s="18">
+      <c r="L192" s="17">
         <v>103</v>
       </c>
-      <c r="M192" s="18">
+      <c r="M192" s="17">
         <v>206</v>
       </c>
-      <c r="N192" s="18">
+      <c r="N192" s="17">
         <v>211.5</v>
       </c>
-      <c r="O192" s="18">
+      <c r="O192" s="17">
         <v>234</v>
       </c>
-      <c r="P192" s="18" t="s">
+      <c r="P192" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q192" s="18" t="s">
+      <c r="Q192" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="R192" s="18" t="s">
+      <c r="R192" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="17">
+    <row r="193" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="16">
         <v>44527</v>
       </c>
-      <c r="B193" s="18" t="s">
+      <c r="B193" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C193" s="18">
+      <c r="C193" s="17">
         <v>105</v>
       </c>
-      <c r="D193" s="18" t="s">
+      <c r="D193" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E193" s="18">
+      <c r="E193" s="17">
         <v>127</v>
       </c>
-      <c r="F193" s="18">
+      <c r="F193" s="17">
         <v>-19</v>
       </c>
-      <c r="G193" s="18">
+      <c r="G193" s="17">
         <v>-13</v>
       </c>
-      <c r="H193" s="18" t="s">
+      <c r="H193" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I193" s="18" t="s">
+      <c r="I193" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J193" s="18">
+      <c r="J193" s="17">
         <v>97</v>
       </c>
-      <c r="K193" s="18" t="s">
+      <c r="K193" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L193" s="18">
+      <c r="L193" s="17">
         <v>116</v>
       </c>
-      <c r="M193" s="18">
+      <c r="M193" s="17">
         <v>213</v>
       </c>
-      <c r="N193" s="18">
+      <c r="N193" s="17">
         <v>215.5</v>
       </c>
-      <c r="O193" s="18">
+      <c r="O193" s="17">
         <v>232</v>
       </c>
-      <c r="P193" s="18" t="s">
+      <c r="P193" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q193" s="18" t="s">
+      <c r="Q193" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="R193" s="18" t="s">
+      <c r="R193" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="194" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="16">
         <v>44527</v>
       </c>
-      <c r="B194" s="15" t="s">
+      <c r="B194" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C194" s="15">
+      <c r="C194" s="17">
         <v>105</v>
       </c>
-      <c r="D194" s="15" t="s">
+      <c r="D194" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E194" s="15">
+      <c r="E194" s="17">
         <v>90</v>
       </c>
-      <c r="F194" s="15">
+      <c r="F194" s="17">
         <v>7</v>
       </c>
-      <c r="G194" s="15">
+      <c r="G194" s="17">
         <v>3</v>
       </c>
-      <c r="H194" s="15" t="s">
+      <c r="H194" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I194" s="15" t="s">
+      <c r="I194" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J194" s="15">
+      <c r="J194" s="17">
         <v>106</v>
       </c>
-      <c r="K194" s="15" t="s">
+      <c r="K194" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L194" s="15">
+      <c r="L194" s="17">
         <v>99</v>
       </c>
-      <c r="M194" s="15">
+      <c r="M194" s="17">
         <v>205</v>
       </c>
-      <c r="N194" s="15">
+      <c r="N194" s="17">
         <v>215</v>
       </c>
-      <c r="O194" s="15">
+      <c r="O194" s="17">
         <v>195</v>
       </c>
-      <c r="P194" s="15" t="s">
+      <c r="P194" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q194" s="15" t="s">
+      <c r="Q194" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R194" s="15" t="s">
+      <c r="R194" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="16">
         <v>44527</v>
       </c>
-      <c r="B195" s="15" t="s">
+      <c r="B195" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C195" s="15">
+      <c r="C195" s="17">
         <v>118</v>
       </c>
-      <c r="D195" s="15" t="s">
+      <c r="D195" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E195" s="15">
+      <c r="E195" s="17">
         <v>100</v>
       </c>
-      <c r="F195" s="15">
+      <c r="F195" s="17">
         <v>0</v>
       </c>
-      <c r="G195" s="15">
+      <c r="G195" s="17">
         <v>2.5</v>
       </c>
-      <c r="H195" s="15" t="s">
+      <c r="H195" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I195" s="15" t="s">
+      <c r="I195" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J195" s="15">
+      <c r="J195" s="17">
         <v>106</v>
       </c>
-      <c r="K195" s="15" t="s">
+      <c r="K195" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="L195" s="15">
+      <c r="L195" s="17">
         <v>106</v>
       </c>
-      <c r="M195" s="15">
+      <c r="M195" s="17">
         <v>212</v>
       </c>
-      <c r="N195" s="15">
+      <c r="N195" s="17">
         <v>217.5</v>
       </c>
-      <c r="O195" s="15">
+      <c r="O195" s="17">
         <v>218</v>
       </c>
-      <c r="P195" s="15" t="s">
+      <c r="P195" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q195" s="15" t="s">
+      <c r="Q195" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="R195" s="15" t="s">
+      <c r="R195" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="16">
         <v>44527</v>
       </c>
-      <c r="B196" s="15" t="s">
+      <c r="B196" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C196" s="15">
+      <c r="C196" s="17">
         <v>101</v>
       </c>
-      <c r="D196" s="15" t="s">
+      <c r="D196" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E196" s="15">
+      <c r="E196" s="17">
         <v>128</v>
       </c>
-      <c r="F196" s="15">
+      <c r="F196" s="17">
         <v>11</v>
       </c>
-      <c r="G196" s="15">
+      <c r="G196" s="17">
         <v>-1</v>
       </c>
-      <c r="H196" s="15" t="s">
+      <c r="H196" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I196" s="15" t="s">
+      <c r="I196" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J196" s="15">
+      <c r="J196" s="17">
         <v>116</v>
       </c>
-      <c r="K196" s="15" t="s">
+      <c r="K196" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L196" s="15">
+      <c r="L196" s="17">
         <v>105</v>
       </c>
-      <c r="M196" s="15">
+      <c r="M196" s="17">
         <v>221</v>
       </c>
-      <c r="N196" s="15">
+      <c r="N196" s="17">
         <v>225.5</v>
       </c>
-      <c r="O196" s="15">
+      <c r="O196" s="17">
         <v>229</v>
       </c>
-      <c r="P196" s="15" t="s">
+      <c r="P196" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q196" s="15" t="s">
+      <c r="Q196" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="R196" s="15" t="s">
+      <c r="R196" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="16">
         <v>44527</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="B197" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C197" s="15">
+      <c r="C197" s="17">
         <v>109</v>
       </c>
-      <c r="D197" s="15" t="s">
+      <c r="D197" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E197" s="15">
+      <c r="E197" s="17">
         <v>97</v>
       </c>
-      <c r="F197" s="15">
+      <c r="F197" s="17">
         <v>-1</v>
       </c>
-      <c r="G197" s="15">
+      <c r="G197" s="17">
         <v>-1.5</v>
       </c>
-      <c r="H197" s="15" t="s">
+      <c r="H197" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I197" s="15" t="s">
+      <c r="I197" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J197" s="15">
+      <c r="J197" s="17">
         <v>105</v>
       </c>
-      <c r="K197" s="15" t="s">
+      <c r="K197" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L197" s="15">
+      <c r="L197" s="17">
         <v>106</v>
       </c>
-      <c r="M197" s="15">
+      <c r="M197" s="17">
         <v>211</v>
       </c>
-      <c r="N197" s="15">
+      <c r="N197" s="17">
         <v>209.5</v>
       </c>
-      <c r="O197" s="15">
+      <c r="O197" s="17">
         <v>206</v>
       </c>
-      <c r="P197" s="15" t="s">
+      <c r="P197" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="Q197" s="15" t="s">
+      <c r="Q197" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R197" s="15" t="s">
+      <c r="R197" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="16">
         <v>44527</v>
       </c>
-      <c r="B198" s="15" t="s">
+      <c r="B198" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C198" s="15">
+      <c r="C198" s="17">
         <v>106</v>
       </c>
-      <c r="D198" s="15" t="s">
+      <c r="D198" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E198" s="15">
+      <c r="E198" s="17">
         <v>110</v>
       </c>
-      <c r="F198" s="15">
+      <c r="F198" s="17">
         <v>-13</v>
       </c>
-      <c r="G198" s="15">
+      <c r="G198" s="17">
         <v>-10.5</v>
       </c>
-      <c r="H198" s="15" t="s">
+      <c r="H198" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I198" s="15" t="s">
+      <c r="I198" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J198" s="15">
+      <c r="J198" s="17">
         <v>98</v>
       </c>
-      <c r="K198" s="15" t="s">
+      <c r="K198" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L198" s="15">
+      <c r="L198" s="17">
         <v>111</v>
       </c>
-      <c r="M198" s="15">
+      <c r="M198" s="17">
         <v>209</v>
       </c>
-      <c r="N198" s="15">
+      <c r="N198" s="17">
         <v>216.5</v>
       </c>
-      <c r="O198" s="15">
+      <c r="O198" s="17">
         <v>216</v>
       </c>
-      <c r="P198" s="15" t="s">
+      <c r="P198" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q198" s="15" t="s">
+      <c r="Q198" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R198" s="15" t="s">
+      <c r="R198" s="17" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="15">
+        <v>44529</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C199" s="15">
+        <v>96</v>
+      </c>
+      <c r="D199" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="15">
+        <v>101</v>
+      </c>
+      <c r="F199" s="15">
+        <v>-12</v>
+      </c>
+      <c r="G199" s="15">
+        <v>-13.5</v>
+      </c>
+      <c r="H199" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I199" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J199" s="15">
+        <v>101</v>
+      </c>
+      <c r="K199" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L199" s="15">
+        <v>113</v>
+      </c>
+      <c r="M199" s="15">
+        <v>214</v>
+      </c>
+      <c r="N199" s="15">
+        <v>206.5</v>
+      </c>
+      <c r="O199" s="15">
+        <v>197</v>
+      </c>
+      <c r="P199" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q199" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R199" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="15">
+        <v>44529</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C200" s="15">
+        <v>120</v>
+      </c>
+      <c r="D200" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E200" s="15">
+        <v>111</v>
+      </c>
+      <c r="F200" s="15">
+        <v>10</v>
+      </c>
+      <c r="G200" s="15">
+        <v>-3</v>
+      </c>
+      <c r="H200" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I200" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J200" s="15">
+        <v>98</v>
+      </c>
+      <c r="K200" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L200" s="15">
+        <v>88</v>
+      </c>
+      <c r="M200" s="15">
+        <v>186</v>
+      </c>
+      <c r="N200" s="15">
+        <v>206.5</v>
+      </c>
+      <c r="O200" s="15">
+        <v>231</v>
+      </c>
+      <c r="P200" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q200" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R200" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="15">
+        <v>44529</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" s="15">
+        <v>119</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E201" s="15">
+        <v>133</v>
+      </c>
+      <c r="F201" s="15">
+        <v>-5</v>
+      </c>
+      <c r="G201" s="15">
+        <v>-4.5</v>
+      </c>
+      <c r="H201" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I201" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J201" s="15">
+        <v>108</v>
+      </c>
+      <c r="K201" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L201" s="15">
+        <v>113</v>
+      </c>
+      <c r="M201" s="15">
+        <v>221</v>
+      </c>
+      <c r="N201" s="15">
+        <v>223</v>
+      </c>
+      <c r="O201" s="15">
+        <v>252</v>
+      </c>
+      <c r="P201" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q201" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R201" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="15">
+        <v>44529</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C202" s="15">
+        <v>89</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="15">
+        <v>102</v>
+      </c>
+      <c r="F202" s="15">
+        <v>-5</v>
+      </c>
+      <c r="G202" s="15">
+        <v>-2</v>
+      </c>
+      <c r="H202" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I202" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J202" s="15">
+        <v>99</v>
+      </c>
+      <c r="K202" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L202" s="15">
+        <v>104</v>
+      </c>
+      <c r="M202" s="15">
+        <v>203</v>
+      </c>
+      <c r="N202" s="15">
+        <v>217</v>
+      </c>
+      <c r="O202" s="15">
+        <v>191</v>
+      </c>
+      <c r="P202" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q202" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R202" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="15">
+        <v>44529</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" s="15">
+        <v>98</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E203" s="15">
+        <v>100</v>
+      </c>
+      <c r="F203" s="15">
+        <v>-4</v>
+      </c>
+      <c r="G203" s="15">
+        <v>-2.5</v>
+      </c>
+      <c r="H203" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I203" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J203" s="15">
+        <v>103</v>
+      </c>
+      <c r="K203" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L203" s="15">
+        <v>107</v>
+      </c>
+      <c r="M203" s="15">
+        <v>210</v>
+      </c>
+      <c r="N203" s="15">
+        <v>218</v>
+      </c>
+      <c r="O203" s="15">
+        <v>198</v>
+      </c>
+      <c r="P203" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q203" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R203" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="15">
+        <v>44529</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C204" s="15">
+        <v>114</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E204" s="15">
+        <v>96</v>
+      </c>
+      <c r="F204" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G204" s="15">
+        <v>-6.5</v>
+      </c>
+      <c r="H204" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I204" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J204" s="15">
+        <v>103</v>
+      </c>
+      <c r="K204" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L204" s="15">
+        <v>104</v>
+      </c>
+      <c r="M204" s="15">
+        <v>207</v>
+      </c>
+      <c r="N204" s="15">
+        <v>210.5</v>
+      </c>
+      <c r="O204" s="15">
+        <v>210</v>
+      </c>
+      <c r="P204" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q204" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R204" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="15">
+        <v>44529</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C205" s="15">
+        <v>99</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E205" s="15">
+        <v>116</v>
+      </c>
+      <c r="F205" s="15">
+        <v>-3</v>
+      </c>
+      <c r="G205" s="15">
+        <v>3</v>
+      </c>
+      <c r="H205" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I205" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J205" s="15">
+        <v>103</v>
+      </c>
+      <c r="K205" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L205" s="15">
+        <v>106</v>
+      </c>
+      <c r="M205" s="15">
+        <v>209</v>
+      </c>
+      <c r="N205" s="15">
+        <v>215</v>
+      </c>
+      <c r="O205" s="15">
+        <v>215</v>
+      </c>
+      <c r="P205" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q205" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R205" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="15">
+        <v>44529</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C206" s="15">
+        <v>107</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E206" s="15">
+        <v>129</v>
+      </c>
+      <c r="F206" s="15">
+        <v>-12</v>
+      </c>
+      <c r="G206" s="15">
+        <v>-7.5</v>
+      </c>
+      <c r="H206" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I206" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J206" s="15">
+        <v>106</v>
+      </c>
+      <c r="K206" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L206" s="15">
+        <v>118</v>
+      </c>
+      <c r="M206" s="15">
+        <v>224</v>
+      </c>
+      <c r="N206" s="15">
+        <v>223</v>
+      </c>
+      <c r="O206" s="15">
+        <v>236</v>
+      </c>
+      <c r="P206" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q206" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R206" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="15">
+        <v>44529</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="15">
+        <v>123</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E207" s="15">
+        <v>104</v>
+      </c>
+      <c r="F207" s="15">
+        <v>-15</v>
+      </c>
+      <c r="G207" s="15">
+        <v>-7</v>
+      </c>
+      <c r="H207" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I207" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J207" s="15">
+        <v>95</v>
+      </c>
+      <c r="K207" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L207" s="15">
+        <v>110</v>
+      </c>
+      <c r="M207" s="15">
+        <v>205</v>
+      </c>
+      <c r="N207" s="15">
+        <v>211</v>
+      </c>
+      <c r="O207" s="15">
+        <v>227</v>
+      </c>
+      <c r="P207" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q207" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R207" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -13541,7 +13898,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13576,28 +13933,28 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>COUNTIF(Archive!$H2:H200,"WIN")</f>
-        <v>76</v>
+        <f>COUNTIF(Archive!$H2:H300,"WIN")</f>
+        <v>80</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(Archive!$H2:H200,"LOSS")</f>
-        <v>92</v>
+        <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
+        <v>93</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.45200000000000001</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(Archive!$R2:R200,"WIN")</f>
-        <v>83</v>
+        <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
+        <v>86</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(Archive!$R2:R200,"LOSS")</f>
-        <v>94</v>
+        <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
+        <v>98</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46899999999999997</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -13622,24 +13979,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.47199999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.57499999999999996</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -13664,24 +14021,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>21</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.51200000000000001</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>27</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.4</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2B0B9D-0D2F-40AA-8349-46F22C3E4122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF037AC-B166-49DC-B316-8099C5CCFF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -287,13 +287,19 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Toronto -5.5</t>
+    <t>Orlando +8.5</t>
   </si>
   <si>
-    <t>Golden State +2.5</t>
+    <t>Minnesota +3.5</t>
   </si>
   <si>
-    <t>Sacramento +3.5</t>
+    <t>New Orleans +3.5</t>
+  </si>
+  <si>
+    <t>Houston +3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,12 +631,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +832,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -850,7 +850,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1208,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,7 +1265,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-6.5</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
         <v>81</v>
@@ -1275,57 +1274,57 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I2">
-        <v>216</v>
+        <v>217.5</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-5.5</v>
+        <v>8.5</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G3">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H3">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I3">
-        <v>219.5</v>
+        <v>207.5</v>
       </c>
       <c r="J3" t="s">
         <v>81</v>
@@ -1336,7 +1335,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -1345,22 +1344,22 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H4">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I4">
-        <v>221</v>
+        <v>215.5</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -1371,7 +1370,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-9.5</v>
+        <v>-2</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
@@ -1380,22 +1379,22 @@
         <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H5">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I5">
-        <v>215.5</v>
+        <v>210.5</v>
       </c>
       <c r="J5" t="s">
         <v>81</v>
@@ -1406,37 +1405,177 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>-7.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>107</v>
+      </c>
+      <c r="H6">
+        <v>207</v>
+      </c>
+      <c r="I6">
+        <v>204.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>115</v>
+      </c>
+      <c r="H7">
+        <v>224</v>
+      </c>
+      <c r="I7">
+        <v>229</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>3.5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>109</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>106</v>
+      </c>
+      <c r="H8">
+        <v>212</v>
+      </c>
+      <c r="I8">
+        <v>213.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+      <c r="I9">
+        <v>214</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-7.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="G6">
+      <c r="E10">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10">
         <v>110</v>
       </c>
-      <c r="H6">
-        <v>219</v>
-      </c>
-      <c r="I6">
-        <v>227</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H10">
+        <v>212</v>
+      </c>
+      <c r="I10">
+        <v>215.5</v>
+      </c>
+      <c r="J10" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
-        <v>65</v>
+      <c r="K10" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1446,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R207"/>
+  <dimension ref="A1:R212"/>
   <sheetViews>
-    <sheetView topLeftCell="C190" workbookViewId="0">
-      <selection activeCell="R202" sqref="R202"/>
+    <sheetView topLeftCell="C202" workbookViewId="0">
+      <selection activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1457,6 +1596,8 @@
     <col min="1" max="1" width="20.1796875" customWidth="1"/>
     <col min="2" max="2" width="18.90625" customWidth="1"/>
     <col min="4" max="4" width="21.36328125" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -12656,1236 +12797,1516 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="16">
+    <row r="186" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="15">
         <v>44527</v>
       </c>
-      <c r="B186" s="17" t="s">
+      <c r="B186" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C186" s="17">
+      <c r="C186" s="16">
         <v>121</v>
       </c>
-      <c r="D186" s="17" t="s">
+      <c r="D186" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E186" s="17">
+      <c r="E186" s="16">
         <v>120</v>
       </c>
-      <c r="F186" s="17">
+      <c r="F186" s="16">
         <v>-2</v>
       </c>
-      <c r="G186" s="17">
+      <c r="G186" s="16">
         <v>-7</v>
       </c>
-      <c r="H186" s="17" t="s">
+      <c r="H186" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I186" s="17" t="s">
+      <c r="I186" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J186" s="17">
+      <c r="J186" s="16">
         <v>108</v>
       </c>
-      <c r="K186" s="17" t="s">
+      <c r="K186" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L186" s="17">
+      <c r="L186" s="16">
         <v>110</v>
       </c>
-      <c r="M186" s="17">
+      <c r="M186" s="16">
         <v>218</v>
       </c>
-      <c r="N186" s="17">
+      <c r="N186" s="16">
         <v>215</v>
       </c>
-      <c r="O186" s="17">
+      <c r="O186" s="16">
         <v>241</v>
       </c>
-      <c r="P186" s="17" t="s">
+      <c r="P186" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q186" s="17" t="s">
+      <c r="Q186" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R186" s="17" t="s">
+      <c r="R186" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="16">
+    <row r="187" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="15">
         <v>44527</v>
       </c>
-      <c r="B187" s="17" t="s">
+      <c r="B187" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C187" s="17">
+      <c r="C187" s="16">
         <v>99</v>
       </c>
-      <c r="D187" s="17" t="s">
+      <c r="D187" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E187" s="17">
+      <c r="E187" s="16">
         <v>90</v>
       </c>
-      <c r="F187" s="17">
+      <c r="F187" s="16">
         <v>-7</v>
       </c>
-      <c r="G187" s="17">
+      <c r="G187" s="16">
         <v>-7</v>
       </c>
-      <c r="H187" s="17" t="s">
+      <c r="H187" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I187" s="17" t="s">
+      <c r="I187" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J187" s="17">
+      <c r="J187" s="16">
         <v>107</v>
       </c>
-      <c r="K187" s="17" t="s">
+      <c r="K187" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L187" s="17">
+      <c r="L187" s="16">
         <v>114</v>
       </c>
-      <c r="M187" s="17">
+      <c r="M187" s="16">
         <v>221</v>
       </c>
-      <c r="N187" s="17">
+      <c r="N187" s="16">
         <v>215.5</v>
       </c>
-      <c r="O187" s="17">
+      <c r="O187" s="16">
         <v>189</v>
       </c>
-      <c r="P187" s="17" t="s">
+      <c r="P187" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q187" s="17" t="s">
+      <c r="Q187" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R187" s="17" t="s">
+      <c r="R187" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="16">
+    <row r="188" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="15">
         <v>44527</v>
       </c>
-      <c r="B188" s="17" t="s">
+      <c r="B188" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C188" s="17">
+      <c r="C188" s="16">
         <v>113</v>
       </c>
-      <c r="D188" s="17" t="s">
+      <c r="D188" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E188" s="17">
+      <c r="E188" s="16">
         <v>107</v>
       </c>
-      <c r="F188" s="17">
+      <c r="F188" s="16">
         <v>1</v>
       </c>
-      <c r="G188" s="17">
+      <c r="G188" s="16">
         <v>-1.5</v>
       </c>
-      <c r="H188" s="17" t="s">
+      <c r="H188" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I188" s="17" t="s">
+      <c r="I188" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J188" s="17">
+      <c r="J188" s="16">
         <v>108</v>
       </c>
-      <c r="K188" s="17" t="s">
+      <c r="K188" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L188" s="17">
+      <c r="L188" s="16">
         <v>107</v>
       </c>
-      <c r="M188" s="17">
+      <c r="M188" s="16">
         <v>215</v>
       </c>
-      <c r="N188" s="17">
+      <c r="N188" s="16">
         <v>224.5</v>
       </c>
-      <c r="O188" s="17">
+      <c r="O188" s="16">
         <v>220</v>
       </c>
-      <c r="P188" s="17" t="s">
+      <c r="P188" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q188" s="17" t="s">
+      <c r="Q188" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R188" s="17" t="s">
+      <c r="R188" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="16">
+    <row r="189" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="15">
         <v>44527</v>
       </c>
-      <c r="B189" s="17" t="s">
+      <c r="B189" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C189" s="17">
+      <c r="C189" s="16">
         <v>107</v>
       </c>
-      <c r="D189" s="17" t="s">
+      <c r="D189" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E189" s="17">
+      <c r="E189" s="16">
         <v>104</v>
       </c>
-      <c r="F189" s="17">
+      <c r="F189" s="16">
         <v>-2</v>
       </c>
-      <c r="G189" s="17">
+      <c r="G189" s="16">
         <v>1.5</v>
       </c>
-      <c r="H189" s="17" t="s">
+      <c r="H189" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I189" s="17" t="s">
+      <c r="I189" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J189" s="17">
+      <c r="J189" s="16">
         <v>104</v>
       </c>
-      <c r="K189" s="17" t="s">
+      <c r="K189" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L189" s="17">
+      <c r="L189" s="16">
         <v>106</v>
       </c>
-      <c r="M189" s="17">
+      <c r="M189" s="16">
         <v>210</v>
       </c>
-      <c r="N189" s="17">
+      <c r="N189" s="16">
         <v>211.5</v>
       </c>
-      <c r="O189" s="17">
+      <c r="O189" s="16">
         <v>211</v>
       </c>
-      <c r="P189" s="17" t="s">
+      <c r="P189" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q189" s="17" t="s">
+      <c r="Q189" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R189" s="17" t="s">
+      <c r="R189" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="16">
+    <row r="190" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="15">
         <v>44527</v>
       </c>
-      <c r="B190" s="17" t="s">
+      <c r="B190" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C190" s="17">
+      <c r="C190" s="16">
         <v>92</v>
       </c>
-      <c r="D190" s="17" t="s">
+      <c r="D190" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E190" s="17">
+      <c r="E190" s="16">
         <v>105</v>
       </c>
-      <c r="F190" s="17">
+      <c r="F190" s="16">
         <v>-12</v>
       </c>
-      <c r="G190" s="17">
+      <c r="G190" s="16">
         <v>-10</v>
       </c>
-      <c r="H190" s="17" t="s">
+      <c r="H190" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I190" s="17" t="s">
+      <c r="I190" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J190" s="17">
+      <c r="J190" s="16">
         <v>97</v>
       </c>
-      <c r="K190" s="17" t="s">
+      <c r="K190" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L190" s="17">
+      <c r="L190" s="16">
         <v>109</v>
       </c>
-      <c r="M190" s="17">
+      <c r="M190" s="16">
         <v>206</v>
       </c>
-      <c r="N190" s="17">
+      <c r="N190" s="16">
         <v>205.5</v>
       </c>
-      <c r="O190" s="17">
+      <c r="O190" s="16">
         <v>197</v>
       </c>
-      <c r="P190" s="17" t="s">
+      <c r="P190" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q190" s="17" t="s">
+      <c r="Q190" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R190" s="17" t="s">
+      <c r="R190" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="16">
+    <row r="191" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="15">
         <v>44527</v>
       </c>
-      <c r="B191" s="17" t="s">
+      <c r="B191" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C191" s="17">
+      <c r="C191" s="16">
         <v>143</v>
       </c>
-      <c r="D191" s="17" t="s">
+      <c r="D191" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E191" s="17">
+      <c r="E191" s="16">
         <v>146</v>
       </c>
-      <c r="F191" s="17">
+      <c r="F191" s="16">
         <v>6</v>
       </c>
-      <c r="G191" s="17">
+      <c r="G191" s="16">
         <v>5</v>
       </c>
-      <c r="H191" s="17" t="s">
+      <c r="H191" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I191" s="17" t="s">
+      <c r="I191" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J191" s="17">
+      <c r="J191" s="16">
         <v>111</v>
       </c>
-      <c r="K191" s="17" t="s">
+      <c r="K191" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L191" s="17">
+      <c r="L191" s="16">
         <v>105</v>
       </c>
-      <c r="M191" s="17">
+      <c r="M191" s="16">
         <v>216</v>
       </c>
-      <c r="N191" s="17">
+      <c r="N191" s="16">
         <v>226.5</v>
       </c>
-      <c r="O191" s="17">
+      <c r="O191" s="16">
         <v>289</v>
       </c>
-      <c r="P191" s="17" t="s">
+      <c r="P191" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q191" s="17" t="s">
+      <c r="Q191" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R191" s="17" t="s">
+      <c r="R191" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="16">
+    <row r="192" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="15">
         <v>44527</v>
       </c>
-      <c r="B192" s="17" t="s">
+      <c r="B192" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C192" s="17">
+      <c r="C192" s="16">
         <v>120</v>
       </c>
-      <c r="D192" s="17" t="s">
+      <c r="D192" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E192" s="17">
+      <c r="E192" s="16">
         <v>114</v>
       </c>
-      <c r="F192" s="17">
+      <c r="F192" s="16">
         <v>0</v>
       </c>
-      <c r="G192" s="17">
+      <c r="G192" s="16">
         <v>-7</v>
       </c>
-      <c r="H192" s="17" t="s">
+      <c r="H192" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I192" s="17" t="s">
+      <c r="I192" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J192" s="17">
+      <c r="J192" s="16">
         <v>103</v>
       </c>
-      <c r="K192" s="17" t="s">
+      <c r="K192" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L192" s="17">
+      <c r="L192" s="16">
         <v>103</v>
       </c>
-      <c r="M192" s="17">
+      <c r="M192" s="16">
         <v>206</v>
       </c>
-      <c r="N192" s="17">
+      <c r="N192" s="16">
         <v>211.5</v>
       </c>
-      <c r="O192" s="17">
+      <c r="O192" s="16">
         <v>234</v>
       </c>
-      <c r="P192" s="17" t="s">
+      <c r="P192" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q192" s="17" t="s">
+      <c r="Q192" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R192" s="17" t="s">
+      <c r="R192" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="16">
+    <row r="193" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="15">
         <v>44527</v>
       </c>
-      <c r="B193" s="17" t="s">
+      <c r="B193" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C193" s="17">
+      <c r="C193" s="16">
         <v>105</v>
       </c>
-      <c r="D193" s="17" t="s">
+      <c r="D193" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E193" s="17">
+      <c r="E193" s="16">
         <v>127</v>
       </c>
-      <c r="F193" s="17">
+      <c r="F193" s="16">
         <v>-19</v>
       </c>
-      <c r="G193" s="17">
+      <c r="G193" s="16">
         <v>-13</v>
       </c>
-      <c r="H193" s="17" t="s">
+      <c r="H193" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I193" s="17" t="s">
+      <c r="I193" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J193" s="17">
+      <c r="J193" s="16">
         <v>97</v>
       </c>
-      <c r="K193" s="17" t="s">
+      <c r="K193" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L193" s="17">
+      <c r="L193" s="16">
         <v>116</v>
       </c>
-      <c r="M193" s="17">
+      <c r="M193" s="16">
         <v>213</v>
       </c>
-      <c r="N193" s="17">
+      <c r="N193" s="16">
         <v>215.5</v>
       </c>
-      <c r="O193" s="17">
+      <c r="O193" s="16">
         <v>232</v>
       </c>
-      <c r="P193" s="17" t="s">
+      <c r="P193" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q193" s="17" t="s">
+      <c r="Q193" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R193" s="17" t="s">
+      <c r="R193" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="194" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="16">
-        <v>44527</v>
-      </c>
-      <c r="B194" s="17" t="s">
+    <row r="194" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="15">
+        <v>44528</v>
+      </c>
+      <c r="B194" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C194" s="17">
+      <c r="C194" s="16">
         <v>105</v>
       </c>
-      <c r="D194" s="17" t="s">
+      <c r="D194" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E194" s="17">
+      <c r="E194" s="16">
         <v>90</v>
       </c>
-      <c r="F194" s="17">
+      <c r="F194" s="16">
         <v>7</v>
       </c>
-      <c r="G194" s="17">
+      <c r="G194" s="16">
         <v>3</v>
       </c>
-      <c r="H194" s="17" t="s">
+      <c r="H194" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I194" s="17" t="s">
+      <c r="I194" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J194" s="17">
+      <c r="J194" s="16">
         <v>106</v>
       </c>
-      <c r="K194" s="17" t="s">
+      <c r="K194" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L194" s="17">
+      <c r="L194" s="16">
         <v>99</v>
       </c>
-      <c r="M194" s="17">
+      <c r="M194" s="16">
         <v>205</v>
       </c>
-      <c r="N194" s="17">
+      <c r="N194" s="16">
         <v>215</v>
       </c>
-      <c r="O194" s="17">
+      <c r="O194" s="16">
         <v>195</v>
       </c>
-      <c r="P194" s="17" t="s">
+      <c r="P194" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q194" s="17" t="s">
+      <c r="Q194" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R194" s="17" t="s">
+      <c r="R194" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="16">
-        <v>44527</v>
-      </c>
-      <c r="B195" s="17" t="s">
+    <row r="195" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="15">
+        <v>44528</v>
+      </c>
+      <c r="B195" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C195" s="17">
+      <c r="C195" s="16">
         <v>118</v>
       </c>
-      <c r="D195" s="17" t="s">
+      <c r="D195" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E195" s="17">
+      <c r="E195" s="16">
         <v>100</v>
       </c>
-      <c r="F195" s="17">
+      <c r="F195" s="16">
         <v>0</v>
       </c>
-      <c r="G195" s="17">
+      <c r="G195" s="16">
         <v>2.5</v>
       </c>
-      <c r="H195" s="17" t="s">
+      <c r="H195" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I195" s="17" t="s">
+      <c r="I195" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J195" s="17">
+      <c r="J195" s="16">
         <v>106</v>
       </c>
-      <c r="K195" s="17" t="s">
+      <c r="K195" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L195" s="17">
+      <c r="L195" s="16">
         <v>106</v>
       </c>
-      <c r="M195" s="17">
+      <c r="M195" s="16">
         <v>212</v>
       </c>
-      <c r="N195" s="17">
+      <c r="N195" s="16">
         <v>217.5</v>
       </c>
-      <c r="O195" s="17">
+      <c r="O195" s="16">
         <v>218</v>
       </c>
-      <c r="P195" s="17" t="s">
+      <c r="P195" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q195" s="17" t="s">
+      <c r="Q195" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R195" s="17" t="s">
+      <c r="R195" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="16">
-        <v>44527</v>
-      </c>
-      <c r="B196" s="17" t="s">
+    <row r="196" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="15">
+        <v>44528</v>
+      </c>
+      <c r="B196" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C196" s="17">
+      <c r="C196" s="16">
         <v>101</v>
       </c>
-      <c r="D196" s="17" t="s">
+      <c r="D196" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E196" s="17">
+      <c r="E196" s="16">
         <v>128</v>
       </c>
-      <c r="F196" s="17">
+      <c r="F196" s="16">
         <v>11</v>
       </c>
-      <c r="G196" s="17">
+      <c r="G196" s="16">
         <v>-1</v>
       </c>
-      <c r="H196" s="17" t="s">
+      <c r="H196" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I196" s="17" t="s">
+      <c r="I196" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J196" s="17">
+      <c r="J196" s="16">
         <v>116</v>
       </c>
-      <c r="K196" s="17" t="s">
+      <c r="K196" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L196" s="17">
+      <c r="L196" s="16">
         <v>105</v>
       </c>
-      <c r="M196" s="17">
+      <c r="M196" s="16">
         <v>221</v>
       </c>
-      <c r="N196" s="17">
+      <c r="N196" s="16">
         <v>225.5</v>
       </c>
-      <c r="O196" s="17">
+      <c r="O196" s="16">
         <v>229</v>
       </c>
-      <c r="P196" s="17" t="s">
+      <c r="P196" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q196" s="17" t="s">
+      <c r="Q196" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R196" s="17" t="s">
+      <c r="R196" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="16">
-        <v>44527</v>
-      </c>
-      <c r="B197" s="17" t="s">
+    <row r="197" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="15">
+        <v>44528</v>
+      </c>
+      <c r="B197" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C197" s="17">
+      <c r="C197" s="16">
         <v>109</v>
       </c>
-      <c r="D197" s="17" t="s">
+      <c r="D197" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E197" s="17">
+      <c r="E197" s="16">
         <v>97</v>
       </c>
-      <c r="F197" s="17">
+      <c r="F197" s="16">
         <v>-1</v>
       </c>
-      <c r="G197" s="17">
+      <c r="G197" s="16">
         <v>-1.5</v>
       </c>
-      <c r="H197" s="17" t="s">
+      <c r="H197" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I197" s="17" t="s">
+      <c r="I197" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J197" s="17">
+      <c r="J197" s="16">
         <v>105</v>
       </c>
-      <c r="K197" s="17" t="s">
+      <c r="K197" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L197" s="17">
+      <c r="L197" s="16">
         <v>106</v>
       </c>
-      <c r="M197" s="17">
+      <c r="M197" s="16">
         <v>211</v>
       </c>
-      <c r="N197" s="17">
+      <c r="N197" s="16">
         <v>209.5</v>
       </c>
-      <c r="O197" s="17">
+      <c r="O197" s="16">
         <v>206</v>
       </c>
-      <c r="P197" s="17" t="s">
+      <c r="P197" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q197" s="17" t="s">
+      <c r="Q197" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R197" s="17" t="s">
+      <c r="R197" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="16">
-        <v>44527</v>
-      </c>
-      <c r="B198" s="17" t="s">
+    <row r="198" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="15">
+        <v>44528</v>
+      </c>
+      <c r="B198" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C198" s="17">
+      <c r="C198" s="16">
         <v>106</v>
       </c>
-      <c r="D198" s="17" t="s">
+      <c r="D198" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E198" s="17">
+      <c r="E198" s="16">
         <v>110</v>
       </c>
-      <c r="F198" s="17">
+      <c r="F198" s="16">
         <v>-13</v>
       </c>
-      <c r="G198" s="17">
+      <c r="G198" s="16">
         <v>-10.5</v>
       </c>
-      <c r="H198" s="17" t="s">
+      <c r="H198" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I198" s="17" t="s">
+      <c r="I198" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J198" s="17">
+      <c r="J198" s="16">
         <v>98</v>
       </c>
-      <c r="K198" s="17" t="s">
+      <c r="K198" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L198" s="17">
+      <c r="L198" s="16">
         <v>111</v>
       </c>
-      <c r="M198" s="17">
+      <c r="M198" s="16">
         <v>209</v>
       </c>
-      <c r="N198" s="17">
+      <c r="N198" s="16">
         <v>216.5</v>
       </c>
-      <c r="O198" s="17">
+      <c r="O198" s="16">
         <v>216</v>
       </c>
-      <c r="P198" s="17" t="s">
+      <c r="P198" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q198" s="17" t="s">
+      <c r="Q198" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R198" s="17" t="s">
+      <c r="R198" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="15">
         <v>44529</v>
       </c>
-      <c r="B199" s="15" t="s">
+      <c r="B199" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C199" s="15">
+      <c r="C199" s="16">
         <v>96</v>
       </c>
-      <c r="D199" s="15" t="s">
+      <c r="D199" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E199" s="15">
+      <c r="E199" s="16">
         <v>101</v>
       </c>
-      <c r="F199" s="15">
+      <c r="F199" s="16">
         <v>-12</v>
       </c>
-      <c r="G199" s="15">
+      <c r="G199" s="16">
         <v>-13.5</v>
       </c>
-      <c r="H199" s="15" t="s">
+      <c r="H199" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I199" s="15" t="s">
+      <c r="I199" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J199" s="15">
+      <c r="J199" s="16">
         <v>101</v>
       </c>
-      <c r="K199" s="15" t="s">
+      <c r="K199" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L199" s="15">
+      <c r="L199" s="16">
         <v>113</v>
       </c>
-      <c r="M199" s="15">
+      <c r="M199" s="16">
         <v>214</v>
       </c>
-      <c r="N199" s="15">
+      <c r="N199" s="16">
         <v>206.5</v>
       </c>
-      <c r="O199" s="15">
+      <c r="O199" s="16">
         <v>197</v>
       </c>
-      <c r="P199" s="15" t="s">
+      <c r="P199" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q199" s="15" t="s">
+      <c r="Q199" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R199" s="15" t="s">
+      <c r="R199" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="15">
         <v>44529</v>
       </c>
-      <c r="B200" s="15" t="s">
+      <c r="B200" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C200" s="15">
+      <c r="C200" s="16">
         <v>120</v>
       </c>
-      <c r="D200" s="15" t="s">
+      <c r="D200" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E200" s="15">
+      <c r="E200" s="16">
         <v>111</v>
       </c>
-      <c r="F200" s="15">
+      <c r="F200" s="16">
         <v>10</v>
       </c>
-      <c r="G200" s="15">
+      <c r="G200" s="16">
         <v>-3</v>
       </c>
-      <c r="H200" s="15" t="s">
+      <c r="H200" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I200" s="15" t="s">
+      <c r="I200" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J200" s="15">
+      <c r="J200" s="16">
         <v>98</v>
       </c>
-      <c r="K200" s="15" t="s">
+      <c r="K200" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="L200" s="15">
+      <c r="L200" s="16">
         <v>88</v>
       </c>
-      <c r="M200" s="15">
+      <c r="M200" s="16">
         <v>186</v>
       </c>
-      <c r="N200" s="15">
+      <c r="N200" s="16">
         <v>206.5</v>
       </c>
-      <c r="O200" s="15">
+      <c r="O200" s="16">
         <v>231</v>
       </c>
-      <c r="P200" s="15" t="s">
+      <c r="P200" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q200" s="15" t="s">
+      <c r="Q200" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R200" s="15" t="s">
+      <c r="R200" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="15">
         <v>44529</v>
       </c>
-      <c r="B201" s="15" t="s">
+      <c r="B201" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C201" s="15">
+      <c r="C201" s="16">
         <v>119</v>
       </c>
-      <c r="D201" s="15" t="s">
+      <c r="D201" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E201" s="15">
+      <c r="E201" s="16">
         <v>133</v>
       </c>
-      <c r="F201" s="15">
+      <c r="F201" s="16">
         <v>-5</v>
       </c>
-      <c r="G201" s="15">
+      <c r="G201" s="16">
         <v>-4.5</v>
       </c>
-      <c r="H201" s="15" t="s">
+      <c r="H201" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I201" s="15" t="s">
+      <c r="I201" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J201" s="15">
+      <c r="J201" s="16">
         <v>108</v>
       </c>
-      <c r="K201" s="15" t="s">
+      <c r="K201" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L201" s="15">
+      <c r="L201" s="16">
         <v>113</v>
       </c>
-      <c r="M201" s="15">
+      <c r="M201" s="16">
         <v>221</v>
       </c>
-      <c r="N201" s="15">
+      <c r="N201" s="16">
         <v>223</v>
       </c>
-      <c r="O201" s="15">
+      <c r="O201" s="16">
         <v>252</v>
       </c>
-      <c r="P201" s="15" t="s">
+      <c r="P201" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q201" s="15" t="s">
+      <c r="Q201" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R201" s="15" t="s">
+      <c r="R201" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="202" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="15">
         <v>44529</v>
       </c>
-      <c r="B202" s="15" t="s">
+      <c r="B202" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C202" s="15">
+      <c r="C202" s="16">
         <v>89</v>
       </c>
-      <c r="D202" s="15" t="s">
+      <c r="D202" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E202" s="15">
+      <c r="E202" s="16">
         <v>102</v>
       </c>
-      <c r="F202" s="15">
+      <c r="F202" s="16">
         <v>-5</v>
       </c>
-      <c r="G202" s="15">
+      <c r="G202" s="16">
         <v>-2</v>
       </c>
-      <c r="H202" s="15" t="s">
+      <c r="H202" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I202" s="15" t="s">
+      <c r="I202" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J202" s="15">
+      <c r="J202" s="16">
         <v>99</v>
       </c>
-      <c r="K202" s="15" t="s">
+      <c r="K202" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L202" s="15">
+      <c r="L202" s="16">
         <v>104</v>
       </c>
-      <c r="M202" s="15">
+      <c r="M202" s="16">
         <v>203</v>
       </c>
-      <c r="N202" s="15">
+      <c r="N202" s="16">
         <v>217</v>
       </c>
-      <c r="O202" s="15">
+      <c r="O202" s="16">
         <v>191</v>
       </c>
-      <c r="P202" s="15" t="s">
+      <c r="P202" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q202" s="15" t="s">
+      <c r="Q202" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R202" s="15" t="s">
+      <c r="R202" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="15">
         <v>44529</v>
       </c>
-      <c r="B203" s="15" t="s">
+      <c r="B203" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C203" s="15">
+      <c r="C203" s="16">
         <v>98</v>
       </c>
-      <c r="D203" s="15" t="s">
+      <c r="D203" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E203" s="15">
+      <c r="E203" s="16">
         <v>100</v>
       </c>
-      <c r="F203" s="15">
+      <c r="F203" s="16">
         <v>-4</v>
       </c>
-      <c r="G203" s="15">
+      <c r="G203" s="16">
         <v>-2.5</v>
       </c>
-      <c r="H203" s="15" t="s">
+      <c r="H203" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I203" s="15" t="s">
+      <c r="I203" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J203" s="15">
+      <c r="J203" s="16">
         <v>103</v>
       </c>
-      <c r="K203" s="15" t="s">
+      <c r="K203" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="L203" s="15">
+      <c r="L203" s="16">
         <v>107</v>
       </c>
-      <c r="M203" s="15">
+      <c r="M203" s="16">
         <v>210</v>
       </c>
-      <c r="N203" s="15">
+      <c r="N203" s="16">
         <v>218</v>
       </c>
-      <c r="O203" s="15">
+      <c r="O203" s="16">
         <v>198</v>
       </c>
-      <c r="P203" s="15" t="s">
+      <c r="P203" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q203" s="15" t="s">
+      <c r="Q203" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R203" s="15" t="s">
+      <c r="R203" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="15">
         <v>44529</v>
       </c>
-      <c r="B204" s="15" t="s">
+      <c r="B204" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C204" s="15">
+      <c r="C204" s="16">
         <v>114</v>
       </c>
-      <c r="D204" s="15" t="s">
+      <c r="D204" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E204" s="15">
+      <c r="E204" s="16">
         <v>96</v>
       </c>
-      <c r="F204" s="15">
+      <c r="F204" s="16">
         <v>-1</v>
       </c>
-      <c r="G204" s="15">
+      <c r="G204" s="16">
         <v>-6.5</v>
       </c>
-      <c r="H204" s="15" t="s">
+      <c r="H204" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I204" s="15" t="s">
+      <c r="I204" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J204" s="15">
+      <c r="J204" s="16">
         <v>103</v>
       </c>
-      <c r="K204" s="15" t="s">
+      <c r="K204" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="L204" s="15">
+      <c r="L204" s="16">
         <v>104</v>
       </c>
-      <c r="M204" s="15">
+      <c r="M204" s="16">
         <v>207</v>
       </c>
-      <c r="N204" s="15">
+      <c r="N204" s="16">
         <v>210.5</v>
       </c>
-      <c r="O204" s="15">
+      <c r="O204" s="16">
         <v>210</v>
       </c>
-      <c r="P204" s="15" t="s">
+      <c r="P204" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q204" s="15" t="s">
+      <c r="Q204" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R204" s="15" t="s">
+      <c r="R204" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="15">
         <v>44529</v>
       </c>
-      <c r="B205" s="15" t="s">
+      <c r="B205" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C205" s="15">
+      <c r="C205" s="16">
         <v>99</v>
       </c>
-      <c r="D205" s="15" t="s">
+      <c r="D205" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E205" s="15">
+      <c r="E205" s="16">
         <v>116</v>
       </c>
-      <c r="F205" s="15">
+      <c r="F205" s="16">
         <v>-3</v>
       </c>
-      <c r="G205" s="15">
+      <c r="G205" s="16">
         <v>3</v>
       </c>
-      <c r="H205" s="15" t="s">
+      <c r="H205" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I205" s="15" t="s">
+      <c r="I205" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J205" s="15">
+      <c r="J205" s="16">
         <v>103</v>
       </c>
-      <c r="K205" s="15" t="s">
+      <c r="K205" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L205" s="15">
+      <c r="L205" s="16">
         <v>106</v>
       </c>
-      <c r="M205" s="15">
+      <c r="M205" s="16">
         <v>209</v>
       </c>
-      <c r="N205" s="15">
+      <c r="N205" s="16">
         <v>215</v>
       </c>
-      <c r="O205" s="15">
+      <c r="O205" s="16">
         <v>215</v>
       </c>
-      <c r="P205" s="15" t="s">
+      <c r="P205" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q205" s="15" t="s">
+      <c r="Q205" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R205" s="15" t="s">
+      <c r="R205" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="15">
         <v>44529</v>
       </c>
-      <c r="B206" s="15" t="s">
+      <c r="B206" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C206" s="15">
+      <c r="C206" s="16">
         <v>107</v>
       </c>
-      <c r="D206" s="15" t="s">
+      <c r="D206" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E206" s="15">
+      <c r="E206" s="16">
         <v>129</v>
       </c>
-      <c r="F206" s="15">
+      <c r="F206" s="16">
         <v>-12</v>
       </c>
-      <c r="G206" s="15">
+      <c r="G206" s="16">
         <v>-7.5</v>
       </c>
-      <c r="H206" s="15" t="s">
+      <c r="H206" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I206" s="15" t="s">
+      <c r="I206" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J206" s="15">
+      <c r="J206" s="16">
         <v>106</v>
       </c>
-      <c r="K206" s="15" t="s">
+      <c r="K206" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L206" s="15">
+      <c r="L206" s="16">
         <v>118</v>
       </c>
-      <c r="M206" s="15">
+      <c r="M206" s="16">
         <v>224</v>
       </c>
-      <c r="N206" s="15">
+      <c r="N206" s="16">
         <v>223</v>
       </c>
-      <c r="O206" s="15">
+      <c r="O206" s="16">
         <v>236</v>
       </c>
-      <c r="P206" s="15" t="s">
+      <c r="P206" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Q206" s="15" t="s">
+      <c r="Q206" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R206" s="15" t="s">
+      <c r="R206" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="207" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="15">
         <v>44529</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="B207" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C207" s="15">
+      <c r="C207" s="16">
         <v>123</v>
       </c>
-      <c r="D207" s="15" t="s">
+      <c r="D207" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E207" s="15">
+      <c r="E207" s="16">
         <v>104</v>
       </c>
-      <c r="F207" s="15">
+      <c r="F207" s="16">
         <v>-15</v>
       </c>
-      <c r="G207" s="15">
+      <c r="G207" s="16">
         <v>-7</v>
       </c>
-      <c r="H207" s="15" t="s">
+      <c r="H207" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I207" s="15" t="s">
+      <c r="I207" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J207" s="15">
+      <c r="J207" s="16">
         <v>95</v>
       </c>
-      <c r="K207" s="15" t="s">
+      <c r="K207" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L207" s="15">
+      <c r="L207" s="16">
         <v>110</v>
       </c>
-      <c r="M207" s="15">
+      <c r="M207" s="16">
         <v>205</v>
       </c>
-      <c r="N207" s="15">
+      <c r="N207" s="16">
         <v>211</v>
       </c>
-      <c r="O207" s="15">
+      <c r="O207" s="16">
         <v>227</v>
       </c>
-      <c r="P207" s="15" t="s">
+      <c r="P207" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q207" s="15" t="s">
+      <c r="Q207" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R207" s="15" t="s">
+      <c r="R207" s="16" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A208" s="4">
+        <v>44530</v>
+      </c>
+      <c r="B208" t="s">
+        <v>39</v>
+      </c>
+      <c r="C208">
+        <v>110</v>
+      </c>
+      <c r="D208" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208">
+        <v>112</v>
+      </c>
+      <c r="F208">
+        <v>-9</v>
+      </c>
+      <c r="G208">
+        <v>-6.5</v>
+      </c>
+      <c r="H208" t="s">
+        <v>81</v>
+      </c>
+      <c r="I208" t="s">
+        <v>39</v>
+      </c>
+      <c r="J208">
+        <v>102</v>
+      </c>
+      <c r="K208" t="s">
+        <v>34</v>
+      </c>
+      <c r="L208">
+        <v>111</v>
+      </c>
+      <c r="M208">
+        <v>213</v>
+      </c>
+      <c r="N208">
+        <v>216</v>
+      </c>
+      <c r="O208">
+        <v>222</v>
+      </c>
+      <c r="P208" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>31</v>
+      </c>
+      <c r="R208" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A209" s="4">
+        <v>44530</v>
+      </c>
+      <c r="B209" t="s">
+        <v>37</v>
+      </c>
+      <c r="C209">
+        <v>98</v>
+      </c>
+      <c r="D209" t="s">
+        <v>42</v>
+      </c>
+      <c r="E209">
+        <v>91</v>
+      </c>
+      <c r="F209">
+        <v>-12</v>
+      </c>
+      <c r="G209">
+        <v>-5.5</v>
+      </c>
+      <c r="H209" t="s">
+        <v>27</v>
+      </c>
+      <c r="I209" t="s">
+        <v>37</v>
+      </c>
+      <c r="J209">
+        <v>103</v>
+      </c>
+      <c r="K209" t="s">
+        <v>42</v>
+      </c>
+      <c r="L209">
+        <v>115</v>
+      </c>
+      <c r="M209">
+        <v>218</v>
+      </c>
+      <c r="N209">
+        <v>219.5</v>
+      </c>
+      <c r="O209">
+        <v>189</v>
+      </c>
+      <c r="P209" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>22</v>
+      </c>
+      <c r="R209" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A210" s="4">
+        <v>44530</v>
+      </c>
+      <c r="B210" t="s">
+        <v>46</v>
+      </c>
+      <c r="C210">
+        <v>96</v>
+      </c>
+      <c r="D210" t="s">
+        <v>29</v>
+      </c>
+      <c r="E210">
+        <v>104</v>
+      </c>
+      <c r="F210">
+        <v>2</v>
+      </c>
+      <c r="G210">
+        <v>-2.5</v>
+      </c>
+      <c r="H210" t="s">
+        <v>81</v>
+      </c>
+      <c r="I210" t="s">
+        <v>46</v>
+      </c>
+      <c r="J210">
+        <v>108</v>
+      </c>
+      <c r="K210" t="s">
+        <v>29</v>
+      </c>
+      <c r="L210">
+        <v>106</v>
+      </c>
+      <c r="M210">
+        <v>214</v>
+      </c>
+      <c r="N210">
+        <v>221</v>
+      </c>
+      <c r="O210">
+        <v>200</v>
+      </c>
+      <c r="P210" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>22</v>
+      </c>
+      <c r="R210" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A211" s="4">
+        <v>44530</v>
+      </c>
+      <c r="B211" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211">
+        <v>92</v>
+      </c>
+      <c r="D211" t="s">
+        <v>48</v>
+      </c>
+      <c r="E211">
+        <v>110</v>
+      </c>
+      <c r="F211">
+        <v>-11</v>
+      </c>
+      <c r="G211">
+        <v>-9.5</v>
+      </c>
+      <c r="H211" t="s">
+        <v>81</v>
+      </c>
+      <c r="I211" t="s">
+        <v>19</v>
+      </c>
+      <c r="J211">
+        <v>103</v>
+      </c>
+      <c r="K211" t="s">
+        <v>48</v>
+      </c>
+      <c r="L211">
+        <v>114</v>
+      </c>
+      <c r="M211">
+        <v>217</v>
+      </c>
+      <c r="N211">
+        <v>215.5</v>
+      </c>
+      <c r="O211">
+        <v>202</v>
+      </c>
+      <c r="P211" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>22</v>
+      </c>
+      <c r="R211" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A212" s="4">
+        <v>44530</v>
+      </c>
+      <c r="B212" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212">
+        <v>117</v>
+      </c>
+      <c r="D212" t="s">
+        <v>50</v>
+      </c>
+      <c r="E212">
+        <v>92</v>
+      </c>
+      <c r="F212">
+        <v>-1</v>
+      </c>
+      <c r="G212">
+        <v>3.5</v>
+      </c>
+      <c r="H212" t="s">
+        <v>27</v>
+      </c>
+      <c r="I212" t="s">
+        <v>33</v>
+      </c>
+      <c r="J212">
+        <v>109</v>
+      </c>
+      <c r="K212" t="s">
+        <v>50</v>
+      </c>
+      <c r="L212">
+        <v>110</v>
+      </c>
+      <c r="M212">
+        <v>219</v>
+      </c>
+      <c r="N212">
+        <v>227</v>
+      </c>
+      <c r="O212">
+        <v>209</v>
+      </c>
+      <c r="P212" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>22</v>
+      </c>
+      <c r="R212" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -13895,10 +14316,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13938,23 +14359,23 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.46200000000000002</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46700000000000003</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -13982,21 +14403,21 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.5</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>21</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.54300000000000004</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -14024,21 +14445,26 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.52300000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
         <v>19</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.41299999999999998</v>
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF037AC-B166-49DC-B316-8099C5CCFF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10199F8C-897A-4B43-860B-3720BF811E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1464,13 +1464,13 @@
         <v>224</v>
       </c>
       <c r="I7">
-        <v>229</v>
+        <v>230.5</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -14318,7 +14318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10199F8C-897A-4B43-860B-3720BF811E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B59A36B-FFB1-4A95-AEF9-47F8621B2188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -227,9 +227,6 @@
     <t>Confidence</t>
   </si>
   <si>
-    <t>LOW</t>
-  </si>
-  <si>
     <t>HIGH</t>
   </si>
   <si>
@@ -287,19 +284,10 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Orlando +8.5</t>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Minnesota +3.5</t>
-  </si>
-  <si>
-    <t>New Orleans +3.5</t>
-  </si>
-  <si>
-    <t>Houston +3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Phoenix -13</t>
   </si>
 </sst>
 </file>
@@ -1207,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1260,322 +1248,182 @@
         <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I2">
-        <v>217.5</v>
+        <v>213.5</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H3">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="I3">
-        <v>207.5</v>
+        <v>214</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-3.5</v>
+        <v>-9</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H4">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I4">
-        <v>215.5</v>
+        <v>215</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H5">
+        <v>208</v>
+      </c>
+      <c r="I5">
         <v>210</v>
       </c>
-      <c r="I5">
-        <v>210.5</v>
-      </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-7.5</v>
+        <v>-3.5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G6">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H6">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="I6">
-        <v>204.5</v>
+        <v>221</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>-8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7">
-        <v>109</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <v>115</v>
-      </c>
-      <c r="H7">
-        <v>224</v>
-      </c>
-      <c r="I7">
-        <v>230.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8">
-        <v>106</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8">
-        <v>106</v>
-      </c>
-      <c r="H8">
-        <v>212</v>
-      </c>
-      <c r="I8">
-        <v>213.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>-3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>200</v>
-      </c>
-      <c r="I9">
-        <v>214</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>-7.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10">
-        <v>110</v>
-      </c>
-      <c r="H10">
-        <v>212</v>
-      </c>
-      <c r="I10">
-        <v>215.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1585,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R212"/>
+  <dimension ref="A1:R221"/>
   <sheetViews>
-    <sheetView topLeftCell="C202" workbookViewId="0">
-      <selection activeCell="G216" sqref="G216"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="R220" sqref="R220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10692,7 +10540,7 @@
         <v>-4</v>
       </c>
       <c r="H148" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I148" t="s">
         <v>49</v>
@@ -10719,7 +10567,7 @@
         <v>22</v>
       </c>
       <c r="Q148" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R148" t="s">
         <v>53</v>
@@ -10748,7 +10596,7 @@
         <v>-11.5</v>
       </c>
       <c r="H149" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I149" t="s">
         <v>32</v>
@@ -10775,7 +10623,7 @@
         <v>22</v>
       </c>
       <c r="Q149" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R149" t="s">
         <v>53</v>
@@ -10804,7 +10652,7 @@
         <v>-11.5</v>
       </c>
       <c r="H150" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I150" t="s">
         <v>28</v>
@@ -10887,7 +10735,7 @@
         <v>31</v>
       </c>
       <c r="Q151" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R151" t="s">
         <v>53</v>
@@ -10916,7 +10764,7 @@
         <v>-12</v>
       </c>
       <c r="H152" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I152" t="s">
         <v>36</v>
@@ -10999,7 +10847,7 @@
         <v>22</v>
       </c>
       <c r="Q153" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R153" t="s">
         <v>53</v>
@@ -11028,7 +10876,7 @@
         <v>5.5</v>
       </c>
       <c r="H154" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I154" t="s">
         <v>29</v>
@@ -11111,7 +10959,7 @@
         <v>31</v>
       </c>
       <c r="Q155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R155" t="s">
         <v>53</v>
@@ -11140,7 +10988,7 @@
         <v>-2.5</v>
       </c>
       <c r="H156" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I156" t="s">
         <v>18</v>
@@ -11308,7 +11156,7 @@
         <v>-6</v>
       </c>
       <c r="H159" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I159" t="s">
         <v>55</v>
@@ -11420,7 +11268,7 @@
         <v>7.5</v>
       </c>
       <c r="H161" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I161" t="s">
         <v>29</v>
@@ -11476,7 +11324,7 @@
         <v>-5.5</v>
       </c>
       <c r="H162" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I162" t="s">
         <v>33</v>
@@ -11532,7 +11380,7 @@
         <v>7</v>
       </c>
       <c r="H163" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I163" t="s">
         <v>49</v>
@@ -11588,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I164" t="s">
         <v>34</v>
@@ -11700,7 +11548,7 @@
         <v>-3</v>
       </c>
       <c r="H166" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I166" t="s">
         <v>42</v>
@@ -11756,7 +11604,7 @@
         <v>-15</v>
       </c>
       <c r="H167" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I167" t="s">
         <v>19</v>
@@ -11812,7 +11660,7 @@
         <v>-1</v>
       </c>
       <c r="H168" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I168" t="s">
         <v>26</v>
@@ -11924,7 +11772,7 @@
         <v>13.5</v>
       </c>
       <c r="H170" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I170" t="s">
         <v>23</v>
@@ -12092,7 +11940,7 @@
         <v>1.5</v>
       </c>
       <c r="H173" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I173" t="s">
         <v>48</v>
@@ -12204,7 +12052,7 @@
         <v>-2.5</v>
       </c>
       <c r="H175" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I175" t="s">
         <v>44</v>
@@ -12316,7 +12164,7 @@
         <v>8.5</v>
       </c>
       <c r="H177" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I177" t="s">
         <v>54</v>
@@ -12372,7 +12220,7 @@
         <v>-3.5</v>
       </c>
       <c r="H178" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I178" t="s">
         <v>42</v>
@@ -12596,7 +12444,7 @@
         <v>3.5</v>
       </c>
       <c r="H182" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I182" t="s">
         <v>40</v>
@@ -12876,7 +12724,7 @@
         <v>-7</v>
       </c>
       <c r="H187" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I187" s="16" t="s">
         <v>39</v>
@@ -12932,7 +12780,7 @@
         <v>-1.5</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I188" s="16" t="s">
         <v>29</v>
@@ -13044,7 +12892,7 @@
         <v>-10</v>
       </c>
       <c r="H190" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I190" s="16" t="s">
         <v>36</v>
@@ -13100,7 +12948,7 @@
         <v>5</v>
       </c>
       <c r="H191" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I191" s="16" t="s">
         <v>49</v>
@@ -13324,7 +13172,7 @@
         <v>2.5</v>
       </c>
       <c r="H195" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I195" s="16" t="s">
         <v>40</v>
@@ -13436,7 +13284,7 @@
         <v>-1.5</v>
       </c>
       <c r="H197" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I197" s="16" t="s">
         <v>25</v>
@@ -13548,7 +13396,7 @@
         <v>-13.5</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I199" s="16" t="s">
         <v>36</v>
@@ -13660,7 +13508,7 @@
         <v>-4.5</v>
       </c>
       <c r="H201" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I201" s="16" t="s">
         <v>49</v>
@@ -13716,7 +13564,7 @@
         <v>-2</v>
       </c>
       <c r="H202" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I202" s="16" t="s">
         <v>32</v>
@@ -13772,7 +13620,7 @@
         <v>-2.5</v>
       </c>
       <c r="H203" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I203" s="16" t="s">
         <v>47</v>
@@ -14052,7 +13900,7 @@
         <v>-6.5</v>
       </c>
       <c r="H208" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I208" t="s">
         <v>39</v>
@@ -14164,7 +14012,7 @@
         <v>-2.5</v>
       </c>
       <c r="H210" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I210" t="s">
         <v>46</v>
@@ -14220,7 +14068,7 @@
         <v>-9.5</v>
       </c>
       <c r="H211" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I211" t="s">
         <v>19</v>
@@ -14307,6 +14155,510 @@
       </c>
       <c r="R212" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>44531</v>
+      </c>
+      <c r="B213" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213">
+        <v>114</v>
+      </c>
+      <c r="D213" t="s">
+        <v>47</v>
+      </c>
+      <c r="E213">
+        <v>111</v>
+      </c>
+      <c r="F213">
+        <v>-2</v>
+      </c>
+      <c r="G213">
+        <v>-1</v>
+      </c>
+      <c r="H213" t="s">
+        <v>80</v>
+      </c>
+      <c r="I213" t="s">
+        <v>24</v>
+      </c>
+      <c r="J213">
+        <v>108</v>
+      </c>
+      <c r="K213" t="s">
+        <v>47</v>
+      </c>
+      <c r="L213">
+        <v>110</v>
+      </c>
+      <c r="M213">
+        <v>218</v>
+      </c>
+      <c r="N213">
+        <v>217.5</v>
+      </c>
+      <c r="O213">
+        <v>225</v>
+      </c>
+      <c r="P213" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>31</v>
+      </c>
+      <c r="R213" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>44531</v>
+      </c>
+      <c r="B214" t="s">
+        <v>55</v>
+      </c>
+      <c r="C214">
+        <v>103</v>
+      </c>
+      <c r="D214" t="s">
+        <v>36</v>
+      </c>
+      <c r="E214">
+        <v>108</v>
+      </c>
+      <c r="F214">
+        <v>5</v>
+      </c>
+      <c r="G214">
+        <v>8.5</v>
+      </c>
+      <c r="H214" t="s">
+        <v>20</v>
+      </c>
+      <c r="I214" t="s">
+        <v>55</v>
+      </c>
+      <c r="J214">
+        <v>106</v>
+      </c>
+      <c r="K214" t="s">
+        <v>36</v>
+      </c>
+      <c r="L214">
+        <v>101</v>
+      </c>
+      <c r="M214">
+        <v>207</v>
+      </c>
+      <c r="N214">
+        <v>207.5</v>
+      </c>
+      <c r="O214">
+        <v>211</v>
+      </c>
+      <c r="P214" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>31</v>
+      </c>
+      <c r="R214" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>44531</v>
+      </c>
+      <c r="B215" t="s">
+        <v>44</v>
+      </c>
+      <c r="C215">
+        <v>107</v>
+      </c>
+      <c r="D215" t="s">
+        <v>38</v>
+      </c>
+      <c r="E215">
+        <v>115</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>-3.5</v>
+      </c>
+      <c r="H215" t="s">
+        <v>27</v>
+      </c>
+      <c r="I215" t="s">
+        <v>44</v>
+      </c>
+      <c r="J215">
+        <v>104</v>
+      </c>
+      <c r="K215" t="s">
+        <v>38</v>
+      </c>
+      <c r="L215">
+        <v>104</v>
+      </c>
+      <c r="M215">
+        <v>208</v>
+      </c>
+      <c r="N215">
+        <v>215.5</v>
+      </c>
+      <c r="O215">
+        <v>222</v>
+      </c>
+      <c r="P215" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>31</v>
+      </c>
+      <c r="R215" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>44531</v>
+      </c>
+      <c r="B216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C216">
+        <v>87</v>
+      </c>
+      <c r="D216" t="s">
+        <v>25</v>
+      </c>
+      <c r="E216">
+        <v>88</v>
+      </c>
+      <c r="F216">
+        <v>-4</v>
+      </c>
+      <c r="G216">
+        <v>-2</v>
+      </c>
+      <c r="H216" t="s">
+        <v>80</v>
+      </c>
+      <c r="I216" t="s">
+        <v>18</v>
+      </c>
+      <c r="J216">
+        <v>103</v>
+      </c>
+      <c r="K216" t="s">
+        <v>25</v>
+      </c>
+      <c r="L216">
+        <v>107</v>
+      </c>
+      <c r="M216">
+        <v>210</v>
+      </c>
+      <c r="N216">
+        <v>210.5</v>
+      </c>
+      <c r="O216">
+        <v>175</v>
+      </c>
+      <c r="P216" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>22</v>
+      </c>
+      <c r="R216" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>44531</v>
+      </c>
+      <c r="B217" t="s">
+        <v>41</v>
+      </c>
+      <c r="C217">
+        <v>111</v>
+      </c>
+      <c r="D217" t="s">
+        <v>26</v>
+      </c>
+      <c r="E217">
+        <v>85</v>
+      </c>
+      <c r="F217">
+        <v>-7</v>
+      </c>
+      <c r="G217">
+        <v>-7.5</v>
+      </c>
+      <c r="H217" t="s">
+        <v>80</v>
+      </c>
+      <c r="I217" t="s">
+        <v>41</v>
+      </c>
+      <c r="J217">
+        <v>100</v>
+      </c>
+      <c r="K217" t="s">
+        <v>26</v>
+      </c>
+      <c r="L217">
+        <v>107</v>
+      </c>
+      <c r="M217">
+        <v>207</v>
+      </c>
+      <c r="N217">
+        <v>204.5</v>
+      </c>
+      <c r="O217">
+        <v>196</v>
+      </c>
+      <c r="P217" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>22</v>
+      </c>
+      <c r="R217" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>44531</v>
+      </c>
+      <c r="B218" t="s">
+        <v>49</v>
+      </c>
+      <c r="C218">
+        <v>125</v>
+      </c>
+      <c r="D218" t="s">
+        <v>40</v>
+      </c>
+      <c r="E218">
+        <v>127</v>
+      </c>
+      <c r="F218">
+        <v>-6</v>
+      </c>
+      <c r="G218">
+        <v>-8</v>
+      </c>
+      <c r="H218" t="s">
+        <v>80</v>
+      </c>
+      <c r="I218" t="s">
+        <v>49</v>
+      </c>
+      <c r="J218">
+        <v>109</v>
+      </c>
+      <c r="K218" t="s">
+        <v>40</v>
+      </c>
+      <c r="L218">
+        <v>115</v>
+      </c>
+      <c r="M218">
+        <v>224</v>
+      </c>
+      <c r="N218">
+        <v>229</v>
+      </c>
+      <c r="O218">
+        <v>252</v>
+      </c>
+      <c r="P218" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>31</v>
+      </c>
+      <c r="R218" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>44531</v>
+      </c>
+      <c r="B219" t="s">
+        <v>56</v>
+      </c>
+      <c r="C219">
+        <v>139</v>
+      </c>
+      <c r="D219" t="s">
+        <v>45</v>
+      </c>
+      <c r="E219">
+        <v>107</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>3.5</v>
+      </c>
+      <c r="H219" t="s">
+        <v>27</v>
+      </c>
+      <c r="I219" t="s">
+        <v>56</v>
+      </c>
+      <c r="J219">
+        <v>106</v>
+      </c>
+      <c r="K219" t="s">
+        <v>45</v>
+      </c>
+      <c r="L219">
+        <v>106</v>
+      </c>
+      <c r="M219">
+        <v>212</v>
+      </c>
+      <c r="N219">
+        <v>213.5</v>
+      </c>
+      <c r="O219">
+        <v>246</v>
+      </c>
+      <c r="P219" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>31</v>
+      </c>
+      <c r="R219" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>44531</v>
+      </c>
+      <c r="B220" t="s">
+        <v>28</v>
+      </c>
+      <c r="C220">
+        <v>114</v>
+      </c>
+      <c r="D220" t="s">
+        <v>32</v>
+      </c>
+      <c r="E220">
+        <v>110</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>-3</v>
+      </c>
+      <c r="H220" t="s">
+        <v>20</v>
+      </c>
+      <c r="I220" t="s">
+        <v>28</v>
+      </c>
+      <c r="J220">
+        <v>100</v>
+      </c>
+      <c r="K220" t="s">
+        <v>32</v>
+      </c>
+      <c r="L220">
+        <v>100</v>
+      </c>
+      <c r="M220">
+        <v>200</v>
+      </c>
+      <c r="N220">
+        <v>214</v>
+      </c>
+      <c r="O220">
+        <v>224</v>
+      </c>
+      <c r="P220" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>31</v>
+      </c>
+      <c r="R220" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>44531</v>
+      </c>
+      <c r="B221" t="s">
+        <v>50</v>
+      </c>
+      <c r="C221">
+        <v>124</v>
+      </c>
+      <c r="D221" t="s">
+        <v>43</v>
+      </c>
+      <c r="E221">
+        <v>115</v>
+      </c>
+      <c r="F221">
+        <v>-8</v>
+      </c>
+      <c r="G221">
+        <v>-7.5</v>
+      </c>
+      <c r="H221" t="s">
+        <v>80</v>
+      </c>
+      <c r="I221" t="s">
+        <v>50</v>
+      </c>
+      <c r="J221">
+        <v>102</v>
+      </c>
+      <c r="K221" t="s">
+        <v>43</v>
+      </c>
+      <c r="L221">
+        <v>110</v>
+      </c>
+      <c r="M221">
+        <v>212</v>
+      </c>
+      <c r="N221">
+        <v>215.5</v>
+      </c>
+      <c r="O221">
+        <v>239</v>
+      </c>
+      <c r="P221" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>31</v>
+      </c>
+      <c r="R221" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -14319,7 +14671,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14343,10 +14695,10 @@
         <v>57</v>
       </c>
       <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>58</v>
@@ -14355,15 +14707,15 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H300,"WIN")</f>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.45700000000000002</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
@@ -14371,31 +14723,31 @@
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.47099999999999997</v>
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
       <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -14413,39 +14765,39 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.56299999999999994</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>78</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>79</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
@@ -14455,16 +14807,16 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.40400000000000003</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B59A36B-FFB1-4A95-AEF9-47F8621B2188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9731DD99-69E5-41A1-97B8-2F478ED47BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -287,7 +287,16 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Phoenix -13</t>
+    <t>Atlanta -2.5</t>
+  </si>
+  <si>
+    <t>Houston -2.5</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>Utah -8</t>
   </si>
 </sst>
 </file>
@@ -1195,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1253,7 +1262,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2</v>
+        <v>-5.5</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -1262,22 +1271,22 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I2">
-        <v>213.5</v>
+        <v>206.5</v>
       </c>
       <c r="J2" t="s">
         <v>80</v>
@@ -1288,7 +1297,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -1297,133 +1306,273 @@
         <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H3">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="I3">
-        <v>214</v>
+        <v>208.5</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-9</v>
+        <v>-1.5</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H4">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I4">
-        <v>215</v>
+        <v>215.5</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>109</v>
+      </c>
+      <c r="H5">
+        <v>212</v>
+      </c>
+      <c r="I5">
+        <v>222</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>93</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>115</v>
-      </c>
-      <c r="H5">
-        <v>208</v>
-      </c>
-      <c r="I5">
-        <v>210</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>107</v>
+      </c>
+      <c r="H6">
+        <v>206</v>
+      </c>
+      <c r="I6">
+        <v>217</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-7.5</v>
+      </c>
+      <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6">
-        <v>109</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6">
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7">
         <v>112</v>
       </c>
-      <c r="H6">
-        <v>221</v>
-      </c>
-      <c r="I6">
-        <v>221</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H7">
+        <v>215</v>
+      </c>
+      <c r="I7">
+        <v>216</v>
+      </c>
+      <c r="J7" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>112</v>
+      </c>
+      <c r="H8">
+        <v>211</v>
+      </c>
+      <c r="I8">
+        <v>210</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>110</v>
+      </c>
+      <c r="H9">
+        <v>213</v>
+      </c>
+      <c r="I9">
+        <v>216.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-1.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>106</v>
+      </c>
+      <c r="H10">
+        <v>209</v>
+      </c>
+      <c r="I10">
+        <v>218.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1433,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R221"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="R220" sqref="R220"/>
+    <sheetView topLeftCell="C214" workbookViewId="0">
+      <selection activeCell="R227" sqref="R227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14158,7 +14307,7 @@
       </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A213">
+      <c r="A213" s="4">
         <v>44531</v>
       </c>
       <c r="B213" t="s">
@@ -14214,7 +14363,7 @@
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A214">
+      <c r="A214" s="4">
         <v>44531</v>
       </c>
       <c r="B214" t="s">
@@ -14270,7 +14419,7 @@
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A215">
+      <c r="A215" s="4">
         <v>44531</v>
       </c>
       <c r="B215" t="s">
@@ -14326,7 +14475,7 @@
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A216">
+      <c r="A216" s="4">
         <v>44531</v>
       </c>
       <c r="B216" t="s">
@@ -14382,7 +14531,7 @@
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A217">
+      <c r="A217" s="4">
         <v>44531</v>
       </c>
       <c r="B217" t="s">
@@ -14438,7 +14587,7 @@
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A218">
+      <c r="A218" s="4">
         <v>44531</v>
       </c>
       <c r="B218" t="s">
@@ -14494,7 +14643,7 @@
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A219">
+      <c r="A219" s="4">
         <v>44531</v>
       </c>
       <c r="B219" t="s">
@@ -14550,7 +14699,7 @@
       </c>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A220">
+      <c r="A220" s="4">
         <v>44531</v>
       </c>
       <c r="B220" t="s">
@@ -14606,7 +14755,7 @@
       </c>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A221">
+      <c r="A221" s="4">
         <v>44531</v>
       </c>
       <c r="B221" t="s">
@@ -14659,6 +14808,286 @@
       </c>
       <c r="R221" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A222" s="4">
+        <v>44532</v>
+      </c>
+      <c r="B222" t="s">
+        <v>54</v>
+      </c>
+      <c r="C222">
+        <v>119</v>
+      </c>
+      <c r="D222" t="s">
+        <v>39</v>
+      </c>
+      <c r="E222">
+        <v>115</v>
+      </c>
+      <c r="F222">
+        <v>3</v>
+      </c>
+      <c r="G222">
+        <v>2</v>
+      </c>
+      <c r="H222" t="s">
+        <v>80</v>
+      </c>
+      <c r="I222" t="s">
+        <v>54</v>
+      </c>
+      <c r="J222">
+        <v>108</v>
+      </c>
+      <c r="K222" t="s">
+        <v>39</v>
+      </c>
+      <c r="L222">
+        <v>105</v>
+      </c>
+      <c r="M222">
+        <v>213</v>
+      </c>
+      <c r="N222">
+        <v>213.5</v>
+      </c>
+      <c r="O222">
+        <v>234</v>
+      </c>
+      <c r="P222" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>31</v>
+      </c>
+      <c r="R222" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A223" s="4">
+        <v>44532</v>
+      </c>
+      <c r="B223" t="s">
+        <v>40</v>
+      </c>
+      <c r="C223">
+        <v>93</v>
+      </c>
+      <c r="D223" t="s">
+        <v>42</v>
+      </c>
+      <c r="E223">
+        <v>97</v>
+      </c>
+      <c r="F223">
+        <v>6</v>
+      </c>
+      <c r="G223">
+        <v>4.5</v>
+      </c>
+      <c r="H223" t="s">
+        <v>80</v>
+      </c>
+      <c r="I223" t="s">
+        <v>40</v>
+      </c>
+      <c r="J223">
+        <v>111</v>
+      </c>
+      <c r="K223" t="s">
+        <v>42</v>
+      </c>
+      <c r="L223">
+        <v>105</v>
+      </c>
+      <c r="M223">
+        <v>216</v>
+      </c>
+      <c r="N223">
+        <v>214</v>
+      </c>
+      <c r="O223">
+        <v>190</v>
+      </c>
+      <c r="P223" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>22</v>
+      </c>
+      <c r="R223" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A224" s="4">
+        <v>44532</v>
+      </c>
+      <c r="B224" t="s">
+        <v>32</v>
+      </c>
+      <c r="C224">
+        <v>79</v>
+      </c>
+      <c r="D224" t="s">
+        <v>37</v>
+      </c>
+      <c r="E224">
+        <v>152</v>
+      </c>
+      <c r="F224">
+        <v>-7</v>
+      </c>
+      <c r="G224">
+        <v>-9</v>
+      </c>
+      <c r="H224" t="s">
+        <v>80</v>
+      </c>
+      <c r="I224" t="s">
+        <v>32</v>
+      </c>
+      <c r="J224">
+        <v>103</v>
+      </c>
+      <c r="K224" t="s">
+        <v>37</v>
+      </c>
+      <c r="L224">
+        <v>110</v>
+      </c>
+      <c r="M224">
+        <v>213</v>
+      </c>
+      <c r="N224">
+        <v>215</v>
+      </c>
+      <c r="O224">
+        <v>231</v>
+      </c>
+      <c r="P224" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>31</v>
+      </c>
+      <c r="R224" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A225" s="4">
+        <v>44532</v>
+      </c>
+      <c r="B225" t="s">
+        <v>19</v>
+      </c>
+      <c r="C225">
+        <v>103</v>
+      </c>
+      <c r="D225" t="s">
+        <v>29</v>
+      </c>
+      <c r="E225">
+        <v>114</v>
+      </c>
+      <c r="F225">
+        <v>-22</v>
+      </c>
+      <c r="G225">
+        <v>-13</v>
+      </c>
+      <c r="H225" t="s">
+        <v>27</v>
+      </c>
+      <c r="I225" t="s">
+        <v>19</v>
+      </c>
+      <c r="J225">
+        <v>93</v>
+      </c>
+      <c r="K225" t="s">
+        <v>29</v>
+      </c>
+      <c r="L225">
+        <v>115</v>
+      </c>
+      <c r="M225">
+        <v>208</v>
+      </c>
+      <c r="N225">
+        <v>210</v>
+      </c>
+      <c r="O225">
+        <v>217</v>
+      </c>
+      <c r="P225" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>31</v>
+      </c>
+      <c r="R225" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A226" s="4">
+        <v>44532</v>
+      </c>
+      <c r="B226" t="s">
+        <v>35</v>
+      </c>
+      <c r="C226">
+        <v>114</v>
+      </c>
+      <c r="D226" t="s">
+        <v>48</v>
+      </c>
+      <c r="E226">
+        <v>83</v>
+      </c>
+      <c r="F226">
+        <v>-3</v>
+      </c>
+      <c r="G226">
+        <v>-3.5</v>
+      </c>
+      <c r="H226" t="s">
+        <v>80</v>
+      </c>
+      <c r="I226" t="s">
+        <v>35</v>
+      </c>
+      <c r="J226">
+        <v>109</v>
+      </c>
+      <c r="K226" t="s">
+        <v>48</v>
+      </c>
+      <c r="L226">
+        <v>112</v>
+      </c>
+      <c r="M226">
+        <v>221</v>
+      </c>
+      <c r="N226">
+        <v>221</v>
+      </c>
+      <c r="O226">
+        <v>197</v>
+      </c>
+      <c r="P226" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>22</v>
+      </c>
+      <c r="R226" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -14670,8 +15099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14711,11 +15140,11 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.45800000000000002</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
@@ -14755,11 +15184,11 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.48799999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D5">
         <v>27</v>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9731DD99-69E5-41A1-97B8-2F478ED47BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AE251D-5E44-4F09-AD7A-A7CA53D93FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -287,16 +287,10 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Atlanta -2.5</t>
-  </si>
-  <si>
-    <t>Houston -2.5</t>
-  </si>
-  <si>
     <t>LOW</t>
   </si>
   <si>
-    <t>Utah -8</t>
+    <t>Golden State -8.5</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1262,7 +1256,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -1271,22 +1265,22 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I2">
-        <v>206.5</v>
+        <v>209</v>
       </c>
       <c r="J2" t="s">
         <v>80</v>
@@ -1297,7 +1291,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -1306,68 +1300,68 @@
         <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H3">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="I3">
-        <v>208.5</v>
+        <v>222</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-1.5</v>
+        <v>-6.5</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H4">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I4">
-        <v>215.5</v>
+        <v>210.5</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
@@ -1376,33 +1370,33 @@
         <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>109</v>
       </c>
       <c r="H5">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="I5">
-        <v>222</v>
+        <v>214.5</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-2.5</v>
+        <v>-8.5</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -1411,22 +1405,22 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H6">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I6">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
@@ -1437,7 +1431,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-7.5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
@@ -1446,133 +1440,63 @@
         <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G7">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H7">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I7">
-        <v>216</v>
+        <v>211.5</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>-8</v>
+        <v>1.5</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I8">
-        <v>210</v>
+        <v>219.5</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>-7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>103</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9">
-        <v>110</v>
-      </c>
-      <c r="H9">
-        <v>213</v>
-      </c>
-      <c r="I9">
-        <v>216.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>-1.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10">
-        <v>103</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>106</v>
-      </c>
-      <c r="H10">
-        <v>209</v>
-      </c>
-      <c r="I10">
-        <v>218.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1582,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R226"/>
+  <dimension ref="A1:R235"/>
   <sheetViews>
-    <sheetView topLeftCell="C214" workbookViewId="0">
-      <selection activeCell="R227" sqref="R227"/>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="R234" sqref="R234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15090,6 +15014,510 @@
         <v>53</v>
       </c>
     </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A227" s="4">
+        <v>44533</v>
+      </c>
+      <c r="B227" t="s">
+        <v>26</v>
+      </c>
+      <c r="C227">
+        <v>113</v>
+      </c>
+      <c r="D227" t="s">
+        <v>47</v>
+      </c>
+      <c r="E227">
+        <v>104</v>
+      </c>
+      <c r="F227">
+        <v>-5</v>
+      </c>
+      <c r="G227">
+        <v>-5.5</v>
+      </c>
+      <c r="H227" t="s">
+        <v>80</v>
+      </c>
+      <c r="I227" t="s">
+        <v>26</v>
+      </c>
+      <c r="J227">
+        <v>101</v>
+      </c>
+      <c r="K227" t="s">
+        <v>47</v>
+      </c>
+      <c r="L227">
+        <v>106</v>
+      </c>
+      <c r="M227">
+        <v>207</v>
+      </c>
+      <c r="N227">
+        <v>206.5</v>
+      </c>
+      <c r="O227">
+        <v>217</v>
+      </c>
+      <c r="P227" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>31</v>
+      </c>
+      <c r="R227" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A228" s="4">
+        <v>44533</v>
+      </c>
+      <c r="B228" t="s">
+        <v>41</v>
+      </c>
+      <c r="C228">
+        <v>116</v>
+      </c>
+      <c r="D228" t="s">
+        <v>38</v>
+      </c>
+      <c r="E228">
+        <v>101</v>
+      </c>
+      <c r="F228">
+        <v>-1</v>
+      </c>
+      <c r="G228">
+        <v>-3.5</v>
+      </c>
+      <c r="H228" t="s">
+        <v>80</v>
+      </c>
+      <c r="I228" t="s">
+        <v>41</v>
+      </c>
+      <c r="J228">
+        <v>102</v>
+      </c>
+      <c r="K228" t="s">
+        <v>38</v>
+      </c>
+      <c r="L228">
+        <v>103</v>
+      </c>
+      <c r="M228">
+        <v>205</v>
+      </c>
+      <c r="N228">
+        <v>208.5</v>
+      </c>
+      <c r="O228">
+        <v>217</v>
+      </c>
+      <c r="P228" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>31</v>
+      </c>
+      <c r="R228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A229" s="4">
+        <v>44533</v>
+      </c>
+      <c r="B229" t="s">
+        <v>18</v>
+      </c>
+      <c r="C229">
+        <v>98</v>
+      </c>
+      <c r="D229" t="s">
+        <v>24</v>
+      </c>
+      <c r="E229">
+        <v>96</v>
+      </c>
+      <c r="F229">
+        <v>-6</v>
+      </c>
+      <c r="G229">
+        <v>-2.5</v>
+      </c>
+      <c r="H229" t="s">
+        <v>27</v>
+      </c>
+      <c r="I229" t="s">
+        <v>18</v>
+      </c>
+      <c r="J229">
+        <v>107</v>
+      </c>
+      <c r="K229" t="s">
+        <v>24</v>
+      </c>
+      <c r="L229">
+        <v>113</v>
+      </c>
+      <c r="M229">
+        <v>220</v>
+      </c>
+      <c r="N229">
+        <v>215.5</v>
+      </c>
+      <c r="O229">
+        <v>194</v>
+      </c>
+      <c r="P229" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>22</v>
+      </c>
+      <c r="R229" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A230" s="4">
+        <v>44533</v>
+      </c>
+      <c r="B230" t="s">
+        <v>44</v>
+      </c>
+      <c r="C230">
+        <v>105</v>
+      </c>
+      <c r="D230" t="s">
+        <v>34</v>
+      </c>
+      <c r="E230">
+        <v>110</v>
+      </c>
+      <c r="F230">
+        <v>-6</v>
+      </c>
+      <c r="G230">
+        <v>-7</v>
+      </c>
+      <c r="H230" t="s">
+        <v>80</v>
+      </c>
+      <c r="I230" t="s">
+        <v>44</v>
+      </c>
+      <c r="J230">
+        <v>103</v>
+      </c>
+      <c r="K230" t="s">
+        <v>34</v>
+      </c>
+      <c r="L230">
+        <v>109</v>
+      </c>
+      <c r="M230">
+        <v>212</v>
+      </c>
+      <c r="N230">
+        <v>222</v>
+      </c>
+      <c r="O230">
+        <v>215</v>
+      </c>
+      <c r="P230" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>22</v>
+      </c>
+      <c r="R230" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A231" s="4">
+        <v>44533</v>
+      </c>
+      <c r="B231" t="s">
+        <v>36</v>
+      </c>
+      <c r="C231">
+        <v>116</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231">
+        <v>118</v>
+      </c>
+      <c r="F231">
+        <v>-8</v>
+      </c>
+      <c r="G231">
+        <v>-2.5</v>
+      </c>
+      <c r="H231" t="s">
+        <v>27</v>
+      </c>
+      <c r="I231" t="s">
+        <v>36</v>
+      </c>
+      <c r="J231">
+        <v>99</v>
+      </c>
+      <c r="K231" t="s">
+        <v>28</v>
+      </c>
+      <c r="L231">
+        <v>107</v>
+      </c>
+      <c r="M231">
+        <v>206</v>
+      </c>
+      <c r="N231">
+        <v>217</v>
+      </c>
+      <c r="O231">
+        <v>234</v>
+      </c>
+      <c r="P231" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>31</v>
+      </c>
+      <c r="R231" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A232" s="4">
+        <v>44533</v>
+      </c>
+      <c r="B232" t="s">
+        <v>45</v>
+      </c>
+      <c r="C232">
+        <v>107</v>
+      </c>
+      <c r="D232" t="s">
+        <v>56</v>
+      </c>
+      <c r="E232">
+        <v>91</v>
+      </c>
+      <c r="F232">
+        <v>-9</v>
+      </c>
+      <c r="G232">
+        <v>-7.5</v>
+      </c>
+      <c r="H232" t="s">
+        <v>80</v>
+      </c>
+      <c r="I232" t="s">
+        <v>45</v>
+      </c>
+      <c r="J232">
+        <v>103</v>
+      </c>
+      <c r="K232" t="s">
+        <v>56</v>
+      </c>
+      <c r="L232">
+        <v>112</v>
+      </c>
+      <c r="M232">
+        <v>215</v>
+      </c>
+      <c r="N232">
+        <v>216</v>
+      </c>
+      <c r="O232">
+        <v>198</v>
+      </c>
+      <c r="P232" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>22</v>
+      </c>
+      <c r="R232" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A233" s="4">
+        <v>44533</v>
+      </c>
+      <c r="B233" t="s">
+        <v>25</v>
+      </c>
+      <c r="C233">
+        <v>130</v>
+      </c>
+      <c r="D233" t="s">
+        <v>23</v>
+      </c>
+      <c r="E233">
+        <v>137</v>
+      </c>
+      <c r="F233">
+        <v>-13</v>
+      </c>
+      <c r="G233">
+        <v>-8</v>
+      </c>
+      <c r="H233" t="s">
+        <v>27</v>
+      </c>
+      <c r="I233" t="s">
+        <v>25</v>
+      </c>
+      <c r="J233">
+        <v>99</v>
+      </c>
+      <c r="K233" t="s">
+        <v>23</v>
+      </c>
+      <c r="L233">
+        <v>112</v>
+      </c>
+      <c r="M233">
+        <v>211</v>
+      </c>
+      <c r="N233">
+        <v>210</v>
+      </c>
+      <c r="O233">
+        <v>267</v>
+      </c>
+      <c r="P233" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>31</v>
+      </c>
+      <c r="R233" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A234" s="4">
+        <v>44533</v>
+      </c>
+      <c r="B234" t="s">
+        <v>29</v>
+      </c>
+      <c r="C234">
+        <v>96</v>
+      </c>
+      <c r="D234" t="s">
+        <v>46</v>
+      </c>
+      <c r="E234">
+        <v>118</v>
+      </c>
+      <c r="F234">
+        <v>-7</v>
+      </c>
+      <c r="G234">
+        <v>-7</v>
+      </c>
+      <c r="H234" t="s">
+        <v>80</v>
+      </c>
+      <c r="I234" t="s">
+        <v>29</v>
+      </c>
+      <c r="J234">
+        <v>103</v>
+      </c>
+      <c r="K234" t="s">
+        <v>46</v>
+      </c>
+      <c r="L234">
+        <v>110</v>
+      </c>
+      <c r="M234">
+        <v>213</v>
+      </c>
+      <c r="N234">
+        <v>216.5</v>
+      </c>
+      <c r="O234">
+        <v>214</v>
+      </c>
+      <c r="P234" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>22</v>
+      </c>
+      <c r="R234" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A235" s="4">
+        <v>44533</v>
+      </c>
+      <c r="B235" t="s">
+        <v>43</v>
+      </c>
+      <c r="C235">
+        <v>119</v>
+      </c>
+      <c r="D235" t="s">
+        <v>33</v>
+      </c>
+      <c r="E235">
+        <v>115</v>
+      </c>
+      <c r="F235">
+        <v>-3</v>
+      </c>
+      <c r="G235">
+        <v>-1.5</v>
+      </c>
+      <c r="H235" t="s">
+        <v>80</v>
+      </c>
+      <c r="I235" t="s">
+        <v>43</v>
+      </c>
+      <c r="J235">
+        <v>103</v>
+      </c>
+      <c r="K235" t="s">
+        <v>33</v>
+      </c>
+      <c r="L235">
+        <v>106</v>
+      </c>
+      <c r="M235">
+        <v>209</v>
+      </c>
+      <c r="N235">
+        <v>218.5</v>
+      </c>
+      <c r="O235">
+        <v>234</v>
+      </c>
+      <c r="P235" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>31</v>
+      </c>
+      <c r="R235" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15099,8 +15527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15140,23 +15568,23 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.45600000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45800000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -15184,21 +15612,21 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.47599999999999998</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
         <v>27</v>
-      </c>
-      <c r="E5">
-        <v>24</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.52900000000000003</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -15226,21 +15654,21 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.38800000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AE251D-5E44-4F09-AD7A-A7CA53D93FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C576B390-70F4-4A47-A3AA-402C5E6E1668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -287,10 +287,10 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>LOW</t>
+    <t>Atlanta -7</t>
   </si>
   <si>
-    <t>Golden State -8.5</t>
+    <t>Houston +3</t>
   </si>
 </sst>
 </file>
@@ -823,7 +823,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -843,6 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1198,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1255,8 +1256,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>-2.5</v>
+      <c r="A2" s="17">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -1265,22 +1266,22 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I2">
-        <v>209</v>
+        <v>212.5</v>
       </c>
       <c r="J2" t="s">
         <v>80</v>
@@ -1290,43 +1291,43 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>-2.5</v>
+      <c r="A3" s="17">
+        <v>-7</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H3">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="I3">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>-6.5</v>
+      <c r="A4" s="17">
+        <v>-1</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -1335,22 +1336,22 @@
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H4">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I4">
-        <v>210.5</v>
+        <v>212</v>
       </c>
       <c r="J4" t="s">
         <v>80</v>
@@ -1360,143 +1361,38 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" s="17">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H5">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I5">
-        <v>214.5</v>
+        <v>220.5</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>-8.5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6">
-        <v>97</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6">
-        <v>113</v>
-      </c>
-      <c r="H6">
-        <v>210</v>
-      </c>
-      <c r="I6">
-        <v>218</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>107</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7">
-        <v>109</v>
-      </c>
-      <c r="H7">
-        <v>216</v>
-      </c>
-      <c r="I7">
-        <v>211.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8">
-        <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8">
-        <v>107</v>
-      </c>
-      <c r="H8">
-        <v>215</v>
-      </c>
-      <c r="I8">
-        <v>219.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1506,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R235"/>
+  <dimension ref="A1:R242"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="R234" sqref="R234"/>
+    <sheetView topLeftCell="C229" workbookViewId="0">
+      <selection activeCell="R240" sqref="R240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15518,6 +15414,398 @@
         <v>27</v>
       </c>
     </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A236" s="4">
+        <v>44534</v>
+      </c>
+      <c r="B236" t="s">
+        <v>55</v>
+      </c>
+      <c r="C236">
+        <v>113</v>
+      </c>
+      <c r="D236" t="s">
+        <v>39</v>
+      </c>
+      <c r="E236">
+        <v>99</v>
+      </c>
+      <c r="F236">
+        <v>-4</v>
+      </c>
+      <c r="G236">
+        <v>-2.5</v>
+      </c>
+      <c r="H236" t="s">
+        <v>80</v>
+      </c>
+      <c r="I236" t="s">
+        <v>55</v>
+      </c>
+      <c r="J236">
+        <v>103</v>
+      </c>
+      <c r="K236" t="s">
+        <v>39</v>
+      </c>
+      <c r="L236">
+        <v>107</v>
+      </c>
+      <c r="M236">
+        <v>210</v>
+      </c>
+      <c r="N236">
+        <v>209</v>
+      </c>
+      <c r="O236">
+        <v>212</v>
+      </c>
+      <c r="P236" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>31</v>
+      </c>
+      <c r="R236" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A237" s="4">
+        <v>44534</v>
+      </c>
+      <c r="B237" t="s">
+        <v>54</v>
+      </c>
+      <c r="C237">
+        <v>111</v>
+      </c>
+      <c r="D237" t="s">
+        <v>34</v>
+      </c>
+      <c r="E237">
+        <v>107</v>
+      </c>
+      <c r="F237">
+        <v>-3</v>
+      </c>
+      <c r="G237">
+        <v>-2.5</v>
+      </c>
+      <c r="H237" t="s">
+        <v>80</v>
+      </c>
+      <c r="I237" t="s">
+        <v>54</v>
+      </c>
+      <c r="J237">
+        <v>106</v>
+      </c>
+      <c r="K237" t="s">
+        <v>34</v>
+      </c>
+      <c r="L237">
+        <v>109</v>
+      </c>
+      <c r="M237">
+        <v>215</v>
+      </c>
+      <c r="N237">
+        <v>222</v>
+      </c>
+      <c r="O237">
+        <v>218</v>
+      </c>
+      <c r="P237" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>22</v>
+      </c>
+      <c r="R237" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A238" s="4">
+        <v>44534</v>
+      </c>
+      <c r="B238" t="s">
+        <v>26</v>
+      </c>
+      <c r="C238">
+        <v>102</v>
+      </c>
+      <c r="D238" t="s">
+        <v>40</v>
+      </c>
+      <c r="E238">
+        <v>124</v>
+      </c>
+      <c r="F238">
+        <v>-5</v>
+      </c>
+      <c r="G238">
+        <v>-6.5</v>
+      </c>
+      <c r="H238" t="s">
+        <v>80</v>
+      </c>
+      <c r="I238" t="s">
+        <v>26</v>
+      </c>
+      <c r="J238">
+        <v>104</v>
+      </c>
+      <c r="K238" t="s">
+        <v>40</v>
+      </c>
+      <c r="L238">
+        <v>109</v>
+      </c>
+      <c r="M238">
+        <v>213</v>
+      </c>
+      <c r="N238">
+        <v>210.5</v>
+      </c>
+      <c r="O238">
+        <v>226</v>
+      </c>
+      <c r="P238" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>31</v>
+      </c>
+      <c r="R238" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A239" s="4">
+        <v>44534</v>
+      </c>
+      <c r="B239" t="s">
+        <v>37</v>
+      </c>
+      <c r="C239">
+        <v>97</v>
+      </c>
+      <c r="D239" t="s">
+        <v>56</v>
+      </c>
+      <c r="E239">
+        <v>90</v>
+      </c>
+      <c r="F239">
+        <v>-1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239" t="s">
+        <v>80</v>
+      </c>
+      <c r="I239" t="s">
+        <v>37</v>
+      </c>
+      <c r="J239">
+        <v>108</v>
+      </c>
+      <c r="K239" t="s">
+        <v>56</v>
+      </c>
+      <c r="L239">
+        <v>109</v>
+      </c>
+      <c r="M239">
+        <v>217</v>
+      </c>
+      <c r="N239">
+        <v>214.5</v>
+      </c>
+      <c r="O239">
+        <v>187</v>
+      </c>
+      <c r="P239" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>22</v>
+      </c>
+      <c r="R239" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A240" s="4">
+        <v>44534</v>
+      </c>
+      <c r="B240" t="s">
+        <v>35</v>
+      </c>
+      <c r="C240">
+        <v>112</v>
+      </c>
+      <c r="D240" t="s">
+        <v>46</v>
+      </c>
+      <c r="E240">
+        <v>107</v>
+      </c>
+      <c r="F240">
+        <v>-16</v>
+      </c>
+      <c r="G240">
+        <v>-8.5</v>
+      </c>
+      <c r="H240" t="s">
+        <v>27</v>
+      </c>
+      <c r="I240" t="s">
+        <v>35</v>
+      </c>
+      <c r="J240">
+        <v>97</v>
+      </c>
+      <c r="K240" t="s">
+        <v>46</v>
+      </c>
+      <c r="L240">
+        <v>113</v>
+      </c>
+      <c r="M240">
+        <v>210</v>
+      </c>
+      <c r="N240">
+        <v>218</v>
+      </c>
+      <c r="O240">
+        <v>219</v>
+      </c>
+      <c r="P240" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>31</v>
+      </c>
+      <c r="R240" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A241" s="4">
+        <v>44534</v>
+      </c>
+      <c r="B241" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241">
+        <v>145</v>
+      </c>
+      <c r="D241" t="s">
+        <v>48</v>
+      </c>
+      <c r="E241">
+        <v>117</v>
+      </c>
+      <c r="F241">
+        <v>-2</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241" t="s">
+        <v>80</v>
+      </c>
+      <c r="I241" t="s">
+        <v>25</v>
+      </c>
+      <c r="J241">
+        <v>107</v>
+      </c>
+      <c r="K241" t="s">
+        <v>48</v>
+      </c>
+      <c r="L241">
+        <v>109</v>
+      </c>
+      <c r="M241">
+        <v>216</v>
+      </c>
+      <c r="N241">
+        <v>211.5</v>
+      </c>
+      <c r="O241">
+        <v>262</v>
+      </c>
+      <c r="P241" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>31</v>
+      </c>
+      <c r="R241" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A242" s="4">
+        <v>44534</v>
+      </c>
+      <c r="B242" t="s">
+        <v>43</v>
+      </c>
+      <c r="C242">
+        <v>99</v>
+      </c>
+      <c r="D242" t="s">
+        <v>50</v>
+      </c>
+      <c r="E242">
+        <v>104</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1.5</v>
+      </c>
+      <c r="H242" t="s">
+        <v>80</v>
+      </c>
+      <c r="I242" t="s">
+        <v>43</v>
+      </c>
+      <c r="J242">
+        <v>108</v>
+      </c>
+      <c r="K242" t="s">
+        <v>50</v>
+      </c>
+      <c r="L242">
+        <v>107</v>
+      </c>
+      <c r="M242">
+        <v>215</v>
+      </c>
+      <c r="N242">
+        <v>219.5</v>
+      </c>
+      <c r="O242">
+        <v>203</v>
+      </c>
+      <c r="P242" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>22</v>
+      </c>
+      <c r="R242" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15528,7 +15816,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15568,23 +15856,23 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.44800000000000001</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45500000000000002</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -15612,21 +15900,21 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.46500000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
         <v>28</v>
-      </c>
-      <c r="E5">
-        <v>27</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.50900000000000001</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -15661,14 +15949,14 @@
         <v>0.48099999999999998</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>31</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.39200000000000002</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C576B390-70F4-4A47-A3AA-402C5E6E1668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2D3A67-FF9A-438B-BAC6-7025B0A33722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -287,10 +287,16 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Atlanta -7</t>
+    <t>Charlotte +7</t>
   </si>
   <si>
-    <t>Houston +3</t>
+    <t>Chicago -2</t>
+  </si>
+  <si>
+    <t>Golden State -16</t>
+  </si>
+  <si>
+    <t>LOW</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1257,31 +1263,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I2">
-        <v>212.5</v>
+        <v>214</v>
       </c>
       <c r="J2" t="s">
         <v>80</v>
@@ -1292,42 +1298,42 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H3">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="I3">
-        <v>220</v>
+        <v>204.5</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
-        <v>-1</v>
+        <v>-5.5</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -1339,19 +1345,19 @@
         <v>38</v>
       </c>
       <c r="E4">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H4">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I4">
-        <v>212</v>
+        <v>211.5</v>
       </c>
       <c r="J4" t="s">
         <v>80</v>
@@ -1362,37 +1368,247 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
-        <v>3</v>
+        <v>-4.5</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H5">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="I5">
-        <v>220.5</v>
+        <v>214</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <v>107</v>
+      </c>
+      <c r="H6">
+        <v>208</v>
+      </c>
+      <c r="I6">
+        <v>214</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-6.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>108</v>
+      </c>
+      <c r="H7">
+        <v>209</v>
+      </c>
+      <c r="I7">
+        <v>213.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-2.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>111</v>
+      </c>
+      <c r="H8">
+        <v>218</v>
+      </c>
+      <c r="I8">
+        <v>222.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>111</v>
+      </c>
+      <c r="H9">
+        <v>213</v>
+      </c>
+      <c r="I9">
+        <v>216</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>117</v>
+      </c>
+      <c r="H10">
+        <v>208</v>
+      </c>
+      <c r="I10">
+        <v>218</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>109</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>108</v>
+      </c>
+      <c r="H11">
+        <v>217</v>
+      </c>
+      <c r="I11">
+        <v>215.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1402,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R242"/>
+  <dimension ref="A1:R246"/>
   <sheetViews>
-    <sheetView topLeftCell="C229" workbookViewId="0">
-      <selection activeCell="R240" sqref="R240"/>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15806,6 +16022,230 @@
         <v>20</v>
       </c>
     </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A243" s="4">
+        <v>44535</v>
+      </c>
+      <c r="B243" t="s">
+        <v>23</v>
+      </c>
+      <c r="C243">
+        <v>109</v>
+      </c>
+      <c r="D243" t="s">
+        <v>41</v>
+      </c>
+      <c r="E243">
+        <v>108</v>
+      </c>
+      <c r="F243">
+        <v>5</v>
+      </c>
+      <c r="G243">
+        <v>5</v>
+      </c>
+      <c r="H243" t="s">
+        <v>80</v>
+      </c>
+      <c r="I243" t="s">
+        <v>23</v>
+      </c>
+      <c r="J243">
+        <v>109</v>
+      </c>
+      <c r="K243" t="s">
+        <v>41</v>
+      </c>
+      <c r="L243">
+        <v>104</v>
+      </c>
+      <c r="M243">
+        <v>213</v>
+      </c>
+      <c r="N243">
+        <v>212.5</v>
+      </c>
+      <c r="O243">
+        <v>217</v>
+      </c>
+      <c r="P243" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>31</v>
+      </c>
+      <c r="R243" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A244" s="4">
+        <v>44535</v>
+      </c>
+      <c r="B244" t="s">
+        <v>49</v>
+      </c>
+      <c r="C244">
+        <v>130</v>
+      </c>
+      <c r="D244" t="s">
+        <v>24</v>
+      </c>
+      <c r="E244">
+        <v>127</v>
+      </c>
+      <c r="F244">
+        <v>-10</v>
+      </c>
+      <c r="G244">
+        <v>-7</v>
+      </c>
+      <c r="H244" t="s">
+        <v>80</v>
+      </c>
+      <c r="I244" t="s">
+        <v>49</v>
+      </c>
+      <c r="J244">
+        <v>106</v>
+      </c>
+      <c r="K244" t="s">
+        <v>24</v>
+      </c>
+      <c r="L244">
+        <v>116</v>
+      </c>
+      <c r="M244">
+        <v>222</v>
+      </c>
+      <c r="N244">
+        <v>220</v>
+      </c>
+      <c r="O244">
+        <v>257</v>
+      </c>
+      <c r="P244" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>31</v>
+      </c>
+      <c r="R244" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A245" s="4">
+        <v>44535</v>
+      </c>
+      <c r="B245" t="s">
+        <v>38</v>
+      </c>
+      <c r="C245">
+        <v>90</v>
+      </c>
+      <c r="D245" t="s">
+        <v>42</v>
+      </c>
+      <c r="E245">
+        <v>102</v>
+      </c>
+      <c r="F245">
+        <v>-1</v>
+      </c>
+      <c r="G245">
+        <v>-1</v>
+      </c>
+      <c r="H245" t="s">
+        <v>80</v>
+      </c>
+      <c r="I245" t="s">
+        <v>38</v>
+      </c>
+      <c r="J245">
+        <v>105</v>
+      </c>
+      <c r="K245" t="s">
+        <v>42</v>
+      </c>
+      <c r="L245">
+        <v>106</v>
+      </c>
+      <c r="M245">
+        <v>211</v>
+      </c>
+      <c r="N245">
+        <v>212</v>
+      </c>
+      <c r="O245">
+        <v>192</v>
+      </c>
+      <c r="P245" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>22</v>
+      </c>
+      <c r="R245" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A246" s="4">
+        <v>44535</v>
+      </c>
+      <c r="B246" t="s">
+        <v>45</v>
+      </c>
+      <c r="C246">
+        <v>108</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246">
+        <v>118</v>
+      </c>
+      <c r="F246">
+        <v>-8</v>
+      </c>
+      <c r="G246">
+        <v>3</v>
+      </c>
+      <c r="H246" t="s">
+        <v>20</v>
+      </c>
+      <c r="I246" t="s">
+        <v>45</v>
+      </c>
+      <c r="J246">
+        <v>102</v>
+      </c>
+      <c r="K246" t="s">
+        <v>28</v>
+      </c>
+      <c r="L246">
+        <v>110</v>
+      </c>
+      <c r="M246">
+        <v>212</v>
+      </c>
+      <c r="N246">
+        <v>220.5</v>
+      </c>
+      <c r="O246">
+        <v>226</v>
+      </c>
+      <c r="P246" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>31</v>
+      </c>
+      <c r="R246" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15815,8 +16255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15852,7 +16292,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H300,"WIN")</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
@@ -15860,7 +16300,7 @@
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.44600000000000001</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
@@ -15868,11 +16308,11 @@
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46</v>
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -15897,24 +16337,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>24</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.45500000000000002</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.51700000000000002</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2D3A67-FF9A-438B-BAC6-7025B0A33722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC1D712-5710-4497-B21D-4833F07FB7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -287,16 +287,10 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Charlotte +7</t>
+    <t>Brooklyn -1.5</t>
   </si>
   <si>
-    <t>Chicago -2</t>
-  </si>
-  <si>
-    <t>Golden State -16</t>
-  </si>
-  <si>
-    <t>LOW</t>
+    <t>San Antonio +1</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,7 +1257,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -1272,68 +1266,68 @@
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I2">
-        <v>214</v>
+        <v>221.5</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>110</v>
+      </c>
+      <c r="H3">
+        <v>212</v>
+      </c>
+      <c r="I3">
+        <v>210.5</v>
+      </c>
+      <c r="J3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>101</v>
-      </c>
-      <c r="H3">
-        <v>199</v>
-      </c>
-      <c r="I3">
-        <v>204.5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
-        <v>-5.5</v>
+        <v>-4</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -1342,274 +1336,32 @@
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H4">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I4">
-        <v>211.5</v>
+        <v>219</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
-        <v>-4.5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>108</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5">
-        <v>112</v>
-      </c>
-      <c r="H5">
-        <v>220</v>
-      </c>
-      <c r="I5">
-        <v>214</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>-2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6">
-        <v>107</v>
-      </c>
-      <c r="H6">
-        <v>208</v>
-      </c>
-      <c r="I6">
-        <v>214</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>-6.5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7">
-        <v>101</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <v>108</v>
-      </c>
-      <c r="H7">
-        <v>209</v>
-      </c>
-      <c r="I7">
-        <v>213.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>-2.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8">
-        <v>111</v>
-      </c>
-      <c r="H8">
-        <v>218</v>
-      </c>
-      <c r="I8">
-        <v>222.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>-7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9">
-        <v>102</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>111</v>
-      </c>
-      <c r="H9">
-        <v>213</v>
-      </c>
-      <c r="I9">
-        <v>216</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>-16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10">
-        <v>117</v>
-      </c>
-      <c r="H10">
-        <v>208</v>
-      </c>
-      <c r="I10">
-        <v>218</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11">
-        <v>109</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11">
-        <v>108</v>
-      </c>
-      <c r="H11">
-        <v>217</v>
-      </c>
-      <c r="I11">
-        <v>215.5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>82</v>
-      </c>
+      <c r="A5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R246"/>
+  <dimension ref="A1:R256"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+    <sheetView topLeftCell="C241" workbookViewId="0">
+      <selection activeCell="R257" sqref="R257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16246,6 +15998,566 @@
         <v>27</v>
       </c>
     </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A247" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B247" t="s">
+        <v>18</v>
+      </c>
+      <c r="C247">
+        <v>127</v>
+      </c>
+      <c r="D247" t="s">
+        <v>49</v>
+      </c>
+      <c r="E247">
+        <v>124</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>7</v>
+      </c>
+      <c r="H247" t="s">
+        <v>20</v>
+      </c>
+      <c r="I247" t="s">
+        <v>18</v>
+      </c>
+      <c r="J247">
+        <v>108</v>
+      </c>
+      <c r="K247" t="s">
+        <v>49</v>
+      </c>
+      <c r="L247">
+        <v>107</v>
+      </c>
+      <c r="M247">
+        <v>215</v>
+      </c>
+      <c r="N247">
+        <v>214</v>
+      </c>
+      <c r="O247">
+        <v>251</v>
+      </c>
+      <c r="P247" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>31</v>
+      </c>
+      <c r="R247" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A248" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B248" t="s">
+        <v>32</v>
+      </c>
+      <c r="C248">
+        <v>114</v>
+      </c>
+      <c r="D248" t="s">
+        <v>19</v>
+      </c>
+      <c r="E248">
+        <v>103</v>
+      </c>
+      <c r="F248">
+        <v>-3</v>
+      </c>
+      <c r="G248">
+        <v>-3</v>
+      </c>
+      <c r="H248" t="s">
+        <v>80</v>
+      </c>
+      <c r="I248" t="s">
+        <v>32</v>
+      </c>
+      <c r="J248">
+        <v>98</v>
+      </c>
+      <c r="K248" t="s">
+        <v>19</v>
+      </c>
+      <c r="L248">
+        <v>101</v>
+      </c>
+      <c r="M248">
+        <v>199</v>
+      </c>
+      <c r="N248">
+        <v>204.5</v>
+      </c>
+      <c r="O248">
+        <v>217</v>
+      </c>
+      <c r="P248" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>31</v>
+      </c>
+      <c r="R248" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A249" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B249" t="s">
+        <v>38</v>
+      </c>
+      <c r="C249">
+        <v>110</v>
+      </c>
+      <c r="D249" t="s">
+        <v>47</v>
+      </c>
+      <c r="E249">
+        <v>116</v>
+      </c>
+      <c r="F249">
+        <v>-5</v>
+      </c>
+      <c r="G249">
+        <v>-5.5</v>
+      </c>
+      <c r="H249" t="s">
+        <v>80</v>
+      </c>
+      <c r="I249" t="s">
+        <v>38</v>
+      </c>
+      <c r="J249">
+        <v>102</v>
+      </c>
+      <c r="K249" t="s">
+        <v>47</v>
+      </c>
+      <c r="L249">
+        <v>107</v>
+      </c>
+      <c r="M249">
+        <v>209</v>
+      </c>
+      <c r="N249">
+        <v>211.5</v>
+      </c>
+      <c r="O249">
+        <v>226</v>
+      </c>
+      <c r="P249" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>31</v>
+      </c>
+      <c r="R249" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A250" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B250" t="s">
+        <v>37</v>
+      </c>
+      <c r="C250">
+        <v>105</v>
+      </c>
+      <c r="D250" t="s">
+        <v>26</v>
+      </c>
+      <c r="E250">
+        <v>90</v>
+      </c>
+      <c r="F250">
+        <v>-4</v>
+      </c>
+      <c r="G250">
+        <v>-4.5</v>
+      </c>
+      <c r="H250" t="s">
+        <v>80</v>
+      </c>
+      <c r="I250" t="s">
+        <v>37</v>
+      </c>
+      <c r="J250">
+        <v>108</v>
+      </c>
+      <c r="K250" t="s">
+        <v>26</v>
+      </c>
+      <c r="L250">
+        <v>112</v>
+      </c>
+      <c r="M250">
+        <v>220</v>
+      </c>
+      <c r="N250">
+        <v>214</v>
+      </c>
+      <c r="O250">
+        <v>195</v>
+      </c>
+      <c r="P250" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>22</v>
+      </c>
+      <c r="R250" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A251" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B251" t="s">
+        <v>55</v>
+      </c>
+      <c r="C251">
+        <v>97</v>
+      </c>
+      <c r="D251" t="s">
+        <v>54</v>
+      </c>
+      <c r="E251">
+        <v>109</v>
+      </c>
+      <c r="F251">
+        <v>-6</v>
+      </c>
+      <c r="G251">
+        <v>-2</v>
+      </c>
+      <c r="H251" t="s">
+        <v>20</v>
+      </c>
+      <c r="I251" t="s">
+        <v>55</v>
+      </c>
+      <c r="J251">
+        <v>101</v>
+      </c>
+      <c r="K251" t="s">
+        <v>54</v>
+      </c>
+      <c r="L251">
+        <v>107</v>
+      </c>
+      <c r="M251">
+        <v>208</v>
+      </c>
+      <c r="N251">
+        <v>218</v>
+      </c>
+      <c r="O251">
+        <v>206</v>
+      </c>
+      <c r="P251" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>22</v>
+      </c>
+      <c r="R251" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A252" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B252" t="s">
+        <v>41</v>
+      </c>
+      <c r="C252">
+        <v>104</v>
+      </c>
+      <c r="D252" t="s">
+        <v>40</v>
+      </c>
+      <c r="E252">
+        <v>112</v>
+      </c>
+      <c r="F252">
+        <v>-7</v>
+      </c>
+      <c r="G252">
+        <v>-6.5</v>
+      </c>
+      <c r="H252" t="s">
+        <v>80</v>
+      </c>
+      <c r="I252" t="s">
+        <v>41</v>
+      </c>
+      <c r="J252">
+        <v>101</v>
+      </c>
+      <c r="K252" t="s">
+        <v>40</v>
+      </c>
+      <c r="L252">
+        <v>108</v>
+      </c>
+      <c r="M252">
+        <v>209</v>
+      </c>
+      <c r="N252">
+        <v>213.5</v>
+      </c>
+      <c r="O252">
+        <v>216</v>
+      </c>
+      <c r="P252" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>31</v>
+      </c>
+      <c r="R252" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A253" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B253" t="s">
+        <v>24</v>
+      </c>
+      <c r="C253">
+        <v>121</v>
+      </c>
+      <c r="D253" t="s">
+        <v>44</v>
+      </c>
+      <c r="E253">
+        <v>110</v>
+      </c>
+      <c r="F253">
+        <v>-4</v>
+      </c>
+      <c r="G253">
+        <v>-2.5</v>
+      </c>
+      <c r="H253" t="s">
+        <v>80</v>
+      </c>
+      <c r="I253" t="s">
+        <v>24</v>
+      </c>
+      <c r="J253">
+        <v>107</v>
+      </c>
+      <c r="K253" t="s">
+        <v>44</v>
+      </c>
+      <c r="L253">
+        <v>111</v>
+      </c>
+      <c r="M253">
+        <v>218</v>
+      </c>
+      <c r="N253">
+        <v>222.5</v>
+      </c>
+      <c r="O253">
+        <v>231</v>
+      </c>
+      <c r="P253" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>31</v>
+      </c>
+      <c r="R253" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A254" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B254" t="s">
+        <v>35</v>
+      </c>
+      <c r="C254">
+        <v>104</v>
+      </c>
+      <c r="D254" t="s">
+        <v>29</v>
+      </c>
+      <c r="E254">
+        <v>108</v>
+      </c>
+      <c r="F254">
+        <v>-9</v>
+      </c>
+      <c r="G254">
+        <v>-7</v>
+      </c>
+      <c r="H254" t="s">
+        <v>80</v>
+      </c>
+      <c r="I254" t="s">
+        <v>35</v>
+      </c>
+      <c r="J254">
+        <v>102</v>
+      </c>
+      <c r="K254" t="s">
+        <v>29</v>
+      </c>
+      <c r="L254">
+        <v>111</v>
+      </c>
+      <c r="M254">
+        <v>213</v>
+      </c>
+      <c r="N254">
+        <v>216</v>
+      </c>
+      <c r="O254">
+        <v>212</v>
+      </c>
+      <c r="P254" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>22</v>
+      </c>
+      <c r="R254" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A255" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B255" t="s">
+        <v>36</v>
+      </c>
+      <c r="C255">
+        <v>95</v>
+      </c>
+      <c r="D255" t="s">
+        <v>46</v>
+      </c>
+      <c r="E255">
+        <v>126</v>
+      </c>
+      <c r="F255">
+        <v>-26</v>
+      </c>
+      <c r="G255">
+        <v>-16</v>
+      </c>
+      <c r="H255" t="s">
+        <v>20</v>
+      </c>
+      <c r="I255" t="s">
+        <v>36</v>
+      </c>
+      <c r="J255">
+        <v>91</v>
+      </c>
+      <c r="K255" t="s">
+        <v>46</v>
+      </c>
+      <c r="L255">
+        <v>117</v>
+      </c>
+      <c r="M255">
+        <v>208</v>
+      </c>
+      <c r="N255">
+        <v>218</v>
+      </c>
+      <c r="O255">
+        <v>221</v>
+      </c>
+      <c r="P255" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>31</v>
+      </c>
+      <c r="R255" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A256" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B256" t="s">
+        <v>43</v>
+      </c>
+      <c r="C256">
+        <v>102</v>
+      </c>
+      <c r="D256" t="s">
+        <v>48</v>
+      </c>
+      <c r="E256">
+        <v>90</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>3</v>
+      </c>
+      <c r="H256" t="s">
+        <v>80</v>
+      </c>
+      <c r="I256" t="s">
+        <v>43</v>
+      </c>
+      <c r="J256">
+        <v>109</v>
+      </c>
+      <c r="K256" t="s">
+        <v>48</v>
+      </c>
+      <c r="L256">
+        <v>108</v>
+      </c>
+      <c r="M256">
+        <v>217</v>
+      </c>
+      <c r="N256">
+        <v>215.5</v>
+      </c>
+      <c r="O256">
+        <v>192</v>
+      </c>
+      <c r="P256" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>22</v>
+      </c>
+      <c r="R256" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16255,8 +16567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16292,7 +16604,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H300,"WIN")</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
@@ -16300,19 +16612,19 @@
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.44900000000000001</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45800000000000002</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -16337,24 +16649,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>24</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.46700000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.50800000000000001</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -16392,11 +16704,11 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.40400000000000003</v>
+        <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC1D712-5710-4497-B21D-4833F07FB7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53CC052-AE9B-460C-BDBF-541EB654EBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -287,10 +287,25 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Brooklyn -1.5</t>
+    <t>Charlotte +6</t>
   </si>
   <si>
-    <t>San Antonio +1</t>
+    <t>Miami +6.5</t>
+  </si>
+  <si>
+    <t>Houston +3</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>Memphis -2.5</t>
+  </si>
+  <si>
+    <t>Golden State -14.5</t>
+  </si>
+  <si>
+    <t>Sacramento -6.5</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1257,7 +1272,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -1266,57 +1281,57 @@
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="I2">
-        <v>221.5</v>
+        <v>214.5</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G3">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H3">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I3">
-        <v>210.5</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
         <v>80</v>
@@ -1327,7 +1342,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -1336,32 +1351,379 @@
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H4">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I4">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <v>-5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <v>109</v>
+      </c>
+      <c r="H5">
+        <v>214</v>
+      </c>
+      <c r="I5">
+        <v>208.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>106</v>
+      </c>
+      <c r="H6">
+        <v>214</v>
+      </c>
+      <c r="I6">
+        <v>217</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>-7.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>107</v>
+      </c>
+      <c r="H7">
+        <v>205</v>
+      </c>
+      <c r="I7">
+        <v>206</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>104</v>
+      </c>
+      <c r="H8">
+        <v>194</v>
+      </c>
+      <c r="I8">
+        <v>224</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-2.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9">
+        <v>112</v>
+      </c>
+      <c r="H9">
+        <v>215</v>
+      </c>
+      <c r="I9">
+        <v>218</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>6.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>106</v>
+      </c>
+      <c r="H10">
+        <v>217</v>
+      </c>
+      <c r="I10">
+        <v>218</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>105</v>
+      </c>
+      <c r="H11">
+        <v>212</v>
+      </c>
+      <c r="I11">
+        <v>212</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>-14.5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>119</v>
+      </c>
+      <c r="H12">
+        <v>218</v>
+      </c>
+      <c r="I12">
+        <v>215.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>-6.5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>113</v>
+      </c>
+      <c r="H13">
+        <v>214</v>
+      </c>
+      <c r="I13">
+        <v>222.5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>-4.5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>105</v>
+      </c>
+      <c r="H14">
+        <v>206</v>
+      </c>
+      <c r="I14">
+        <v>210</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1370,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R256"/>
+  <dimension ref="A1:R259"/>
   <sheetViews>
-    <sheetView topLeftCell="C241" workbookViewId="0">
-      <selection activeCell="R257" sqref="R257"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="R259" sqref="R259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16558,6 +16920,174 @@
         <v>53</v>
       </c>
     </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A257" s="4">
+        <v>44537</v>
+      </c>
+      <c r="B257" t="s">
+        <v>34</v>
+      </c>
+      <c r="C257">
+        <v>102</v>
+      </c>
+      <c r="D257" t="s">
+        <v>56</v>
+      </c>
+      <c r="E257">
+        <v>99</v>
+      </c>
+      <c r="F257">
+        <v>6</v>
+      </c>
+      <c r="G257">
+        <v>1.5</v>
+      </c>
+      <c r="H257" t="s">
+        <v>20</v>
+      </c>
+      <c r="I257" t="s">
+        <v>34</v>
+      </c>
+      <c r="J257">
+        <v>109</v>
+      </c>
+      <c r="K257" t="s">
+        <v>56</v>
+      </c>
+      <c r="L257">
+        <v>103</v>
+      </c>
+      <c r="M257">
+        <v>212</v>
+      </c>
+      <c r="N257">
+        <v>221.5</v>
+      </c>
+      <c r="O257">
+        <v>201</v>
+      </c>
+      <c r="P257" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>22</v>
+      </c>
+      <c r="R257" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A258" s="4">
+        <v>44537</v>
+      </c>
+      <c r="B258" t="s">
+        <v>39</v>
+      </c>
+      <c r="C258">
+        <v>121</v>
+      </c>
+      <c r="D258" t="s">
+        <v>35</v>
+      </c>
+      <c r="E258">
+        <v>109</v>
+      </c>
+      <c r="F258">
+        <v>-8</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258" t="s">
+        <v>27</v>
+      </c>
+      <c r="I258" t="s">
+        <v>39</v>
+      </c>
+      <c r="J258">
+        <v>102</v>
+      </c>
+      <c r="K258" t="s">
+        <v>35</v>
+      </c>
+      <c r="L258">
+        <v>110</v>
+      </c>
+      <c r="M258">
+        <v>212</v>
+      </c>
+      <c r="N258">
+        <v>210.5</v>
+      </c>
+      <c r="O258">
+        <v>230</v>
+      </c>
+      <c r="P258" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>31</v>
+      </c>
+      <c r="R258" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A259" s="4">
+        <v>44537</v>
+      </c>
+      <c r="B259" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259">
+        <v>102</v>
+      </c>
+      <c r="D259" t="s">
+        <v>33</v>
+      </c>
+      <c r="E259">
+        <v>117</v>
+      </c>
+      <c r="F259">
+        <v>-3</v>
+      </c>
+      <c r="G259">
+        <v>-4</v>
+      </c>
+      <c r="H259" t="s">
+        <v>80</v>
+      </c>
+      <c r="I259" t="s">
+        <v>25</v>
+      </c>
+      <c r="J259">
+        <v>105</v>
+      </c>
+      <c r="K259" t="s">
+        <v>33</v>
+      </c>
+      <c r="L259">
+        <v>108</v>
+      </c>
+      <c r="M259">
+        <v>213</v>
+      </c>
+      <c r="N259">
+        <v>219</v>
+      </c>
+      <c r="O259">
+        <v>219</v>
+      </c>
+      <c r="P259" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>22</v>
+      </c>
+      <c r="R259" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16568,7 +17098,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16604,19 +17134,19 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H300,"WIN")</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.45700000000000002</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
@@ -16624,7 +17154,7 @@
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -16649,24 +17179,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>32</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.49199999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53CC052-AE9B-460C-BDBF-541EB654EBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD1C1C5-C3DC-40B8-9571-8128911E874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -281,31 +281,19 @@
     <t>NOBET</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>Charlotte +6</t>
-  </si>
-  <si>
-    <t>Miami +6.5</t>
-  </si>
-  <si>
-    <t>Houston +3</t>
   </si>
   <si>
     <t>LOW</t>
   </si>
   <si>
-    <t>Memphis -2.5</t>
+    <t>Utah -3</t>
   </si>
   <si>
-    <t>Golden State -14.5</t>
+    <t>Memphis +4</t>
   </si>
   <si>
-    <t>Sacramento -6.5</t>
+    <t>San Antonio -2.5</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,7 +1260,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -1281,449 +1269,102 @@
         <v>64</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
       <c r="G2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I2">
-        <v>214.5</v>
+        <v>216</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H3">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="I3">
-        <v>211</v>
+        <v>223.5</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
-        <v>5</v>
+        <v>-2.5</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H4">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I4">
-        <v>210</v>
+        <v>215.5</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
-        <v>-5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5">
-        <v>109</v>
-      </c>
-      <c r="H5">
-        <v>214</v>
-      </c>
-      <c r="I5">
-        <v>208.5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>6.5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>106</v>
-      </c>
-      <c r="H6">
-        <v>214</v>
-      </c>
-      <c r="I6">
-        <v>217</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>-7.5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>98</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7">
-        <v>107</v>
-      </c>
-      <c r="H7">
-        <v>205</v>
-      </c>
-      <c r="I7">
-        <v>206</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <v>104</v>
-      </c>
-      <c r="H8">
-        <v>194</v>
-      </c>
-      <c r="I8">
-        <v>224</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>-2.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9">
-        <v>103</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9">
-        <v>112</v>
-      </c>
-      <c r="H9">
-        <v>215</v>
-      </c>
-      <c r="I9">
-        <v>218</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>6.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>111</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10">
-        <v>106</v>
-      </c>
-      <c r="H10">
-        <v>217</v>
-      </c>
-      <c r="I10">
-        <v>218</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11">
-        <v>107</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11">
-        <v>105</v>
-      </c>
-      <c r="H11">
-        <v>212</v>
-      </c>
-      <c r="I11">
-        <v>212</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>-14.5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>99</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12">
-        <v>119</v>
-      </c>
-      <c r="H12">
-        <v>218</v>
-      </c>
-      <c r="I12">
-        <v>215.5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>-6.5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13">
-        <v>101</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>113</v>
-      </c>
-      <c r="H13">
-        <v>214</v>
-      </c>
-      <c r="I13">
-        <v>222.5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>-4.5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14">
-        <v>105</v>
-      </c>
-      <c r="H14">
-        <v>206</v>
-      </c>
-      <c r="I14">
-        <v>210</v>
-      </c>
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
+      <c r="A5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1732,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R259"/>
+  <dimension ref="A1:R272"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="R259" sqref="R259"/>
+    <sheetView topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17088,6 +16729,734 @@
         <v>20</v>
       </c>
     </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A260" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B260" t="s">
+        <v>18</v>
+      </c>
+      <c r="C260">
+        <v>110</v>
+      </c>
+      <c r="D260" t="s">
+        <v>49</v>
+      </c>
+      <c r="E260">
+        <v>106</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>6</v>
+      </c>
+      <c r="H260" t="s">
+        <v>20</v>
+      </c>
+      <c r="I260" t="s">
+        <v>18</v>
+      </c>
+      <c r="J260">
+        <v>109</v>
+      </c>
+      <c r="K260" t="s">
+        <v>49</v>
+      </c>
+      <c r="L260">
+        <v>108</v>
+      </c>
+      <c r="M260">
+        <v>217</v>
+      </c>
+      <c r="N260">
+        <v>214.5</v>
+      </c>
+      <c r="O260">
+        <v>216</v>
+      </c>
+      <c r="P260" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>31</v>
+      </c>
+      <c r="R260" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A261" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B261" t="s">
+        <v>54</v>
+      </c>
+      <c r="C261">
+        <v>92</v>
+      </c>
+      <c r="D261" t="s">
+        <v>41</v>
+      </c>
+      <c r="E261">
+        <v>115</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>-3</v>
+      </c>
+      <c r="H261" t="s">
+        <v>80</v>
+      </c>
+      <c r="I261" t="s">
+        <v>54</v>
+      </c>
+      <c r="J261">
+        <v>105</v>
+      </c>
+      <c r="K261" t="s">
+        <v>41</v>
+      </c>
+      <c r="L261">
+        <v>104</v>
+      </c>
+      <c r="M261">
+        <v>209</v>
+      </c>
+      <c r="N261">
+        <v>211</v>
+      </c>
+      <c r="O261">
+        <v>207</v>
+      </c>
+      <c r="P261" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>22</v>
+      </c>
+      <c r="R261" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A262" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B262" t="s">
+        <v>38</v>
+      </c>
+      <c r="C262">
+        <v>119</v>
+      </c>
+      <c r="D262" t="s">
+        <v>19</v>
+      </c>
+      <c r="E262">
+        <v>116</v>
+      </c>
+      <c r="F262">
+        <v>4</v>
+      </c>
+      <c r="G262">
+        <v>5</v>
+      </c>
+      <c r="H262" t="s">
+        <v>80</v>
+      </c>
+      <c r="I262" t="s">
+        <v>38</v>
+      </c>
+      <c r="J262">
+        <v>105</v>
+      </c>
+      <c r="K262" t="s">
+        <v>19</v>
+      </c>
+      <c r="L262">
+        <v>101</v>
+      </c>
+      <c r="M262">
+        <v>206</v>
+      </c>
+      <c r="N262">
+        <v>210</v>
+      </c>
+      <c r="O262">
+        <v>235</v>
+      </c>
+      <c r="P262" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>31</v>
+      </c>
+      <c r="R262" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A263" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B263" t="s">
+        <v>39</v>
+      </c>
+      <c r="C263">
+        <v>102</v>
+      </c>
+      <c r="D263" t="s">
+        <v>47</v>
+      </c>
+      <c r="E263">
+        <v>122</v>
+      </c>
+      <c r="F263">
+        <v>-4</v>
+      </c>
+      <c r="G263">
+        <v>-5</v>
+      </c>
+      <c r="H263" t="s">
+        <v>80</v>
+      </c>
+      <c r="I263" t="s">
+        <v>39</v>
+      </c>
+      <c r="J263">
+        <v>105</v>
+      </c>
+      <c r="K263" t="s">
+        <v>47</v>
+      </c>
+      <c r="L263">
+        <v>109</v>
+      </c>
+      <c r="M263">
+        <v>214</v>
+      </c>
+      <c r="N263">
+        <v>208.5</v>
+      </c>
+      <c r="O263">
+        <v>224</v>
+      </c>
+      <c r="P263" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>31</v>
+      </c>
+      <c r="R263" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A264" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B264" t="s">
+        <v>40</v>
+      </c>
+      <c r="C264">
+        <v>104</v>
+      </c>
+      <c r="D264" t="s">
+        <v>26</v>
+      </c>
+      <c r="E264">
+        <v>113</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
+      </c>
+      <c r="G264">
+        <v>6.5</v>
+      </c>
+      <c r="H264" t="s">
+        <v>20</v>
+      </c>
+      <c r="I264" t="s">
+        <v>40</v>
+      </c>
+      <c r="J264">
+        <v>108</v>
+      </c>
+      <c r="K264" t="s">
+        <v>26</v>
+      </c>
+      <c r="L264">
+        <v>106</v>
+      </c>
+      <c r="M264">
+        <v>214</v>
+      </c>
+      <c r="N264">
+        <v>217</v>
+      </c>
+      <c r="O264">
+        <v>217</v>
+      </c>
+      <c r="P264" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>31</v>
+      </c>
+      <c r="R264" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A265" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B265" t="s">
+        <v>32</v>
+      </c>
+      <c r="C265">
+        <v>110</v>
+      </c>
+      <c r="D265" t="s">
+        <v>42</v>
+      </c>
+      <c r="E265">
+        <v>109</v>
+      </c>
+      <c r="F265">
+        <v>-9</v>
+      </c>
+      <c r="G265">
+        <v>-7.5</v>
+      </c>
+      <c r="H265" t="s">
+        <v>80</v>
+      </c>
+      <c r="I265" t="s">
+        <v>32</v>
+      </c>
+      <c r="J265">
+        <v>98</v>
+      </c>
+      <c r="K265" t="s">
+        <v>42</v>
+      </c>
+      <c r="L265">
+        <v>107</v>
+      </c>
+      <c r="M265">
+        <v>205</v>
+      </c>
+      <c r="N265">
+        <v>206</v>
+      </c>
+      <c r="O265">
+        <v>219</v>
+      </c>
+      <c r="P265" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>31</v>
+      </c>
+      <c r="R265" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A266" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B266" t="s">
+        <v>34</v>
+      </c>
+      <c r="C266">
+        <v>104</v>
+      </c>
+      <c r="D266" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266">
+        <v>114</v>
+      </c>
+      <c r="F266">
+        <v>-14</v>
+      </c>
+      <c r="G266">
+        <v>3</v>
+      </c>
+      <c r="H266" t="s">
+        <v>20</v>
+      </c>
+      <c r="I266" t="s">
+        <v>34</v>
+      </c>
+      <c r="J266">
+        <v>90</v>
+      </c>
+      <c r="K266" t="s">
+        <v>28</v>
+      </c>
+      <c r="L266">
+        <v>104</v>
+      </c>
+      <c r="M266">
+        <v>194</v>
+      </c>
+      <c r="N266">
+        <v>224</v>
+      </c>
+      <c r="O266">
+        <v>218</v>
+      </c>
+      <c r="P266" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>22</v>
+      </c>
+      <c r="R266" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A267" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B267" t="s">
+        <v>56</v>
+      </c>
+      <c r="C267">
+        <v>104</v>
+      </c>
+      <c r="D267" t="s">
+        <v>37</v>
+      </c>
+      <c r="E267">
+        <v>96</v>
+      </c>
+      <c r="F267">
+        <v>-9</v>
+      </c>
+      <c r="G267">
+        <v>-2.5</v>
+      </c>
+      <c r="H267" t="s">
+        <v>27</v>
+      </c>
+      <c r="I267" t="s">
+        <v>56</v>
+      </c>
+      <c r="J267">
+        <v>103</v>
+      </c>
+      <c r="K267" t="s">
+        <v>37</v>
+      </c>
+      <c r="L267">
+        <v>112</v>
+      </c>
+      <c r="M267">
+        <v>215</v>
+      </c>
+      <c r="N267">
+        <v>218</v>
+      </c>
+      <c r="O267">
+        <v>200</v>
+      </c>
+      <c r="P267" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>22</v>
+      </c>
+      <c r="R267" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A268" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B268" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268">
+        <v>136</v>
+      </c>
+      <c r="D268" t="s">
+        <v>44</v>
+      </c>
+      <c r="E268">
+        <v>104</v>
+      </c>
+      <c r="F268">
+        <v>5</v>
+      </c>
+      <c r="G268">
+        <v>6.5</v>
+      </c>
+      <c r="H268" t="s">
+        <v>80</v>
+      </c>
+      <c r="I268" t="s">
+        <v>23</v>
+      </c>
+      <c r="J268">
+        <v>111</v>
+      </c>
+      <c r="K268" t="s">
+        <v>44</v>
+      </c>
+      <c r="L268">
+        <v>106</v>
+      </c>
+      <c r="M268">
+        <v>217</v>
+      </c>
+      <c r="N268">
+        <v>218</v>
+      </c>
+      <c r="O268">
+        <v>240</v>
+      </c>
+      <c r="P268" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>31</v>
+      </c>
+      <c r="R268" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A269" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B269" t="s">
+        <v>55</v>
+      </c>
+      <c r="C269">
+        <v>120</v>
+      </c>
+      <c r="D269" t="s">
+        <v>45</v>
+      </c>
+      <c r="E269">
+        <v>114</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+      <c r="G269">
+        <v>2</v>
+      </c>
+      <c r="H269" t="s">
+        <v>80</v>
+      </c>
+      <c r="I269" t="s">
+        <v>55</v>
+      </c>
+      <c r="J269">
+        <v>107</v>
+      </c>
+      <c r="K269" t="s">
+        <v>45</v>
+      </c>
+      <c r="L269">
+        <v>105</v>
+      </c>
+      <c r="M269">
+        <v>212</v>
+      </c>
+      <c r="N269">
+        <v>212</v>
+      </c>
+      <c r="O269">
+        <v>234</v>
+      </c>
+      <c r="P269" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>31</v>
+      </c>
+      <c r="R269" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A270" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B270" t="s">
+        <v>48</v>
+      </c>
+      <c r="C270">
+        <v>94</v>
+      </c>
+      <c r="D270" t="s">
+        <v>46</v>
+      </c>
+      <c r="E270">
+        <v>104</v>
+      </c>
+      <c r="F270">
+        <v>-20</v>
+      </c>
+      <c r="G270">
+        <v>-14.5</v>
+      </c>
+      <c r="H270" t="s">
+        <v>27</v>
+      </c>
+      <c r="I270" t="s">
+        <v>48</v>
+      </c>
+      <c r="J270">
+        <v>99</v>
+      </c>
+      <c r="K270" t="s">
+        <v>46</v>
+      </c>
+      <c r="L270">
+        <v>119</v>
+      </c>
+      <c r="M270">
+        <v>218</v>
+      </c>
+      <c r="N270">
+        <v>215.5</v>
+      </c>
+      <c r="O270">
+        <v>198</v>
+      </c>
+      <c r="P270" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>22</v>
+      </c>
+      <c r="R270" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A271" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B271" t="s">
+        <v>36</v>
+      </c>
+      <c r="C271">
+        <v>130</v>
+      </c>
+      <c r="D271" t="s">
+        <v>50</v>
+      </c>
+      <c r="E271">
+        <v>142</v>
+      </c>
+      <c r="F271">
+        <v>-12</v>
+      </c>
+      <c r="G271">
+        <v>-6.5</v>
+      </c>
+      <c r="H271" t="s">
+        <v>20</v>
+      </c>
+      <c r="I271" t="s">
+        <v>36</v>
+      </c>
+      <c r="J271">
+        <v>101</v>
+      </c>
+      <c r="K271" t="s">
+        <v>50</v>
+      </c>
+      <c r="L271">
+        <v>113</v>
+      </c>
+      <c r="M271">
+        <v>214</v>
+      </c>
+      <c r="N271">
+        <v>222.5</v>
+      </c>
+      <c r="O271">
+        <v>272</v>
+      </c>
+      <c r="P271" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>31</v>
+      </c>
+      <c r="R271" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A272" s="4">
+        <v>44538</v>
+      </c>
+      <c r="B272" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272">
+        <v>111</v>
+      </c>
+      <c r="D272" t="s">
+        <v>43</v>
+      </c>
+      <c r="E272">
+        <v>114</v>
+      </c>
+      <c r="F272">
+        <v>-4</v>
+      </c>
+      <c r="G272">
+        <v>-4.5</v>
+      </c>
+      <c r="H272" t="s">
+        <v>80</v>
+      </c>
+      <c r="I272" t="s">
+        <v>25</v>
+      </c>
+      <c r="J272">
+        <v>101</v>
+      </c>
+      <c r="K272" t="s">
+        <v>43</v>
+      </c>
+      <c r="L272">
+        <v>105</v>
+      </c>
+      <c r="M272">
+        <v>206</v>
+      </c>
+      <c r="N272">
+        <v>210</v>
+      </c>
+      <c r="O272">
+        <v>225</v>
+      </c>
+      <c r="P272" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>31</v>
+      </c>
+      <c r="R272" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17097,8 +17466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17134,27 +17503,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H300,"WIN")</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.45800000000000002</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45500000000000002</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -17179,24 +17548,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.5</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
         <v>33</v>
-      </c>
-      <c r="E5">
-        <v>32</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.50800000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -17221,29 +17590,29 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>27</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.48099999999999998</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.38900000000000001</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD1C1C5-C3DC-40B8-9571-8128911E874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1484930B-A4A8-4876-83B9-ECB3B74274A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -287,13 +287,19 @@
     <t>LOW</t>
   </si>
   <si>
-    <t>Utah -3</t>
+    <t>NONE</t>
   </si>
   <si>
-    <t>Memphis +4</t>
+    <t>Charlotte +1</t>
   </si>
   <si>
-    <t>San Antonio -2.5</t>
+    <t>Houston +9</t>
+  </si>
+  <si>
+    <t>Indiana -2</t>
+  </si>
+  <si>
+    <t>Phoenix -4</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1260,101 +1266,101 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H2">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="I2">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E3">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3">
         <v>109</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3">
-        <v>111</v>
-      </c>
       <c r="H3">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="I3">
-        <v>223.5</v>
+        <v>213</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H4">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="I4">
-        <v>215.5</v>
+        <v>227.5</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -1364,7 +1370,214 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="17">
+        <v>-1.5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>109</v>
+      </c>
+      <c r="H5">
+        <v>215</v>
+      </c>
+      <c r="I5">
+        <v>207.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>104</v>
+      </c>
+      <c r="H6">
+        <v>213</v>
+      </c>
+      <c r="I6">
+        <v>226.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>104</v>
+      </c>
+      <c r="H7">
+        <v>207</v>
+      </c>
+      <c r="I7">
+        <v>213</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-6.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>107</v>
+      </c>
+      <c r="H8">
+        <v>209</v>
+      </c>
+      <c r="I8">
+        <v>211</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>207</v>
+      </c>
+      <c r="I9">
+        <v>218</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>112</v>
+      </c>
+      <c r="H10">
+        <v>212</v>
+      </c>
+      <c r="I10">
+        <v>213</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1373,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R272"/>
+  <dimension ref="A1:R275"/>
   <sheetViews>
     <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="A269" sqref="A269"/>
+      <selection activeCell="A274" sqref="A274:A275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17457,6 +17670,174 @@
         <v>27</v>
       </c>
     </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A273" s="4">
+        <v>44539</v>
+      </c>
+      <c r="B273" t="s">
+        <v>23</v>
+      </c>
+      <c r="C273">
+        <v>118</v>
+      </c>
+      <c r="D273" t="s">
+        <v>18</v>
+      </c>
+      <c r="E273">
+        <v>96</v>
+      </c>
+      <c r="F273">
+        <v>8</v>
+      </c>
+      <c r="G273">
+        <v>3</v>
+      </c>
+      <c r="H273" t="s">
+        <v>20</v>
+      </c>
+      <c r="I273" t="s">
+        <v>23</v>
+      </c>
+      <c r="J273">
+        <v>114</v>
+      </c>
+      <c r="K273" t="s">
+        <v>18</v>
+      </c>
+      <c r="L273">
+        <v>106</v>
+      </c>
+      <c r="M273">
+        <v>220</v>
+      </c>
+      <c r="N273">
+        <v>216</v>
+      </c>
+      <c r="O273">
+        <v>214</v>
+      </c>
+      <c r="P273" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>22</v>
+      </c>
+      <c r="R273" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A274" s="4">
+        <v>44539</v>
+      </c>
+      <c r="B274" t="s">
+        <v>33</v>
+      </c>
+      <c r="C274">
+        <v>95</v>
+      </c>
+      <c r="D274" t="s">
+        <v>37</v>
+      </c>
+      <c r="E274">
+        <v>108</v>
+      </c>
+      <c r="F274">
+        <v>-2</v>
+      </c>
+      <c r="G274">
+        <v>4</v>
+      </c>
+      <c r="H274" t="s">
+        <v>20</v>
+      </c>
+      <c r="I274" t="s">
+        <v>33</v>
+      </c>
+      <c r="J274">
+        <v>109</v>
+      </c>
+      <c r="K274" t="s">
+        <v>37</v>
+      </c>
+      <c r="L274">
+        <v>111</v>
+      </c>
+      <c r="M274">
+        <v>220</v>
+      </c>
+      <c r="N274">
+        <v>223.5</v>
+      </c>
+      <c r="O274">
+        <v>203</v>
+      </c>
+      <c r="P274" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>22</v>
+      </c>
+      <c r="R274" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A275" s="4">
+        <v>44539</v>
+      </c>
+      <c r="B275" t="s">
+        <v>55</v>
+      </c>
+      <c r="C275">
+        <v>111</v>
+      </c>
+      <c r="D275" t="s">
+        <v>35</v>
+      </c>
+      <c r="E275">
+        <v>123</v>
+      </c>
+      <c r="F275">
+        <v>-6</v>
+      </c>
+      <c r="G275">
+        <v>-2.5</v>
+      </c>
+      <c r="H275" t="s">
+        <v>20</v>
+      </c>
+      <c r="I275" t="s">
+        <v>55</v>
+      </c>
+      <c r="J275">
+        <v>102</v>
+      </c>
+      <c r="K275" t="s">
+        <v>35</v>
+      </c>
+      <c r="L275">
+        <v>108</v>
+      </c>
+      <c r="M275">
+        <v>210</v>
+      </c>
+      <c r="N275">
+        <v>215.5</v>
+      </c>
+      <c r="O275">
+        <v>234</v>
+      </c>
+      <c r="P275" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>31</v>
+      </c>
+      <c r="R275" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17466,7 +17847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -17503,7 +17884,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H300,"WIN")</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
@@ -17511,19 +17892,19 @@
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.46400000000000002</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45700000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -17548,24 +17929,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>27</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.50900000000000001</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="D5">
         <v>35</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.51500000000000001</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -17600,14 +17981,14 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.39</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1484930B-A4A8-4876-83B9-ECB3B74274A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE110E8-FF42-4261-944C-277C4713011A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -290,16 +290,16 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Charlotte +1</t>
+    <t>Los Angeles Clippers -8.5</t>
   </si>
   <si>
-    <t>Houston +9</t>
+    <t>Utah -7</t>
   </si>
   <si>
-    <t>Indiana -2</t>
+    <t>Golden State -3</t>
   </si>
   <si>
-    <t>Phoenix -4</t>
+    <t>San Antonio +1</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
-        <v>1</v>
+        <v>-8.5</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -1275,57 +1275,57 @@
         <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H2">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="I2">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H3">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I3">
-        <v>213</v>
+        <v>219.5</v>
       </c>
       <c r="J3" t="s">
         <v>80</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
-        <v>-2</v>
+        <v>-6.5</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -1345,22 +1345,22 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>111</v>
       </c>
       <c r="H4">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I4">
-        <v>227.5</v>
+        <v>223</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
-        <v>-1.5</v>
+        <v>-8</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
@@ -1380,203 +1380,133 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H5">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I5">
-        <v>207.5</v>
+        <v>220.5</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>106</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>106</v>
+      </c>
+      <c r="H6">
+        <v>212</v>
+      </c>
+      <c r="I6">
+        <v>209.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
         <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>109</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6">
-        <v>104</v>
-      </c>
-      <c r="H6">
-        <v>213</v>
-      </c>
-      <c r="I6">
-        <v>226.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>112</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <v>210</v>
+      </c>
+      <c r="I7">
+        <v>212.5</v>
+      </c>
+      <c r="J7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
+      <c r="K7" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7">
-        <v>103</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7">
-        <v>104</v>
-      </c>
-      <c r="H7">
-        <v>207</v>
-      </c>
-      <c r="I7">
-        <v>213</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>-6.5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I8">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>4.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>107</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>207</v>
-      </c>
-      <c r="I9">
-        <v>218</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>-4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>112</v>
-      </c>
-      <c r="H10">
-        <v>212</v>
-      </c>
-      <c r="I10">
-        <v>213</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1586,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R275"/>
+  <dimension ref="A1:R284"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="A274" sqref="A274:A275"/>
+    <sheetView topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="R281" sqref="R281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17838,6 +17768,510 @@
         <v>27</v>
       </c>
     </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A276" s="4">
+        <v>44540</v>
+      </c>
+      <c r="B276" t="s">
+        <v>50</v>
+      </c>
+      <c r="C276">
+        <v>123</v>
+      </c>
+      <c r="D276" t="s">
+        <v>49</v>
+      </c>
+      <c r="E276">
+        <v>124</v>
+      </c>
+      <c r="F276">
+        <v>-5</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276" t="s">
+        <v>20</v>
+      </c>
+      <c r="I276" t="s">
+        <v>50</v>
+      </c>
+      <c r="J276">
+        <v>113</v>
+      </c>
+      <c r="K276" t="s">
+        <v>49</v>
+      </c>
+      <c r="L276">
+        <v>118</v>
+      </c>
+      <c r="M276">
+        <v>231</v>
+      </c>
+      <c r="N276">
+        <v>231</v>
+      </c>
+      <c r="O276">
+        <v>247</v>
+      </c>
+      <c r="P276" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>31</v>
+      </c>
+      <c r="R276" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A277" s="4">
+        <v>44540</v>
+      </c>
+      <c r="B277" t="s">
+        <v>56</v>
+      </c>
+      <c r="C277">
+        <v>93</v>
+      </c>
+      <c r="D277" t="s">
+        <v>47</v>
+      </c>
+      <c r="E277">
+        <v>106</v>
+      </c>
+      <c r="F277">
+        <v>-7</v>
+      </c>
+      <c r="G277">
+        <v>-2</v>
+      </c>
+      <c r="H277" t="s">
+        <v>20</v>
+      </c>
+      <c r="I277" t="s">
+        <v>56</v>
+      </c>
+      <c r="J277">
+        <v>102</v>
+      </c>
+      <c r="K277" t="s">
+        <v>47</v>
+      </c>
+      <c r="L277">
+        <v>109</v>
+      </c>
+      <c r="M277">
+        <v>211</v>
+      </c>
+      <c r="N277">
+        <v>213</v>
+      </c>
+      <c r="O277">
+        <v>199</v>
+      </c>
+      <c r="P277" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>22</v>
+      </c>
+      <c r="R277" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A278" s="4">
+        <v>44540</v>
+      </c>
+      <c r="B278" t="s">
+        <v>34</v>
+      </c>
+      <c r="C278">
+        <v>113</v>
+      </c>
+      <c r="D278" t="s">
+        <v>24</v>
+      </c>
+      <c r="E278">
+        <v>105</v>
+      </c>
+      <c r="F278">
+        <v>-1</v>
+      </c>
+      <c r="G278">
+        <v>-2</v>
+      </c>
+      <c r="H278" t="s">
+        <v>80</v>
+      </c>
+      <c r="I278" t="s">
+        <v>34</v>
+      </c>
+      <c r="J278">
+        <v>110</v>
+      </c>
+      <c r="K278" t="s">
+        <v>24</v>
+      </c>
+      <c r="L278">
+        <v>111</v>
+      </c>
+      <c r="M278">
+        <v>221</v>
+      </c>
+      <c r="N278">
+        <v>227.5</v>
+      </c>
+      <c r="O278">
+        <v>218</v>
+      </c>
+      <c r="P278" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>22</v>
+      </c>
+      <c r="R278" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A279" s="4">
+        <v>44540</v>
+      </c>
+      <c r="B279" t="s">
+        <v>39</v>
+      </c>
+      <c r="C279">
+        <v>87</v>
+      </c>
+      <c r="D279" t="s">
+        <v>42</v>
+      </c>
+      <c r="E279">
+        <v>90</v>
+      </c>
+      <c r="F279">
+        <v>-3</v>
+      </c>
+      <c r="G279">
+        <v>-1.5</v>
+      </c>
+      <c r="H279" t="s">
+        <v>80</v>
+      </c>
+      <c r="I279" t="s">
+        <v>39</v>
+      </c>
+      <c r="J279">
+        <v>106</v>
+      </c>
+      <c r="K279" t="s">
+        <v>42</v>
+      </c>
+      <c r="L279">
+        <v>109</v>
+      </c>
+      <c r="M279">
+        <v>215</v>
+      </c>
+      <c r="N279">
+        <v>207.5</v>
+      </c>
+      <c r="O279">
+        <v>177</v>
+      </c>
+      <c r="P279" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>22</v>
+      </c>
+      <c r="R279" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A280" s="4">
+        <v>44540</v>
+      </c>
+      <c r="B280" t="s">
+        <v>40</v>
+      </c>
+      <c r="C280">
+        <v>123</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280">
+        <v>114</v>
+      </c>
+      <c r="F280">
+        <v>5</v>
+      </c>
+      <c r="G280">
+        <v>9</v>
+      </c>
+      <c r="H280" t="s">
+        <v>27</v>
+      </c>
+      <c r="I280" t="s">
+        <v>40</v>
+      </c>
+      <c r="J280">
+        <v>109</v>
+      </c>
+      <c r="K280" t="s">
+        <v>28</v>
+      </c>
+      <c r="L280">
+        <v>104</v>
+      </c>
+      <c r="M280">
+        <v>213</v>
+      </c>
+      <c r="N280">
+        <v>226.5</v>
+      </c>
+      <c r="O280">
+        <v>237</v>
+      </c>
+      <c r="P280" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>31</v>
+      </c>
+      <c r="R280" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A281" s="4">
+        <v>44540</v>
+      </c>
+      <c r="B281" t="s">
+        <v>41</v>
+      </c>
+      <c r="C281">
+        <v>123</v>
+      </c>
+      <c r="D281" t="s">
+        <v>44</v>
+      </c>
+      <c r="E281">
+        <v>106</v>
+      </c>
+      <c r="F281">
+        <v>-1</v>
+      </c>
+      <c r="G281">
+        <v>1.5</v>
+      </c>
+      <c r="H281" t="s">
+        <v>80</v>
+      </c>
+      <c r="I281" t="s">
+        <v>41</v>
+      </c>
+      <c r="J281">
+        <v>103</v>
+      </c>
+      <c r="K281" t="s">
+        <v>44</v>
+      </c>
+      <c r="L281">
+        <v>104</v>
+      </c>
+      <c r="M281">
+        <v>207</v>
+      </c>
+      <c r="N281">
+        <v>213</v>
+      </c>
+      <c r="O281">
+        <v>229</v>
+      </c>
+      <c r="P281" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>31</v>
+      </c>
+      <c r="R281" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A282" s="4">
+        <v>44540</v>
+      </c>
+      <c r="B282" t="s">
+        <v>19</v>
+      </c>
+      <c r="C282">
+        <v>93</v>
+      </c>
+      <c r="D282" t="s">
+        <v>45</v>
+      </c>
+      <c r="E282">
+        <v>109</v>
+      </c>
+      <c r="F282">
+        <v>-5</v>
+      </c>
+      <c r="G282">
+        <v>-6.5</v>
+      </c>
+      <c r="H282" t="s">
+        <v>80</v>
+      </c>
+      <c r="I282" t="s">
+        <v>19</v>
+      </c>
+      <c r="J282">
+        <v>102</v>
+      </c>
+      <c r="K282" t="s">
+        <v>45</v>
+      </c>
+      <c r="L282">
+        <v>107</v>
+      </c>
+      <c r="M282">
+        <v>209</v>
+      </c>
+      <c r="N282">
+        <v>211</v>
+      </c>
+      <c r="O282">
+        <v>202</v>
+      </c>
+      <c r="P282" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>22</v>
+      </c>
+      <c r="R282" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A283" s="4">
+        <v>44540</v>
+      </c>
+      <c r="B283" t="s">
+        <v>33</v>
+      </c>
+      <c r="C283">
+        <v>116</v>
+      </c>
+      <c r="D283" t="s">
+        <v>32</v>
+      </c>
+      <c r="E283">
+        <v>95</v>
+      </c>
+      <c r="F283">
+        <v>7</v>
+      </c>
+      <c r="G283">
+        <v>4.5</v>
+      </c>
+      <c r="H283" t="s">
+        <v>80</v>
+      </c>
+      <c r="I283" t="s">
+        <v>33</v>
+      </c>
+      <c r="J283">
+        <v>107</v>
+      </c>
+      <c r="K283" t="s">
+        <v>32</v>
+      </c>
+      <c r="L283">
+        <v>100</v>
+      </c>
+      <c r="M283">
+        <v>207</v>
+      </c>
+      <c r="N283">
+        <v>218</v>
+      </c>
+      <c r="O283">
+        <v>211</v>
+      </c>
+      <c r="P283" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>22</v>
+      </c>
+      <c r="R283" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A284" s="4">
+        <v>44540</v>
+      </c>
+      <c r="B284" t="s">
+        <v>25</v>
+      </c>
+      <c r="C284">
+        <v>90</v>
+      </c>
+      <c r="D284" t="s">
+        <v>29</v>
+      </c>
+      <c r="E284">
+        <v>111</v>
+      </c>
+      <c r="F284">
+        <v>-12</v>
+      </c>
+      <c r="G284">
+        <v>-4</v>
+      </c>
+      <c r="H284" t="s">
+        <v>20</v>
+      </c>
+      <c r="I284" t="s">
+        <v>25</v>
+      </c>
+      <c r="J284">
+        <v>100</v>
+      </c>
+      <c r="K284" t="s">
+        <v>29</v>
+      </c>
+      <c r="L284">
+        <v>112</v>
+      </c>
+      <c r="M284">
+        <v>212</v>
+      </c>
+      <c r="N284">
+        <v>213</v>
+      </c>
+      <c r="O284">
+        <v>201</v>
+      </c>
+      <c r="P284" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>22</v>
+      </c>
+      <c r="R284" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17848,7 +18282,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17884,27 +18318,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H300,"WIN")</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.47199999999999998</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45500000000000002</v>
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -17929,20 +18363,20 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>27</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.53400000000000003</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
@@ -17974,11 +18408,11 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.49099999999999999</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D8">
         <v>24</v>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE110E8-FF42-4261-944C-277C4713011A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655F4C8-74FD-4F0E-8025-FDD5617FBAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>NONE</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers -8.5</t>
   </si>
   <si>
     <t>Utah -7</t>
@@ -1211,7 +1208,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1269,10 +1266,10 @@
         <v>-8.5</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -1284,10 +1281,10 @@
         <v>43</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I2">
         <v>214</v>
@@ -1304,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>83</v>
@@ -1444,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -1479,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655F4C8-74FD-4F0E-8025-FDD5617FBAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A604FBD9-4E2B-44FE-AD94-CE0446DB7D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -290,13 +290,19 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Utah -7</t>
+    <t>New York +6</t>
   </si>
   <si>
-    <t>Golden State -3</t>
+    <t>Oklahoma City +4</t>
   </si>
   <si>
-    <t>San Antonio +1</t>
+    <t>Brooklyn -7</t>
+  </si>
+  <si>
+    <t>San Antonio -2.5</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers -10.5</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,37 +1269,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
-        <v>-8.5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <v>108</v>
+      </c>
+      <c r="H2">
+        <v>218</v>
+      </c>
+      <c r="I2">
+        <v>216.5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <v>96</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2">
-        <v>105</v>
-      </c>
-      <c r="H2">
-        <v>201</v>
-      </c>
-      <c r="I2">
-        <v>214</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1301,63 +1307,63 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H3">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I3">
-        <v>219.5</v>
+        <v>211.5</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
-        <v>-6.5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H4">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="I4">
-        <v>223</v>
+        <v>207.5</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -1368,31 +1374,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
-        <v>-8</v>
+        <v>-2.5</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I5">
-        <v>220.5</v>
+        <v>219.5</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -1403,7 +1409,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="B6" t="s">
         <v>80</v>
@@ -1412,25 +1418,25 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G6">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H6">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="I6">
-        <v>209.5</v>
+        <v>221</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
         <v>83</v>
@@ -1438,71 +1444,36 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>3</v>
+        <v>-10.5</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="H7">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I7">
-        <v>212.5</v>
+        <v>220.5</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8">
-        <v>102</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8">
-        <v>109</v>
-      </c>
-      <c r="H8">
-        <v>211</v>
-      </c>
-      <c r="I8">
-        <v>219</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1513,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R284"/>
+  <dimension ref="A1:R291"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="R281" sqref="R281"/>
+    <sheetView topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285:A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18269,6 +18240,398 @@
         <v>53</v>
       </c>
     </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A285" s="4">
+        <v>44541</v>
+      </c>
+      <c r="B285" t="s">
+        <v>36</v>
+      </c>
+      <c r="C285">
+        <v>104</v>
+      </c>
+      <c r="D285" t="s">
+        <v>43</v>
+      </c>
+      <c r="E285">
+        <v>106</v>
+      </c>
+      <c r="F285">
+        <v>-9</v>
+      </c>
+      <c r="G285">
+        <v>-8.5</v>
+      </c>
+      <c r="H285" t="s">
+        <v>80</v>
+      </c>
+      <c r="I285" t="s">
+        <v>36</v>
+      </c>
+      <c r="J285">
+        <v>96</v>
+      </c>
+      <c r="K285" t="s">
+        <v>43</v>
+      </c>
+      <c r="L285">
+        <v>105</v>
+      </c>
+      <c r="M285">
+        <v>201</v>
+      </c>
+      <c r="N285">
+        <v>214</v>
+      </c>
+      <c r="O285">
+        <v>210</v>
+      </c>
+      <c r="P285" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>22</v>
+      </c>
+      <c r="R285" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A286" s="4">
+        <v>44541</v>
+      </c>
+      <c r="B286" t="s">
+        <v>23</v>
+      </c>
+      <c r="C286">
+        <v>123</v>
+      </c>
+      <c r="D286" t="s">
+        <v>38</v>
+      </c>
+      <c r="E286">
+        <v>98</v>
+      </c>
+      <c r="F286">
+        <v>11</v>
+      </c>
+      <c r="G286">
+        <v>7</v>
+      </c>
+      <c r="H286" t="s">
+        <v>20</v>
+      </c>
+      <c r="I286" t="s">
+        <v>23</v>
+      </c>
+      <c r="J286">
+        <v>114</v>
+      </c>
+      <c r="K286" t="s">
+        <v>38</v>
+      </c>
+      <c r="L286">
+        <v>103</v>
+      </c>
+      <c r="M286">
+        <v>217</v>
+      </c>
+      <c r="N286">
+        <v>219.5</v>
+      </c>
+      <c r="O286">
+        <v>221</v>
+      </c>
+      <c r="P286" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>31</v>
+      </c>
+      <c r="R286" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A287" s="4">
+        <v>44541</v>
+      </c>
+      <c r="B287" t="s">
+        <v>50</v>
+      </c>
+      <c r="C287">
+        <v>103</v>
+      </c>
+      <c r="D287" t="s">
+        <v>41</v>
+      </c>
+      <c r="E287">
+        <v>117</v>
+      </c>
+      <c r="F287">
+        <v>-6</v>
+      </c>
+      <c r="G287">
+        <v>-6.5</v>
+      </c>
+      <c r="H287" t="s">
+        <v>80</v>
+      </c>
+      <c r="I287" t="s">
+        <v>50</v>
+      </c>
+      <c r="J287">
+        <v>105</v>
+      </c>
+      <c r="K287" t="s">
+        <v>41</v>
+      </c>
+      <c r="L287">
+        <v>111</v>
+      </c>
+      <c r="M287">
+        <v>216</v>
+      </c>
+      <c r="N287">
+        <v>223</v>
+      </c>
+      <c r="O287">
+        <v>220</v>
+      </c>
+      <c r="P287" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>22</v>
+      </c>
+      <c r="R287" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A288" s="4">
+        <v>44541</v>
+      </c>
+      <c r="B288" t="s">
+        <v>28</v>
+      </c>
+      <c r="C288">
+        <v>106</v>
+      </c>
+      <c r="D288" t="s">
+        <v>37</v>
+      </c>
+      <c r="E288">
+        <v>113</v>
+      </c>
+      <c r="F288">
+        <v>-7</v>
+      </c>
+      <c r="G288">
+        <v>-8</v>
+      </c>
+      <c r="H288" t="s">
+        <v>80</v>
+      </c>
+      <c r="I288" t="s">
+        <v>28</v>
+      </c>
+      <c r="J288">
+        <v>105</v>
+      </c>
+      <c r="K288" t="s">
+        <v>37</v>
+      </c>
+      <c r="L288">
+        <v>112</v>
+      </c>
+      <c r="M288">
+        <v>217</v>
+      </c>
+      <c r="N288">
+        <v>220.5</v>
+      </c>
+      <c r="O288">
+        <v>219</v>
+      </c>
+      <c r="P288" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>22</v>
+      </c>
+      <c r="R288" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A289" s="4">
+        <v>44541</v>
+      </c>
+      <c r="B289" t="s">
+        <v>54</v>
+      </c>
+      <c r="C289">
+        <v>92</v>
+      </c>
+      <c r="D289" t="s">
+        <v>26</v>
+      </c>
+      <c r="E289">
+        <v>118</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>-1</v>
+      </c>
+      <c r="H289" t="s">
+        <v>80</v>
+      </c>
+      <c r="I289" t="s">
+        <v>54</v>
+      </c>
+      <c r="J289">
+        <v>106</v>
+      </c>
+      <c r="K289" t="s">
+        <v>26</v>
+      </c>
+      <c r="L289">
+        <v>106</v>
+      </c>
+      <c r="M289">
+        <v>212</v>
+      </c>
+      <c r="N289">
+        <v>209.5</v>
+      </c>
+      <c r="O289">
+        <v>210</v>
+      </c>
+      <c r="P289" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>31</v>
+      </c>
+      <c r="R289" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A290" s="4">
+        <v>44541</v>
+      </c>
+      <c r="B290" t="s">
+        <v>46</v>
+      </c>
+      <c r="C290">
+        <v>93</v>
+      </c>
+      <c r="D290" t="s">
+        <v>18</v>
+      </c>
+      <c r="E290">
+        <v>102</v>
+      </c>
+      <c r="F290">
+        <v>14</v>
+      </c>
+      <c r="G290">
+        <v>3</v>
+      </c>
+      <c r="H290" t="s">
+        <v>27</v>
+      </c>
+      <c r="I290" t="s">
+        <v>46</v>
+      </c>
+      <c r="J290">
+        <v>112</v>
+      </c>
+      <c r="K290" t="s">
+        <v>18</v>
+      </c>
+      <c r="L290">
+        <v>98</v>
+      </c>
+      <c r="M290">
+        <v>210</v>
+      </c>
+      <c r="N290">
+        <v>212.5</v>
+      </c>
+      <c r="O290">
+        <v>195</v>
+      </c>
+      <c r="P290" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>22</v>
+      </c>
+      <c r="R290" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A291" s="4">
+        <v>44541</v>
+      </c>
+      <c r="B291" t="s">
+        <v>55</v>
+      </c>
+      <c r="C291">
+        <v>127</v>
+      </c>
+      <c r="D291" t="s">
+        <v>35</v>
+      </c>
+      <c r="E291">
+        <v>112</v>
+      </c>
+      <c r="F291">
+        <v>-7</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291" t="s">
+        <v>27</v>
+      </c>
+      <c r="I291" t="s">
+        <v>55</v>
+      </c>
+      <c r="J291">
+        <v>102</v>
+      </c>
+      <c r="K291" t="s">
+        <v>35</v>
+      </c>
+      <c r="L291">
+        <v>109</v>
+      </c>
+      <c r="M291">
+        <v>211</v>
+      </c>
+      <c r="N291">
+        <v>219</v>
+      </c>
+      <c r="O291">
+        <v>239</v>
+      </c>
+      <c r="P291" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>31</v>
+      </c>
+      <c r="R291" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18279,7 +18642,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18315,27 +18678,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H300,"WIN")</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.47799999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45400000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -18363,21 +18726,21 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.55700000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="D5">
+        <v>39</v>
+      </c>
+      <c r="E5">
         <v>37</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.50700000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -18402,24 +18765,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>28</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.48099999999999998</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>37</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.39300000000000002</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A604FBD9-4E2B-44FE-AD94-CE0446DB7D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E8692E-9909-4D25-B8B4-8F400522DDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -290,19 +290,22 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>New York +6</t>
+    <t>Golden State -4</t>
   </si>
   <si>
-    <t>Oklahoma City +4</t>
+    <t>Sacramento Pick</t>
   </si>
   <si>
-    <t>Brooklyn -7</t>
+    <t>Phoenix -2.5</t>
   </si>
   <si>
-    <t>San Antonio -2.5</t>
+    <t>Houston +10</t>
   </si>
   <si>
-    <t>Los Angeles Lakers -10.5</t>
+    <t>Memphis +4</t>
+  </si>
+  <si>
+    <t>Charlotte +3</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1269,66 +1272,66 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
-        <v>6</v>
+        <v>-5.5</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I2">
-        <v>216.5</v>
+        <v>208</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I3">
-        <v>211.5</v>
+        <v>213.5</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1339,7 +1342,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
-        <v>4</v>
+        <v>-4.5</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -1348,57 +1351,57 @@
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H4">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="I4">
-        <v>207.5</v>
+        <v>222</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
-        <v>-2.5</v>
+        <v>-10</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H5">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I5">
-        <v>219.5</v>
+        <v>222</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -1409,7 +1412,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>80</v>
@@ -1418,63 +1421,168 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H6">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I6">
-        <v>221</v>
+        <v>222.5</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-10.5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H7">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I7">
-        <v>220.5</v>
+        <v>209.5</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-2.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>109</v>
+      </c>
+      <c r="H8">
+        <v>221</v>
+      </c>
+      <c r="I8">
+        <v>216.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-3.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>108</v>
+      </c>
+      <c r="H9">
+        <v>211</v>
+      </c>
+      <c r="I9">
+        <v>216</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>106</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>102</v>
+      </c>
+      <c r="H10">
+        <v>208</v>
+      </c>
+      <c r="I10">
+        <v>211.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1484,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R291"/>
+  <dimension ref="A1:R297"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285:A291"/>
+    <sheetView topLeftCell="C281" workbookViewId="0">
+      <selection activeCell="C292" sqref="A292:XFD292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18632,6 +18740,342 @@
         <v>27</v>
       </c>
     </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A292" s="4">
+        <v>44542</v>
+      </c>
+      <c r="B292" t="s">
+        <v>40</v>
+      </c>
+      <c r="C292">
+        <v>112</v>
+      </c>
+      <c r="D292" t="s">
+        <v>39</v>
+      </c>
+      <c r="E292">
+        <v>97</v>
+      </c>
+      <c r="F292">
+        <v>2</v>
+      </c>
+      <c r="G292">
+        <v>6</v>
+      </c>
+      <c r="H292" t="s">
+        <v>27</v>
+      </c>
+      <c r="I292" t="s">
+        <v>40</v>
+      </c>
+      <c r="J292">
+        <v>110</v>
+      </c>
+      <c r="K292" t="s">
+        <v>39</v>
+      </c>
+      <c r="L292">
+        <v>108</v>
+      </c>
+      <c r="M292">
+        <v>218</v>
+      </c>
+      <c r="N292">
+        <v>216.5</v>
+      </c>
+      <c r="O292">
+        <v>209</v>
+      </c>
+      <c r="P292" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>22</v>
+      </c>
+      <c r="R292" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A293" s="4">
+        <v>44542</v>
+      </c>
+      <c r="B293" t="s">
+        <v>34</v>
+      </c>
+      <c r="C293">
+        <v>116</v>
+      </c>
+      <c r="D293" t="s">
+        <v>19</v>
+      </c>
+      <c r="E293">
+        <v>104</v>
+      </c>
+      <c r="F293">
+        <v>11</v>
+      </c>
+      <c r="G293">
+        <v>7</v>
+      </c>
+      <c r="H293" t="s">
+        <v>20</v>
+      </c>
+      <c r="I293" t="s">
+        <v>34</v>
+      </c>
+      <c r="J293">
+        <v>109</v>
+      </c>
+      <c r="K293" t="s">
+        <v>19</v>
+      </c>
+      <c r="L293">
+        <v>98</v>
+      </c>
+      <c r="M293">
+        <v>207</v>
+      </c>
+      <c r="N293">
+        <v>211.5</v>
+      </c>
+      <c r="O293">
+        <v>220</v>
+      </c>
+      <c r="P293" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>31</v>
+      </c>
+      <c r="R293" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A294" s="4">
+        <v>44542</v>
+      </c>
+      <c r="B294" t="s">
+        <v>56</v>
+      </c>
+      <c r="C294">
+        <v>103</v>
+      </c>
+      <c r="D294" t="s">
+        <v>32</v>
+      </c>
+      <c r="E294">
+        <v>84</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>4</v>
+      </c>
+      <c r="H294" t="s">
+        <v>27</v>
+      </c>
+      <c r="I294" t="s">
+        <v>56</v>
+      </c>
+      <c r="J294">
+        <v>101</v>
+      </c>
+      <c r="K294" t="s">
+        <v>32</v>
+      </c>
+      <c r="L294">
+        <v>101</v>
+      </c>
+      <c r="M294">
+        <v>202</v>
+      </c>
+      <c r="N294">
+        <v>207.5</v>
+      </c>
+      <c r="O294">
+        <v>187</v>
+      </c>
+      <c r="P294" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>22</v>
+      </c>
+      <c r="R294" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A295" s="4">
+        <v>44542</v>
+      </c>
+      <c r="B295" t="s">
+        <v>45</v>
+      </c>
+      <c r="C295">
+        <v>97</v>
+      </c>
+      <c r="D295" t="s">
+        <v>35</v>
+      </c>
+      <c r="E295">
+        <v>112</v>
+      </c>
+      <c r="F295">
+        <v>-11</v>
+      </c>
+      <c r="G295">
+        <v>-2.5</v>
+      </c>
+      <c r="H295" t="s">
+        <v>20</v>
+      </c>
+      <c r="I295" t="s">
+        <v>45</v>
+      </c>
+      <c r="J295">
+        <v>102</v>
+      </c>
+      <c r="K295" t="s">
+        <v>35</v>
+      </c>
+      <c r="L295">
+        <v>113</v>
+      </c>
+      <c r="M295">
+        <v>215</v>
+      </c>
+      <c r="N295">
+        <v>219.5</v>
+      </c>
+      <c r="O295">
+        <v>209</v>
+      </c>
+      <c r="P295" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>22</v>
+      </c>
+      <c r="R295" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A296" s="4">
+        <v>44542</v>
+      </c>
+      <c r="B296" t="s">
+        <v>44</v>
+      </c>
+      <c r="C296">
+        <v>116</v>
+      </c>
+      <c r="D296" t="s">
+        <v>48</v>
+      </c>
+      <c r="E296">
+        <v>111</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>-1.5</v>
+      </c>
+      <c r="H296" t="s">
+        <v>80</v>
+      </c>
+      <c r="I296" t="s">
+        <v>44</v>
+      </c>
+      <c r="J296">
+        <v>109</v>
+      </c>
+      <c r="K296" t="s">
+        <v>48</v>
+      </c>
+      <c r="L296">
+        <v>109</v>
+      </c>
+      <c r="M296">
+        <v>218</v>
+      </c>
+      <c r="N296">
+        <v>221</v>
+      </c>
+      <c r="O296">
+        <v>227</v>
+      </c>
+      <c r="P296" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>31</v>
+      </c>
+      <c r="R296" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A297" s="4">
+        <v>44542</v>
+      </c>
+      <c r="B297" t="s">
+        <v>36</v>
+      </c>
+      <c r="C297">
+        <v>94</v>
+      </c>
+      <c r="D297" t="s">
+        <v>33</v>
+      </c>
+      <c r="E297">
+        <v>106</v>
+      </c>
+      <c r="F297">
+        <v>-15</v>
+      </c>
+      <c r="G297">
+        <v>-10.5</v>
+      </c>
+      <c r="H297" t="s">
+        <v>20</v>
+      </c>
+      <c r="I297" t="s">
+        <v>36</v>
+      </c>
+      <c r="J297">
+        <v>99</v>
+      </c>
+      <c r="K297" t="s">
+        <v>33</v>
+      </c>
+      <c r="L297">
+        <v>114</v>
+      </c>
+      <c r="M297">
+        <v>213</v>
+      </c>
+      <c r="N297">
+        <v>220.5</v>
+      </c>
+      <c r="O297">
+        <v>200</v>
+      </c>
+      <c r="P297" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>22</v>
+      </c>
+      <c r="R297" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18642,7 +19086,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18678,27 +19122,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H300,"WIN")</f>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.47599999999999998</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46100000000000002</v>
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -18723,24 +19167,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>29</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.54</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>37</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.51300000000000001</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -18765,24 +19209,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.49099999999999999</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.41299999999999998</v>
+        <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E8692E-9909-4D25-B8B4-8F400522DDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C168F2F1-56C9-49DB-9128-194CBD8F07B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -284,28 +284,16 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>LOW</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
-    <t>Golden State -4</t>
+    <t>Brooklyn -5</t>
   </si>
   <si>
-    <t>Sacramento Pick</t>
+    <t>Golden State -5</t>
   </si>
   <si>
-    <t>Phoenix -2.5</t>
-  </si>
-  <si>
-    <t>Houston +10</t>
-  </si>
-  <si>
-    <t>Memphis +4</t>
-  </si>
-  <si>
-    <t>Charlotte +3</t>
+    <t>Phoenix -1.5</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,42 +1260,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
-        <v>-5.5</v>
+        <v>-5</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="J2" t="s">
         <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -1319,22 +1307,22 @@
         <v>46</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H3">
         <v>210</v>
       </c>
       <c r="I3">
-        <v>213.5</v>
+        <v>211.5</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
         <v>83</v>
@@ -1342,248 +1330,41 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
-        <v>-4.5</v>
+        <v>1.5</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G4">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H4">
         <v>218</v>
       </c>
       <c r="I4">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
-        <v>-10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5">
-        <v>107</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>114</v>
-      </c>
-      <c r="H5">
-        <v>221</v>
-      </c>
-      <c r="I5">
-        <v>222</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>105</v>
-      </c>
-      <c r="H6">
-        <v>213</v>
-      </c>
-      <c r="I6">
-        <v>222.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>106</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7">
-        <v>112</v>
-      </c>
-      <c r="H7">
-        <v>218</v>
-      </c>
-      <c r="I7">
-        <v>209.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>-2.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8">
-        <v>112</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <v>109</v>
-      </c>
-      <c r="H8">
-        <v>221</v>
-      </c>
-      <c r="I8">
-        <v>216.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>-3.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9">
-        <v>103</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9">
-        <v>108</v>
-      </c>
-      <c r="H9">
-        <v>211</v>
-      </c>
-      <c r="I9">
-        <v>216</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10">
-        <v>106</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10">
-        <v>102</v>
-      </c>
-      <c r="H10">
-        <v>208</v>
-      </c>
-      <c r="I10">
-        <v>211.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
+      <c r="A5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1592,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R297"/>
+  <dimension ref="A1:R306"/>
   <sheetViews>
-    <sheetView topLeftCell="C281" workbookViewId="0">
-      <selection activeCell="C292" sqref="A292:XFD292"/>
+    <sheetView topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="A299" sqref="A299:A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19076,6 +18857,510 @@
         <v>20</v>
       </c>
     </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A298" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B298" t="s">
+        <v>26</v>
+      </c>
+      <c r="C298">
+        <v>94</v>
+      </c>
+      <c r="D298" t="s">
+        <v>41</v>
+      </c>
+      <c r="E298">
+        <v>105</v>
+      </c>
+      <c r="F298">
+        <v>-5</v>
+      </c>
+      <c r="G298">
+        <v>-5.5</v>
+      </c>
+      <c r="H298" t="s">
+        <v>80</v>
+      </c>
+      <c r="I298" t="s">
+        <v>26</v>
+      </c>
+      <c r="J298">
+        <v>101</v>
+      </c>
+      <c r="K298" t="s">
+        <v>41</v>
+      </c>
+      <c r="L298">
+        <v>106</v>
+      </c>
+      <c r="M298">
+        <v>207</v>
+      </c>
+      <c r="N298">
+        <v>208</v>
+      </c>
+      <c r="O298">
+        <v>199</v>
+      </c>
+      <c r="P298" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>22</v>
+      </c>
+      <c r="R298" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A299" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B299" t="s">
+        <v>46</v>
+      </c>
+      <c r="C299">
+        <v>102</v>
+      </c>
+      <c r="D299" t="s">
+        <v>47</v>
+      </c>
+      <c r="E299">
+        <v>100</v>
+      </c>
+      <c r="F299">
+        <v>10</v>
+      </c>
+      <c r="G299">
+        <v>4</v>
+      </c>
+      <c r="H299" t="s">
+        <v>27</v>
+      </c>
+      <c r="I299" t="s">
+        <v>46</v>
+      </c>
+      <c r="J299">
+        <v>110</v>
+      </c>
+      <c r="K299" t="s">
+        <v>47</v>
+      </c>
+      <c r="L299">
+        <v>100</v>
+      </c>
+      <c r="M299">
+        <v>210</v>
+      </c>
+      <c r="N299">
+        <v>213.5</v>
+      </c>
+      <c r="O299">
+        <v>202</v>
+      </c>
+      <c r="P299" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>22</v>
+      </c>
+      <c r="R299" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A300" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B300" t="s">
+        <v>50</v>
+      </c>
+      <c r="C300">
+        <v>101</v>
+      </c>
+      <c r="D300" t="s">
+        <v>42</v>
+      </c>
+      <c r="E300">
+        <v>124</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>-4.5</v>
+      </c>
+      <c r="H300" t="s">
+        <v>27</v>
+      </c>
+      <c r="I300" t="s">
+        <v>50</v>
+      </c>
+      <c r="J300">
+        <v>109</v>
+      </c>
+      <c r="K300" t="s">
+        <v>42</v>
+      </c>
+      <c r="L300">
+        <v>109</v>
+      </c>
+      <c r="M300">
+        <v>218</v>
+      </c>
+      <c r="N300">
+        <v>222</v>
+      </c>
+      <c r="O300">
+        <v>225</v>
+      </c>
+      <c r="P300" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>31</v>
+      </c>
+      <c r="R300" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A301" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B301" t="s">
+        <v>28</v>
+      </c>
+      <c r="C301">
+        <v>132</v>
+      </c>
+      <c r="D301" t="s">
+        <v>24</v>
+      </c>
+      <c r="E301">
+        <v>126</v>
+      </c>
+      <c r="F301">
+        <v>-7</v>
+      </c>
+      <c r="G301">
+        <v>-10</v>
+      </c>
+      <c r="H301" t="s">
+        <v>20</v>
+      </c>
+      <c r="I301" t="s">
+        <v>28</v>
+      </c>
+      <c r="J301">
+        <v>107</v>
+      </c>
+      <c r="K301" t="s">
+        <v>24</v>
+      </c>
+      <c r="L301">
+        <v>114</v>
+      </c>
+      <c r="M301">
+        <v>221</v>
+      </c>
+      <c r="N301">
+        <v>222</v>
+      </c>
+      <c r="O301">
+        <v>258</v>
+      </c>
+      <c r="P301" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>31</v>
+      </c>
+      <c r="R301" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A302" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B302" t="s">
+        <v>40</v>
+      </c>
+      <c r="C302">
+        <v>103</v>
+      </c>
+      <c r="D302" t="s">
+        <v>25</v>
+      </c>
+      <c r="E302">
+        <v>117</v>
+      </c>
+      <c r="F302">
+        <v>3</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="H302" t="s">
+        <v>80</v>
+      </c>
+      <c r="I302" t="s">
+        <v>40</v>
+      </c>
+      <c r="J302">
+        <v>108</v>
+      </c>
+      <c r="K302" t="s">
+        <v>25</v>
+      </c>
+      <c r="L302">
+        <v>105</v>
+      </c>
+      <c r="M302">
+        <v>213</v>
+      </c>
+      <c r="N302">
+        <v>222.5</v>
+      </c>
+      <c r="O302">
+        <v>220</v>
+      </c>
+      <c r="P302" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>22</v>
+      </c>
+      <c r="R302" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A303" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B303" t="s">
+        <v>18</v>
+      </c>
+      <c r="C303">
+        <v>91</v>
+      </c>
+      <c r="D303" t="s">
+        <v>37</v>
+      </c>
+      <c r="E303">
+        <v>126</v>
+      </c>
+      <c r="F303">
+        <v>-6</v>
+      </c>
+      <c r="G303">
+        <v>4</v>
+      </c>
+      <c r="H303" t="s">
+        <v>20</v>
+      </c>
+      <c r="I303" t="s">
+        <v>18</v>
+      </c>
+      <c r="J303">
+        <v>106</v>
+      </c>
+      <c r="K303" t="s">
+        <v>37</v>
+      </c>
+      <c r="L303">
+        <v>112</v>
+      </c>
+      <c r="M303">
+        <v>218</v>
+      </c>
+      <c r="N303">
+        <v>209.5</v>
+      </c>
+      <c r="O303">
+        <v>217</v>
+      </c>
+      <c r="P303" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>31</v>
+      </c>
+      <c r="R303" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A304" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B304" t="s">
+        <v>49</v>
+      </c>
+      <c r="C304">
+        <v>96</v>
+      </c>
+      <c r="D304" t="s">
+        <v>56</v>
+      </c>
+      <c r="E304">
+        <v>120</v>
+      </c>
+      <c r="F304">
+        <v>3</v>
+      </c>
+      <c r="G304">
+        <v>-2.5</v>
+      </c>
+      <c r="H304" t="s">
+        <v>27</v>
+      </c>
+      <c r="I304" t="s">
+        <v>49</v>
+      </c>
+      <c r="J304">
+        <v>112</v>
+      </c>
+      <c r="K304" t="s">
+        <v>56</v>
+      </c>
+      <c r="L304">
+        <v>109</v>
+      </c>
+      <c r="M304">
+        <v>221</v>
+      </c>
+      <c r="N304">
+        <v>216.5</v>
+      </c>
+      <c r="O304">
+        <v>216</v>
+      </c>
+      <c r="P304" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>22</v>
+      </c>
+      <c r="R304" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A305" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B305" t="s">
+        <v>38</v>
+      </c>
+      <c r="C305">
+        <v>107</v>
+      </c>
+      <c r="D305" t="s">
+        <v>55</v>
+      </c>
+      <c r="E305">
+        <v>113</v>
+      </c>
+      <c r="F305">
+        <v>-5</v>
+      </c>
+      <c r="G305">
+        <v>-3.5</v>
+      </c>
+      <c r="H305" t="s">
+        <v>80</v>
+      </c>
+      <c r="I305" t="s">
+        <v>38</v>
+      </c>
+      <c r="J305">
+        <v>103</v>
+      </c>
+      <c r="K305" t="s">
+        <v>55</v>
+      </c>
+      <c r="L305">
+        <v>108</v>
+      </c>
+      <c r="M305">
+        <v>211</v>
+      </c>
+      <c r="N305">
+        <v>216</v>
+      </c>
+      <c r="O305">
+        <v>220</v>
+      </c>
+      <c r="P305" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>31</v>
+      </c>
+      <c r="R305" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A306" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B306" t="s">
+        <v>29</v>
+      </c>
+      <c r="C306">
+        <v>95</v>
+      </c>
+      <c r="D306" t="s">
+        <v>43</v>
+      </c>
+      <c r="E306">
+        <v>111</v>
+      </c>
+      <c r="F306">
+        <v>4</v>
+      </c>
+      <c r="G306">
+        <v>2.5</v>
+      </c>
+      <c r="H306" t="s">
+        <v>27</v>
+      </c>
+      <c r="I306" t="s">
+        <v>29</v>
+      </c>
+      <c r="J306">
+        <v>106</v>
+      </c>
+      <c r="K306" t="s">
+        <v>43</v>
+      </c>
+      <c r="L306">
+        <v>102</v>
+      </c>
+      <c r="M306">
+        <v>208</v>
+      </c>
+      <c r="N306">
+        <v>211.5</v>
+      </c>
+      <c r="O306">
+        <v>206</v>
+      </c>
+      <c r="P306" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>22</v>
+      </c>
+      <c r="R306" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19086,7 +19371,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19121,28 +19406,28 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>COUNTIF(Archive!$H2:H300,"WIN")</f>
-        <v>101</v>
+        <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
+        <v>103</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(Archive!$H2:H300,"LOSS")</f>
-        <v>110</v>
+        <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
+        <v>114</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.47899999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(Archive!$R2:R300,"WIN")</f>
-        <v>110</v>
+        <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
+        <v>115</v>
       </c>
       <c r="E2">
-        <f>COUNTIF(Archive!$R2:R300,"LOSS")</f>
-        <v>128</v>
+        <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
+        <v>132</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46200000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -19167,24 +19452,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.54700000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.52600000000000002</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -19209,24 +19494,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.49199999999999999</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.40899999999999997</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C168F2F1-56C9-49DB-9128-194CBD8F07B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA7BAB4-41B0-4C43-8E69-38A61E9F047B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>NONE</t>
-  </si>
-  <si>
-    <t>Brooklyn -5</t>
   </si>
   <si>
     <t>Golden State -5</t>
@@ -1205,7 +1202,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,10 +1260,10 @@
         <v>-5</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -1281,16 +1278,16 @@
         <v>111</v>
       </c>
       <c r="H2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I2">
         <v>216</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1298,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -1333,7 +1330,7 @@
         <v>1.5</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA7BAB4-41B0-4C43-8E69-38A61E9F047B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519ED145-FFCD-4A68-AC8B-7225C897A124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -287,10 +287,13 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Golden State -5</t>
+    <t>LOW</t>
   </si>
   <si>
-    <t>Phoenix -1.5</t>
+    <t>Miami +8</t>
+  </si>
+  <si>
+    <t>Sacramento +2.5</t>
   </si>
 </sst>
 </file>
@@ -1199,28 +1202,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.36328125" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1255,9 +1258,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>-5</v>
+        <v>-9.5</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -1266,22 +1269,22 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -1290,44 +1293,44 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>106</v>
+      </c>
+      <c r="H3">
+        <v>220</v>
+      </c>
+      <c r="I3">
+        <v>223.5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3">
-        <v>112</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3">
-        <v>98</v>
-      </c>
-      <c r="H3">
-        <v>210</v>
-      </c>
-      <c r="I3">
-        <v>211.5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>1.5</v>
+        <v>-8</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -1336,32 +1339,309 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>105</v>
       </c>
       <c r="H4">
+        <v>209</v>
+      </c>
+      <c r="I4">
+        <v>204.5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>104</v>
+      </c>
+      <c r="H5">
+        <v>210</v>
+      </c>
+      <c r="I5">
+        <v>212.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>111</v>
+      </c>
+      <c r="H6">
+        <v>215</v>
+      </c>
+      <c r="I6">
+        <v>214.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>206</v>
+      </c>
+      <c r="I7">
+        <v>211.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-3.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>115</v>
+      </c>
+      <c r="H8">
+        <v>226</v>
+      </c>
+      <c r="I8">
+        <v>224</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>107</v>
+      </c>
+      <c r="H9">
+        <v>212</v>
+      </c>
+      <c r="I9">
+        <v>224.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>110</v>
+      </c>
+      <c r="H10">
+        <v>222</v>
+      </c>
+      <c r="I10">
+        <v>217.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>112</v>
+      </c>
+      <c r="H11">
         <v>218</v>
       </c>
-      <c r="I4">
-        <v>219</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I11">
+        <v>226.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-9.5</v>
+      </c>
+      <c r="B12" t="s">
         <v>80</v>
       </c>
-      <c r="K4" t="s">
+      <c r="C12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>113</v>
+      </c>
+      <c r="H12">
+        <v>214</v>
+      </c>
+      <c r="I12">
+        <v>217.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1370,22 +1650,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R306"/>
+  <dimension ref="A1:R309"/>
   <sheetViews>
     <sheetView topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="A299" sqref="A299:A306"/>
+      <selection activeCell="R310" sqref="R310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44503</v>
       </c>
@@ -1503,7 +1783,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>44503</v>
       </c>
@@ -1565,7 +1845,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44503</v>
       </c>
@@ -1627,7 +1907,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44503</v>
       </c>
@@ -1689,7 +1969,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44503</v>
       </c>
@@ -1751,7 +2031,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44503</v>
       </c>
@@ -1813,7 +2093,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44503</v>
       </c>
@@ -1875,7 +2155,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44503</v>
       </c>
@@ -1937,7 +2217,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44503</v>
       </c>
@@ -1999,7 +2279,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44503</v>
       </c>
@@ -2061,7 +2341,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44503</v>
       </c>
@@ -2123,7 +2403,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44504</v>
       </c>
@@ -2179,7 +2459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44504</v>
       </c>
@@ -2235,7 +2515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44504</v>
       </c>
@@ -2291,7 +2571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44504</v>
       </c>
@@ -2347,7 +2627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44504</v>
       </c>
@@ -2403,7 +2683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44505</v>
       </c>
@@ -2465,7 +2745,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44505</v>
       </c>
@@ -2527,7 +2807,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44505</v>
       </c>
@@ -2589,7 +2869,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44505</v>
       </c>
@@ -2651,7 +2931,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44505</v>
       </c>
@@ -2713,7 +2993,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44505</v>
       </c>
@@ -2775,7 +3055,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44505</v>
       </c>
@@ -2837,7 +3117,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44505</v>
       </c>
@@ -2899,7 +3179,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44505</v>
       </c>
@@ -2961,7 +3241,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>44506</v>
       </c>
@@ -3023,7 +3303,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>44506</v>
       </c>
@@ -3085,7 +3365,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>44506</v>
       </c>
@@ -3147,7 +3427,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>44506</v>
       </c>
@@ -3209,7 +3489,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>44506</v>
       </c>
@@ -3271,7 +3551,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>44506</v>
       </c>
@@ -3333,7 +3613,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>44507</v>
       </c>
@@ -3395,7 +3675,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>44507</v>
       </c>
@@ -3457,7 +3737,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>44507</v>
       </c>
@@ -3519,7 +3799,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>44507</v>
       </c>
@@ -3581,7 +3861,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>44507</v>
       </c>
@@ -3643,7 +3923,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>44507</v>
       </c>
@@ -3705,7 +3985,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>44507</v>
       </c>
@@ -3767,7 +4047,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>44507</v>
       </c>
@@ -3829,7 +4109,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>44508</v>
       </c>
@@ -3891,7 +4171,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>44508</v>
       </c>
@@ -3953,7 +4233,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>44508</v>
       </c>
@@ -4015,7 +4295,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>44508</v>
       </c>
@@ -4077,7 +4357,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>44508</v>
       </c>
@@ -4139,7 +4419,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>44508</v>
       </c>
@@ -4201,7 +4481,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>44508</v>
       </c>
@@ -4263,7 +4543,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>44508</v>
       </c>
@@ -4325,7 +4605,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44509</v>
       </c>
@@ -4387,7 +4667,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44509</v>
       </c>
@@ -4449,7 +4729,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44509</v>
       </c>
@@ -4511,7 +4791,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>44510</v>
       </c>
@@ -4573,7 +4853,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>44510</v>
       </c>
@@ -4635,7 +4915,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>44510</v>
       </c>
@@ -4697,7 +4977,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>44510</v>
       </c>
@@ -4759,7 +5039,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>44510</v>
       </c>
@@ -4821,7 +5101,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>44510</v>
       </c>
@@ -4883,7 +5163,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>44510</v>
       </c>
@@ -4945,7 +5225,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>44510</v>
       </c>
@@ -5007,7 +5287,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>44510</v>
       </c>
@@ -5069,7 +5349,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>44510</v>
       </c>
@@ -5131,7 +5411,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>44510</v>
       </c>
@@ -5193,7 +5473,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>44510</v>
       </c>
@@ -5255,7 +5535,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>44510</v>
       </c>
@@ -5317,7 +5597,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>44511</v>
       </c>
@@ -5379,7 +5659,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>44511</v>
       </c>
@@ -5441,7 +5721,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>44511</v>
       </c>
@@ -5503,7 +5783,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>44512</v>
       </c>
@@ -5565,7 +5845,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>44512</v>
       </c>
@@ -5627,7 +5907,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>44512</v>
       </c>
@@ -5689,7 +5969,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>44512</v>
       </c>
@@ -5751,7 +6031,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>44512</v>
       </c>
@@ -5813,7 +6093,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>44512</v>
       </c>
@@ -5875,7 +6155,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>44512</v>
       </c>
@@ -5937,7 +6217,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>44512</v>
       </c>
@@ -5999,7 +6279,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>44512</v>
       </c>
@@ -6061,7 +6341,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>44512</v>
       </c>
@@ -6123,7 +6403,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>44512</v>
       </c>
@@ -6185,7 +6465,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44513</v>
       </c>
@@ -6247,7 +6527,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44513</v>
       </c>
@@ -6309,7 +6589,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44513</v>
       </c>
@@ -6371,7 +6651,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44513</v>
       </c>
@@ -6433,7 +6713,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44513</v>
       </c>
@@ -6495,7 +6775,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44513</v>
       </c>
@@ -6557,7 +6837,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44513</v>
       </c>
@@ -6619,7 +6899,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44514</v>
       </c>
@@ -6681,7 +6961,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44514</v>
       </c>
@@ -6743,7 +7023,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44514</v>
       </c>
@@ -6805,7 +7085,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44514</v>
       </c>
@@ -6867,7 +7147,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="90" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44514</v>
       </c>
@@ -6929,7 +7209,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44514</v>
       </c>
@@ -6991,7 +7271,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="92" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44514</v>
       </c>
@@ -7053,7 +7333,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="93" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44515</v>
       </c>
@@ -7115,7 +7395,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="94" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44515</v>
       </c>
@@ -7177,7 +7457,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="95" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44515</v>
       </c>
@@ -7239,7 +7519,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="96" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44515</v>
       </c>
@@ -7301,7 +7581,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="97" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44515</v>
       </c>
@@ -7363,7 +7643,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="98" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44515</v>
       </c>
@@ -7425,7 +7705,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44515</v>
       </c>
@@ -7487,7 +7767,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44515</v>
       </c>
@@ -7549,7 +7829,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44515</v>
       </c>
@@ -7611,7 +7891,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44515</v>
       </c>
@@ -7673,7 +7953,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="103" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44515</v>
       </c>
@@ -7735,7 +8015,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>44516</v>
       </c>
@@ -7796,7 +8076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>44516</v>
       </c>
@@ -7857,7 +8137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>44516</v>
       </c>
@@ -7918,7 +8198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>44517</v>
       </c>
@@ -7980,7 +8260,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>44517</v>
       </c>
@@ -8042,7 +8322,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>44517</v>
       </c>
@@ -8104,7 +8384,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>44517</v>
       </c>
@@ -8166,7 +8446,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>44517</v>
       </c>
@@ -8228,7 +8508,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>44517</v>
       </c>
@@ -8290,7 +8570,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>44517</v>
       </c>
@@ -8352,7 +8632,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <v>44517</v>
       </c>
@@ -8414,7 +8694,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>44517</v>
       </c>
@@ -8476,7 +8756,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <v>44517</v>
       </c>
@@ -8538,7 +8818,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <v>44517</v>
       </c>
@@ -8600,7 +8880,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <v>44518</v>
       </c>
@@ -8662,7 +8942,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="11">
         <v>44518</v>
       </c>
@@ -8724,7 +9004,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <v>44518</v>
       </c>
@@ -8786,7 +9066,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <v>44518</v>
       </c>
@@ -8848,7 +9128,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <v>44518</v>
       </c>
@@ -8910,7 +9190,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <v>44518</v>
       </c>
@@ -8972,7 +9252,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <v>44519</v>
       </c>
@@ -9034,7 +9314,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <v>44519</v>
       </c>
@@ -9096,7 +9376,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>44519</v>
       </c>
@@ -9158,7 +9438,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <v>44519</v>
       </c>
@@ -9220,7 +9500,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <v>44519</v>
       </c>
@@ -9282,7 +9562,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>44519</v>
       </c>
@@ -9344,7 +9624,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <v>44519</v>
       </c>
@@ -9406,7 +9686,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <v>44519</v>
       </c>
@@ -9468,7 +9748,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <v>44519</v>
       </c>
@@ -9530,7 +9810,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="11">
         <v>44520</v>
       </c>
@@ -9592,7 +9872,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="11">
         <v>44520</v>
       </c>
@@ -9654,7 +9934,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="11">
         <v>44520</v>
       </c>
@@ -9716,7 +9996,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <v>44520</v>
       </c>
@@ -9778,7 +10058,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <v>44520</v>
       </c>
@@ -9840,7 +10120,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <v>44520</v>
       </c>
@@ -9902,7 +10182,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <v>44520</v>
       </c>
@@ -9964,7 +10244,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <v>44520</v>
       </c>
@@ -10026,7 +10306,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <v>44520</v>
       </c>
@@ -10088,7 +10368,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44521</v>
       </c>
@@ -10150,7 +10430,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44521</v>
       </c>
@@ -10212,7 +10492,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44521</v>
       </c>
@@ -10274,7 +10554,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44521</v>
       </c>
@@ -10336,7 +10616,7 @@
         <v>WIN</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44521</v>
       </c>
@@ -10398,7 +10678,7 @@
         <v>LOSS</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>44522</v>
       </c>
@@ -10454,7 +10734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>44522</v>
       </c>
@@ -10510,7 +10790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>44522</v>
       </c>
@@ -10566,7 +10846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>44522</v>
       </c>
@@ -10622,7 +10902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>44522</v>
       </c>
@@ -10678,7 +10958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>44522</v>
       </c>
@@ -10734,7 +11014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>44522</v>
       </c>
@@ -10790,7 +11070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>44522</v>
       </c>
@@ -10846,7 +11126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>44522</v>
       </c>
@@ -10902,7 +11182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>44522</v>
       </c>
@@ -10958,7 +11238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>44523</v>
       </c>
@@ -11014,7 +11294,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>44523</v>
       </c>
@@ -11070,7 +11350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>44523</v>
       </c>
@@ -11126,7 +11406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>44523</v>
       </c>
@@ -11182,7 +11462,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>44524</v>
       </c>
@@ -11238,7 +11518,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>44524</v>
       </c>
@@ -11294,7 +11574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>44524</v>
       </c>
@@ -11350,7 +11630,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>44524</v>
       </c>
@@ -11406,7 +11686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>44524</v>
       </c>
@@ -11462,7 +11742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>44524</v>
       </c>
@@ -11518,7 +11798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>44524</v>
       </c>
@@ -11574,7 +11854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>44524</v>
       </c>
@@ -11630,7 +11910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>44524</v>
       </c>
@@ -11686,7 +11966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>44524</v>
       </c>
@@ -11742,7 +12022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>44524</v>
       </c>
@@ -11798,7 +12078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>44524</v>
       </c>
@@ -11854,7 +12134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>44524</v>
       </c>
@@ -11910,7 +12190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>44526</v>
       </c>
@@ -11966,7 +12246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>44526</v>
       </c>
@@ -12022,7 +12302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>44526</v>
       </c>
@@ -12078,7 +12358,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>44526</v>
       </c>
@@ -12134,7 +12414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>44526</v>
       </c>
@@ -12190,7 +12470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>44526</v>
       </c>
@@ -12246,7 +12526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>44526</v>
       </c>
@@ -12302,7 +12582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>44526</v>
       </c>
@@ -12358,7 +12638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>44526</v>
       </c>
@@ -12414,7 +12694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>44526</v>
       </c>
@@ -12470,7 +12750,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>44526</v>
       </c>
@@ -12526,7 +12806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>44526</v>
       </c>
@@ -12582,7 +12862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="15">
         <v>44527</v>
       </c>
@@ -12638,7 +12918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="15">
         <v>44527</v>
       </c>
@@ -12694,7 +12974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="15">
         <v>44527</v>
       </c>
@@ -12750,7 +13030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="15">
         <v>44527</v>
       </c>
@@ -12806,7 +13086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="15">
         <v>44527</v>
       </c>
@@ -12862,7 +13142,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="15">
         <v>44527</v>
       </c>
@@ -12918,7 +13198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="15">
         <v>44527</v>
       </c>
@@ -12974,7 +13254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15">
         <v>44527</v>
       </c>
@@ -13030,7 +13310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="194" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="15">
         <v>44528</v>
       </c>
@@ -13086,7 +13366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="15">
         <v>44528</v>
       </c>
@@ -13142,7 +13422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="15">
         <v>44528</v>
       </c>
@@ -13198,7 +13478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="15">
         <v>44528</v>
       </c>
@@ -13254,7 +13534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="15">
         <v>44528</v>
       </c>
@@ -13310,7 +13590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="15">
         <v>44529</v>
       </c>
@@ -13366,7 +13646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="15">
         <v>44529</v>
       </c>
@@ -13422,7 +13702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
         <v>44529</v>
       </c>
@@ -13478,7 +13758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="202" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="15">
         <v>44529</v>
       </c>
@@ -13534,7 +13814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="15">
         <v>44529</v>
       </c>
@@ -13590,7 +13870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="15">
         <v>44529</v>
       </c>
@@ -13646,7 +13926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="15">
         <v>44529</v>
       </c>
@@ -13702,7 +13982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="15">
         <v>44529</v>
       </c>
@@ -13758,7 +14038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="207" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="15">
         <v>44529</v>
       </c>
@@ -13814,7 +14094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>44530</v>
       </c>
@@ -13870,7 +14150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>44530</v>
       </c>
@@ -13926,7 +14206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>44530</v>
       </c>
@@ -13982,7 +14262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>44530</v>
       </c>
@@ -14038,7 +14318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>44530</v>
       </c>
@@ -14094,7 +14374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>44531</v>
       </c>
@@ -14150,7 +14430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>44531</v>
       </c>
@@ -14206,7 +14486,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>44531</v>
       </c>
@@ -14262,7 +14542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>44531</v>
       </c>
@@ -14318,7 +14598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>44531</v>
       </c>
@@ -14374,7 +14654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>44531</v>
       </c>
@@ -14430,7 +14710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>44531</v>
       </c>
@@ -14486,7 +14766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>44531</v>
       </c>
@@ -14542,7 +14822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>44531</v>
       </c>
@@ -14598,7 +14878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>44532</v>
       </c>
@@ -14654,7 +14934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>44532</v>
       </c>
@@ -14710,7 +14990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>44532</v>
       </c>
@@ -14766,7 +15046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>44532</v>
       </c>
@@ -14822,7 +15102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>44532</v>
       </c>
@@ -14878,7 +15158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>44533</v>
       </c>
@@ -14934,7 +15214,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>44533</v>
       </c>
@@ -14990,7 +15270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>44533</v>
       </c>
@@ -15046,7 +15326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>44533</v>
       </c>
@@ -15102,7 +15382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>44533</v>
       </c>
@@ -15158,7 +15438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>44533</v>
       </c>
@@ -15214,7 +15494,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>44533</v>
       </c>
@@ -15270,7 +15550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>44533</v>
       </c>
@@ -15326,7 +15606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>44533</v>
       </c>
@@ -15382,7 +15662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>44534</v>
       </c>
@@ -15438,7 +15718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>44534</v>
       </c>
@@ -15494,7 +15774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>44534</v>
       </c>
@@ -15550,7 +15830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>44534</v>
       </c>
@@ -15606,7 +15886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>44534</v>
       </c>
@@ -15662,7 +15942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>44534</v>
       </c>
@@ -15718,7 +15998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>44534</v>
       </c>
@@ -15774,7 +16054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>44535</v>
       </c>
@@ -15830,7 +16110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>44535</v>
       </c>
@@ -15886,7 +16166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>44535</v>
       </c>
@@ -15942,7 +16222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>44535</v>
       </c>
@@ -15998,7 +16278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>44536</v>
       </c>
@@ -16054,7 +16334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>44536</v>
       </c>
@@ -16110,7 +16390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>44536</v>
       </c>
@@ -16166,7 +16446,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>44536</v>
       </c>
@@ -16222,7 +16502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>44536</v>
       </c>
@@ -16278,7 +16558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>44536</v>
       </c>
@@ -16334,7 +16614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>44536</v>
       </c>
@@ -16390,7 +16670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>44536</v>
       </c>
@@ -16446,7 +16726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>44536</v>
       </c>
@@ -16502,7 +16782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>44536</v>
       </c>
@@ -16558,7 +16838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>44537</v>
       </c>
@@ -16614,7 +16894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>44537</v>
       </c>
@@ -16670,7 +16950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>44537</v>
       </c>
@@ -16726,7 +17006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>44538</v>
       </c>
@@ -16782,7 +17062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>44538</v>
       </c>
@@ -16838,7 +17118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>44538</v>
       </c>
@@ -16894,7 +17174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>44538</v>
       </c>
@@ -16950,7 +17230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>44538</v>
       </c>
@@ -17006,7 +17286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>44538</v>
       </c>
@@ -17062,7 +17342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>44538</v>
       </c>
@@ -17118,7 +17398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>44538</v>
       </c>
@@ -17174,7 +17454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>44538</v>
       </c>
@@ -17230,7 +17510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>44538</v>
       </c>
@@ -17286,7 +17566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>44538</v>
       </c>
@@ -17342,7 +17622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>44538</v>
       </c>
@@ -17398,7 +17678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>44538</v>
       </c>
@@ -17454,7 +17734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>44539</v>
       </c>
@@ -17510,7 +17790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>44539</v>
       </c>
@@ -17566,7 +17846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>44539</v>
       </c>
@@ -17622,7 +17902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>44540</v>
       </c>
@@ -17678,7 +17958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>44540</v>
       </c>
@@ -17734,7 +18014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>44540</v>
       </c>
@@ -17790,7 +18070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>44540</v>
       </c>
@@ -17846,7 +18126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>44540</v>
       </c>
@@ -17902,7 +18182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>44540</v>
       </c>
@@ -17958,7 +18238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>44540</v>
       </c>
@@ -18014,7 +18294,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>44540</v>
       </c>
@@ -18070,7 +18350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>44540</v>
       </c>
@@ -18126,7 +18406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>44541</v>
       </c>
@@ -18182,7 +18462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>44541</v>
       </c>
@@ -18238,7 +18518,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>44541</v>
       </c>
@@ -18294,7 +18574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>44541</v>
       </c>
@@ -18350,7 +18630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>44541</v>
       </c>
@@ -18406,7 +18686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>44541</v>
       </c>
@@ -18462,7 +18742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>44541</v>
       </c>
@@ -18518,7 +18798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>44542</v>
       </c>
@@ -18574,7 +18854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>44542</v>
       </c>
@@ -18630,7 +18910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>44542</v>
       </c>
@@ -18686,7 +18966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>44542</v>
       </c>
@@ -18742,7 +19022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>44542</v>
       </c>
@@ -18798,7 +19078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>44542</v>
       </c>
@@ -18854,7 +19134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>44543</v>
       </c>
@@ -18910,7 +19190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>44543</v>
       </c>
@@ -18966,7 +19246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>44543</v>
       </c>
@@ -19022,7 +19302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>44543</v>
       </c>
@@ -19078,7 +19358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>44543</v>
       </c>
@@ -19134,7 +19414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>44543</v>
       </c>
@@ -19190,7 +19470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>44543</v>
       </c>
@@ -19246,7 +19526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>44543</v>
       </c>
@@ -19302,7 +19582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>44543</v>
       </c>
@@ -19356,6 +19636,174 @@
       </c>
       <c r="R306" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A307" s="4">
+        <v>44544</v>
+      </c>
+      <c r="B307" t="s">
+        <v>42</v>
+      </c>
+      <c r="C307">
+        <v>129</v>
+      </c>
+      <c r="D307" t="s">
+        <v>34</v>
+      </c>
+      <c r="E307">
+        <v>131</v>
+      </c>
+      <c r="F307">
+        <v>-2</v>
+      </c>
+      <c r="G307">
+        <v>-4</v>
+      </c>
+      <c r="H307" t="s">
+        <v>80</v>
+      </c>
+      <c r="I307" t="s">
+        <v>42</v>
+      </c>
+      <c r="J307">
+        <v>101</v>
+      </c>
+      <c r="K307" t="s">
+        <v>34</v>
+      </c>
+      <c r="L307">
+        <v>103</v>
+      </c>
+      <c r="M307">
+        <v>204</v>
+      </c>
+      <c r="N307">
+        <v>216</v>
+      </c>
+      <c r="O307">
+        <v>260</v>
+      </c>
+      <c r="P307" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q307" t="s">
+        <v>31</v>
+      </c>
+      <c r="R307" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A308" s="4">
+        <v>44544</v>
+      </c>
+      <c r="B308" t="s">
+        <v>46</v>
+      </c>
+      <c r="C308">
+        <v>105</v>
+      </c>
+      <c r="D308" t="s">
+        <v>39</v>
+      </c>
+      <c r="E308">
+        <v>96</v>
+      </c>
+      <c r="F308">
+        <v>14</v>
+      </c>
+      <c r="G308">
+        <v>5</v>
+      </c>
+      <c r="H308" t="s">
+        <v>20</v>
+      </c>
+      <c r="I308" t="s">
+        <v>46</v>
+      </c>
+      <c r="J308">
+        <v>112</v>
+      </c>
+      <c r="K308" t="s">
+        <v>39</v>
+      </c>
+      <c r="L308">
+        <v>98</v>
+      </c>
+      <c r="M308">
+        <v>210</v>
+      </c>
+      <c r="N308">
+        <v>211.5</v>
+      </c>
+      <c r="O308">
+        <v>201</v>
+      </c>
+      <c r="P308" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q308" t="s">
+        <v>22</v>
+      </c>
+      <c r="R308" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
+        <v>44544</v>
+      </c>
+      <c r="B309" t="s">
+        <v>29</v>
+      </c>
+      <c r="C309">
+        <v>111</v>
+      </c>
+      <c r="D309" t="s">
+        <v>48</v>
+      </c>
+      <c r="E309">
+        <v>107</v>
+      </c>
+      <c r="F309">
+        <v>8</v>
+      </c>
+      <c r="G309">
+        <v>1.5</v>
+      </c>
+      <c r="H309" t="s">
+        <v>20</v>
+      </c>
+      <c r="I309" t="s">
+        <v>29</v>
+      </c>
+      <c r="J309">
+        <v>113</v>
+      </c>
+      <c r="K309" t="s">
+        <v>48</v>
+      </c>
+      <c r="L309">
+        <v>105</v>
+      </c>
+      <c r="M309">
+        <v>218</v>
+      </c>
+      <c r="N309">
+        <v>219</v>
+      </c>
+      <c r="O309">
+        <v>218</v>
+      </c>
+      <c r="P309" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>22</v>
+      </c>
+      <c r="R309" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -19371,17 +19819,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -19401,10 +19849,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
@@ -19412,7 +19860,7 @@
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.47499999999999998</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
@@ -19420,14 +19868,14 @@
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46600000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -19447,29 +19895,29 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.54500000000000004</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D5">
         <v>43</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.52400000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -19489,7 +19937,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -19511,7 +19959,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>82</v>
       </c>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519ED145-FFCD-4A68-AC8B-7225C897A124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB3ABB1-91E6-41E5-85D5-981C6EB5DCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -287,13 +287,13 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>LOW</t>
+    <t>Brooklyn +1</t>
   </si>
   <si>
-    <t>Miami +8</t>
+    <t>Houston +5</t>
   </si>
   <si>
-    <t>Sacramento +2.5</t>
+    <t>Phoenix -9</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>-9.5</v>
+        <v>-10.5</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -1269,68 +1269,68 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H3">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="I3">
-        <v>223.5</v>
+        <v>216.5</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -1339,308 +1339,63 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H4">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I4">
-        <v>204.5</v>
+        <v>215</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>2.5</v>
+        <v>-9</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H5">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I5">
-        <v>212.5</v>
+        <v>213</v>
       </c>
       <c r="J5" t="s">
         <v>80</v>
       </c>
       <c r="K5" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6">
-        <v>104</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6">
-        <v>111</v>
-      </c>
-      <c r="H6">
-        <v>215</v>
-      </c>
-      <c r="I6">
-        <v>214.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4.5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>103</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7">
-        <v>103</v>
-      </c>
-      <c r="H7">
-        <v>206</v>
-      </c>
-      <c r="I7">
-        <v>211.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-3.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8">
-        <v>111</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8">
-        <v>115</v>
-      </c>
-      <c r="H8">
-        <v>226</v>
-      </c>
-      <c r="I8">
-        <v>224</v>
-      </c>
-      <c r="J8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9">
-        <v>105</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9">
-        <v>107</v>
-      </c>
-      <c r="H9">
-        <v>212</v>
-      </c>
-      <c r="I9">
-        <v>224.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>112</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10">
-        <v>110</v>
-      </c>
-      <c r="H10">
-        <v>222</v>
-      </c>
-      <c r="I10">
-        <v>217.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2.5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11">
-        <v>106</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <v>112</v>
-      </c>
-      <c r="H11">
-        <v>218</v>
-      </c>
-      <c r="I11">
-        <v>226.5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>-9.5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12">
-        <v>101</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12">
-        <v>113</v>
-      </c>
-      <c r="H12">
-        <v>214</v>
-      </c>
-      <c r="I12">
-        <v>217.5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1650,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R309"/>
+  <dimension ref="A1:R320"/>
   <sheetViews>
-    <sheetView topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="R310" sqref="R310"/>
+    <sheetView topLeftCell="C302" workbookViewId="0">
+      <selection activeCell="R310" sqref="R310:R320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19806,6 +19561,622 @@
         <v>53</v>
       </c>
     </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>44545</v>
+      </c>
+      <c r="B310" t="s">
+        <v>28</v>
+      </c>
+      <c r="C310">
+        <v>89</v>
+      </c>
+      <c r="D310" t="s">
+        <v>41</v>
+      </c>
+      <c r="E310">
+        <v>124</v>
+      </c>
+      <c r="F310">
+        <v>-9</v>
+      </c>
+      <c r="G310">
+        <v>-9.5</v>
+      </c>
+      <c r="H310" t="s">
+        <v>80</v>
+      </c>
+      <c r="I310" t="s">
+        <v>28</v>
+      </c>
+      <c r="J310">
+        <v>100</v>
+      </c>
+      <c r="K310" t="s">
+        <v>41</v>
+      </c>
+      <c r="L310">
+        <v>109</v>
+      </c>
+      <c r="M310">
+        <v>209</v>
+      </c>
+      <c r="N310">
+        <v>217</v>
+      </c>
+      <c r="O310">
+        <v>213</v>
+      </c>
+      <c r="P310" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>22</v>
+      </c>
+      <c r="R310" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>44545</v>
+      </c>
+      <c r="B311" t="s">
+        <v>24</v>
+      </c>
+      <c r="C311">
+        <v>111</v>
+      </c>
+      <c r="D311" t="s">
+        <v>36</v>
+      </c>
+      <c r="E311">
+        <v>99</v>
+      </c>
+      <c r="F311">
+        <v>8</v>
+      </c>
+      <c r="G311">
+        <v>7.5</v>
+      </c>
+      <c r="H311" t="s">
+        <v>80</v>
+      </c>
+      <c r="I311" t="s">
+        <v>24</v>
+      </c>
+      <c r="J311">
+        <v>114</v>
+      </c>
+      <c r="K311" t="s">
+        <v>36</v>
+      </c>
+      <c r="L311">
+        <v>106</v>
+      </c>
+      <c r="M311">
+        <v>220</v>
+      </c>
+      <c r="N311">
+        <v>223.5</v>
+      </c>
+      <c r="O311">
+        <v>210</v>
+      </c>
+      <c r="P311" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>22</v>
+      </c>
+      <c r="R311" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>44545</v>
+      </c>
+      <c r="B312" t="s">
+        <v>26</v>
+      </c>
+      <c r="C312">
+        <v>101</v>
+      </c>
+      <c r="D312" t="s">
+        <v>18</v>
+      </c>
+      <c r="E312">
+        <v>96</v>
+      </c>
+      <c r="F312">
+        <v>-1</v>
+      </c>
+      <c r="G312">
+        <v>-8</v>
+      </c>
+      <c r="H312" t="s">
+        <v>20</v>
+      </c>
+      <c r="I312" t="s">
+        <v>26</v>
+      </c>
+      <c r="J312">
+        <v>104</v>
+      </c>
+      <c r="K312" t="s">
+        <v>18</v>
+      </c>
+      <c r="L312">
+        <v>105</v>
+      </c>
+      <c r="M312">
+        <v>209</v>
+      </c>
+      <c r="N312">
+        <v>204.5</v>
+      </c>
+      <c r="O312">
+        <v>197</v>
+      </c>
+      <c r="P312" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>22</v>
+      </c>
+      <c r="R312" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>44545</v>
+      </c>
+      <c r="B313" t="s">
+        <v>33</v>
+      </c>
+      <c r="C313">
+        <v>107</v>
+      </c>
+      <c r="D313" t="s">
+        <v>56</v>
+      </c>
+      <c r="E313">
+        <v>104</v>
+      </c>
+      <c r="F313">
+        <v>2</v>
+      </c>
+      <c r="G313">
+        <v>2.5</v>
+      </c>
+      <c r="H313" t="s">
+        <v>80</v>
+      </c>
+      <c r="I313" t="s">
+        <v>33</v>
+      </c>
+      <c r="J313">
+        <v>106</v>
+      </c>
+      <c r="K313" t="s">
+        <v>56</v>
+      </c>
+      <c r="L313">
+        <v>104</v>
+      </c>
+      <c r="M313">
+        <v>210</v>
+      </c>
+      <c r="N313">
+        <v>212.5</v>
+      </c>
+      <c r="O313">
+        <v>211</v>
+      </c>
+      <c r="P313" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q313" t="s">
+        <v>22</v>
+      </c>
+      <c r="R313" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>44545</v>
+      </c>
+      <c r="B314" t="s">
+        <v>47</v>
+      </c>
+      <c r="C314">
+        <v>99</v>
+      </c>
+      <c r="D314" t="s">
+        <v>40</v>
+      </c>
+      <c r="E314">
+        <v>114</v>
+      </c>
+      <c r="F314">
+        <v>-7</v>
+      </c>
+      <c r="G314">
+        <v>3</v>
+      </c>
+      <c r="H314" t="s">
+        <v>80</v>
+      </c>
+      <c r="I314" t="s">
+        <v>47</v>
+      </c>
+      <c r="J314">
+        <v>104</v>
+      </c>
+      <c r="K314" t="s">
+        <v>40</v>
+      </c>
+      <c r="L314">
+        <v>111</v>
+      </c>
+      <c r="M314">
+        <v>215</v>
+      </c>
+      <c r="N314">
+        <v>214.5</v>
+      </c>
+      <c r="O314">
+        <v>213</v>
+      </c>
+      <c r="P314" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>22</v>
+      </c>
+      <c r="R314" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>44545</v>
+      </c>
+      <c r="B315" t="s">
+        <v>45</v>
+      </c>
+      <c r="C315">
+        <v>113</v>
+      </c>
+      <c r="D315" t="s">
+        <v>32</v>
+      </c>
+      <c r="E315">
+        <v>110</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>4.5</v>
+      </c>
+      <c r="H315" t="s">
+        <v>80</v>
+      </c>
+      <c r="I315" t="s">
+        <v>45</v>
+      </c>
+      <c r="J315">
+        <v>103</v>
+      </c>
+      <c r="K315" t="s">
+        <v>32</v>
+      </c>
+      <c r="L315">
+        <v>103</v>
+      </c>
+      <c r="M315">
+        <v>206</v>
+      </c>
+      <c r="N315">
+        <v>211.5</v>
+      </c>
+      <c r="O315">
+        <v>223</v>
+      </c>
+      <c r="P315" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q315" t="s">
+        <v>31</v>
+      </c>
+      <c r="R315" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>44545</v>
+      </c>
+      <c r="B316" t="s">
+        <v>49</v>
+      </c>
+      <c r="C316">
+        <v>131</v>
+      </c>
+      <c r="D316" t="s">
+        <v>35</v>
+      </c>
+      <c r="E316">
+        <v>115</v>
+      </c>
+      <c r="F316">
+        <v>-4</v>
+      </c>
+      <c r="G316">
+        <v>-3.5</v>
+      </c>
+      <c r="H316" t="s">
+        <v>80</v>
+      </c>
+      <c r="I316" t="s">
+        <v>49</v>
+      </c>
+      <c r="J316">
+        <v>111</v>
+      </c>
+      <c r="K316" t="s">
+        <v>35</v>
+      </c>
+      <c r="L316">
+        <v>115</v>
+      </c>
+      <c r="M316">
+        <v>226</v>
+      </c>
+      <c r="N316">
+        <v>224</v>
+      </c>
+      <c r="O316">
+        <v>246</v>
+      </c>
+      <c r="P316" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q316" t="s">
+        <v>31</v>
+      </c>
+      <c r="R316" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>44545</v>
+      </c>
+      <c r="B317" t="s">
+        <v>44</v>
+      </c>
+      <c r="C317">
+        <v>124</v>
+      </c>
+      <c r="D317" t="s">
+        <v>55</v>
+      </c>
+      <c r="E317">
+        <v>107</v>
+      </c>
+      <c r="F317">
+        <v>-2</v>
+      </c>
+      <c r="G317">
+        <v>-4</v>
+      </c>
+      <c r="H317" t="s">
+        <v>80</v>
+      </c>
+      <c r="I317" t="s">
+        <v>44</v>
+      </c>
+      <c r="J317">
+        <v>105</v>
+      </c>
+      <c r="K317" t="s">
+        <v>55</v>
+      </c>
+      <c r="L317">
+        <v>107</v>
+      </c>
+      <c r="M317">
+        <v>212</v>
+      </c>
+      <c r="N317">
+        <v>224.5</v>
+      </c>
+      <c r="O317">
+        <v>231</v>
+      </c>
+      <c r="P317" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q317" t="s">
+        <v>31</v>
+      </c>
+      <c r="R317" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>44545</v>
+      </c>
+      <c r="B318" t="s">
+        <v>37</v>
+      </c>
+      <c r="C318">
+        <v>113</v>
+      </c>
+      <c r="D318" t="s">
+        <v>48</v>
+      </c>
+      <c r="E318">
+        <v>103</v>
+      </c>
+      <c r="F318">
+        <v>2</v>
+      </c>
+      <c r="G318">
+        <v>2.5</v>
+      </c>
+      <c r="H318" t="s">
+        <v>80</v>
+      </c>
+      <c r="I318" t="s">
+        <v>37</v>
+      </c>
+      <c r="J318">
+        <v>112</v>
+      </c>
+      <c r="K318" t="s">
+        <v>48</v>
+      </c>
+      <c r="L318">
+        <v>110</v>
+      </c>
+      <c r="M318">
+        <v>222</v>
+      </c>
+      <c r="N318">
+        <v>217.5</v>
+      </c>
+      <c r="O318">
+        <v>216</v>
+      </c>
+      <c r="P318" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>22</v>
+      </c>
+      <c r="R318" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>44545</v>
+      </c>
+      <c r="B319" t="s">
+        <v>38</v>
+      </c>
+      <c r="C319">
+        <v>105</v>
+      </c>
+      <c r="D319" t="s">
+        <v>50</v>
+      </c>
+      <c r="E319">
+        <v>119</v>
+      </c>
+      <c r="F319">
+        <v>-6</v>
+      </c>
+      <c r="G319">
+        <v>2.5</v>
+      </c>
+      <c r="H319" t="s">
+        <v>20</v>
+      </c>
+      <c r="I319" t="s">
+        <v>38</v>
+      </c>
+      <c r="J319">
+        <v>106</v>
+      </c>
+      <c r="K319" t="s">
+        <v>50</v>
+      </c>
+      <c r="L319">
+        <v>112</v>
+      </c>
+      <c r="M319">
+        <v>218</v>
+      </c>
+      <c r="N319">
+        <v>226.5</v>
+      </c>
+      <c r="O319">
+        <v>224</v>
+      </c>
+      <c r="P319" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>22</v>
+      </c>
+      <c r="R319" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>44545</v>
+      </c>
+      <c r="B320" t="s">
+        <v>43</v>
+      </c>
+      <c r="C320">
+        <v>103</v>
+      </c>
+      <c r="D320" t="s">
+        <v>23</v>
+      </c>
+      <c r="E320">
+        <v>124</v>
+      </c>
+      <c r="F320">
+        <v>-12</v>
+      </c>
+      <c r="G320">
+        <v>-9.5</v>
+      </c>
+      <c r="H320" t="s">
+        <v>80</v>
+      </c>
+      <c r="I320" t="s">
+        <v>43</v>
+      </c>
+      <c r="J320">
+        <v>101</v>
+      </c>
+      <c r="K320" t="s">
+        <v>23</v>
+      </c>
+      <c r="L320">
+        <v>113</v>
+      </c>
+      <c r="M320">
+        <v>214</v>
+      </c>
+      <c r="N320">
+        <v>217.5</v>
+      </c>
+      <c r="O320">
+        <v>227</v>
+      </c>
+      <c r="P320" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>31</v>
+      </c>
+      <c r="R320" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19816,7 +20187,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19852,7 +20223,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
@@ -19860,19 +20231,19 @@
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.47899999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46400000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -19897,24 +20268,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.55900000000000005</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
         <v>43</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.51800000000000002</v>
+        <v>0.51100000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -19949,14 +20320,14 @@
         <v>0.46899999999999997</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.42899999999999999</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB3ABB1-91E6-41E5-85D5-981C6EB5DCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490133F6-D152-4379-B37D-5C28B120CFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -287,13 +287,16 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Brooklyn +1</t>
+    <t>Golden State -3.5</t>
   </si>
   <si>
-    <t>Houston +5</t>
+    <t>Atlanta -4</t>
   </si>
   <si>
-    <t>Phoenix -9</t>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>Sacramento +7</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1263,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>-10.5</v>
+        <v>7.5</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -1269,133 +1272,273 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I2">
-        <v>210</v>
+        <v>204.5</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H3">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="I3">
-        <v>216.5</v>
+        <v>222.5</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H4">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I4">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>-9</v>
+        <v>1.5</v>
       </c>
       <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>107</v>
+      </c>
+      <c r="H5">
+        <v>213</v>
+      </c>
+      <c r="I5">
+        <v>222</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-11.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>118</v>
+      </c>
+      <c r="H6">
+        <v>222</v>
+      </c>
+      <c r="I6">
+        <v>224.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>103</v>
+      </c>
+      <c r="H7">
+        <v>210</v>
+      </c>
+      <c r="I7">
+        <v>218.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-2.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>115</v>
+      </c>
+      <c r="H8">
+        <v>231</v>
+      </c>
+      <c r="I8">
+        <v>230</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>112</v>
+      </c>
+      <c r="H9">
+        <v>224</v>
+      </c>
+      <c r="I9">
+        <v>220.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>98</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>113</v>
-      </c>
-      <c r="H5">
-        <v>211</v>
-      </c>
-      <c r="I5">
-        <v>213</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1405,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R320"/>
+  <dimension ref="A1:R324"/>
   <sheetViews>
-    <sheetView topLeftCell="C302" workbookViewId="0">
-      <selection activeCell="R310" sqref="R310:R320"/>
+    <sheetView topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="R325" sqref="R325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19562,7 +19705,7 @@
       </c>
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="4">
         <v>44545</v>
       </c>
       <c r="B310" t="s">
@@ -19618,7 +19761,7 @@
       </c>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="A311" s="4">
         <v>44545</v>
       </c>
       <c r="B311" t="s">
@@ -19674,7 +19817,7 @@
       </c>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="4">
         <v>44545</v>
       </c>
       <c r="B312" t="s">
@@ -19730,7 +19873,7 @@
       </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="A313" s="4">
         <v>44545</v>
       </c>
       <c r="B313" t="s">
@@ -19786,7 +19929,7 @@
       </c>
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="A314" s="4">
         <v>44545</v>
       </c>
       <c r="B314" t="s">
@@ -19842,7 +19985,7 @@
       </c>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="4">
         <v>44545</v>
       </c>
       <c r="B315" t="s">
@@ -19898,7 +20041,7 @@
       </c>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="4">
         <v>44545</v>
       </c>
       <c r="B316" t="s">
@@ -19954,7 +20097,7 @@
       </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="A317" s="4">
         <v>44545</v>
       </c>
       <c r="B317" t="s">
@@ -20010,7 +20153,7 @@
       </c>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="4">
         <v>44545</v>
       </c>
       <c r="B318" t="s">
@@ -20066,7 +20209,7 @@
       </c>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="4">
         <v>44545</v>
       </c>
       <c r="B319" t="s">
@@ -20122,7 +20265,7 @@
       </c>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="A320" s="4">
         <v>44545</v>
       </c>
       <c r="B320" t="s">
@@ -20175,6 +20318,230 @@
       </c>
       <c r="R320" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>44546</v>
+      </c>
+      <c r="B321" t="s">
+        <v>19</v>
+      </c>
+      <c r="C321">
+        <v>113</v>
+      </c>
+      <c r="D321" t="s">
+        <v>47</v>
+      </c>
+      <c r="E321">
+        <v>122</v>
+      </c>
+      <c r="F321">
+        <v>-13</v>
+      </c>
+      <c r="G321">
+        <v>-10.5</v>
+      </c>
+      <c r="H321" t="s">
+        <v>80</v>
+      </c>
+      <c r="I321" t="s">
+        <v>19</v>
+      </c>
+      <c r="J321">
+        <v>97</v>
+      </c>
+      <c r="K321" t="s">
+        <v>47</v>
+      </c>
+      <c r="L321">
+        <v>110</v>
+      </c>
+      <c r="M321">
+        <v>207</v>
+      </c>
+      <c r="N321">
+        <v>210</v>
+      </c>
+      <c r="O321">
+        <v>235</v>
+      </c>
+      <c r="P321" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>31</v>
+      </c>
+      <c r="R321" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>44546</v>
+      </c>
+      <c r="B322" t="s">
+        <v>18</v>
+      </c>
+      <c r="C322">
+        <v>105</v>
+      </c>
+      <c r="D322" t="s">
+        <v>34</v>
+      </c>
+      <c r="E322">
+        <v>114</v>
+      </c>
+      <c r="F322">
+        <v>-8</v>
+      </c>
+      <c r="G322">
+        <v>1</v>
+      </c>
+      <c r="H322" t="s">
+        <v>20</v>
+      </c>
+      <c r="I322" t="s">
+        <v>18</v>
+      </c>
+      <c r="J322">
+        <v>101</v>
+      </c>
+      <c r="K322" t="s">
+        <v>34</v>
+      </c>
+      <c r="L322">
+        <v>109</v>
+      </c>
+      <c r="M322">
+        <v>210</v>
+      </c>
+      <c r="N322">
+        <v>216.5</v>
+      </c>
+      <c r="O322">
+        <v>219</v>
+      </c>
+      <c r="P322" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>31</v>
+      </c>
+      <c r="R322" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>44546</v>
+      </c>
+      <c r="B323" t="s">
+        <v>39</v>
+      </c>
+      <c r="C323">
+        <v>116</v>
+      </c>
+      <c r="D323" t="s">
+        <v>28</v>
+      </c>
+      <c r="E323">
+        <v>103</v>
+      </c>
+      <c r="F323">
+        <v>-3</v>
+      </c>
+      <c r="G323">
+        <v>5</v>
+      </c>
+      <c r="H323" t="s">
+        <v>27</v>
+      </c>
+      <c r="I323" t="s">
+        <v>39</v>
+      </c>
+      <c r="J323">
+        <v>106</v>
+      </c>
+      <c r="K323" t="s">
+        <v>28</v>
+      </c>
+      <c r="L323">
+        <v>109</v>
+      </c>
+      <c r="M323">
+        <v>215</v>
+      </c>
+      <c r="N323">
+        <v>215</v>
+      </c>
+      <c r="O323">
+        <v>219</v>
+      </c>
+      <c r="P323" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>31</v>
+      </c>
+      <c r="R323" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>44546</v>
+      </c>
+      <c r="B324" t="s">
+        <v>38</v>
+      </c>
+      <c r="C324">
+        <v>98</v>
+      </c>
+      <c r="D324" t="s">
+        <v>29</v>
+      </c>
+      <c r="E324">
+        <v>118</v>
+      </c>
+      <c r="F324">
+        <v>-15</v>
+      </c>
+      <c r="G324">
+        <v>-9</v>
+      </c>
+      <c r="H324" t="s">
+        <v>20</v>
+      </c>
+      <c r="I324" t="s">
+        <v>38</v>
+      </c>
+      <c r="J324">
+        <v>98</v>
+      </c>
+      <c r="K324" t="s">
+        <v>29</v>
+      </c>
+      <c r="L324">
+        <v>113</v>
+      </c>
+      <c r="M324">
+        <v>211</v>
+      </c>
+      <c r="N324">
+        <v>213</v>
+      </c>
+      <c r="O324">
+        <v>216</v>
+      </c>
+      <c r="P324" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>31</v>
+      </c>
+      <c r="R324" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -20186,8 +20553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20223,15 +20590,15 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.48399999999999999</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
@@ -20239,11 +20606,11 @@
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46100000000000002</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -20268,24 +20635,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.57099999999999995</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D5">
         <v>45</v>
       </c>
       <c r="E5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.51100000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490133F6-D152-4379-B37D-5C28B120CFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14335006-16EF-4316-9128-38E1DD07E892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -287,16 +287,19 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Golden State -3.5</t>
-  </si>
-  <si>
-    <t>Atlanta -4</t>
-  </si>
-  <si>
     <t>LOW</t>
   </si>
   <si>
-    <t>Sacramento +7</t>
+    <t>Atlanta +4</t>
+  </si>
+  <si>
+    <t>Minnesota +5.5</t>
+  </si>
+  <si>
+    <t>San Antonio +7</t>
+  </si>
+  <si>
+    <t>Los Angeles Clippers +4</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1266,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>7.5</v>
+        <v>-8</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -1272,127 +1275,127 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H2">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="I2">
-        <v>204.5</v>
+        <v>234</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H3">
         <v>221</v>
       </c>
       <c r="I3">
-        <v>222.5</v>
+        <v>212</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G4">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H4">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I4">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H5">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="I5">
-        <v>222</v>
+        <v>230.5</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -1403,7 +1406,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-11.5</v>
+        <v>-7.5</v>
       </c>
       <c r="B6" t="s">
         <v>80</v>
@@ -1412,33 +1415,33 @@
         <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H6">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I6">
-        <v>224.5</v>
+        <v>220.5</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
@@ -1447,98 +1450,63 @@
         <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G7">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H7">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I7">
-        <v>218.5</v>
+        <v>212.5</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-2.5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G8">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H8">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="I8">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9">
-        <v>112</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>112</v>
-      </c>
-      <c r="H9">
-        <v>224</v>
-      </c>
-      <c r="I9">
-        <v>220.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1550,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R324"/>
   <sheetViews>
-    <sheetView topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="R325" sqref="R325"/>
+    <sheetView topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="A321" sqref="A321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14335006-16EF-4316-9128-38E1DD07E892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D038F18-637D-4063-8B45-FA9707622D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -290,16 +290,10 @@
     <t>LOW</t>
   </si>
   <si>
-    <t>Atlanta +4</t>
+    <t>Orlando +15</t>
   </si>
   <si>
-    <t>Minnesota +5.5</t>
-  </si>
-  <si>
-    <t>San Antonio +7</t>
-  </si>
-  <si>
-    <t>Los Angeles Clippers +4</t>
+    <t>Toronto +6</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,31 +1260,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>-8</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G2">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="H2">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="I2">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -1301,31 +1295,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>110</v>
       </c>
       <c r="H3">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I3">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -1336,7 +1330,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -1345,169 +1339,32 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H4">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>114</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5">
-        <v>110</v>
-      </c>
-      <c r="H5">
-        <v>224</v>
-      </c>
-      <c r="I5">
-        <v>230.5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-7.5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
-        <v>103</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
-        <v>111</v>
-      </c>
-      <c r="H6">
-        <v>214</v>
-      </c>
-      <c r="I6">
-        <v>220.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7">
-        <v>106</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7">
-        <v>109</v>
-      </c>
-      <c r="H7">
-        <v>215</v>
-      </c>
-      <c r="I7">
-        <v>212.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <v>104</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8">
-        <v>104</v>
-      </c>
-      <c r="H8">
-        <v>208</v>
-      </c>
-      <c r="I8">
-        <v>213</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
+      <c r="A5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1516,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R324"/>
+  <dimension ref="A1:R331"/>
   <sheetViews>
-    <sheetView topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="A321" sqref="A321"/>
+    <sheetView topLeftCell="C314" workbookViewId="0">
+      <selection activeCell="A325" sqref="A325:XFD325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1385,7 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -20510,6 +20367,398 @@
       </c>
       <c r="R324" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A325" s="4">
+        <v>44557</v>
+      </c>
+      <c r="B325" t="s">
+        <v>28</v>
+      </c>
+      <c r="C325">
+        <v>99</v>
+      </c>
+      <c r="D325" t="s">
+        <v>49</v>
+      </c>
+      <c r="E325">
+        <v>123</v>
+      </c>
+      <c r="F325">
+        <v>-9</v>
+      </c>
+      <c r="G325">
+        <v>-8</v>
+      </c>
+      <c r="H325" t="s">
+        <v>80</v>
+      </c>
+      <c r="I325" t="s">
+        <v>28</v>
+      </c>
+      <c r="J325">
+        <v>110</v>
+      </c>
+      <c r="K325" t="s">
+        <v>49</v>
+      </c>
+      <c r="L325">
+        <v>119</v>
+      </c>
+      <c r="M325">
+        <v>229</v>
+      </c>
+      <c r="N325">
+        <v>234</v>
+      </c>
+      <c r="O325">
+        <v>222</v>
+      </c>
+      <c r="P325" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>22</v>
+      </c>
+      <c r="R325" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A326" s="4">
+        <v>44557</v>
+      </c>
+      <c r="B326" t="s">
+        <v>54</v>
+      </c>
+      <c r="C326">
+        <v>130</v>
+      </c>
+      <c r="D326" t="s">
+        <v>24</v>
+      </c>
+      <c r="E326">
+        <v>118</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>4</v>
+      </c>
+      <c r="H326" t="s">
+        <v>27</v>
+      </c>
+      <c r="I326" t="s">
+        <v>54</v>
+      </c>
+      <c r="J326">
+        <v>111</v>
+      </c>
+      <c r="K326" t="s">
+        <v>24</v>
+      </c>
+      <c r="L326">
+        <v>110</v>
+      </c>
+      <c r="M326">
+        <v>221</v>
+      </c>
+      <c r="N326">
+        <v>212</v>
+      </c>
+      <c r="O326">
+        <v>248</v>
+      </c>
+      <c r="P326" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>31</v>
+      </c>
+      <c r="R326" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
+        <v>44557</v>
+      </c>
+      <c r="B327" t="s">
+        <v>25</v>
+      </c>
+      <c r="C327">
+        <v>103</v>
+      </c>
+      <c r="D327" t="s">
+        <v>44</v>
+      </c>
+      <c r="E327">
+        <v>108</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
+      </c>
+      <c r="G327">
+        <v>5.5</v>
+      </c>
+      <c r="H327" t="s">
+        <v>20</v>
+      </c>
+      <c r="I327" t="s">
+        <v>25</v>
+      </c>
+      <c r="J327">
+        <v>105</v>
+      </c>
+      <c r="K327" t="s">
+        <v>44</v>
+      </c>
+      <c r="L327">
+        <v>104</v>
+      </c>
+      <c r="M327">
+        <v>209</v>
+      </c>
+      <c r="N327">
+        <v>214</v>
+      </c>
+      <c r="O327">
+        <v>211</v>
+      </c>
+      <c r="P327" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>22</v>
+      </c>
+      <c r="R327" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A328" s="4">
+        <v>44557</v>
+      </c>
+      <c r="B328" t="s">
+        <v>23</v>
+      </c>
+      <c r="C328">
+        <v>110</v>
+      </c>
+      <c r="D328" t="s">
+        <v>35</v>
+      </c>
+      <c r="E328">
+        <v>104</v>
+      </c>
+      <c r="F328">
+        <v>4</v>
+      </c>
+      <c r="G328">
+        <v>7</v>
+      </c>
+      <c r="H328" t="s">
+        <v>20</v>
+      </c>
+      <c r="I328" t="s">
+        <v>23</v>
+      </c>
+      <c r="J328">
+        <v>114</v>
+      </c>
+      <c r="K328" t="s">
+        <v>35</v>
+      </c>
+      <c r="L328">
+        <v>110</v>
+      </c>
+      <c r="M328">
+        <v>224</v>
+      </c>
+      <c r="N328">
+        <v>230.5</v>
+      </c>
+      <c r="O328">
+        <v>214</v>
+      </c>
+      <c r="P328" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>22</v>
+      </c>
+      <c r="R328" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
+        <v>44557</v>
+      </c>
+      <c r="B329" t="s">
+        <v>37</v>
+      </c>
+      <c r="C329">
+        <v>114</v>
+      </c>
+      <c r="D329" t="s">
+        <v>29</v>
+      </c>
+      <c r="E329">
+        <v>113</v>
+      </c>
+      <c r="F329">
+        <v>-8</v>
+      </c>
+      <c r="G329">
+        <v>-7.5</v>
+      </c>
+      <c r="H329" t="s">
+        <v>80</v>
+      </c>
+      <c r="I329" t="s">
+        <v>37</v>
+      </c>
+      <c r="J329">
+        <v>103</v>
+      </c>
+      <c r="K329" t="s">
+        <v>29</v>
+      </c>
+      <c r="L329">
+        <v>111</v>
+      </c>
+      <c r="M329">
+        <v>214</v>
+      </c>
+      <c r="N329">
+        <v>220.5</v>
+      </c>
+      <c r="O329">
+        <v>227</v>
+      </c>
+      <c r="P329" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>31</v>
+      </c>
+      <c r="R329" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A330" s="4">
+        <v>44557</v>
+      </c>
+      <c r="B330" t="s">
+        <v>56</v>
+      </c>
+      <c r="C330">
+        <v>132</v>
+      </c>
+      <c r="D330" t="s">
+        <v>48</v>
+      </c>
+      <c r="E330">
+        <v>117</v>
+      </c>
+      <c r="F330">
+        <v>-3</v>
+      </c>
+      <c r="G330">
+        <v>-1</v>
+      </c>
+      <c r="H330" t="s">
+        <v>80</v>
+      </c>
+      <c r="I330" t="s">
+        <v>56</v>
+      </c>
+      <c r="J330">
+        <v>106</v>
+      </c>
+      <c r="K330" t="s">
+        <v>48</v>
+      </c>
+      <c r="L330">
+        <v>109</v>
+      </c>
+      <c r="M330">
+        <v>215</v>
+      </c>
+      <c r="N330">
+        <v>212.5</v>
+      </c>
+      <c r="O330">
+        <v>249</v>
+      </c>
+      <c r="P330" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>31</v>
+      </c>
+      <c r="R330" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A331" s="4">
+        <v>44557</v>
+      </c>
+      <c r="B331" t="s">
+        <v>34</v>
+      </c>
+      <c r="C331">
+        <v>124</v>
+      </c>
+      <c r="D331" t="s">
+        <v>43</v>
+      </c>
+      <c r="E331">
+        <v>108</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>4</v>
+      </c>
+      <c r="H331" t="s">
+        <v>27</v>
+      </c>
+      <c r="I331" t="s">
+        <v>34</v>
+      </c>
+      <c r="J331">
+        <v>104</v>
+      </c>
+      <c r="K331" t="s">
+        <v>43</v>
+      </c>
+      <c r="L331">
+        <v>104</v>
+      </c>
+      <c r="M331">
+        <v>208</v>
+      </c>
+      <c r="N331">
+        <v>213</v>
+      </c>
+      <c r="O331">
+        <v>232</v>
+      </c>
+      <c r="P331" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>31</v>
+      </c>
+      <c r="R331" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -20521,8 +20770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20558,11 +20807,11 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
@@ -20570,15 +20819,15 @@
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45900000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -20603,24 +20852,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>31</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.57499999999999996</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D5">
+        <v>47</v>
+      </c>
+      <c r="E5">
         <v>45</v>
-      </c>
-      <c r="E5">
-        <v>44</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.50600000000000001</v>
+        <v>0.51100000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -20645,24 +20894,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.46899999999999997</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.42499999999999999</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D038F18-637D-4063-8B45-FA9707622D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991C80B2-CED4-4C9C-BF7A-3EC81CFED7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>Toronto +6</t>
+  </si>
+  <si>
+    <t>Houston +6</t>
+  </si>
+  <si>
+    <t>Minnesota +5</t>
+  </si>
+  <si>
+    <t>Cleveland -5</t>
+  </si>
+  <si>
+    <t>Golden State -7.5</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1376,179 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="17">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>107</v>
+      </c>
+      <c r="H5">
+        <v>217</v>
+      </c>
+      <c r="I5">
+        <v>225.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>110</v>
+      </c>
+      <c r="H6">
+        <v>214</v>
+      </c>
+      <c r="I6">
+        <v>211</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>209</v>
+      </c>
+      <c r="I7">
+        <v>209.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-7.5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>97</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>113</v>
+      </c>
+      <c r="H8">
+        <v>210</v>
+      </c>
+      <c r="I8">
+        <v>218</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-5.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>110</v>
+      </c>
+      <c r="H9">
+        <v>212</v>
+      </c>
+      <c r="I9">
+        <v>224.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991C80B2-CED4-4C9C-BF7A-3EC81CFED7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5990CEB5-4AC4-41C1-9580-C9E4A31DE8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -290,22 +290,16 @@
     <t>LOW</t>
   </si>
   <si>
-    <t>Orlando +15</t>
+    <t>Detroit +8.5</t>
   </si>
   <si>
-    <t>Toronto +6</t>
+    <t>Los Angeles Clippers +6</t>
   </si>
   <si>
-    <t>Houston +6</t>
+    <t>Phoenix -14.5</t>
   </si>
   <si>
-    <t>Minnesota +5</t>
-  </si>
-  <si>
-    <t>Cleveland -5</t>
-  </si>
-  <si>
-    <t>Golden State -7.5</t>
+    <t>Portland +11</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1211,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,42 +1266,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I2">
-        <v>216</v>
+        <v>214.5</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -1316,57 +1310,57 @@
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G3">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H3">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="I3">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E4">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
         <v>104</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4">
-        <v>108</v>
-      </c>
       <c r="H4">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I4">
-        <v>215</v>
+        <v>209.5</v>
       </c>
       <c r="J4" t="s">
         <v>80</v>
@@ -1377,147 +1371,147 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>6</v>
+        <v>-7.5</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>115</v>
+      </c>
+      <c r="H5">
+        <v>223</v>
+      </c>
+      <c r="I5">
+        <v>227</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>110</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>107</v>
-      </c>
-      <c r="H5">
-        <v>217</v>
-      </c>
-      <c r="I5">
-        <v>225.5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>-5.5</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>106</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>111</v>
+      </c>
+      <c r="H6">
+        <v>217</v>
+      </c>
+      <c r="I6">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6">
-        <v>104</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>110</v>
-      </c>
-      <c r="H6">
-        <v>214</v>
-      </c>
-      <c r="I6">
-        <v>211</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>-14.5</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H7">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I7">
-        <v>209.5</v>
+        <v>220</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-7.5</v>
+        <v>7.5</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H8">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="I8">
-        <v>218</v>
+        <v>229.5</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-5.5</v>
+        <v>1.5</v>
       </c>
       <c r="B9" t="s">
         <v>80</v>
@@ -1526,10 +1520,10 @@
         <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E9">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1538,16 +1532,16 @@
         <v>110</v>
       </c>
       <c r="H9">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="I9">
-        <v>224.5</v>
+        <v>220</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1557,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R331"/>
+  <dimension ref="A1:R339"/>
   <sheetViews>
-    <sheetView topLeftCell="C314" workbookViewId="0">
-      <selection activeCell="A325" sqref="A325:XFD325"/>
+    <sheetView topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="A332" sqref="A332:XFD332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20942,6 +20936,454 @@
         <v>31</v>
       </c>
       <c r="R331" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A332" s="4">
+        <v>44558</v>
+      </c>
+      <c r="B332" t="s">
+        <v>40</v>
+      </c>
+      <c r="C332">
+        <v>127</v>
+      </c>
+      <c r="D332" t="s">
+        <v>36</v>
+      </c>
+      <c r="E332">
+        <v>110</v>
+      </c>
+      <c r="F332">
+        <v>10</v>
+      </c>
+      <c r="G332">
+        <v>15</v>
+      </c>
+      <c r="H332" t="s">
+        <v>20</v>
+      </c>
+      <c r="I332" t="s">
+        <v>40</v>
+      </c>
+      <c r="J332">
+        <v>111</v>
+      </c>
+      <c r="K332" t="s">
+        <v>36</v>
+      </c>
+      <c r="L332">
+        <v>101</v>
+      </c>
+      <c r="M332">
+        <v>212</v>
+      </c>
+      <c r="N332">
+        <v>216</v>
+      </c>
+      <c r="O332">
+        <v>237</v>
+      </c>
+      <c r="P332" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>31</v>
+      </c>
+      <c r="R332" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A333" s="4">
+        <v>44558</v>
+      </c>
+      <c r="B333" t="s">
+        <v>38</v>
+      </c>
+      <c r="C333">
+        <v>112</v>
+      </c>
+      <c r="D333" t="s">
+        <v>26</v>
+      </c>
+      <c r="E333">
+        <v>119</v>
+      </c>
+      <c r="F333">
+        <v>-9</v>
+      </c>
+      <c r="G333">
+        <v>-8</v>
+      </c>
+      <c r="H333" t="s">
+        <v>80</v>
+      </c>
+      <c r="I333" t="s">
+        <v>38</v>
+      </c>
+      <c r="J333">
+        <v>101</v>
+      </c>
+      <c r="K333" t="s">
+        <v>26</v>
+      </c>
+      <c r="L333">
+        <v>110</v>
+      </c>
+      <c r="M333">
+        <v>211</v>
+      </c>
+      <c r="N333">
+        <v>204</v>
+      </c>
+      <c r="O333">
+        <v>231</v>
+      </c>
+      <c r="P333" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>31</v>
+      </c>
+      <c r="R333" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A334" s="4">
+        <v>44558</v>
+      </c>
+      <c r="B334" t="s">
+        <v>18</v>
+      </c>
+      <c r="C334">
+        <v>114</v>
+      </c>
+      <c r="D334" t="s">
+        <v>42</v>
+      </c>
+      <c r="E334">
+        <v>109</v>
+      </c>
+      <c r="F334">
+        <v>-4</v>
+      </c>
+      <c r="G334">
+        <v>6</v>
+      </c>
+      <c r="H334" t="s">
+        <v>20</v>
+      </c>
+      <c r="I334" t="s">
+        <v>18</v>
+      </c>
+      <c r="J334">
+        <v>104</v>
+      </c>
+      <c r="K334" t="s">
+        <v>42</v>
+      </c>
+      <c r="L334">
+        <v>108</v>
+      </c>
+      <c r="M334">
+        <v>212</v>
+      </c>
+      <c r="N334">
+        <v>215</v>
+      </c>
+      <c r="O334">
+        <v>223</v>
+      </c>
+      <c r="P334" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>31</v>
+      </c>
+      <c r="R334" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A335" s="4">
+        <v>44558</v>
+      </c>
+      <c r="B335" t="s">
+        <v>33</v>
+      </c>
+      <c r="C335">
+        <v>132</v>
+      </c>
+      <c r="D335" t="s">
+        <v>28</v>
+      </c>
+      <c r="E335">
+        <v>123</v>
+      </c>
+      <c r="F335">
+        <v>3</v>
+      </c>
+      <c r="G335">
+        <v>6</v>
+      </c>
+      <c r="H335" t="s">
+        <v>27</v>
+      </c>
+      <c r="I335" t="s">
+        <v>33</v>
+      </c>
+      <c r="J335">
+        <v>110</v>
+      </c>
+      <c r="K335" t="s">
+        <v>28</v>
+      </c>
+      <c r="L335">
+        <v>107</v>
+      </c>
+      <c r="M335">
+        <v>217</v>
+      </c>
+      <c r="N335">
+        <v>225.5</v>
+      </c>
+      <c r="O335">
+        <v>255</v>
+      </c>
+      <c r="P335" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>31</v>
+      </c>
+      <c r="R335" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A336" s="4">
+        <v>44558</v>
+      </c>
+      <c r="B336" t="s">
+        <v>39</v>
+      </c>
+      <c r="C336">
+        <v>96</v>
+      </c>
+      <c r="D336" t="s">
+        <v>44</v>
+      </c>
+      <c r="E336">
+        <v>88</v>
+      </c>
+      <c r="F336">
+        <v>-6</v>
+      </c>
+      <c r="G336">
+        <v>5</v>
+      </c>
+      <c r="H336" t="s">
+        <v>27</v>
+      </c>
+      <c r="I336" t="s">
+        <v>39</v>
+      </c>
+      <c r="J336">
+        <v>104</v>
+      </c>
+      <c r="K336" t="s">
+        <v>44</v>
+      </c>
+      <c r="L336">
+        <v>110</v>
+      </c>
+      <c r="M336">
+        <v>214</v>
+      </c>
+      <c r="N336">
+        <v>211</v>
+      </c>
+      <c r="O336">
+        <v>184</v>
+      </c>
+      <c r="P336" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>22</v>
+      </c>
+      <c r="R336" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A337" s="4">
+        <v>44558</v>
+      </c>
+      <c r="B337" t="s">
+        <v>41</v>
+      </c>
+      <c r="C337">
+        <v>104</v>
+      </c>
+      <c r="D337" t="s">
+        <v>45</v>
+      </c>
+      <c r="E337">
+        <v>108</v>
+      </c>
+      <c r="F337">
+        <v>9</v>
+      </c>
+      <c r="G337">
+        <v>5</v>
+      </c>
+      <c r="H337" t="s">
+        <v>27</v>
+      </c>
+      <c r="I337" t="s">
+        <v>41</v>
+      </c>
+      <c r="J337">
+        <v>109</v>
+      </c>
+      <c r="K337" t="s">
+        <v>45</v>
+      </c>
+      <c r="L337">
+        <v>100</v>
+      </c>
+      <c r="M337">
+        <v>209</v>
+      </c>
+      <c r="N337">
+        <v>209.5</v>
+      </c>
+      <c r="O337">
+        <v>212</v>
+      </c>
+      <c r="P337" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>31</v>
+      </c>
+      <c r="R337" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A338" s="4">
+        <v>44558</v>
+      </c>
+      <c r="B338" t="s">
+        <v>55</v>
+      </c>
+      <c r="C338">
+        <v>89</v>
+      </c>
+      <c r="D338" t="s">
+        <v>46</v>
+      </c>
+      <c r="E338">
+        <v>86</v>
+      </c>
+      <c r="F338">
+        <v>-16</v>
+      </c>
+      <c r="G338">
+        <v>-7.5</v>
+      </c>
+      <c r="H338" t="s">
+        <v>27</v>
+      </c>
+      <c r="I338" t="s">
+        <v>55</v>
+      </c>
+      <c r="J338">
+        <v>97</v>
+      </c>
+      <c r="K338" t="s">
+        <v>46</v>
+      </c>
+      <c r="L338">
+        <v>113</v>
+      </c>
+      <c r="M338">
+        <v>210</v>
+      </c>
+      <c r="N338">
+        <v>218</v>
+      </c>
+      <c r="O338">
+        <v>175</v>
+      </c>
+      <c r="P338" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>22</v>
+      </c>
+      <c r="R338" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A339" s="4">
+        <v>44558</v>
+      </c>
+      <c r="B339" t="s">
+        <v>32</v>
+      </c>
+      <c r="C339">
+        <v>111</v>
+      </c>
+      <c r="D339" t="s">
+        <v>50</v>
+      </c>
+      <c r="E339">
+        <v>117</v>
+      </c>
+      <c r="F339">
+        <v>-8</v>
+      </c>
+      <c r="G339">
+        <v>-5.5</v>
+      </c>
+      <c r="H339" t="s">
+        <v>80</v>
+      </c>
+      <c r="I339" t="s">
+        <v>32</v>
+      </c>
+      <c r="J339">
+        <v>102</v>
+      </c>
+      <c r="K339" t="s">
+        <v>50</v>
+      </c>
+      <c r="L339">
+        <v>110</v>
+      </c>
+      <c r="M339">
+        <v>212</v>
+      </c>
+      <c r="N339">
+        <v>224.5</v>
+      </c>
+      <c r="O339">
+        <v>228</v>
+      </c>
+      <c r="P339" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>31</v>
+      </c>
+      <c r="R339" t="s">
         <v>27</v>
       </c>
     </row>
@@ -20991,27 +21433,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.48699999999999999</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46600000000000003</v>
+        <v>0.46500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -21036,24 +21478,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.58099999999999996</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="D5">
+        <v>49</v>
+      </c>
+      <c r="E5">
         <v>47</v>
-      </c>
-      <c r="E5">
-        <v>45</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.51100000000000001</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -21078,24 +21520,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.46300000000000002</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D8">
         <v>33</v>
       </c>
       <c r="E8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.434</v>
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5990CEB5-4AC4-41C1-9580-C9E4A31DE8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23A56C5-B0E3-4D8F-99A1-68F06A09AAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -290,16 +290,13 @@
     <t>LOW</t>
   </si>
   <si>
-    <t>Detroit +8.5</t>
+    <t>Cleveland -1.5</t>
   </si>
   <si>
-    <t>Los Angeles Clippers +6</t>
+    <t>Los Angeles +7</t>
   </si>
   <si>
-    <t>Phoenix -14.5</t>
-  </si>
-  <si>
-    <t>Portland +11</t>
+    <t>San Antonio +5.5</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,31 +1263,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>102</v>
       </c>
       <c r="H2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I2">
-        <v>214.5</v>
+        <v>217</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -1301,7 +1298,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>-3</v>
+        <v>3.5</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -1310,22 +1307,22 @@
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
       </c>
       <c r="G3">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H3">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I3">
-        <v>226</v>
+        <v>220.5</v>
       </c>
       <c r="J3" t="s">
         <v>80</v>
@@ -1336,31 +1333,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>-6</v>
+        <v>1.5</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H4">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="I4">
-        <v>209.5</v>
+        <v>216.5</v>
       </c>
       <c r="J4" t="s">
         <v>80</v>
@@ -1371,7 +1368,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>-7.5</v>
+        <v>3.5</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
@@ -1380,138 +1377,138 @@
         <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H5">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I5">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-5.5</v>
+        <v>-1.5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H6">
         <v>217</v>
       </c>
       <c r="I6">
-        <v>224</v>
+        <v>217.5</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-14.5</v>
+        <v>-7</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H7">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I7">
-        <v>220</v>
+        <v>210.5</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7.5</v>
+        <v>-5.5</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I8">
-        <v>229.5</v>
+        <v>226</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="B9" t="s">
         <v>80</v>
@@ -1520,28 +1517,98 @@
         <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E9">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H9">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I9">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
       </c>
       <c r="K9" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-12.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>116</v>
+      </c>
+      <c r="H10">
+        <v>219</v>
+      </c>
+      <c r="I10">
+        <v>221.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-5.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>113</v>
+      </c>
+      <c r="H11">
+        <v>219</v>
+      </c>
+      <c r="I11">
+        <v>227</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1551,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R339"/>
+  <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="A332" sqref="A332:XFD332"/>
+      <selection activeCell="H349" sqref="H349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,6 +1631,7 @@
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -21385,6 +21453,622 @@
       </c>
       <c r="R339" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A340" s="4">
+        <v>44559</v>
+      </c>
+      <c r="B340" t="s">
+        <v>39</v>
+      </c>
+      <c r="C340">
+        <v>94</v>
+      </c>
+      <c r="D340" t="s">
+        <v>19</v>
+      </c>
+      <c r="E340">
+        <v>85</v>
+      </c>
+      <c r="F340">
+        <v>3</v>
+      </c>
+      <c r="G340">
+        <v>8.5</v>
+      </c>
+      <c r="H340" t="s">
+        <v>27</v>
+      </c>
+      <c r="I340" t="s">
+        <v>39</v>
+      </c>
+      <c r="J340">
+        <v>105</v>
+      </c>
+      <c r="K340" t="s">
+        <v>19</v>
+      </c>
+      <c r="L340">
+        <v>102</v>
+      </c>
+      <c r="M340">
+        <v>207</v>
+      </c>
+      <c r="N340">
+        <v>214.5</v>
+      </c>
+      <c r="O340">
+        <v>179</v>
+      </c>
+      <c r="P340" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>22</v>
+      </c>
+      <c r="R340" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A341" s="4">
+        <v>44559</v>
+      </c>
+      <c r="B341" t="s">
+        <v>49</v>
+      </c>
+      <c r="C341">
+        <v>116</v>
+      </c>
+      <c r="D341" t="s">
+        <v>47</v>
+      </c>
+      <c r="E341">
+        <v>108</v>
+      </c>
+      <c r="F341">
+        <v>-1</v>
+      </c>
+      <c r="G341">
+        <v>-3</v>
+      </c>
+      <c r="H341" t="s">
+        <v>80</v>
+      </c>
+      <c r="I341" t="s">
+        <v>49</v>
+      </c>
+      <c r="J341">
+        <v>112</v>
+      </c>
+      <c r="K341" t="s">
+        <v>47</v>
+      </c>
+      <c r="L341">
+        <v>113</v>
+      </c>
+      <c r="M341">
+        <v>225</v>
+      </c>
+      <c r="N341">
+        <v>226</v>
+      </c>
+      <c r="O341">
+        <v>224</v>
+      </c>
+      <c r="P341" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>22</v>
+      </c>
+      <c r="R341" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A342" s="4">
+        <v>44559</v>
+      </c>
+      <c r="B342" t="s">
+        <v>43</v>
+      </c>
+      <c r="C342">
+        <v>91</v>
+      </c>
+      <c r="D342" t="s">
+        <v>25</v>
+      </c>
+      <c r="E342">
+        <v>82</v>
+      </c>
+      <c r="F342">
+        <v>-2</v>
+      </c>
+      <c r="G342">
+        <v>-6</v>
+      </c>
+      <c r="H342" t="s">
+        <v>20</v>
+      </c>
+      <c r="I342" t="s">
+        <v>43</v>
+      </c>
+      <c r="J342">
+        <v>102</v>
+      </c>
+      <c r="K342" t="s">
+        <v>25</v>
+      </c>
+      <c r="L342">
+        <v>104</v>
+      </c>
+      <c r="M342">
+        <v>206</v>
+      </c>
+      <c r="N342">
+        <v>209.5</v>
+      </c>
+      <c r="O342">
+        <v>173</v>
+      </c>
+      <c r="P342" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>22</v>
+      </c>
+      <c r="R342" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A343" s="4">
+        <v>44559</v>
+      </c>
+      <c r="B343" t="s">
+        <v>24</v>
+      </c>
+      <c r="C343">
+        <v>117</v>
+      </c>
+      <c r="D343" t="s">
+        <v>54</v>
+      </c>
+      <c r="E343">
+        <v>131</v>
+      </c>
+      <c r="F343">
+        <v>-7</v>
+      </c>
+      <c r="G343">
+        <v>-7.5</v>
+      </c>
+      <c r="H343" t="s">
+        <v>80</v>
+      </c>
+      <c r="I343" t="s">
+        <v>24</v>
+      </c>
+      <c r="J343">
+        <v>108</v>
+      </c>
+      <c r="K343" t="s">
+        <v>54</v>
+      </c>
+      <c r="L343">
+        <v>115</v>
+      </c>
+      <c r="M343">
+        <v>223</v>
+      </c>
+      <c r="N343">
+        <v>227</v>
+      </c>
+      <c r="O343">
+        <v>248</v>
+      </c>
+      <c r="P343" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>31</v>
+      </c>
+      <c r="R343" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A344" s="4">
+        <v>44559</v>
+      </c>
+      <c r="B344" t="s">
+        <v>33</v>
+      </c>
+      <c r="C344">
+        <v>99</v>
+      </c>
+      <c r="D344" t="s">
+        <v>37</v>
+      </c>
+      <c r="E344">
+        <v>104</v>
+      </c>
+      <c r="F344">
+        <v>-5</v>
+      </c>
+      <c r="G344">
+        <v>-5.5</v>
+      </c>
+      <c r="H344" t="s">
+        <v>80</v>
+      </c>
+      <c r="I344" t="s">
+        <v>33</v>
+      </c>
+      <c r="J344">
+        <v>106</v>
+      </c>
+      <c r="K344" t="s">
+        <v>37</v>
+      </c>
+      <c r="L344">
+        <v>111</v>
+      </c>
+      <c r="M344">
+        <v>217</v>
+      </c>
+      <c r="N344">
+        <v>224</v>
+      </c>
+      <c r="O344">
+        <v>203</v>
+      </c>
+      <c r="P344" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>22</v>
+      </c>
+      <c r="R344" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A345" s="4">
+        <v>44559</v>
+      </c>
+      <c r="B345" t="s">
+        <v>32</v>
+      </c>
+      <c r="C345">
+        <v>97</v>
+      </c>
+      <c r="D345" t="s">
+        <v>29</v>
+      </c>
+      <c r="E345">
+        <v>115</v>
+      </c>
+      <c r="F345">
+        <v>-20</v>
+      </c>
+      <c r="G345">
+        <v>-14.5</v>
+      </c>
+      <c r="H345" t="s">
+        <v>20</v>
+      </c>
+      <c r="I345" t="s">
+        <v>32</v>
+      </c>
+      <c r="J345">
+        <v>93</v>
+      </c>
+      <c r="K345" t="s">
+        <v>29</v>
+      </c>
+      <c r="L345">
+        <v>113</v>
+      </c>
+      <c r="M345">
+        <v>206</v>
+      </c>
+      <c r="N345">
+        <v>220</v>
+      </c>
+      <c r="O345">
+        <v>212</v>
+      </c>
+      <c r="P345" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>22</v>
+      </c>
+      <c r="R345" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A346" s="4">
+        <v>44559</v>
+      </c>
+      <c r="B346" t="s">
+        <v>23</v>
+      </c>
+      <c r="C346">
+        <v>120</v>
+      </c>
+      <c r="D346" t="s">
+        <v>48</v>
+      </c>
+      <c r="E346">
+        <v>105</v>
+      </c>
+      <c r="F346">
+        <v>11</v>
+      </c>
+      <c r="G346">
+        <v>7.5</v>
+      </c>
+      <c r="H346" t="s">
+        <v>27</v>
+      </c>
+      <c r="I346" t="s">
+        <v>23</v>
+      </c>
+      <c r="J346">
+        <v>118</v>
+      </c>
+      <c r="K346" t="s">
+        <v>48</v>
+      </c>
+      <c r="L346">
+        <v>107</v>
+      </c>
+      <c r="M346">
+        <v>225</v>
+      </c>
+      <c r="N346">
+        <v>229.5</v>
+      </c>
+      <c r="O346">
+        <v>225</v>
+      </c>
+      <c r="P346" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>22</v>
+      </c>
+      <c r="R346" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A347" s="4">
+        <v>44559</v>
+      </c>
+      <c r="B347" t="s">
+        <v>56</v>
+      </c>
+      <c r="C347">
+        <v>94</v>
+      </c>
+      <c r="D347" t="s">
+        <v>50</v>
+      </c>
+      <c r="E347">
+        <v>95</v>
+      </c>
+      <c r="F347">
+        <v>-3</v>
+      </c>
+      <c r="G347">
+        <v>1.5</v>
+      </c>
+      <c r="H347" t="s">
+        <v>80</v>
+      </c>
+      <c r="I347" t="s">
+        <v>56</v>
+      </c>
+      <c r="J347">
+        <v>107</v>
+      </c>
+      <c r="K347" t="s">
+        <v>50</v>
+      </c>
+      <c r="L347">
+        <v>110</v>
+      </c>
+      <c r="M347">
+        <v>217</v>
+      </c>
+      <c r="N347">
+        <v>220</v>
+      </c>
+      <c r="O347">
+        <v>189</v>
+      </c>
+      <c r="P347" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>22</v>
+      </c>
+      <c r="R347" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A348" s="4">
+        <v>44560</v>
+      </c>
+      <c r="B348" t="s">
+        <v>18</v>
+      </c>
+      <c r="C348">
+        <v>110</v>
+      </c>
+      <c r="D348" t="s">
+        <v>34</v>
+      </c>
+      <c r="E348">
+        <v>102</v>
+      </c>
+      <c r="F348">
+        <v>-11</v>
+      </c>
+      <c r="G348">
+        <v>-5.5</v>
+      </c>
+      <c r="H348" t="s">
+        <v>27</v>
+      </c>
+      <c r="I348" t="s">
+        <v>18</v>
+      </c>
+      <c r="J348">
+        <v>101</v>
+      </c>
+      <c r="K348" t="s">
+        <v>34</v>
+      </c>
+      <c r="L348">
+        <v>112</v>
+      </c>
+      <c r="M348">
+        <v>213</v>
+      </c>
+      <c r="N348">
+        <v>222.5</v>
+      </c>
+      <c r="O348">
+        <v>212</v>
+      </c>
+      <c r="P348" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>22</v>
+      </c>
+      <c r="R348" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A349" s="4">
+        <v>44560</v>
+      </c>
+      <c r="B349" t="s">
+        <v>40</v>
+      </c>
+      <c r="C349">
+        <v>136</v>
+      </c>
+      <c r="D349" t="s">
+        <v>36</v>
+      </c>
+      <c r="E349">
+        <v>118</v>
+      </c>
+      <c r="F349">
+        <v>11</v>
+      </c>
+      <c r="G349">
+        <v>14</v>
+      </c>
+      <c r="H349" t="s">
+        <v>80</v>
+      </c>
+      <c r="I349" t="s">
+        <v>40</v>
+      </c>
+      <c r="J349">
+        <v>112</v>
+      </c>
+      <c r="K349" t="s">
+        <v>36</v>
+      </c>
+      <c r="L349">
+        <v>101</v>
+      </c>
+      <c r="M349">
+        <v>213</v>
+      </c>
+      <c r="N349">
+        <v>217.5</v>
+      </c>
+      <c r="O349">
+        <v>254</v>
+      </c>
+      <c r="P349" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>31</v>
+      </c>
+      <c r="R349" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A350" s="4">
+        <v>44560</v>
+      </c>
+      <c r="B350" t="s">
+        <v>41</v>
+      </c>
+      <c r="C350">
+        <v>93</v>
+      </c>
+      <c r="D350" t="s">
+        <v>38</v>
+      </c>
+      <c r="E350">
+        <v>110</v>
+      </c>
+      <c r="F350">
+        <v>7</v>
+      </c>
+      <c r="G350">
+        <v>-4.5</v>
+      </c>
+      <c r="H350" t="s">
+        <v>80</v>
+      </c>
+      <c r="I350" t="s">
+        <v>41</v>
+      </c>
+      <c r="J350">
+        <v>108</v>
+      </c>
+      <c r="K350" t="s">
+        <v>38</v>
+      </c>
+      <c r="L350">
+        <v>101</v>
+      </c>
+      <c r="M350">
+        <v>209</v>
+      </c>
+      <c r="N350">
+        <v>211</v>
+      </c>
+      <c r="O350">
+        <v>203</v>
+      </c>
+      <c r="P350" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>22</v>
+      </c>
+      <c r="R350" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -21433,27 +22117,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.48299999999999998</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46500000000000002</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -21481,21 +22165,21 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.57099999999999995</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>47</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -21520,24 +22204,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.45700000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.42899999999999999</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23A56C5-B0E3-4D8F-99A1-68F06A09AAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA18F096-F58D-466B-BD0B-2CC7A8DB16E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -290,13 +290,13 @@
     <t>LOW</t>
   </si>
   <si>
-    <t>Cleveland -1.5</t>
+    <t>Chicago -2</t>
   </si>
   <si>
-    <t>Los Angeles +7</t>
+    <t>Los Angeles +12</t>
   </si>
   <si>
-    <t>San Antonio +5.5</t>
+    <t>Houston +6.5</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>3.5</v>
+        <v>-11.5</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -1272,22 +1272,22 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="I2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -1307,307 +1307,167 @@
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H3">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I3">
-        <v>220.5</v>
+        <v>224</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H4">
         <v>216</v>
       </c>
       <c r="I4">
-        <v>216.5</v>
+        <v>221</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>3.5</v>
+        <v>-12</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E5">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G5">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H5">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I5">
-        <v>217</v>
+        <v>220.5</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-1.5</v>
+        <v>6.5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>107</v>
+      </c>
+      <c r="H6">
+        <v>216</v>
+      </c>
+      <c r="I6">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>104</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6">
-        <v>113</v>
-      </c>
-      <c r="H6">
-        <v>217</v>
-      </c>
-      <c r="I6">
-        <v>217.5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-7</v>
+        <v>-4.5</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H7">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="I7">
-        <v>210.5</v>
+        <v>223.5</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-5.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8">
-        <v>109</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8">
-        <v>111</v>
-      </c>
-      <c r="H8">
-        <v>220</v>
-      </c>
-      <c r="I8">
-        <v>226</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9">
-        <v>104</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9">
-        <v>102</v>
-      </c>
-      <c r="H9">
-        <v>206</v>
-      </c>
-      <c r="I9">
-        <v>206</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-12.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10">
-        <v>103</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>116</v>
-      </c>
-      <c r="H10">
-        <v>219</v>
-      </c>
-      <c r="I10">
-        <v>221.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-5.5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11">
-        <v>106</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11">
-        <v>113</v>
-      </c>
-      <c r="H11">
-        <v>219</v>
-      </c>
-      <c r="I11">
-        <v>227</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1618,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R350"/>
+  <dimension ref="A1:R360"/>
   <sheetViews>
-    <sheetView topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="H349" sqref="H349"/>
+    <sheetView topLeftCell="E344" workbookViewId="0">
+      <selection activeCell="R361" sqref="R361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22071,6 +21931,566 @@
         <v>53</v>
       </c>
     </row>
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A351" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B351" t="s">
+        <v>29</v>
+      </c>
+      <c r="C351">
+        <v>108</v>
+      </c>
+      <c r="D351" t="s">
+        <v>25</v>
+      </c>
+      <c r="E351">
+        <v>123</v>
+      </c>
+      <c r="F351">
+        <v>6</v>
+      </c>
+      <c r="G351">
+        <v>3.5</v>
+      </c>
+      <c r="H351" t="s">
+        <v>80</v>
+      </c>
+      <c r="I351" t="s">
+        <v>29</v>
+      </c>
+      <c r="J351">
+        <v>108</v>
+      </c>
+      <c r="K351" t="s">
+        <v>25</v>
+      </c>
+      <c r="L351">
+        <v>102</v>
+      </c>
+      <c r="M351">
+        <v>210</v>
+      </c>
+      <c r="N351">
+        <v>217</v>
+      </c>
+      <c r="O351">
+        <v>231</v>
+      </c>
+      <c r="P351" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>31</v>
+      </c>
+      <c r="R351" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A352" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B352" t="s">
+        <v>54</v>
+      </c>
+      <c r="C352">
+        <v>108</v>
+      </c>
+      <c r="D352" t="s">
+        <v>47</v>
+      </c>
+      <c r="E352">
+        <v>106</v>
+      </c>
+      <c r="F352">
+        <v>2</v>
+      </c>
+      <c r="G352">
+        <v>3.5</v>
+      </c>
+      <c r="H352" t="s">
+        <v>80</v>
+      </c>
+      <c r="I352" t="s">
+        <v>54</v>
+      </c>
+      <c r="J352">
+        <v>110</v>
+      </c>
+      <c r="K352" t="s">
+        <v>47</v>
+      </c>
+      <c r="L352">
+        <v>108</v>
+      </c>
+      <c r="M352">
+        <v>218</v>
+      </c>
+      <c r="N352">
+        <v>220.5</v>
+      </c>
+      <c r="O352">
+        <v>214</v>
+      </c>
+      <c r="P352" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>22</v>
+      </c>
+      <c r="R352" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B353" t="s">
+        <v>56</v>
+      </c>
+      <c r="C353">
+        <v>112</v>
+      </c>
+      <c r="D353" t="s">
+        <v>50</v>
+      </c>
+      <c r="E353">
+        <v>96</v>
+      </c>
+      <c r="F353">
+        <v>-4</v>
+      </c>
+      <c r="G353">
+        <v>1.5</v>
+      </c>
+      <c r="H353" t="s">
+        <v>80</v>
+      </c>
+      <c r="I353" t="s">
+        <v>56</v>
+      </c>
+      <c r="J353">
+        <v>106</v>
+      </c>
+      <c r="K353" t="s">
+        <v>50</v>
+      </c>
+      <c r="L353">
+        <v>110</v>
+      </c>
+      <c r="M353">
+        <v>216</v>
+      </c>
+      <c r="N353">
+        <v>216.5</v>
+      </c>
+      <c r="O353">
+        <v>208</v>
+      </c>
+      <c r="P353" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>22</v>
+      </c>
+      <c r="R353" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A354" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B354" t="s">
+        <v>26</v>
+      </c>
+      <c r="C354">
+        <v>120</v>
+      </c>
+      <c r="D354" t="s">
+        <v>28</v>
+      </c>
+      <c r="E354">
+        <v>110</v>
+      </c>
+      <c r="F354">
+        <v>4</v>
+      </c>
+      <c r="G354">
+        <v>3.5</v>
+      </c>
+      <c r="H354" t="s">
+        <v>80</v>
+      </c>
+      <c r="I354" t="s">
+        <v>26</v>
+      </c>
+      <c r="J354">
+        <v>110</v>
+      </c>
+      <c r="K354" t="s">
+        <v>28</v>
+      </c>
+      <c r="L354">
+        <v>106</v>
+      </c>
+      <c r="M354">
+        <v>216</v>
+      </c>
+      <c r="N354">
+        <v>217</v>
+      </c>
+      <c r="O354">
+        <v>230</v>
+      </c>
+      <c r="P354" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>31</v>
+      </c>
+      <c r="R354" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A355" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B355" t="s">
+        <v>24</v>
+      </c>
+      <c r="C355">
+        <v>121</v>
+      </c>
+      <c r="D355" t="s">
+        <v>41</v>
+      </c>
+      <c r="E355">
+        <v>118</v>
+      </c>
+      <c r="F355">
+        <v>-9</v>
+      </c>
+      <c r="G355">
+        <v>-1.5</v>
+      </c>
+      <c r="H355" t="s">
+        <v>27</v>
+      </c>
+      <c r="I355" t="s">
+        <v>24</v>
+      </c>
+      <c r="J355">
+        <v>104</v>
+      </c>
+      <c r="K355" t="s">
+        <v>41</v>
+      </c>
+      <c r="L355">
+        <v>113</v>
+      </c>
+      <c r="M355">
+        <v>217</v>
+      </c>
+      <c r="N355">
+        <v>217.5</v>
+      </c>
+      <c r="O355">
+        <v>239</v>
+      </c>
+      <c r="P355" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>31</v>
+      </c>
+      <c r="R355" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A356" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B356" t="s">
+        <v>43</v>
+      </c>
+      <c r="C356">
+        <v>108</v>
+      </c>
+      <c r="D356" t="s">
+        <v>42</v>
+      </c>
+      <c r="E356">
+        <v>116</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>-7</v>
+      </c>
+      <c r="H356" t="s">
+        <v>27</v>
+      </c>
+      <c r="I356" t="s">
+        <v>43</v>
+      </c>
+      <c r="J356">
+        <v>104</v>
+      </c>
+      <c r="K356" t="s">
+        <v>42</v>
+      </c>
+      <c r="L356">
+        <v>104</v>
+      </c>
+      <c r="M356">
+        <v>208</v>
+      </c>
+      <c r="N356">
+        <v>210.5</v>
+      </c>
+      <c r="O356">
+        <v>224</v>
+      </c>
+      <c r="P356" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>31</v>
+      </c>
+      <c r="R356" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A357" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B357" t="s">
+        <v>35</v>
+      </c>
+      <c r="C357">
+        <v>105</v>
+      </c>
+      <c r="D357" t="s">
+        <v>37</v>
+      </c>
+      <c r="E357">
+        <v>118</v>
+      </c>
+      <c r="F357">
+        <v>-2</v>
+      </c>
+      <c r="G357">
+        <v>-5.5</v>
+      </c>
+      <c r="H357" t="s">
+        <v>27</v>
+      </c>
+      <c r="I357" t="s">
+        <v>35</v>
+      </c>
+      <c r="J357">
+        <v>109</v>
+      </c>
+      <c r="K357" t="s">
+        <v>37</v>
+      </c>
+      <c r="L357">
+        <v>111</v>
+      </c>
+      <c r="M357">
+        <v>220</v>
+      </c>
+      <c r="N357">
+        <v>226</v>
+      </c>
+      <c r="O357">
+        <v>223</v>
+      </c>
+      <c r="P357" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>22</v>
+      </c>
+      <c r="R357" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A358" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B358" t="s">
+        <v>39</v>
+      </c>
+      <c r="C358">
+        <v>80</v>
+      </c>
+      <c r="D358" t="s">
+        <v>32</v>
+      </c>
+      <c r="E358">
+        <v>95</v>
+      </c>
+      <c r="F358">
+        <v>2</v>
+      </c>
+      <c r="G358">
+        <v>4.5</v>
+      </c>
+      <c r="H358" t="s">
+        <v>80</v>
+      </c>
+      <c r="I358" t="s">
+        <v>39</v>
+      </c>
+      <c r="J358">
+        <v>104</v>
+      </c>
+      <c r="K358" t="s">
+        <v>32</v>
+      </c>
+      <c r="L358">
+        <v>102</v>
+      </c>
+      <c r="M358">
+        <v>206</v>
+      </c>
+      <c r="N358">
+        <v>206</v>
+      </c>
+      <c r="O358">
+        <v>175</v>
+      </c>
+      <c r="P358" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q358" t="s">
+        <v>22</v>
+      </c>
+      <c r="R358" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A359" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B359" t="s">
+        <v>44</v>
+      </c>
+      <c r="C359">
+        <v>108</v>
+      </c>
+      <c r="D359" t="s">
+        <v>23</v>
+      </c>
+      <c r="E359">
+        <v>120</v>
+      </c>
+      <c r="F359">
+        <v>-13</v>
+      </c>
+      <c r="G359">
+        <v>-12.5</v>
+      </c>
+      <c r="H359" t="s">
+        <v>80</v>
+      </c>
+      <c r="I359" t="s">
+        <v>44</v>
+      </c>
+      <c r="J359">
+        <v>103</v>
+      </c>
+      <c r="K359" t="s">
+        <v>23</v>
+      </c>
+      <c r="L359">
+        <v>116</v>
+      </c>
+      <c r="M359">
+        <v>219</v>
+      </c>
+      <c r="N359">
+        <v>221.5</v>
+      </c>
+      <c r="O359">
+        <v>228</v>
+      </c>
+      <c r="P359" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q359" t="s">
+        <v>31</v>
+      </c>
+      <c r="R359" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A360" s="4">
+        <v>44561</v>
+      </c>
+      <c r="B360" t="s">
+        <v>48</v>
+      </c>
+      <c r="C360">
+        <v>106</v>
+      </c>
+      <c r="D360" t="s">
+        <v>33</v>
+      </c>
+      <c r="E360">
+        <v>139</v>
+      </c>
+      <c r="F360">
+        <v>-7</v>
+      </c>
+      <c r="G360">
+        <v>-5.5</v>
+      </c>
+      <c r="H360" t="s">
+        <v>80</v>
+      </c>
+      <c r="I360" t="s">
+        <v>48</v>
+      </c>
+      <c r="J360">
+        <v>106</v>
+      </c>
+      <c r="K360" t="s">
+        <v>33</v>
+      </c>
+      <c r="L360">
+        <v>113</v>
+      </c>
+      <c r="M360">
+        <v>219</v>
+      </c>
+      <c r="N360">
+        <v>227</v>
+      </c>
+      <c r="O360">
+        <v>245</v>
+      </c>
+      <c r="P360" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q360" t="s">
+        <v>31</v>
+      </c>
+      <c r="R360" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22081,7 +22501,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22121,23 +22541,23 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.48099999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.47099999999999997</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -22165,21 +22585,21 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.55700000000000005</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.53</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -22207,11 +22627,11 @@
         <v>34</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.46600000000000003</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D8">
         <v>34</v>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA18F096-F58D-466B-BD0B-2CC7A8DB16E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E2CBC-EE6A-4E65-BE22-30CBD3CDF313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -290,13 +290,16 @@
     <t>LOW</t>
   </si>
   <si>
-    <t>Chicago -2</t>
+    <t xml:space="preserve">LOSS </t>
   </si>
   <si>
-    <t>Los Angeles +12</t>
+    <t xml:space="preserve">WIN </t>
   </si>
   <si>
-    <t>Houston +6.5</t>
+    <t>Houston +13</t>
+  </si>
+  <si>
+    <t>Portland +4.5</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,42 +1266,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>-11.5</v>
+        <v>-13</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>112</v>
+      </c>
+      <c r="H2">
+        <v>217</v>
+      </c>
+      <c r="I2">
+        <v>217.5</v>
+      </c>
+      <c r="J2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2" t="s">
         <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2">
-        <v>115</v>
-      </c>
-      <c r="H2">
-        <v>216</v>
-      </c>
-      <c r="I2">
-        <v>223</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>6.5</v>
+        <v>-2</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -1307,127 +1310,127 @@
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H3">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="I3">
-        <v>224</v>
+        <v>230.5</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>2</v>
+        <v>-6.5</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E4">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
         <v>111</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4">
-        <v>105</v>
-      </c>
       <c r="H4">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I4">
-        <v>221</v>
+        <v>229.5</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>116</v>
+      </c>
+      <c r="H5">
+        <v>215</v>
+      </c>
+      <c r="I5">
+        <v>218.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
         <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5">
-        <v>108</v>
-      </c>
-      <c r="H5">
-        <v>208</v>
-      </c>
-      <c r="I5">
-        <v>220.5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6.5</v>
+        <v>-16</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H6">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I6">
-        <v>224</v>
+        <v>226.5</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
@@ -1438,7 +1441,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-4.5</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
@@ -1447,27 +1450,167 @@
         <v>83</v>
       </c>
       <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>104</v>
+      </c>
+      <c r="H7">
+        <v>222</v>
+      </c>
+      <c r="I7">
+        <v>228</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>106</v>
+      </c>
+      <c r="H8">
+        <v>209</v>
+      </c>
+      <c r="I8">
+        <v>213.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="E7">
+      <c r="G9">
+        <v>111</v>
+      </c>
+      <c r="H9">
+        <v>210</v>
+      </c>
+      <c r="I9">
+        <v>216.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>114</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>113</v>
+      </c>
+      <c r="H10">
+        <v>227</v>
+      </c>
+      <c r="I10">
+        <v>226</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-2.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11">
         <v>106</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>110</v>
-      </c>
-      <c r="H7">
+      <c r="H11">
+        <v>208</v>
+      </c>
+      <c r="I11">
         <v>216</v>
       </c>
-      <c r="I7">
-        <v>223.5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1478,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R360"/>
+  <dimension ref="A1:R373"/>
   <sheetViews>
-    <sheetView topLeftCell="E344" workbookViewId="0">
-      <selection activeCell="R361" sqref="R361"/>
+    <sheetView topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="S364" sqref="S364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22488,7 +22631,735 @@
         <v>31</v>
       </c>
       <c r="R360" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A361" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B361" t="s">
+        <v>45</v>
+      </c>
+      <c r="C361">
+        <v>113</v>
+      </c>
+      <c r="D361" t="s">
+        <v>40</v>
+      </c>
+      <c r="E361">
+        <v>136</v>
+      </c>
+      <c r="F361">
+        <v>-14</v>
+      </c>
+      <c r="G361">
+        <v>-11.5</v>
+      </c>
+      <c r="H361" t="s">
+        <v>80</v>
+      </c>
+      <c r="I361" t="s">
+        <v>45</v>
+      </c>
+      <c r="J361">
+        <v>101</v>
+      </c>
+      <c r="K361" t="s">
+        <v>40</v>
+      </c>
+      <c r="L361">
+        <v>115</v>
+      </c>
+      <c r="M361">
+        <v>216</v>
+      </c>
+      <c r="N361">
+        <v>223</v>
+      </c>
+      <c r="O361">
+        <v>249</v>
+      </c>
+      <c r="P361" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>31</v>
+      </c>
+      <c r="R361" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A362" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B362" t="s">
+        <v>35</v>
+      </c>
+      <c r="C362">
+        <v>116</v>
+      </c>
+      <c r="D362" t="s">
+        <v>19</v>
+      </c>
+      <c r="E362">
+        <v>117</v>
+      </c>
+      <c r="F362">
+        <v>9</v>
+      </c>
+      <c r="G362">
+        <v>6.5</v>
+      </c>
+      <c r="H362" t="s">
+        <v>80</v>
+      </c>
+      <c r="I362" t="s">
+        <v>35</v>
+      </c>
+      <c r="J362">
+        <v>110</v>
+      </c>
+      <c r="K362" t="s">
+        <v>19</v>
+      </c>
+      <c r="L362">
+        <v>101</v>
+      </c>
+      <c r="M362">
+        <v>211</v>
+      </c>
+      <c r="N362">
+        <v>224</v>
+      </c>
+      <c r="O362">
+        <v>233</v>
+      </c>
+      <c r="P362" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q362" t="s">
+        <v>31</v>
+      </c>
+      <c r="R362" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A363" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B363" t="s">
+        <v>54</v>
+      </c>
+      <c r="C363">
+        <v>120</v>
+      </c>
+      <c r="D363" t="s">
+        <v>38</v>
+      </c>
+      <c r="E363">
+        <v>119</v>
+      </c>
+      <c r="F363">
+        <v>6</v>
+      </c>
+      <c r="G363">
+        <v>2</v>
+      </c>
+      <c r="H363" t="s">
+        <v>27</v>
+      </c>
+      <c r="I363" t="s">
+        <v>54</v>
+      </c>
+      <c r="J363">
+        <v>111</v>
+      </c>
+      <c r="K363" t="s">
+        <v>38</v>
+      </c>
+      <c r="L363">
+        <v>105</v>
+      </c>
+      <c r="M363">
+        <v>216</v>
+      </c>
+      <c r="N363">
+        <v>221</v>
+      </c>
+      <c r="O363">
+        <v>239</v>
+      </c>
+      <c r="P363" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q363" t="s">
+        <v>31</v>
+      </c>
+      <c r="R363" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A364" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B364" t="s">
+        <v>43</v>
+      </c>
+      <c r="C364">
+        <v>120</v>
+      </c>
+      <c r="D364" t="s">
+        <v>34</v>
+      </c>
+      <c r="E364">
+        <v>116</v>
+      </c>
+      <c r="F364">
+        <v>-8</v>
+      </c>
+      <c r="G364">
+        <v>-12</v>
+      </c>
+      <c r="H364" t="s">
+        <v>20</v>
+      </c>
+      <c r="I364" t="s">
+        <v>43</v>
+      </c>
+      <c r="J364">
+        <v>100</v>
+      </c>
+      <c r="K364" t="s">
+        <v>34</v>
+      </c>
+      <c r="L364">
+        <v>108</v>
+      </c>
+      <c r="M364">
+        <v>208</v>
+      </c>
+      <c r="N364">
+        <v>220.5</v>
+      </c>
+      <c r="O364">
+        <v>236</v>
+      </c>
+      <c r="P364" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>31</v>
+      </c>
+      <c r="R364" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A365" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B365" t="s">
+        <v>55</v>
+      </c>
+      <c r="C365">
+        <v>124</v>
+      </c>
+      <c r="D365" t="s">
+        <v>28</v>
+      </c>
+      <c r="E365">
+        <v>111</v>
+      </c>
+      <c r="F365">
+        <v>2</v>
+      </c>
+      <c r="G365">
+        <v>6.5</v>
+      </c>
+      <c r="H365" t="s">
+        <v>27</v>
+      </c>
+      <c r="I365" t="s">
+        <v>55</v>
+      </c>
+      <c r="J365">
+        <v>109</v>
+      </c>
+      <c r="K365" t="s">
+        <v>28</v>
+      </c>
+      <c r="L365">
+        <v>107</v>
+      </c>
+      <c r="M365">
+        <v>216</v>
+      </c>
+      <c r="N365">
+        <v>224</v>
+      </c>
+      <c r="O365">
+        <v>235</v>
+      </c>
+      <c r="P365" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q365" t="s">
+        <v>31</v>
+      </c>
+      <c r="R365" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A366" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B366" t="s">
+        <v>46</v>
+      </c>
+      <c r="C366">
+        <v>123</v>
+      </c>
+      <c r="D366" t="s">
+        <v>23</v>
+      </c>
+      <c r="E366">
+        <v>116</v>
+      </c>
+      <c r="F366">
+        <v>-4</v>
+      </c>
+      <c r="G366">
+        <v>-4.5</v>
+      </c>
+      <c r="H366" t="s">
+        <v>80</v>
+      </c>
+      <c r="I366" t="s">
+        <v>46</v>
+      </c>
+      <c r="J366">
+        <v>106</v>
+      </c>
+      <c r="K366" t="s">
+        <v>23</v>
+      </c>
+      <c r="L366">
+        <v>110</v>
+      </c>
+      <c r="M366">
+        <v>216</v>
+      </c>
+      <c r="N366">
+        <v>223.5</v>
+      </c>
+      <c r="O366">
+        <v>239</v>
+      </c>
+      <c r="P366" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>31</v>
+      </c>
+      <c r="R366" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A367" s="4">
+        <v>44563</v>
+      </c>
+      <c r="B367" t="s">
+        <v>39</v>
+      </c>
+      <c r="C367">
+        <v>105</v>
+      </c>
+      <c r="D367" t="s">
+        <v>42</v>
+      </c>
+      <c r="E367">
+        <v>120</v>
+      </c>
+      <c r="F367">
+        <v>-3</v>
+      </c>
+      <c r="G367">
+        <v>-8.5</v>
+      </c>
+      <c r="H367" t="s">
+        <v>27</v>
+      </c>
+      <c r="I367" t="s">
+        <v>39</v>
+      </c>
+      <c r="J367">
+        <v>104</v>
+      </c>
+      <c r="K367" t="s">
+        <v>42</v>
+      </c>
+      <c r="L367">
+        <v>107</v>
+      </c>
+      <c r="M367">
+        <v>211</v>
+      </c>
+      <c r="N367">
+        <v>208</v>
+      </c>
+      <c r="O367">
+        <v>225</v>
+      </c>
+      <c r="P367" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>31</v>
+      </c>
+      <c r="R367" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A368" s="4">
+        <v>44563</v>
+      </c>
+      <c r="B368" t="s">
+        <v>36</v>
+      </c>
+      <c r="C368">
+        <v>111</v>
+      </c>
+      <c r="D368" t="s">
+        <v>25</v>
+      </c>
+      <c r="E368">
+        <v>116</v>
+      </c>
+      <c r="F368">
+        <v>-12</v>
+      </c>
+      <c r="G368">
+        <v>-11</v>
+      </c>
+      <c r="H368" t="s">
+        <v>80</v>
+      </c>
+      <c r="I368" t="s">
+        <v>36</v>
+      </c>
+      <c r="J368">
+        <v>99</v>
+      </c>
+      <c r="K368" t="s">
+        <v>25</v>
+      </c>
+      <c r="L368">
+        <v>111</v>
+      </c>
+      <c r="M368">
+        <v>210</v>
+      </c>
+      <c r="N368">
+        <v>215</v>
+      </c>
+      <c r="O368">
+        <v>227</v>
+      </c>
+      <c r="P368" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>31</v>
+      </c>
+      <c r="R368" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
+        <v>44563</v>
+      </c>
+      <c r="B369" t="s">
+        <v>47</v>
+      </c>
+      <c r="C369">
+        <v>104</v>
+      </c>
+      <c r="D369" t="s">
+        <v>41</v>
+      </c>
+      <c r="E369">
+        <v>108</v>
+      </c>
+      <c r="F369">
+        <v>-8</v>
+      </c>
+      <c r="G369">
+        <v>-4.5</v>
+      </c>
+      <c r="H369" t="s">
+        <v>27</v>
+      </c>
+      <c r="I369" t="s">
+        <v>47</v>
+      </c>
+      <c r="J369">
+        <v>101</v>
+      </c>
+      <c r="K369" t="s">
+        <v>41</v>
+      </c>
+      <c r="L369">
+        <v>109</v>
+      </c>
+      <c r="M369">
+        <v>210</v>
+      </c>
+      <c r="N369">
+        <v>208</v>
+      </c>
+      <c r="O369">
+        <v>212</v>
+      </c>
+      <c r="P369" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>31</v>
+      </c>
+      <c r="R369" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A370" s="4">
+        <v>44563</v>
+      </c>
+      <c r="B370" t="s">
+        <v>26</v>
+      </c>
+      <c r="C370">
+        <v>113</v>
+      </c>
+      <c r="D370" t="s">
+        <v>50</v>
+      </c>
+      <c r="E370">
+        <v>115</v>
+      </c>
+      <c r="F370">
+        <v>1</v>
+      </c>
+      <c r="G370">
+        <v>3.5</v>
+      </c>
+      <c r="H370" t="s">
+        <v>80</v>
+      </c>
+      <c r="I370" t="s">
+        <v>26</v>
+      </c>
+      <c r="J370">
+        <v>109</v>
+      </c>
+      <c r="K370" t="s">
+        <v>50</v>
+      </c>
+      <c r="L370">
+        <v>108</v>
+      </c>
+      <c r="M370">
+        <v>217</v>
+      </c>
+      <c r="N370">
+        <v>222.5</v>
+      </c>
+      <c r="O370">
+        <v>228</v>
+      </c>
+      <c r="P370" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>31</v>
+      </c>
+      <c r="R370" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A371" s="4">
+        <v>44563</v>
+      </c>
+      <c r="B371" t="s">
+        <v>29</v>
+      </c>
+      <c r="C371">
+        <v>133</v>
+      </c>
+      <c r="D371" t="s">
+        <v>49</v>
+      </c>
+      <c r="E371">
+        <v>99</v>
+      </c>
+      <c r="F371">
+        <v>4</v>
+      </c>
+      <c r="G371">
+        <v>2.5</v>
+      </c>
+      <c r="H371" t="s">
+        <v>80</v>
+      </c>
+      <c r="I371" t="s">
+        <v>29</v>
+      </c>
+      <c r="J371">
+        <v>114</v>
+      </c>
+      <c r="K371" t="s">
+        <v>49</v>
+      </c>
+      <c r="L371">
+        <v>110</v>
+      </c>
+      <c r="M371">
+        <v>224</v>
+      </c>
+      <c r="N371">
+        <v>232</v>
+      </c>
+      <c r="O371">
+        <v>232</v>
+      </c>
+      <c r="P371" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q371" t="s">
+        <v>31</v>
+      </c>
+      <c r="R371" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A372" s="4">
+        <v>44563</v>
+      </c>
+      <c r="B372" t="s">
+        <v>56</v>
+      </c>
+      <c r="C372">
+        <v>95</v>
+      </c>
+      <c r="D372" t="s">
+        <v>32</v>
+      </c>
+      <c r="E372">
+        <v>86</v>
+      </c>
+      <c r="F372">
+        <v>2</v>
+      </c>
+      <c r="G372">
+        <v>9</v>
+      </c>
+      <c r="H372" t="s">
+        <v>20</v>
+      </c>
+      <c r="I372" t="s">
+        <v>56</v>
+      </c>
+      <c r="J372">
+        <v>103</v>
+      </c>
+      <c r="K372" t="s">
+        <v>32</v>
+      </c>
+      <c r="L372">
+        <v>101</v>
+      </c>
+      <c r="M372">
+        <v>204</v>
+      </c>
+      <c r="N372">
+        <v>206.5</v>
+      </c>
+      <c r="O372">
+        <v>181</v>
+      </c>
+      <c r="P372" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q372" t="s">
+        <v>22</v>
+      </c>
+      <c r="R372" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A373" s="4">
+        <v>44563</v>
+      </c>
+      <c r="B373" t="s">
+        <v>44</v>
+      </c>
+      <c r="C373">
+        <v>103</v>
+      </c>
+      <c r="D373" t="s">
+        <v>33</v>
+      </c>
+      <c r="E373">
+        <v>108</v>
+      </c>
+      <c r="F373">
+        <v>-4</v>
+      </c>
+      <c r="G373">
+        <v>-8</v>
+      </c>
+      <c r="H373" t="s">
+        <v>20</v>
+      </c>
+      <c r="I373" t="s">
+        <v>44</v>
+      </c>
+      <c r="J373">
+        <v>105</v>
+      </c>
+      <c r="K373" t="s">
+        <v>33</v>
+      </c>
+      <c r="L373">
+        <v>109</v>
+      </c>
+      <c r="M373">
+        <v>214</v>
+      </c>
+      <c r="N373">
+        <v>221</v>
+      </c>
+      <c r="O373">
+        <v>211</v>
+      </c>
+      <c r="P373" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>22</v>
+      </c>
+      <c r="R373" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -22501,7 +23372,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22537,15 +23408,15 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.47499999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
@@ -22553,11 +23424,11 @@
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.47</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -22582,24 +23453,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>37</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.54300000000000004</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.52400000000000002</v>
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -22624,24 +23495,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.45900000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="D8">
         <v>34</v>
       </c>
       <c r="E8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.42499999999999999</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E2CBC-EE6A-4E65-BE22-30CBD3CDF313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25FB119-0161-4645-BF92-4D47AADBE7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1050" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -296,10 +296,10 @@
     <t xml:space="preserve">WIN </t>
   </si>
   <si>
-    <t>Houston +13</t>
+    <t>San Antonio +6.5</t>
   </si>
   <si>
-    <t>Portland +4.5</t>
+    <t>Phoenix -7</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,34 +1266,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I2">
-        <v>217.5</v>
+        <v>216</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
         <v>83</v>
@@ -1301,31 +1301,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>-2</v>
+        <v>-6.5</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G3">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H3">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I3">
-        <v>230.5</v>
+        <v>223.5</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1336,281 +1336,106 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>-6.5</v>
+        <v>-3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E4">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4">
         <v>106</v>
       </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4">
-        <v>111</v>
-      </c>
       <c r="H4">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I4">
-        <v>229.5</v>
+        <v>207</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H5">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I5">
-        <v>218.5</v>
+        <v>224.5</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-16</v>
+        <v>-6.5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I6">
-        <v>226.5</v>
+        <v>231</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>118</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7">
-        <v>104</v>
-      </c>
-      <c r="H7">
-        <v>222</v>
-      </c>
-      <c r="I7">
-        <v>228</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8">
-        <v>103</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <v>106</v>
-      </c>
-      <c r="H8">
-        <v>209</v>
-      </c>
-      <c r="I8">
-        <v>213.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>99</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9">
-        <v>111</v>
-      </c>
-      <c r="H9">
-        <v>210</v>
-      </c>
-      <c r="I9">
-        <v>216.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>114</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10">
-        <v>113</v>
-      </c>
-      <c r="H10">
-        <v>227</v>
-      </c>
-      <c r="I10">
-        <v>226</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-2.5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <v>102</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11">
-        <v>106</v>
-      </c>
-      <c r="H11">
-        <v>208</v>
-      </c>
-      <c r="I11">
-        <v>216</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1621,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R373"/>
+  <dimension ref="A1:R383"/>
   <sheetViews>
-    <sheetView topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="S364" sqref="S364"/>
+    <sheetView topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="H391" sqref="H391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23360,6 +23185,566 @@
       </c>
       <c r="R373" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A374" s="4">
+        <v>44564</v>
+      </c>
+      <c r="B374" t="s">
+        <v>28</v>
+      </c>
+      <c r="C374">
+        <v>113</v>
+      </c>
+      <c r="D374" t="s">
+        <v>18</v>
+      </c>
+      <c r="E374">
+        <v>133</v>
+      </c>
+      <c r="F374">
+        <v>-7</v>
+      </c>
+      <c r="G374">
+        <v>-13</v>
+      </c>
+      <c r="H374" t="s">
+        <v>27</v>
+      </c>
+      <c r="I374" t="s">
+        <v>28</v>
+      </c>
+      <c r="J374">
+        <v>105</v>
+      </c>
+      <c r="K374" t="s">
+        <v>18</v>
+      </c>
+      <c r="L374">
+        <v>112</v>
+      </c>
+      <c r="M374">
+        <v>217</v>
+      </c>
+      <c r="N374">
+        <v>217.5</v>
+      </c>
+      <c r="O374">
+        <v>246</v>
+      </c>
+      <c r="P374" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q374" t="s">
+        <v>31</v>
+      </c>
+      <c r="R374" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A375" s="4">
+        <v>44564</v>
+      </c>
+      <c r="B375" t="s">
+        <v>49</v>
+      </c>
+      <c r="C375">
+        <v>121</v>
+      </c>
+      <c r="D375" t="s">
+        <v>38</v>
+      </c>
+      <c r="E375">
+        <v>124</v>
+      </c>
+      <c r="F375">
+        <v>2</v>
+      </c>
+      <c r="G375">
+        <v>-2</v>
+      </c>
+      <c r="H375" t="s">
+        <v>80</v>
+      </c>
+      <c r="I375" t="s">
+        <v>49</v>
+      </c>
+      <c r="J375">
+        <v>114</v>
+      </c>
+      <c r="K375" t="s">
+        <v>38</v>
+      </c>
+      <c r="L375">
+        <v>112</v>
+      </c>
+      <c r="M375">
+        <v>226</v>
+      </c>
+      <c r="N375">
+        <v>230.5</v>
+      </c>
+      <c r="O375">
+        <v>245</v>
+      </c>
+      <c r="P375" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q375" t="s">
+        <v>31</v>
+      </c>
+      <c r="R375" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A376" s="4">
+        <v>44564</v>
+      </c>
+      <c r="B376" t="s">
+        <v>37</v>
+      </c>
+      <c r="C376">
+        <v>118</v>
+      </c>
+      <c r="D376" t="s">
+        <v>34</v>
+      </c>
+      <c r="E376">
+        <v>104</v>
+      </c>
+      <c r="F376">
+        <v>-5</v>
+      </c>
+      <c r="G376">
+        <v>-6.5</v>
+      </c>
+      <c r="H376" t="s">
+        <v>80</v>
+      </c>
+      <c r="I376" t="s">
+        <v>37</v>
+      </c>
+      <c r="J376">
+        <v>106</v>
+      </c>
+      <c r="K376" t="s">
+        <v>34</v>
+      </c>
+      <c r="L376">
+        <v>111</v>
+      </c>
+      <c r="M376">
+        <v>217</v>
+      </c>
+      <c r="N376">
+        <v>229.5</v>
+      </c>
+      <c r="O376">
+        <v>222</v>
+      </c>
+      <c r="P376" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q376" t="s">
+        <v>22</v>
+      </c>
+      <c r="R376" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A377" s="4">
+        <v>44564</v>
+      </c>
+      <c r="B377" t="s">
+        <v>36</v>
+      </c>
+      <c r="C377">
+        <v>98</v>
+      </c>
+      <c r="D377" t="s">
+        <v>54</v>
+      </c>
+      <c r="E377">
+        <v>102</v>
+      </c>
+      <c r="F377">
+        <v>-17</v>
+      </c>
+      <c r="G377">
+        <v>-14</v>
+      </c>
+      <c r="H377" t="s">
+        <v>80</v>
+      </c>
+      <c r="I377" t="s">
+        <v>36</v>
+      </c>
+      <c r="J377">
+        <v>99</v>
+      </c>
+      <c r="K377" t="s">
+        <v>54</v>
+      </c>
+      <c r="L377">
+        <v>116</v>
+      </c>
+      <c r="M377">
+        <v>215</v>
+      </c>
+      <c r="N377">
+        <v>218.5</v>
+      </c>
+      <c r="O377">
+        <v>200</v>
+      </c>
+      <c r="P377" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q377" t="s">
+        <v>22</v>
+      </c>
+      <c r="R377" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A378" s="4">
+        <v>44564</v>
+      </c>
+      <c r="B378" t="s">
+        <v>19</v>
+      </c>
+      <c r="C378">
+        <v>115</v>
+      </c>
+      <c r="D378" t="s">
+        <v>40</v>
+      </c>
+      <c r="E378">
+        <v>106</v>
+      </c>
+      <c r="F378">
+        <v>-17</v>
+      </c>
+      <c r="G378">
+        <v>-16</v>
+      </c>
+      <c r="H378" t="s">
+        <v>80</v>
+      </c>
+      <c r="I378" t="s">
+        <v>19</v>
+      </c>
+      <c r="J378">
+        <v>97</v>
+      </c>
+      <c r="K378" t="s">
+        <v>40</v>
+      </c>
+      <c r="L378">
+        <v>114</v>
+      </c>
+      <c r="M378">
+        <v>211</v>
+      </c>
+      <c r="N378">
+        <v>226.5</v>
+      </c>
+      <c r="O378">
+        <v>221</v>
+      </c>
+      <c r="P378" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q378" t="s">
+        <v>22</v>
+      </c>
+      <c r="R378" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A379" s="4">
+        <v>44564</v>
+      </c>
+      <c r="B379" t="s">
+        <v>23</v>
+      </c>
+      <c r="C379">
+        <v>115</v>
+      </c>
+      <c r="D379" t="s">
+        <v>45</v>
+      </c>
+      <c r="E379">
+        <v>104</v>
+      </c>
+      <c r="F379">
+        <v>14</v>
+      </c>
+      <c r="G379">
+        <v>10</v>
+      </c>
+      <c r="H379" t="s">
+        <v>80</v>
+      </c>
+      <c r="I379" t="s">
+        <v>23</v>
+      </c>
+      <c r="J379">
+        <v>118</v>
+      </c>
+      <c r="K379" t="s">
+        <v>45</v>
+      </c>
+      <c r="L379">
+        <v>104</v>
+      </c>
+      <c r="M379">
+        <v>222</v>
+      </c>
+      <c r="N379">
+        <v>228</v>
+      </c>
+      <c r="O379">
+        <v>219</v>
+      </c>
+      <c r="P379" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q379" t="s">
+        <v>22</v>
+      </c>
+      <c r="R379" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A380" s="4">
+        <v>44564</v>
+      </c>
+      <c r="B380" t="s">
+        <v>55</v>
+      </c>
+      <c r="C380">
+        <v>89</v>
+      </c>
+      <c r="D380" t="s">
+        <v>56</v>
+      </c>
+      <c r="E380">
+        <v>103</v>
+      </c>
+      <c r="F380">
+        <v>-3</v>
+      </c>
+      <c r="G380">
+        <v>-3</v>
+      </c>
+      <c r="H380" t="s">
+        <v>80</v>
+      </c>
+      <c r="I380" t="s">
+        <v>55</v>
+      </c>
+      <c r="J380">
+        <v>103</v>
+      </c>
+      <c r="K380" t="s">
+        <v>56</v>
+      </c>
+      <c r="L380">
+        <v>106</v>
+      </c>
+      <c r="M380">
+        <v>209</v>
+      </c>
+      <c r="N380">
+        <v>213.5</v>
+      </c>
+      <c r="O380">
+        <v>192</v>
+      </c>
+      <c r="P380" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q380" t="s">
+        <v>22</v>
+      </c>
+      <c r="R380" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A381" s="4">
+        <v>44564</v>
+      </c>
+      <c r="B381" t="s">
+        <v>26</v>
+      </c>
+      <c r="C381">
+        <v>108</v>
+      </c>
+      <c r="D381" t="s">
+        <v>46</v>
+      </c>
+      <c r="E381">
+        <v>115</v>
+      </c>
+      <c r="F381">
+        <v>-12</v>
+      </c>
+      <c r="G381">
+        <v>-10</v>
+      </c>
+      <c r="H381" t="s">
+        <v>80</v>
+      </c>
+      <c r="I381" t="s">
+        <v>26</v>
+      </c>
+      <c r="J381">
+        <v>99</v>
+      </c>
+      <c r="K381" t="s">
+        <v>46</v>
+      </c>
+      <c r="L381">
+        <v>111</v>
+      </c>
+      <c r="M381">
+        <v>210</v>
+      </c>
+      <c r="N381">
+        <v>216.5</v>
+      </c>
+      <c r="O381">
+        <v>223</v>
+      </c>
+      <c r="P381" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q381" t="s">
+        <v>31</v>
+      </c>
+      <c r="R381" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A382" s="4">
+        <v>44564</v>
+      </c>
+      <c r="B382" t="s">
+        <v>24</v>
+      </c>
+      <c r="C382">
+        <v>131</v>
+      </c>
+      <c r="D382" t="s">
+        <v>48</v>
+      </c>
+      <c r="E382">
+        <v>136</v>
+      </c>
+      <c r="F382">
+        <v>1</v>
+      </c>
+      <c r="G382">
+        <v>4.5</v>
+      </c>
+      <c r="H382" t="s">
+        <v>20</v>
+      </c>
+      <c r="I382" t="s">
+        <v>24</v>
+      </c>
+      <c r="J382">
+        <v>114</v>
+      </c>
+      <c r="K382" t="s">
+        <v>48</v>
+      </c>
+      <c r="L382">
+        <v>113</v>
+      </c>
+      <c r="M382">
+        <v>227</v>
+      </c>
+      <c r="N382">
+        <v>226</v>
+      </c>
+      <c r="O382">
+        <v>267</v>
+      </c>
+      <c r="P382" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q382" t="s">
+        <v>31</v>
+      </c>
+      <c r="R382" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A383" s="4">
+        <v>44564</v>
+      </c>
+      <c r="B383" t="s">
+        <v>44</v>
+      </c>
+      <c r="C383">
+        <v>122</v>
+      </c>
+      <c r="D383" t="s">
+        <v>43</v>
+      </c>
+      <c r="E383">
+        <v>104</v>
+      </c>
+      <c r="F383">
+        <v>-4</v>
+      </c>
+      <c r="G383">
+        <v>-2.5</v>
+      </c>
+      <c r="H383" t="s">
+        <v>80</v>
+      </c>
+      <c r="I383" t="s">
+        <v>44</v>
+      </c>
+      <c r="J383">
+        <v>102</v>
+      </c>
+      <c r="K383" t="s">
+        <v>43</v>
+      </c>
+      <c r="L383">
+        <v>106</v>
+      </c>
+      <c r="M383">
+        <v>208</v>
+      </c>
+      <c r="N383">
+        <v>216</v>
+      </c>
+      <c r="O383">
+        <v>226</v>
+      </c>
+      <c r="P383" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>31</v>
+      </c>
+      <c r="R383" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -23408,11 +23793,11 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
@@ -23420,15 +23805,15 @@
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45600000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -23463,10 +23848,10 @@
         <v>0.54900000000000004</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
@@ -23495,24 +23880,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.45</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.41</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25FB119-0161-4645-BF92-4D47AADBE7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E68C1F-EFFE-4C61-ACCE-A625571D3AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -296,10 +296,19 @@
     <t xml:space="preserve">WIN </t>
   </si>
   <si>
-    <t>San Antonio +6.5</t>
+    <t>San Antonio +7.5</t>
   </si>
   <si>
-    <t>Phoenix -7</t>
+    <t>Golden State -4.5</t>
+  </si>
+  <si>
+    <t>Utah -2.5</t>
+  </si>
+  <si>
+    <t>Indiana +8.5</t>
+  </si>
+  <si>
+    <t>Milwaukee -3</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,136 +1275,136 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>-3</v>
+        <v>-10.5</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I2">
-        <v>216</v>
+        <v>227.5</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>-6.5</v>
+        <v>8.5</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G3">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H3">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I3">
-        <v>223.5</v>
+        <v>212.5</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>-3</v>
+        <v>-7.5</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H4">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I4">
-        <v>207</v>
+        <v>230.5</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>7</v>
+        <v>-7.5</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H5">
         <v>214</v>
       </c>
       <c r="I5">
-        <v>224.5</v>
+        <v>223.5</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -1406,36 +1415,246 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-6.5</v>
+        <v>4.5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>99</v>
+      </c>
+      <c r="H6">
+        <v>207</v>
+      </c>
+      <c r="I6">
+        <v>214</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>106</v>
+      </c>
+      <c r="H7">
+        <v>214</v>
+      </c>
+      <c r="I7">
+        <v>224</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>113</v>
+      </c>
+      <c r="H8">
+        <v>217</v>
+      </c>
+      <c r="I8">
+        <v>221</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-9.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>97</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>108</v>
+      </c>
+      <c r="H9">
+        <v>205</v>
+      </c>
+      <c r="I9">
+        <v>217.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>114</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>104</v>
+      </c>
+      <c r="H10">
+        <v>218</v>
+      </c>
+      <c r="I10">
+        <v>224</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>108</v>
+      </c>
+      <c r="H11">
+        <v>219</v>
+      </c>
+      <c r="I11">
+        <v>216</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
         <v>50</v>
       </c>
-      <c r="E6">
-        <v>106</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>113</v>
-      </c>
-      <c r="H6">
-        <v>219</v>
-      </c>
-      <c r="I6">
-        <v>231</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="G12">
+        <v>114</v>
+      </c>
+      <c r="H12">
+        <v>227</v>
+      </c>
+      <c r="I12">
+        <v>235.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1446,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R383"/>
+  <dimension ref="A1:R388"/>
   <sheetViews>
     <sheetView topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="H391" sqref="H391"/>
+      <selection activeCell="H388" sqref="H388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23747,6 +23966,286 @@
         <v>27</v>
       </c>
     </row>
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A384" s="4">
+        <v>44565</v>
+      </c>
+      <c r="B384" t="s">
+        <v>37</v>
+      </c>
+      <c r="C384">
+        <v>110</v>
+      </c>
+      <c r="D384" t="s">
+        <v>41</v>
+      </c>
+      <c r="E384">
+        <v>106</v>
+      </c>
+      <c r="F384">
+        <v>-3</v>
+      </c>
+      <c r="G384">
+        <v>-3</v>
+      </c>
+      <c r="H384" t="s">
+        <v>80</v>
+      </c>
+      <c r="I384" t="s">
+        <v>37</v>
+      </c>
+      <c r="J384">
+        <v>105</v>
+      </c>
+      <c r="K384" t="s">
+        <v>41</v>
+      </c>
+      <c r="L384">
+        <v>108</v>
+      </c>
+      <c r="M384">
+        <v>213</v>
+      </c>
+      <c r="N384">
+        <v>216</v>
+      </c>
+      <c r="O384">
+        <v>216</v>
+      </c>
+      <c r="P384" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>31</v>
+      </c>
+      <c r="R384" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A385" s="4">
+        <v>44565</v>
+      </c>
+      <c r="B385" t="s">
+        <v>35</v>
+      </c>
+      <c r="C385">
+        <v>104</v>
+      </c>
+      <c r="D385" t="s">
+        <v>42</v>
+      </c>
+      <c r="E385">
+        <v>129</v>
+      </c>
+      <c r="F385">
+        <v>2</v>
+      </c>
+      <c r="G385">
+        <v>-6.5</v>
+      </c>
+      <c r="H385" t="s">
+        <v>27</v>
+      </c>
+      <c r="I385" t="s">
+        <v>35</v>
+      </c>
+      <c r="J385">
+        <v>110</v>
+      </c>
+      <c r="K385" t="s">
+        <v>42</v>
+      </c>
+      <c r="L385">
+        <v>108</v>
+      </c>
+      <c r="M385">
+        <v>218</v>
+      </c>
+      <c r="N385">
+        <v>223.5</v>
+      </c>
+      <c r="O385">
+        <v>233</v>
+      </c>
+      <c r="P385" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q385" t="s">
+        <v>31</v>
+      </c>
+      <c r="R385" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A386" s="4">
+        <v>44565</v>
+      </c>
+      <c r="B386" t="s">
+        <v>47</v>
+      </c>
+      <c r="C386">
+        <v>94</v>
+      </c>
+      <c r="D386" t="s">
+        <v>39</v>
+      </c>
+      <c r="E386">
+        <v>104</v>
+      </c>
+      <c r="F386">
+        <v>-1</v>
+      </c>
+      <c r="G386">
+        <v>-3</v>
+      </c>
+      <c r="H386" t="s">
+        <v>80</v>
+      </c>
+      <c r="I386" t="s">
+        <v>47</v>
+      </c>
+      <c r="J386">
+        <v>105</v>
+      </c>
+      <c r="K386" t="s">
+        <v>39</v>
+      </c>
+      <c r="L386">
+        <v>106</v>
+      </c>
+      <c r="M386">
+        <v>211</v>
+      </c>
+      <c r="N386">
+        <v>207</v>
+      </c>
+      <c r="O386">
+        <v>198</v>
+      </c>
+      <c r="P386" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>22</v>
+      </c>
+      <c r="R386" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A387" s="4">
+        <v>44565</v>
+      </c>
+      <c r="B387" t="s">
+        <v>29</v>
+      </c>
+      <c r="C387">
+        <v>123</v>
+      </c>
+      <c r="D387" t="s">
+        <v>45</v>
+      </c>
+      <c r="E387">
+        <v>110</v>
+      </c>
+      <c r="F387">
+        <v>12</v>
+      </c>
+      <c r="G387">
+        <v>7</v>
+      </c>
+      <c r="H387" t="s">
+        <v>20</v>
+      </c>
+      <c r="I387" t="s">
+        <v>29</v>
+      </c>
+      <c r="J387">
+        <v>113</v>
+      </c>
+      <c r="K387" t="s">
+        <v>45</v>
+      </c>
+      <c r="L387">
+        <v>101</v>
+      </c>
+      <c r="M387">
+        <v>214</v>
+      </c>
+      <c r="N387">
+        <v>224.5</v>
+      </c>
+      <c r="O387">
+        <v>233</v>
+      </c>
+      <c r="P387" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>31</v>
+      </c>
+      <c r="R387" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A388" s="4">
+        <v>44565</v>
+      </c>
+      <c r="B388" t="s">
+        <v>50</v>
+      </c>
+      <c r="C388">
+        <v>114</v>
+      </c>
+      <c r="D388" t="s">
+        <v>33</v>
+      </c>
+      <c r="E388">
+        <v>122</v>
+      </c>
+      <c r="F388">
+        <v>-7</v>
+      </c>
+      <c r="G388">
+        <v>-6.5</v>
+      </c>
+      <c r="H388" t="s">
+        <v>80</v>
+      </c>
+      <c r="I388" t="s">
+        <v>50</v>
+      </c>
+      <c r="J388">
+        <v>106</v>
+      </c>
+      <c r="K388" t="s">
+        <v>33</v>
+      </c>
+      <c r="L388">
+        <v>113</v>
+      </c>
+      <c r="M388">
+        <v>219</v>
+      </c>
+      <c r="N388">
+        <v>231</v>
+      </c>
+      <c r="O388">
+        <v>236</v>
+      </c>
+      <c r="P388" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q388" t="s">
+        <v>31</v>
+      </c>
+      <c r="R388" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23757,7 +24256,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23793,11 +24292,11 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
@@ -23809,11 +24308,11 @@
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46100000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -23841,21 +24340,21 @@
         <v>45</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.54900000000000004</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D5">
         <v>57</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.48699999999999999</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -23880,24 +24379,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>45</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.45100000000000001</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D8">
         <v>37</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.42499999999999999</v>
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E68C1F-EFFE-4C61-ACCE-A625571D3AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008603C-E1AB-4857-81D5-48FF7713EA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -296,19 +296,7 @@
     <t xml:space="preserve">WIN </t>
   </si>
   <si>
-    <t>San Antonio +7.5</t>
-  </si>
-  <si>
-    <t>Golden State -4.5</t>
-  </si>
-  <si>
-    <t>Utah -2.5</t>
-  </si>
-  <si>
-    <t>Indiana +8.5</t>
-  </si>
-  <si>
-    <t>Milwaukee -3</t>
+    <t>Golden State -2.5</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,101 +1263,101 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>-10.5</v>
+        <v>1.5</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="I2">
-        <v>227.5</v>
+        <v>207.5</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>8.5</v>
+        <v>-12.5</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H3">
         <v>211</v>
       </c>
       <c r="I3">
-        <v>212.5</v>
+        <v>218</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>-7.5</v>
+        <v>-2.5</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G4">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H4">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I4">
-        <v>230.5</v>
+        <v>212</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -1380,281 +1368,36 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>-7.5</v>
+        <v>-10.5</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E5">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H5">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I5">
-        <v>223.5</v>
+        <v>220.5</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4.5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6">
-        <v>99</v>
-      </c>
-      <c r="H6">
-        <v>207</v>
-      </c>
-      <c r="I6">
-        <v>214</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>8.5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>108</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7">
-        <v>106</v>
-      </c>
-      <c r="H7">
-        <v>214</v>
-      </c>
-      <c r="I7">
-        <v>224</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <v>104</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8">
-        <v>113</v>
-      </c>
-      <c r="H8">
-        <v>217</v>
-      </c>
-      <c r="I8">
-        <v>221</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-9.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>97</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9">
-        <v>108</v>
-      </c>
-      <c r="H9">
-        <v>205</v>
-      </c>
-      <c r="I9">
-        <v>217.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>114</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10">
-        <v>104</v>
-      </c>
-      <c r="H10">
-        <v>218</v>
-      </c>
-      <c r="I10">
-        <v>224</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>111</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11">
-        <v>108</v>
-      </c>
-      <c r="H11">
-        <v>219</v>
-      </c>
-      <c r="I11">
-        <v>216</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>113</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>114</v>
-      </c>
-      <c r="H12">
-        <v>227</v>
-      </c>
-      <c r="I12">
-        <v>235.5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1665,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R388"/>
+  <dimension ref="A1:R399"/>
   <sheetViews>
-    <sheetView topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="H388" sqref="H388"/>
+    <sheetView topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="E391" sqref="E391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24246,6 +23989,622 @@
         <v>27</v>
       </c>
     </row>
+    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A389" s="4">
+        <v>44566</v>
+      </c>
+      <c r="B389" t="s">
+        <v>19</v>
+      </c>
+      <c r="C389">
+        <v>111</v>
+      </c>
+      <c r="D389" t="s">
+        <v>49</v>
+      </c>
+      <c r="E389">
+        <v>140</v>
+      </c>
+      <c r="F389">
+        <v>-12</v>
+      </c>
+      <c r="G389">
+        <v>-10.5</v>
+      </c>
+      <c r="H389" t="s">
+        <v>80</v>
+      </c>
+      <c r="I389" t="s">
+        <v>19</v>
+      </c>
+      <c r="J389">
+        <v>103</v>
+      </c>
+      <c r="K389" t="s">
+        <v>49</v>
+      </c>
+      <c r="L389">
+        <v>115</v>
+      </c>
+      <c r="M389">
+        <v>218</v>
+      </c>
+      <c r="N389">
+        <v>227.5</v>
+      </c>
+      <c r="O389">
+        <v>251</v>
+      </c>
+      <c r="P389" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>31</v>
+      </c>
+      <c r="R389" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A390" s="4">
+        <v>44566</v>
+      </c>
+      <c r="B390" t="s">
+        <v>18</v>
+      </c>
+      <c r="C390">
+        <v>116</v>
+      </c>
+      <c r="D390" t="s">
+        <v>36</v>
+      </c>
+      <c r="E390">
+        <v>106</v>
+      </c>
+      <c r="F390">
+        <v>5</v>
+      </c>
+      <c r="G390">
+        <v>8.5</v>
+      </c>
+      <c r="H390" t="s">
+        <v>80</v>
+      </c>
+      <c r="I390" t="s">
+        <v>18</v>
+      </c>
+      <c r="J390">
+        <v>108</v>
+      </c>
+      <c r="K390" t="s">
+        <v>36</v>
+      </c>
+      <c r="L390">
+        <v>103</v>
+      </c>
+      <c r="M390">
+        <v>211</v>
+      </c>
+      <c r="N390">
+        <v>212.5</v>
+      </c>
+      <c r="O390">
+        <v>222</v>
+      </c>
+      <c r="P390" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>31</v>
+      </c>
+      <c r="R390" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A391" s="4">
+        <v>44566</v>
+      </c>
+      <c r="B391" t="s">
+        <v>28</v>
+      </c>
+      <c r="C391">
+        <v>114</v>
+      </c>
+      <c r="D391" t="s">
+        <v>38</v>
+      </c>
+      <c r="E391">
+        <v>111</v>
+      </c>
+      <c r="F391">
+        <v>-5</v>
+      </c>
+      <c r="G391">
+        <v>-7.5</v>
+      </c>
+      <c r="H391" t="s">
+        <v>80</v>
+      </c>
+      <c r="I391" t="s">
+        <v>28</v>
+      </c>
+      <c r="J391">
+        <v>107</v>
+      </c>
+      <c r="K391" t="s">
+        <v>38</v>
+      </c>
+      <c r="L391">
+        <v>112</v>
+      </c>
+      <c r="M391">
+        <v>219</v>
+      </c>
+      <c r="N391">
+        <v>230.5</v>
+      </c>
+      <c r="O391">
+        <v>225</v>
+      </c>
+      <c r="P391" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>22</v>
+      </c>
+      <c r="R391" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A392" s="4">
+        <v>44566</v>
+      </c>
+      <c r="B392" t="s">
+        <v>35</v>
+      </c>
+      <c r="C392">
+        <v>99</v>
+      </c>
+      <c r="D392" t="s">
+        <v>25</v>
+      </c>
+      <c r="E392">
+        <v>97</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>-7.5</v>
+      </c>
+      <c r="H392" t="s">
+        <v>20</v>
+      </c>
+      <c r="I392" t="s">
+        <v>35</v>
+      </c>
+      <c r="J392">
+        <v>107</v>
+      </c>
+      <c r="K392" t="s">
+        <v>25</v>
+      </c>
+      <c r="L392">
+        <v>107</v>
+      </c>
+      <c r="M392">
+        <v>214</v>
+      </c>
+      <c r="N392">
+        <v>223.5</v>
+      </c>
+      <c r="O392">
+        <v>196</v>
+      </c>
+      <c r="P392" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>22</v>
+      </c>
+      <c r="R392" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A393" s="4">
+        <v>44566</v>
+      </c>
+      <c r="B393" t="s">
+        <v>46</v>
+      </c>
+      <c r="C393">
+        <v>82</v>
+      </c>
+      <c r="D393" t="s">
+        <v>56</v>
+      </c>
+      <c r="E393">
+        <v>99</v>
+      </c>
+      <c r="F393">
+        <v>9</v>
+      </c>
+      <c r="G393">
+        <v>4.5</v>
+      </c>
+      <c r="H393" t="s">
+        <v>27</v>
+      </c>
+      <c r="I393" t="s">
+        <v>46</v>
+      </c>
+      <c r="J393">
+        <v>108</v>
+      </c>
+      <c r="K393" t="s">
+        <v>56</v>
+      </c>
+      <c r="L393">
+        <v>99</v>
+      </c>
+      <c r="M393">
+        <v>207</v>
+      </c>
+      <c r="N393">
+        <v>214</v>
+      </c>
+      <c r="O393">
+        <v>181</v>
+      </c>
+      <c r="P393" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>22</v>
+      </c>
+      <c r="R393" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A394" s="4">
+        <v>44566</v>
+      </c>
+      <c r="B394" t="s">
+        <v>34</v>
+      </c>
+      <c r="C394">
+        <v>129</v>
+      </c>
+      <c r="D394" t="s">
+        <v>47</v>
+      </c>
+      <c r="E394">
+        <v>121</v>
+      </c>
+      <c r="F394">
+        <v>2</v>
+      </c>
+      <c r="G394">
+        <v>8.5</v>
+      </c>
+      <c r="H394" t="s">
+        <v>20</v>
+      </c>
+      <c r="I394" t="s">
+        <v>34</v>
+      </c>
+      <c r="J394">
+        <v>108</v>
+      </c>
+      <c r="K394" t="s">
+        <v>47</v>
+      </c>
+      <c r="L394">
+        <v>106</v>
+      </c>
+      <c r="M394">
+        <v>214</v>
+      </c>
+      <c r="N394">
+        <v>224</v>
+      </c>
+      <c r="O394">
+        <v>250</v>
+      </c>
+      <c r="P394" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>31</v>
+      </c>
+      <c r="R394" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A395" s="4">
+        <v>44566</v>
+      </c>
+      <c r="B395" t="s">
+        <v>42</v>
+      </c>
+      <c r="C395">
+        <v>117</v>
+      </c>
+      <c r="D395" t="s">
+        <v>40</v>
+      </c>
+      <c r="E395">
+        <v>111</v>
+      </c>
+      <c r="F395">
+        <v>-9</v>
+      </c>
+      <c r="G395">
+        <v>-3</v>
+      </c>
+      <c r="H395" t="s">
+        <v>27</v>
+      </c>
+      <c r="I395" t="s">
+        <v>42</v>
+      </c>
+      <c r="J395">
+        <v>104</v>
+      </c>
+      <c r="K395" t="s">
+        <v>40</v>
+      </c>
+      <c r="L395">
+        <v>113</v>
+      </c>
+      <c r="M395">
+        <v>217</v>
+      </c>
+      <c r="N395">
+        <v>221</v>
+      </c>
+      <c r="O395">
+        <v>228</v>
+      </c>
+      <c r="P395" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q395" t="s">
+        <v>31</v>
+      </c>
+      <c r="R395" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A396" s="4">
+        <v>44566</v>
+      </c>
+      <c r="B396" t="s">
+        <v>32</v>
+      </c>
+      <c r="C396">
+        <v>90</v>
+      </c>
+      <c r="D396" t="s">
+        <v>44</v>
+      </c>
+      <c r="E396">
+        <v>98</v>
+      </c>
+      <c r="F396">
+        <v>-11</v>
+      </c>
+      <c r="G396">
+        <v>-9.5</v>
+      </c>
+      <c r="H396" t="s">
+        <v>80</v>
+      </c>
+      <c r="I396" t="s">
+        <v>32</v>
+      </c>
+      <c r="J396">
+        <v>97</v>
+      </c>
+      <c r="K396" t="s">
+        <v>44</v>
+      </c>
+      <c r="L396">
+        <v>108</v>
+      </c>
+      <c r="M396">
+        <v>205</v>
+      </c>
+      <c r="N396">
+        <v>217.5</v>
+      </c>
+      <c r="O396">
+        <v>188</v>
+      </c>
+      <c r="P396" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>22</v>
+      </c>
+      <c r="R396" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A397" s="4">
+        <v>44566</v>
+      </c>
+      <c r="B397" t="s">
+        <v>23</v>
+      </c>
+      <c r="C397">
+        <v>115</v>
+      </c>
+      <c r="D397" t="s">
+        <v>55</v>
+      </c>
+      <c r="E397">
+        <v>109</v>
+      </c>
+      <c r="F397">
+        <v>10</v>
+      </c>
+      <c r="G397">
+        <v>2.5</v>
+      </c>
+      <c r="H397" t="s">
+        <v>20</v>
+      </c>
+      <c r="I397" t="s">
+        <v>23</v>
+      </c>
+      <c r="J397">
+        <v>114</v>
+      </c>
+      <c r="K397" t="s">
+        <v>55</v>
+      </c>
+      <c r="L397">
+        <v>104</v>
+      </c>
+      <c r="M397">
+        <v>218</v>
+      </c>
+      <c r="N397">
+        <v>224</v>
+      </c>
+      <c r="O397">
+        <v>224</v>
+      </c>
+      <c r="P397" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>31</v>
+      </c>
+      <c r="R397" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A398" s="4">
+        <v>44566</v>
+      </c>
+      <c r="B398" t="s">
+        <v>26</v>
+      </c>
+      <c r="C398">
+        <v>115</v>
+      </c>
+      <c r="D398" t="s">
+        <v>48</v>
+      </c>
+      <c r="E398">
+        <v>109</v>
+      </c>
+      <c r="F398">
+        <v>3</v>
+      </c>
+      <c r="G398">
+        <v>2</v>
+      </c>
+      <c r="H398" t="s">
+        <v>80</v>
+      </c>
+      <c r="I398" t="s">
+        <v>26</v>
+      </c>
+      <c r="J398">
+        <v>111</v>
+      </c>
+      <c r="K398" t="s">
+        <v>48</v>
+      </c>
+      <c r="L398">
+        <v>108</v>
+      </c>
+      <c r="M398">
+        <v>219</v>
+      </c>
+      <c r="N398">
+        <v>216</v>
+      </c>
+      <c r="O398">
+        <v>224</v>
+      </c>
+      <c r="P398" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>31</v>
+      </c>
+      <c r="R398" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A399" s="4">
+        <v>44566</v>
+      </c>
+      <c r="B399" t="s">
+        <v>24</v>
+      </c>
+      <c r="C399">
+        <v>108</v>
+      </c>
+      <c r="D399" t="s">
+        <v>50</v>
+      </c>
+      <c r="E399">
+        <v>102</v>
+      </c>
+      <c r="F399">
+        <v>-1</v>
+      </c>
+      <c r="G399">
+        <v>2</v>
+      </c>
+      <c r="H399" t="s">
+        <v>80</v>
+      </c>
+      <c r="I399" t="s">
+        <v>24</v>
+      </c>
+      <c r="J399">
+        <v>113</v>
+      </c>
+      <c r="K399" t="s">
+        <v>50</v>
+      </c>
+      <c r="L399">
+        <v>114</v>
+      </c>
+      <c r="M399">
+        <v>227</v>
+      </c>
+      <c r="N399">
+        <v>235.5</v>
+      </c>
+      <c r="O399">
+        <v>210</v>
+      </c>
+      <c r="P399" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>22</v>
+      </c>
+      <c r="R399" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24256,7 +24615,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24292,27 +24651,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.47399999999999998</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45300000000000001</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -24337,24 +24696,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.54200000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.47899999999999998</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -24389,14 +24748,14 @@
         <v>0.45800000000000002</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.41599999999999998</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008603C-E1AB-4857-81D5-48FF7713EA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F32ABE-4BB8-4A9A-97CC-E642E037EBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -296,7 +296,22 @@
     <t xml:space="preserve">WIN </t>
   </si>
   <si>
-    <t>Golden State -2.5</t>
+    <t>NO PLAY COVID</t>
+  </si>
+  <si>
+    <t>Utah +11.5</t>
+  </si>
+  <si>
+    <t>LOW(COVID)</t>
+  </si>
+  <si>
+    <t>Chicago -5.5</t>
+  </si>
+  <si>
+    <t>Sacramento +8</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers -2.5</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,66 +1278,66 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>1.5</v>
+        <v>-8.5</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="I2">
-        <v>207.5</v>
+        <v>220</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>-12.5</v>
+        <v>-4.5</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H3">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I3">
-        <v>218</v>
+        <v>232.5</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1333,72 +1348,247 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>-2.5</v>
+        <v>-11.5</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H4">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="I4">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>-10.5</v>
+        <v>-5.5</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G5">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H5">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I5">
-        <v>220.5</v>
+        <v>225.5</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>106</v>
+      </c>
+      <c r="H6">
+        <v>214</v>
+      </c>
+      <c r="I6">
+        <v>215</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>99</v>
+      </c>
+      <c r="H7">
+        <v>203</v>
+      </c>
+      <c r="I7">
+        <v>218.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>111</v>
+      </c>
+      <c r="H8">
+        <v>217</v>
+      </c>
+      <c r="I8">
+        <v>226.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-2.5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>114</v>
+      </c>
+      <c r="H9">
+        <v>223</v>
+      </c>
+      <c r="I9">
+        <v>230</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>106</v>
+      </c>
+      <c r="H10">
+        <v>218</v>
+      </c>
+      <c r="I10">
+        <v>215.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1408,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R399"/>
+  <dimension ref="A1:R403"/>
   <sheetViews>
-    <sheetView topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="E391" sqref="E391"/>
+    <sheetView topLeftCell="E392" workbookViewId="0">
+      <selection activeCell="R401" sqref="R401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24605,6 +24795,230 @@
         <v>20</v>
       </c>
     </row>
+    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A400" s="4">
+        <v>44567</v>
+      </c>
+      <c r="B400" t="s">
+        <v>25</v>
+      </c>
+      <c r="C400">
+        <v>105</v>
+      </c>
+      <c r="D400" t="s">
+        <v>39</v>
+      </c>
+      <c r="E400">
+        <v>108</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+      <c r="G400">
+        <v>1.5</v>
+      </c>
+      <c r="H400" t="s">
+        <v>80</v>
+      </c>
+      <c r="I400" t="s">
+        <v>25</v>
+      </c>
+      <c r="J400">
+        <v>104</v>
+      </c>
+      <c r="K400" t="s">
+        <v>39</v>
+      </c>
+      <c r="L400">
+        <v>104</v>
+      </c>
+      <c r="M400">
+        <v>208</v>
+      </c>
+      <c r="N400">
+        <v>207.5</v>
+      </c>
+      <c r="O400">
+        <v>213</v>
+      </c>
+      <c r="P400" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q400" t="s">
+        <v>31</v>
+      </c>
+      <c r="R400" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A401" s="4">
+        <v>44567</v>
+      </c>
+      <c r="B401" t="s">
+        <v>19</v>
+      </c>
+      <c r="C401">
+        <v>88</v>
+      </c>
+      <c r="D401" t="s">
+        <v>37</v>
+      </c>
+      <c r="E401">
+        <v>118</v>
+      </c>
+      <c r="F401">
+        <v>-15</v>
+      </c>
+      <c r="G401">
+        <v>-12.5</v>
+      </c>
+      <c r="H401" t="s">
+        <v>80</v>
+      </c>
+      <c r="I401" t="s">
+        <v>19</v>
+      </c>
+      <c r="J401">
+        <v>98</v>
+      </c>
+      <c r="K401" t="s">
+        <v>37</v>
+      </c>
+      <c r="L401">
+        <v>113</v>
+      </c>
+      <c r="M401">
+        <v>211</v>
+      </c>
+      <c r="N401">
+        <v>218</v>
+      </c>
+      <c r="O401">
+        <v>206</v>
+      </c>
+      <c r="P401" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>22</v>
+      </c>
+      <c r="R401" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A402" s="4">
+        <v>44567</v>
+      </c>
+      <c r="B402" t="s">
+        <v>46</v>
+      </c>
+      <c r="C402">
+        <v>96</v>
+      </c>
+      <c r="D402" t="s">
+        <v>45</v>
+      </c>
+      <c r="E402">
+        <v>101</v>
+      </c>
+      <c r="F402">
+        <v>5</v>
+      </c>
+      <c r="G402">
+        <v>-2.5</v>
+      </c>
+      <c r="H402" t="s">
+        <v>27</v>
+      </c>
+      <c r="I402" t="s">
+        <v>46</v>
+      </c>
+      <c r="J402">
+        <v>104</v>
+      </c>
+      <c r="K402" t="s">
+        <v>45</v>
+      </c>
+      <c r="L402">
+        <v>99</v>
+      </c>
+      <c r="M402">
+        <v>203</v>
+      </c>
+      <c r="N402">
+        <v>212</v>
+      </c>
+      <c r="O402">
+        <v>197</v>
+      </c>
+      <c r="P402" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>22</v>
+      </c>
+      <c r="R402" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A403" s="4">
+        <v>44567</v>
+      </c>
+      <c r="B403" t="s">
+        <v>43</v>
+      </c>
+      <c r="C403">
+        <v>89</v>
+      </c>
+      <c r="D403" t="s">
+        <v>29</v>
+      </c>
+      <c r="E403">
+        <v>106</v>
+      </c>
+      <c r="F403">
+        <v>-12</v>
+      </c>
+      <c r="G403">
+        <v>-10.5</v>
+      </c>
+      <c r="H403" t="s">
+        <v>80</v>
+      </c>
+      <c r="I403" t="s">
+        <v>43</v>
+      </c>
+      <c r="J403">
+        <v>98</v>
+      </c>
+      <c r="K403" t="s">
+        <v>29</v>
+      </c>
+      <c r="L403">
+        <v>110</v>
+      </c>
+      <c r="M403">
+        <v>208</v>
+      </c>
+      <c r="N403">
+        <v>220.5</v>
+      </c>
+      <c r="O403">
+        <v>195</v>
+      </c>
+      <c r="P403" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>22</v>
+      </c>
+      <c r="R403" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24614,8 +25028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24655,15 +25069,15 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.47699999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
@@ -24671,7 +25085,7 @@
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45700000000000002</v>
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -24706,14 +25120,14 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>64</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.49199999999999999</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -24741,11 +25155,11 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.45800000000000002</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D8">
         <v>38</v>

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F32ABE-4BB8-4A9A-97CC-E642E037EBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8252E03-F123-40C2-B143-409E771B9356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdatedResults" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2901" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -287,31 +287,16 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>LOW</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOSS </t>
   </si>
   <si>
     <t xml:space="preserve">WIN </t>
   </si>
   <si>
-    <t>NO PLAY COVID</t>
+    <t>LOST</t>
   </si>
   <si>
-    <t>Utah +11.5</t>
-  </si>
-  <si>
-    <t>LOW(COVID)</t>
-  </si>
-  <si>
-    <t>Chicago -5.5</t>
-  </si>
-  <si>
-    <t>Sacramento +8</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers -2.5</t>
+    <t>Utah -2.5</t>
   </si>
 </sst>
 </file>
@@ -1220,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,45 +1263,45 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>-8.5</v>
+        <v>2.5</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>-4.5</v>
+        <v>-1.5</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>83</v>
@@ -1325,19 +1310,19 @@
         <v>40</v>
       </c>
       <c r="E3">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G3">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H3">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="I3">
-        <v>232.5</v>
+        <v>234.5</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1348,101 +1333,101 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>-11.5</v>
+        <v>-2.5</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="I4">
-        <v>220</v>
+        <v>212.5</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>-5.5</v>
+        <v>2.5</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G5">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H5">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I5">
-        <v>225.5</v>
+        <v>222.5</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.5</v>
+        <v>-7</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H6">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I6">
-        <v>215</v>
+        <v>207.5</v>
       </c>
       <c r="J6" t="s">
         <v>80</v>
@@ -1453,142 +1438,37 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.5</v>
+        <v>-8.5</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H7">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I7">
-        <v>218.5</v>
+        <v>218</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8">
-        <v>106</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8">
-        <v>111</v>
-      </c>
-      <c r="H8">
-        <v>217</v>
-      </c>
-      <c r="I8">
-        <v>226.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-2.5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>109</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9">
-        <v>114</v>
-      </c>
-      <c r="H9">
-        <v>223</v>
-      </c>
-      <c r="I9">
-        <v>230</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5.5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10">
-        <v>112</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10">
-        <v>106</v>
-      </c>
-      <c r="H10">
-        <v>218</v>
-      </c>
-      <c r="I10">
-        <v>215.5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1598,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R403"/>
+  <dimension ref="A1:R412"/>
   <sheetViews>
-    <sheetView topLeftCell="E392" workbookViewId="0">
-      <selection activeCell="R401" sqref="R401"/>
+    <sheetView topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:A412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22608,7 +22488,7 @@
         <v>31</v>
       </c>
       <c r="R360" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="361" spans="1:18" x14ac:dyDescent="0.25">
@@ -23336,7 +23216,7 @@
         <v>22</v>
       </c>
       <c r="R373" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.25">
@@ -25017,6 +24897,510 @@
       </c>
       <c r="R403" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A404" s="4">
+        <v>44568</v>
+      </c>
+      <c r="B404" t="s">
+        <v>35</v>
+      </c>
+      <c r="C404">
+        <v>100</v>
+      </c>
+      <c r="D404" t="s">
+        <v>18</v>
+      </c>
+      <c r="E404">
+        <v>119</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+      <c r="G404">
+        <v>-8.5</v>
+      </c>
+      <c r="H404" t="s">
+        <v>80</v>
+      </c>
+      <c r="I404" t="s">
+        <v>35</v>
+      </c>
+      <c r="J404">
+        <v>108</v>
+      </c>
+      <c r="K404" t="s">
+        <v>18</v>
+      </c>
+      <c r="L404">
+        <v>108</v>
+      </c>
+      <c r="M404">
+        <v>216</v>
+      </c>
+      <c r="N404">
+        <v>220</v>
+      </c>
+      <c r="O404">
+        <v>219</v>
+      </c>
+      <c r="P404" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>22</v>
+      </c>
+      <c r="R404" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A405" s="4">
+        <v>44568</v>
+      </c>
+      <c r="B405" t="s">
+        <v>40</v>
+      </c>
+      <c r="C405">
+        <v>121</v>
+      </c>
+      <c r="D405" t="s">
+        <v>34</v>
+      </c>
+      <c r="E405">
+        <v>109</v>
+      </c>
+      <c r="F405">
+        <v>-5</v>
+      </c>
+      <c r="G405">
+        <v>-4.5</v>
+      </c>
+      <c r="H405" t="s">
+        <v>80</v>
+      </c>
+      <c r="I405" t="s">
+        <v>40</v>
+      </c>
+      <c r="J405">
+        <v>105</v>
+      </c>
+      <c r="K405" t="s">
+        <v>34</v>
+      </c>
+      <c r="L405">
+        <v>110</v>
+      </c>
+      <c r="M405">
+        <v>215</v>
+      </c>
+      <c r="N405">
+        <v>232.5</v>
+      </c>
+      <c r="O405">
+        <v>230</v>
+      </c>
+      <c r="P405" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>22</v>
+      </c>
+      <c r="R405" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A406" s="4">
+        <v>44568</v>
+      </c>
+      <c r="B406" t="s">
+        <v>23</v>
+      </c>
+      <c r="C406">
+        <v>108</v>
+      </c>
+      <c r="D406" t="s">
+        <v>42</v>
+      </c>
+      <c r="E406">
+        <v>122</v>
+      </c>
+      <c r="F406">
+        <v>8</v>
+      </c>
+      <c r="G406">
+        <v>-11.5</v>
+      </c>
+      <c r="H406" t="s">
+        <v>86</v>
+      </c>
+      <c r="I406" t="s">
+        <v>23</v>
+      </c>
+      <c r="J406">
+        <v>115</v>
+      </c>
+      <c r="K406" t="s">
+        <v>42</v>
+      </c>
+      <c r="L406">
+        <v>107</v>
+      </c>
+      <c r="M406">
+        <v>222</v>
+      </c>
+      <c r="N406">
+        <v>220</v>
+      </c>
+      <c r="O406">
+        <v>230</v>
+      </c>
+      <c r="P406" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>31</v>
+      </c>
+      <c r="R406" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A407" s="4">
+        <v>44568</v>
+      </c>
+      <c r="B407" t="s">
+        <v>38</v>
+      </c>
+      <c r="C407">
+        <v>122</v>
+      </c>
+      <c r="D407" t="s">
+        <v>54</v>
+      </c>
+      <c r="E407">
+        <v>130</v>
+      </c>
+      <c r="F407">
+        <v>-11</v>
+      </c>
+      <c r="G407">
+        <v>-5.5</v>
+      </c>
+      <c r="H407" t="s">
+        <v>20</v>
+      </c>
+      <c r="I407" t="s">
+        <v>38</v>
+      </c>
+      <c r="J407">
+        <v>103</v>
+      </c>
+      <c r="K407" t="s">
+        <v>54</v>
+      </c>
+      <c r="L407">
+        <v>114</v>
+      </c>
+      <c r="M407">
+        <v>217</v>
+      </c>
+      <c r="N407">
+        <v>225.5</v>
+      </c>
+      <c r="O407">
+        <v>252</v>
+      </c>
+      <c r="P407" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q407" t="s">
+        <v>31</v>
+      </c>
+      <c r="R407" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A408" s="4">
+        <v>44568</v>
+      </c>
+      <c r="B408" t="s">
+        <v>56</v>
+      </c>
+      <c r="C408">
+        <v>130</v>
+      </c>
+      <c r="D408" t="s">
+        <v>28</v>
+      </c>
+      <c r="E408">
+        <v>106</v>
+      </c>
+      <c r="F408">
+        <v>2</v>
+      </c>
+      <c r="G408">
+        <v>2.5</v>
+      </c>
+      <c r="H408" t="s">
+        <v>80</v>
+      </c>
+      <c r="I408" t="s">
+        <v>56</v>
+      </c>
+      <c r="J408">
+        <v>108</v>
+      </c>
+      <c r="K408" t="s">
+        <v>28</v>
+      </c>
+      <c r="L408">
+        <v>106</v>
+      </c>
+      <c r="M408">
+        <v>214</v>
+      </c>
+      <c r="N408">
+        <v>215</v>
+      </c>
+      <c r="O408">
+        <v>236</v>
+      </c>
+      <c r="P408" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q408" t="s">
+        <v>31</v>
+      </c>
+      <c r="R408" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A409" s="4">
+        <v>44568</v>
+      </c>
+      <c r="B409" t="s">
+        <v>44</v>
+      </c>
+      <c r="C409">
+        <v>135</v>
+      </c>
+      <c r="D409" t="s">
+        <v>32</v>
+      </c>
+      <c r="E409">
+        <v>105</v>
+      </c>
+      <c r="F409">
+        <v>5</v>
+      </c>
+      <c r="G409">
+        <v>5.5</v>
+      </c>
+      <c r="H409" t="s">
+        <v>80</v>
+      </c>
+      <c r="I409" t="s">
+        <v>44</v>
+      </c>
+      <c r="J409">
+        <v>104</v>
+      </c>
+      <c r="K409" t="s">
+        <v>32</v>
+      </c>
+      <c r="L409">
+        <v>99</v>
+      </c>
+      <c r="M409">
+        <v>203</v>
+      </c>
+      <c r="N409">
+        <v>218.5</v>
+      </c>
+      <c r="O409">
+        <v>240</v>
+      </c>
+      <c r="P409" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>31</v>
+      </c>
+      <c r="R409" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A410" s="4">
+        <v>44568</v>
+      </c>
+      <c r="B410" t="s">
+        <v>50</v>
+      </c>
+      <c r="C410">
+        <v>111</v>
+      </c>
+      <c r="D410" t="s">
+        <v>55</v>
+      </c>
+      <c r="E410">
+        <v>121</v>
+      </c>
+      <c r="F410">
+        <v>-5</v>
+      </c>
+      <c r="G410">
+        <v>-8</v>
+      </c>
+      <c r="H410" t="s">
+        <v>27</v>
+      </c>
+      <c r="I410" t="s">
+        <v>50</v>
+      </c>
+      <c r="J410">
+        <v>106</v>
+      </c>
+      <c r="K410" t="s">
+        <v>55</v>
+      </c>
+      <c r="L410">
+        <v>111</v>
+      </c>
+      <c r="M410">
+        <v>217</v>
+      </c>
+      <c r="N410">
+        <v>226.5</v>
+      </c>
+      <c r="O410">
+        <v>232</v>
+      </c>
+      <c r="P410" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>31</v>
+      </c>
+      <c r="R410" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A411" s="4">
+        <v>44568</v>
+      </c>
+      <c r="B411" t="s">
+        <v>24</v>
+      </c>
+      <c r="C411">
+        <v>118</v>
+      </c>
+      <c r="D411" t="s">
+        <v>33</v>
+      </c>
+      <c r="E411">
+        <v>134</v>
+      </c>
+      <c r="F411">
+        <v>-5</v>
+      </c>
+      <c r="G411">
+        <v>-2.5</v>
+      </c>
+      <c r="H411" t="s">
+        <v>20</v>
+      </c>
+      <c r="I411" t="s">
+        <v>24</v>
+      </c>
+      <c r="J411">
+        <v>109</v>
+      </c>
+      <c r="K411" t="s">
+        <v>33</v>
+      </c>
+      <c r="L411">
+        <v>114</v>
+      </c>
+      <c r="M411">
+        <v>223</v>
+      </c>
+      <c r="N411">
+        <v>230</v>
+      </c>
+      <c r="O411">
+        <v>252</v>
+      </c>
+      <c r="P411" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>31</v>
+      </c>
+      <c r="R411" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A412" s="4">
+        <v>44568</v>
+      </c>
+      <c r="B412" t="s">
+        <v>41</v>
+      </c>
+      <c r="C412">
+        <v>114</v>
+      </c>
+      <c r="D412" t="s">
+        <v>48</v>
+      </c>
+      <c r="E412">
+        <v>101</v>
+      </c>
+      <c r="F412">
+        <v>6</v>
+      </c>
+      <c r="G412">
+        <v>5.5</v>
+      </c>
+      <c r="H412" t="s">
+        <v>80</v>
+      </c>
+      <c r="I412" t="s">
+        <v>41</v>
+      </c>
+      <c r="J412">
+        <v>112</v>
+      </c>
+      <c r="K412" t="s">
+        <v>48</v>
+      </c>
+      <c r="L412">
+        <v>106</v>
+      </c>
+      <c r="M412">
+        <v>218</v>
+      </c>
+      <c r="N412">
+        <v>215.5</v>
+      </c>
+      <c r="O412">
+        <v>215</v>
+      </c>
+      <c r="P412" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q412" t="s">
+        <v>22</v>
+      </c>
+      <c r="R412" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -25028,8 +25412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDBD52-5F97-49F2-81E9-5AECCF07C193}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25065,27 +25449,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.47499999999999998</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.46200000000000002</v>
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -25110,24 +25494,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.54500000000000004</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.504</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -25152,24 +25536,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.45200000000000001</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.41299999999999998</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/UpdatedResults.xlsx
+++ b/UpdatedResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\NBA-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8252E03-F123-40C2-B143-409E771B9356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4126DEBB-A9B8-4A48-8650-87618C57C54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -287,6 +287,9 @@
     <t>NONE</t>
   </si>
   <si>
+    <t>LOW</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOSS </t>
   </si>
   <si>
@@ -296,7 +299,22 @@
     <t>LOST</t>
   </si>
   <si>
-    <t>Utah -2.5</t>
+    <t>WIN LOW</t>
+  </si>
+  <si>
+    <t>Utah -11</t>
+  </si>
+  <si>
+    <t>Indiana +9</t>
+  </si>
+  <si>
+    <t>San Antonio +6.5</t>
+  </si>
+  <si>
+    <t>Houston +10</t>
+  </si>
+  <si>
+    <t>Portland +8.5</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1281,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -1272,57 +1290,57 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="I2">
-        <v>213</v>
+        <v>235.5</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>-1.5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="I3">
-        <v>234.5</v>
+        <v>224</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1333,66 +1351,66 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>-2.5</v>
+        <v>-9</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H4">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I4">
         <v>212.5</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>2.5</v>
+        <v>-6.5</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I5">
-        <v>222.5</v>
+        <v>212.5</v>
       </c>
       <c r="J5" t="s">
         <v>80</v>
@@ -1403,71 +1421,106 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H6">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I6">
-        <v>207.5</v>
+        <v>226.5</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-8.5</v>
+        <v>8.5</v>
       </c>
       <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7">
+        <v>108</v>
+      </c>
+      <c r="H7">
+        <v>219</v>
+      </c>
+      <c r="I7">
+        <v>224.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5.5</v>
+      </c>
+      <c r="B8" t="s">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>83</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>112</v>
-      </c>
-      <c r="H7">
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>105</v>
+      </c>
+      <c r="H8">
         <v>212</v>
       </c>
-      <c r="I7">
-        <v>218</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="I8">
+        <v>220.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1478,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R412"/>
+  <dimension ref="A1:R428"/>
   <sheetViews>
-    <sheetView topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:A412"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="O422" sqref="O422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22488,7 +22541,7 @@
         <v>31</v>
       </c>
       <c r="R360" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="361" spans="1:18" x14ac:dyDescent="0.25">
@@ -23216,7 +23269,7 @@
         <v>22</v>
       </c>
       <c r="R373" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.25">
@@ -25034,7 +25087,7 @@
         <v>-11.5</v>
       </c>
       <c r="H406" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I406" t="s">
         <v>23</v>
@@ -25400,6 +25453,902 @@
         <v>22</v>
       </c>
       <c r="R412" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A413" s="4">
+        <v>44569</v>
+      </c>
+      <c r="B413" t="s">
+        <v>37</v>
+      </c>
+      <c r="C413">
+        <v>123</v>
+      </c>
+      <c r="D413" t="s">
+        <v>43</v>
+      </c>
+      <c r="E413">
+        <v>108</v>
+      </c>
+      <c r="F413">
+        <v>2</v>
+      </c>
+      <c r="G413">
+        <v>2.5</v>
+      </c>
+      <c r="H413" t="s">
+        <v>80</v>
+      </c>
+      <c r="I413" t="s">
+        <v>37</v>
+      </c>
+      <c r="J413">
+        <v>106</v>
+      </c>
+      <c r="K413" t="s">
+        <v>43</v>
+      </c>
+      <c r="L413">
+        <v>104</v>
+      </c>
+      <c r="M413">
+        <v>210</v>
+      </c>
+      <c r="N413">
+        <v>213</v>
+      </c>
+      <c r="O413">
+        <v>231</v>
+      </c>
+      <c r="P413" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>31</v>
+      </c>
+      <c r="R413" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A414" s="4">
+        <v>44569</v>
+      </c>
+      <c r="B414" t="s">
+        <v>40</v>
+      </c>
+      <c r="C414">
+        <v>106</v>
+      </c>
+      <c r="D414" t="s">
+        <v>49</v>
+      </c>
+      <c r="E414">
+        <v>114</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414">
+        <v>-1.5</v>
+      </c>
+      <c r="H414" t="s">
+        <v>80</v>
+      </c>
+      <c r="I414" t="s">
+        <v>40</v>
+      </c>
+      <c r="J414">
+        <v>114</v>
+      </c>
+      <c r="K414" t="s">
+        <v>49</v>
+      </c>
+      <c r="L414">
+        <v>114</v>
+      </c>
+      <c r="M414">
+        <v>228</v>
+      </c>
+      <c r="N414">
+        <v>234.5</v>
+      </c>
+      <c r="O414">
+        <v>220</v>
+      </c>
+      <c r="P414" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q414" t="s">
+        <v>22</v>
+      </c>
+      <c r="R414" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A415" s="4">
+        <v>44569</v>
+      </c>
+      <c r="B415" t="s">
+        <v>36</v>
+      </c>
+      <c r="C415">
+        <v>92</v>
+      </c>
+      <c r="D415" t="s">
+        <v>19</v>
+      </c>
+      <c r="E415">
+        <v>97</v>
+      </c>
+      <c r="F415">
+        <v>-4</v>
+      </c>
+      <c r="G415">
+        <v>-2.5</v>
+      </c>
+      <c r="H415" t="s">
+        <v>80</v>
+      </c>
+      <c r="I415" t="s">
+        <v>36</v>
+      </c>
+      <c r="J415">
+        <v>101</v>
+      </c>
+      <c r="K415" t="s">
+        <v>19</v>
+      </c>
+      <c r="L415">
+        <v>105</v>
+      </c>
+      <c r="M415">
+        <v>206</v>
+      </c>
+      <c r="N415">
+        <v>212.5</v>
+      </c>
+      <c r="O415">
+        <v>189</v>
+      </c>
+      <c r="P415" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q415" t="s">
+        <v>22</v>
+      </c>
+      <c r="R415" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A416" s="4">
+        <v>44569</v>
+      </c>
+      <c r="B416" t="s">
+        <v>23</v>
+      </c>
+      <c r="C416">
+        <v>113</v>
+      </c>
+      <c r="D416" t="s">
+        <v>47</v>
+      </c>
+      <c r="E416">
+        <v>125</v>
+      </c>
+      <c r="F416">
+        <v>9</v>
+      </c>
+      <c r="G416">
+        <v>2.5</v>
+      </c>
+      <c r="H416" t="s">
+        <v>27</v>
+      </c>
+      <c r="I416" t="s">
+        <v>23</v>
+      </c>
+      <c r="J416">
+        <v>115</v>
+      </c>
+      <c r="K416" t="s">
+        <v>47</v>
+      </c>
+      <c r="L416">
+        <v>106</v>
+      </c>
+      <c r="M416">
+        <v>221</v>
+      </c>
+      <c r="N416">
+        <v>222.5</v>
+      </c>
+      <c r="O416">
+        <v>238</v>
+      </c>
+      <c r="P416" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>31</v>
+      </c>
+      <c r="R416" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A417" s="4">
+        <v>44569</v>
+      </c>
+      <c r="B417" t="s">
+        <v>39</v>
+      </c>
+      <c r="C417">
+        <v>75</v>
+      </c>
+      <c r="D417" t="s">
+        <v>25</v>
+      </c>
+      <c r="E417">
+        <v>99</v>
+      </c>
+      <c r="F417">
+        <v>-6</v>
+      </c>
+      <c r="G417">
+        <v>-7</v>
+      </c>
+      <c r="H417" t="s">
+        <v>80</v>
+      </c>
+      <c r="I417" t="s">
+        <v>39</v>
+      </c>
+      <c r="J417">
+        <v>101</v>
+      </c>
+      <c r="K417" t="s">
+        <v>25</v>
+      </c>
+      <c r="L417">
+        <v>107</v>
+      </c>
+      <c r="M417">
+        <v>208</v>
+      </c>
+      <c r="N417">
+        <v>207.5</v>
+      </c>
+      <c r="O417">
+        <v>174</v>
+      </c>
+      <c r="P417" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q417" t="s">
+        <v>22</v>
+      </c>
+      <c r="R417" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A418" s="4">
+        <v>44569</v>
+      </c>
+      <c r="B418" t="s">
+        <v>26</v>
+      </c>
+      <c r="C418">
+        <v>123</v>
+      </c>
+      <c r="D418" t="s">
+        <v>29</v>
+      </c>
+      <c r="E418">
+        <v>100</v>
+      </c>
+      <c r="F418">
+        <v>-12</v>
+      </c>
+      <c r="G418">
+        <v>-8.5</v>
+      </c>
+      <c r="H418" t="s">
+        <v>80</v>
+      </c>
+      <c r="I418" t="s">
+        <v>26</v>
+      </c>
+      <c r="J418">
+        <v>100</v>
+      </c>
+      <c r="K418" t="s">
+        <v>29</v>
+      </c>
+      <c r="L418">
+        <v>112</v>
+      </c>
+      <c r="M418">
+        <v>212</v>
+      </c>
+      <c r="N418">
+        <v>218</v>
+      </c>
+      <c r="O418">
+        <v>223</v>
+      </c>
+      <c r="P418" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q418" t="s">
+        <v>31</v>
+      </c>
+      <c r="R418" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A419" s="4">
+        <v>44570</v>
+      </c>
+      <c r="B419" t="s">
+        <v>35</v>
+      </c>
+      <c r="C419">
+        <v>119</v>
+      </c>
+      <c r="D419" t="s">
+        <v>34</v>
+      </c>
+      <c r="E419">
+        <v>121</v>
+      </c>
+      <c r="F419">
+        <v>-5</v>
+      </c>
+      <c r="G419">
+        <v>-10</v>
+      </c>
+      <c r="H419" t="s">
+        <v>20</v>
+      </c>
+      <c r="I419" t="s">
+        <v>35</v>
+      </c>
+      <c r="J419">
+        <v>107</v>
+      </c>
+      <c r="K419" t="s">
+        <v>34</v>
+      </c>
+      <c r="L419">
+        <v>112</v>
+      </c>
+      <c r="M419">
+        <v>219</v>
+      </c>
+      <c r="N419">
+        <v>232</v>
+      </c>
+      <c r="O419">
+        <v>240</v>
+      </c>
+      <c r="P419" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q419" t="s">
+        <v>31</v>
+      </c>
+      <c r="R419" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A420" s="4">
+        <v>44570</v>
+      </c>
+      <c r="B420" t="s">
+        <v>24</v>
+      </c>
+      <c r="C420">
+        <v>93</v>
+      </c>
+      <c r="D420" t="s">
+        <v>43</v>
+      </c>
+      <c r="E420">
+        <v>106</v>
+      </c>
+      <c r="F420">
+        <v>-3</v>
+      </c>
+      <c r="G420">
+        <v>4</v>
+      </c>
+      <c r="H420" t="s">
+        <v>20</v>
+      </c>
+      <c r="I420" t="s">
+        <v>24</v>
+      </c>
+      <c r="J420">
+        <v>107</v>
+      </c>
+      <c r="K420" t="s">
+        <v>43</v>
+      </c>
+      <c r="L420">
+        <v>110</v>
+      </c>
+      <c r="M420">
+        <v>217</v>
+      </c>
+      <c r="N420">
+        <v>227</v>
+      </c>
+      <c r="O420">
+        <v>199</v>
+      </c>
+      <c r="P420" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q420" t="s">
+        <v>22</v>
+      </c>
+      <c r="R420" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A421" s="4">
+        <v>44570</v>
+      </c>
+      <c r="B421" t="s">
+        <v>38</v>
+      </c>
+      <c r="C421">
+        <v>102</v>
+      </c>
+      <c r="D421" t="s">
+        <v>36</v>
+      </c>
+      <c r="E421">
+        <v>100</v>
+      </c>
+      <c r="F421">
+        <v>2</v>
+      </c>
+      <c r="G421">
+        <v>7</v>
+      </c>
+      <c r="H421" t="s">
+        <v>20</v>
+      </c>
+      <c r="I421" t="s">
+        <v>38</v>
+      </c>
+      <c r="J421">
+        <v>107</v>
+      </c>
+      <c r="K421" t="s">
+        <v>36</v>
+      </c>
+      <c r="L421">
+        <v>105</v>
+      </c>
+      <c r="M421">
+        <v>212</v>
+      </c>
+      <c r="N421">
+        <v>220</v>
+      </c>
+      <c r="O421">
+        <v>202</v>
+      </c>
+      <c r="P421" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q421" t="s">
+        <v>22</v>
+      </c>
+      <c r="R421" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A422" s="4">
+        <v>44570</v>
+      </c>
+      <c r="B422" t="s">
+        <v>45</v>
+      </c>
+      <c r="C422">
+        <v>101</v>
+      </c>
+      <c r="D422" t="s">
+        <v>42</v>
+      </c>
+      <c r="E422">
+        <v>105</v>
+      </c>
+      <c r="F422">
+        <v>-9</v>
+      </c>
+      <c r="G422">
+        <v>-7.5</v>
+      </c>
+      <c r="H422" t="s">
+        <v>80</v>
+      </c>
+      <c r="I422" t="s">
+        <v>45</v>
+      </c>
+      <c r="J422">
+        <v>103</v>
+      </c>
+      <c r="K422" t="s">
+        <v>42</v>
+      </c>
+      <c r="L422">
+        <v>112</v>
+      </c>
+      <c r="M422">
+        <v>215</v>
+      </c>
+      <c r="N422">
+        <v>222</v>
+      </c>
+      <c r="O422">
+        <v>206</v>
+      </c>
+      <c r="P422" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q422" t="s">
+        <v>22</v>
+      </c>
+      <c r="R422" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A423" s="4">
+        <v>44570</v>
+      </c>
+      <c r="B423" t="s">
+        <v>44</v>
+      </c>
+      <c r="C423">
+        <v>141</v>
+      </c>
+      <c r="D423" t="s">
+        <v>28</v>
+      </c>
+      <c r="E423">
+        <v>123</v>
+      </c>
+      <c r="F423">
+        <v>5</v>
+      </c>
+      <c r="G423">
+        <v>6.5</v>
+      </c>
+      <c r="H423" t="s">
+        <v>80</v>
+      </c>
+      <c r="I423" t="s">
+        <v>44</v>
+      </c>
+      <c r="J423">
+        <v>111</v>
+      </c>
+      <c r="K423" t="s">
+        <v>28</v>
+      </c>
+      <c r="L423">
+        <v>106</v>
+      </c>
+      <c r="M423">
+        <v>217</v>
+      </c>
+      <c r="N423">
+        <v>234</v>
+      </c>
+      <c r="O423">
+        <v>264</v>
+      </c>
+      <c r="P423" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>31</v>
+      </c>
+      <c r="R423" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A424" s="4">
+        <v>44570</v>
+      </c>
+      <c r="B424" t="s">
+        <v>55</v>
+      </c>
+      <c r="C424">
+        <v>99</v>
+      </c>
+      <c r="D424" t="s">
+        <v>32</v>
+      </c>
+      <c r="E424">
+        <v>95</v>
+      </c>
+      <c r="F424">
+        <v>4</v>
+      </c>
+      <c r="G424">
+        <v>7</v>
+      </c>
+      <c r="H424" t="s">
+        <v>88</v>
+      </c>
+      <c r="I424" t="s">
+        <v>55</v>
+      </c>
+      <c r="J424">
+        <v>104</v>
+      </c>
+      <c r="K424" t="s">
+        <v>32</v>
+      </c>
+      <c r="L424">
+        <v>100</v>
+      </c>
+      <c r="M424">
+        <v>204</v>
+      </c>
+      <c r="N424">
+        <v>214</v>
+      </c>
+      <c r="O424">
+        <v>194</v>
+      </c>
+      <c r="P424" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q424" t="s">
+        <v>22</v>
+      </c>
+      <c r="R424" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A425" s="4">
+        <v>44570</v>
+      </c>
+      <c r="B425" t="s">
+        <v>54</v>
+      </c>
+      <c r="C425">
+        <v>99</v>
+      </c>
+      <c r="D425" t="s">
+        <v>56</v>
+      </c>
+      <c r="E425">
+        <v>113</v>
+      </c>
+      <c r="F425">
+        <v>2</v>
+      </c>
+      <c r="G425">
+        <v>-2</v>
+      </c>
+      <c r="H425" t="s">
+        <v>80</v>
+      </c>
+      <c r="I425" t="s">
+        <v>54</v>
+      </c>
+      <c r="J425">
+        <v>107</v>
+      </c>
+      <c r="K425" t="s">
+        <v>56</v>
+      </c>
+      <c r="L425">
+        <v>105</v>
+      </c>
+      <c r="M425">
+        <v>212</v>
+      </c>
+      <c r="N425">
+        <v>218</v>
+      </c>
+      <c r="O425">
+        <v>212</v>
+      </c>
+      <c r="P425" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q425" t="s">
+        <v>22</v>
+      </c>
+      <c r="R425" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A426" s="4">
+        <v>44570</v>
+      </c>
+      <c r="B426" t="s">
+        <v>41</v>
+      </c>
+      <c r="C426">
+        <v>82</v>
+      </c>
+      <c r="D426" t="s">
+        <v>46</v>
+      </c>
+      <c r="E426">
+        <v>96</v>
+      </c>
+      <c r="F426">
+        <v>-8</v>
+      </c>
+      <c r="G426">
+        <v>-8</v>
+      </c>
+      <c r="H426" t="s">
+        <v>80</v>
+      </c>
+      <c r="I426" t="s">
+        <v>41</v>
+      </c>
+      <c r="J426">
+        <v>99</v>
+      </c>
+      <c r="K426" t="s">
+        <v>46</v>
+      </c>
+      <c r="L426">
+        <v>107</v>
+      </c>
+      <c r="M426">
+        <v>206</v>
+      </c>
+      <c r="N426">
+        <v>215.5</v>
+      </c>
+      <c r="O426">
+        <v>178</v>
+      </c>
+      <c r="P426" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q426" t="s">
+        <v>22</v>
+      </c>
+      <c r="R426" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A427" s="4">
+        <v>44570</v>
+      </c>
+      <c r="B427" t="s">
+        <v>50</v>
+      </c>
+      <c r="C427">
+        <v>88</v>
+      </c>
+      <c r="D427" t="s">
+        <v>48</v>
+      </c>
+      <c r="E427">
+        <v>103</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427">
+        <v>2</v>
+      </c>
+      <c r="H427" t="s">
+        <v>80</v>
+      </c>
+      <c r="I427" t="s">
+        <v>50</v>
+      </c>
+      <c r="J427">
+        <v>113</v>
+      </c>
+      <c r="K427" t="s">
+        <v>48</v>
+      </c>
+      <c r="L427">
+        <v>113</v>
+      </c>
+      <c r="M427">
+        <v>226</v>
+      </c>
+      <c r="N427">
+        <v>222.5</v>
+      </c>
+      <c r="O427">
+        <v>191</v>
+      </c>
+      <c r="P427" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q427" t="s">
+        <v>22</v>
+      </c>
+      <c r="R427" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A428" s="4">
+        <v>44570</v>
+      </c>
+      <c r="B428" t="s">
+        <v>37</v>
+      </c>
+      <c r="C428">
+        <v>127</v>
+      </c>
+      <c r="D428" t="s">
+        <v>33</v>
+      </c>
+      <c r="E428">
+        <v>119</v>
+      </c>
+      <c r="F428">
+        <v>-1</v>
+      </c>
+      <c r="G428">
+        <v>-3</v>
+      </c>
+      <c r="H428" t="s">
+        <v>80</v>
+      </c>
+      <c r="I428" t="s">
+        <v>37</v>
+      </c>
+      <c r="J428">
+        <v>108</v>
+      </c>
+      <c r="K428" t="s">
+        <v>33</v>
+      </c>
+      <c r="L428">
+        <v>109</v>
+      </c>
+      <c r="M428">
+        <v>217</v>
+      </c>
+      <c r="N428">
+        <v>226.5</v>
+      </c>
+      <c r="O428">
+        <v>246</v>
+      </c>
+      <c r="P428" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q428" t="s">
+        <v>31</v>
+      </c>
+      <c r="R428" t="s">
         <v>27</v>
       </c>
     </row>
@@ -25413,7 +26362,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25449,27 +26398,27 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(Archive!$H2:H500,"WIN")</f>
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Archive!$H2:H500,"LOSS")</f>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2">
         <f>ROUND(SUM(A2/(A2+B2)),3)</f>
-        <v>0.47699999999999998</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Archive!$R2:R500,"WIN")</f>
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E2">
         <f>COUNTIF(Archive!$R2:R500,"LOSS")</f>
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F2">
         <f>ROUND(SUM(D2/(D2+E2)),3)</f>
-        <v>0.45800000000000002</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -25494,24 +26443,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <f>ROUND(SUM(A5/(A5+B5)),3)</f>
-        <v>0.55100000000000005</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <f>ROUND(SUM(D5/(D5+E5)),3)</f>
-        <v>0.49299999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -25536,24 +26485,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>48</v>
       </c>
       <c r="C8">
         <f>ROUND(SUM(A8/(A8+B8)),3)</f>
-        <v>0.44800000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <f>ROUND(SUM(D8/(D8+E8)),3)</f>
-        <v>0.41499999999999998</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
